--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -18,19 +18,19 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$18</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$19</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="476">
   <si>
     <t>Document</t>
   </si>
@@ -3294,12 +3294,15 @@
   <si>
     <t>Specified that employment ID is not mandatory for RPN lookup in PIT next version</t>
   </si>
+  <si>
+    <t>Added link to PIT Next Version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3423,13 +3426,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4190,10 +4186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4255,17 +4251,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4312,38 +4320,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4366,6 +4344,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4387,53 +4425,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4441,17 +4437,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4462,17 +4485,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4488,42 +4520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4928,12 +4924,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4956,12 +4952,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5001,10 +4997,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="139">
+      <c r="B7" s="143">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5018,8 +5014,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5031,8 +5027,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="140"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5044,8 +5040,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="140"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5057,8 +5053,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="140"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5070,8 +5066,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="141"/>
+      <c r="A12" s="142"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5083,10 +5079,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="139">
+      <c r="B13" s="143">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5100,8 +5096,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5147,12 +5143,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5192,21 +5188,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="143">
+      <c r="B21" s="147">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5220,8 +5216,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="141"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5244,18 +5240,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="143">
+      <c r="B25" s="147">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5269,8 +5265,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="137"/>
-      <c r="B26" s="140"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5282,8 +5278,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="137"/>
-      <c r="B27" s="140"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5295,8 +5291,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="137"/>
-      <c r="B28" s="140"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5308,8 +5304,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="137"/>
-      <c r="B29" s="140"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5321,8 +5317,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
-      <c r="B30" s="140"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5334,8 +5330,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="140"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5347,8 +5343,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="138"/>
-      <c r="B32" s="141"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5472,12 +5468,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="139"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5537,7 +5533,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5547,7 +5543,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5657,10 +5653,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5671,8 +5667,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5681,8 +5677,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5691,8 +5687,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5701,8 +5697,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5711,8 +5707,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5721,10 +5717,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5735,8 +5731,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5745,8 +5741,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5758,7 +5754,7 @@
       <c r="A16" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5770,7 +5766,7 @@
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="152"/>
-      <c r="B17" s="153"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5780,7 +5776,7 @@
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="152"/>
-      <c r="B19" s="153"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5800,7 +5796,7 @@
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="152"/>
-      <c r="B20" s="153"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5810,7 +5806,7 @@
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="152"/>
-      <c r="B21" s="153"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5820,7 +5816,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="152"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5830,7 +5826,7 @@
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5840,25 +5836,25 @@
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="152"/>
-      <c r="B24" s="153"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="153" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="152"/>
-      <c r="B25" s="153"/>
+      <c r="B25" s="161"/>
       <c r="C25" s="152"/>
-      <c r="D25" s="159"/>
+      <c r="D25" s="153"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5869,8 +5865,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5897,28 +5893,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="162" t="s">
+      <c r="D30" s="156" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="152"/>
-      <c r="D31" s="162"/>
+      <c r="D31" s="156"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="149"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5927,8 +5923,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5937,8 +5933,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5947,8 +5943,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5957,8 +5953,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="166"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5967,26 +5963,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="163" t="s">
+      <c r="A37" s="168"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="165" t="s">
+      <c r="D37" s="159" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="150"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="159"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5997,8 +5993,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="167"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6025,10 +6021,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="150" t="s">
+      <c r="A43" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="149" t="s">
+      <c r="B43" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6037,8 +6033,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="150"/>
-      <c r="B44" s="149"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="166"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6047,10 +6043,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="149" t="s">
+      <c r="B45" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6059,8 +6055,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="157"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6069,8 +6065,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
-      <c r="B47" s="149"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6079,8 +6075,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="158"/>
-      <c r="B48" s="149"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6089,10 +6085,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="153" t="s">
+      <c r="A49" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="153" t="s">
+      <c r="B49" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10196,8 +10192,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="153"/>
-      <c r="B50" s="153"/>
+      <c r="A50" s="161"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14301,8 +14297,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="153"/>
-      <c r="B51" s="153"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18406,8 +18402,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="153"/>
-      <c r="B52" s="153"/>
+      <c r="A52" s="161"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22511,12 +22507,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="153"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="161" t="s">
+      <c r="A53" s="161"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="162" t="s">
+      <c r="D53" s="156" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26616,10 +26612,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="162"/>
+      <c r="A54" s="161"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="156"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30737,10 +30733,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30751,8 +30747,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="154"/>
-      <c r="B58" s="153"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30761,8 +30757,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="154"/>
-      <c r="B59" s="153"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30771,8 +30767,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="154"/>
-      <c r="B60" s="153"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="161"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30781,8 +30777,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="154"/>
-      <c r="B61" s="153"/>
+      <c r="A61" s="160"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30791,8 +30787,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
-      <c r="B62" s="153"/>
+      <c r="A62" s="160"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30801,8 +30797,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="154"/>
-      <c r="B63" s="153"/>
+      <c r="A63" s="160"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30811,16 +30807,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="154"/>
-      <c r="B64" s="153"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="154"/>
-      <c r="B65" s="153"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30829,16 +30825,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
-      <c r="B66" s="153"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="154"/>
-      <c r="B67" s="153"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30847,8 +30843,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="154"/>
-      <c r="B68" s="153"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30857,8 +30853,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="154"/>
-      <c r="B69" s="153"/>
+      <c r="A69" s="160"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30867,8 +30863,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="154"/>
-      <c r="B70" s="153"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30877,8 +30873,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="154"/>
-      <c r="B71" s="153"/>
+      <c r="A71" s="160"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30887,8 +30883,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="154"/>
-      <c r="B72" s="153"/>
+      <c r="A72" s="160"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30897,16 +30893,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="154"/>
-      <c r="B73" s="153"/>
+      <c r="A73" s="160"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="154"/>
-      <c r="B74" s="153"/>
+      <c r="A74" s="160"/>
+      <c r="B74" s="161"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30915,18 +30911,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="154"/>
-      <c r="B75" s="153"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="155" t="s">
+      <c r="A75" s="160"/>
+      <c r="B75" s="161"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="162" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="154"/>
-      <c r="B76" s="153"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="155"/>
+      <c r="A76" s="160"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="162"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -30950,8 +30946,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30960,29 +30956,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -30997,6 +30977,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31050,10 +31046,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="166" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31064,133 +31060,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="175" t="s">
+      <c r="A5" s="167"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="176" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174" t="s">
+      <c r="C10" s="179"/>
+      <c r="D10" s="176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="176"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="176"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="174" t="s">
+      <c r="C13" s="178"/>
+      <c r="D13" s="176" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="152"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="174"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="176"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="152"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="176"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="152"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="178"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="152"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="176"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="176"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="178"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="152"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="176"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="178"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="152"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="176"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="178"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="152"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="176"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="152"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="176"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31288,10 +31284,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="170" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="173" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31302,26 +31298,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="178"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="178"/>
-      <c r="B34" s="181"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="178"/>
-      <c r="B35" s="181"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="174"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31350,10 +31346,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="166" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31364,8 +31360,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="150"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31374,13 +31370,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="149" t="s">
+      <c r="B41" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="173" t="s">
+      <c r="C41" s="179" t="s">
         <v>194</v>
       </c>
       <c r="D41" s="152" t="s">
@@ -31388,70 +31384,70 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="148"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="173"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="179"/>
       <c r="D42" s="152"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="148"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="173" t="s">
+      <c r="A43" s="167"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="179" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="155" t="s">
+      <c r="D43" s="162" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="148"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="155"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="162"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="169"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="166" t="s">
+      <c r="A46" s="160"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="180" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="154"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="167"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="181"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="154"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="167"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="181"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="154"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="167"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="181"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="154"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="168"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="182"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31474,10 +31470,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="153" t="s">
+      <c r="A53" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="153" t="s">
+      <c r="B53" s="161" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31488,8 +31484,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
-      <c r="B54" s="153"/>
+      <c r="A54" s="161"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31498,8 +31494,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="153"/>
-      <c r="B55" s="153"/>
+      <c r="A55" s="161"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31508,9 +31504,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="153"/>
-      <c r="B56" s="153"/>
-      <c r="C56" s="172" t="s">
+      <c r="A56" s="161"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="186" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31518,16 +31514,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
-      <c r="B57" s="153"/>
-      <c r="C57" s="172"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="153"/>
-      <c r="B58" s="153"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31536,8 +31532,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
-      <c r="B59" s="153"/>
+      <c r="A59" s="161"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31546,9 +31542,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="172" t="s">
+      <c r="A60" s="161"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="186" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31556,25 +31552,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="172"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="186"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="172"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="186"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="173" t="s">
+      <c r="A63" s="161"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="179" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31582,30 +31578,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="155" t="s">
+      <c r="A64" s="161"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="162" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="155"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="162"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="173"/>
-      <c r="D66" s="155"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="162"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="173"/>
-      <c r="D67" s="155"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="162"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31661,23 +31657,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31694,6 +31673,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31702,10 +31698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31739,10 +31735,10 @@
       <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="197" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31753,8 +31749,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
-      <c r="B4" s="184"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31795,7 +31791,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="193" t="s">
         <v>280</v>
       </c>
       <c r="B8" s="189" t="s">
@@ -31809,8 +31805,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
-      <c r="B9" s="194"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="100" t="s">
         <v>445</v>
       </c>
@@ -31819,8 +31815,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
-      <c r="B10" s="190"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="100" t="s">
         <v>447</v>
       </c>
@@ -31828,165 +31824,161 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="183" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="195"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="100" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="197" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="189" t="s">
+      <c r="B12" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="212"/>
-      <c r="B12" s="194"/>
       <c r="C12" s="100" t="s">
         <v>454</v>
       </c>
       <c r="D12" s="99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="198"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="100">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="199"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="100">
         <v>3.3</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D14" s="99" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="132" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B15" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="211" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="133" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="214" t="s">
         <v>337</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B17" s="215" t="s">
         <v>440</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C17" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D17" s="99" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="202"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="100" t="s">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="214"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D18" s="107" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="202"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="100" t="s">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="214"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D19" s="107" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="198" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B21" s="211" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="108" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>440</v>
-      </c>
+    <row r="22" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="210"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="187" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="111" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="208"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="108" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="188"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="108" t="s">
         <v>464</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D24" s="111" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C24" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="110" t="s">
-        <v>372</v>
+        <v>253</v>
       </c>
       <c r="B25" s="108" t="s">
         <v>440</v>
@@ -32000,205 +31992,207 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="B26" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="108" t="s">
+        <v>22</v>
+      </c>
       <c r="D26" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="111" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="198" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="199" t="s">
+      <c r="B28" s="211" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="80" t="s">
+      <c r="C28" s="107"/>
+      <c r="D28" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="198"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="210"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="198"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="112" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="210"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D30" s="107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="198"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="113" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="210"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D31" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B32" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="107"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="204" t="s">
+      <c r="D32" s="107"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="216" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B33" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="115" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="115" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="205"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="113" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="217"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D34" s="107" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="205"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="113" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="217"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D35" s="107" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="205"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="116" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="217"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D36" s="114" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="205"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="113" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="217"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D37" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="205"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="113" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="217"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D38" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="113" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="217"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D39" s="114" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="205"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="113" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="217"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="113" t="s">
         <v>465</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D40" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
-      <c r="B40" s="190"/>
-      <c r="C40" s="103" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="218"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D41" s="58" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="B41" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C41" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="117" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="B42" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C42" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="D42" s="114" t="s">
-        <v>328</v>
+      <c r="C42" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="117" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B43" s="108" t="s">
         <v>440</v>
       </c>
       <c r="C43" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="114"/>
+        <v>327</v>
+      </c>
+      <c r="D43" s="114" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="200" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="189" t="s">
+      <c r="A44" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="108" t="s">
         <v>440</v>
       </c>
       <c r="C44" s="113" t="s">
@@ -32207,1068 +32201,1066 @@
       <c r="D44" s="114"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
-      <c r="B45" s="190"/>
+      <c r="A45" s="200" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" s="189" t="s">
+        <v>440</v>
+      </c>
       <c r="C45" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="114"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="201"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D46" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="104" t="s">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="200" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="200" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="189" t="s">
+      <c r="B48" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="201"/>
-      <c r="B48" s="194"/>
       <c r="C48" s="107"/>
       <c r="D48" s="107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="201"/>
-      <c r="B49" s="194"/>
+      <c r="A49" s="203"/>
+      <c r="B49" s="196"/>
       <c r="C49" s="107"/>
       <c r="D49" s="107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="203"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="201"/>
-      <c r="B50" s="194"/>
-      <c r="C50" s="107" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="203"/>
+      <c r="B51" s="196"/>
+      <c r="C51" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="107" t="s">
+      <c r="D51" s="107" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="201"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="107" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="203"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="114" t="s">
+      <c r="D52" s="114" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="201"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="107" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="203"/>
+      <c r="B53" s="196"/>
+      <c r="C53" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D53" s="114" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="201"/>
-      <c r="B53" s="194"/>
-      <c r="C53" s="120" t="s">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="203"/>
+      <c r="B54" s="196"/>
+      <c r="C54" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D54" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="207"/>
-      <c r="B54" s="190"/>
-      <c r="C54" s="58" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="201"/>
+      <c r="B55" s="190"/>
+      <c r="C55" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D55" s="58" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="195" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="189" t="s">
+      <c r="B56" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C56" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D56" s="114" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="196"/>
-      <c r="B56" s="194"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="205"/>
+      <c r="B57" s="196"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="196"/>
-      <c r="B57" s="194"/>
-      <c r="C57" s="118" t="s">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="205"/>
+      <c r="B58" s="196"/>
+      <c r="C58" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D58" s="114" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="196"/>
-      <c r="B58" s="194"/>
-      <c r="C58" s="118" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="205"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D59" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="196"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="118" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="205"/>
+      <c r="B60" s="196"/>
+      <c r="C60" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D60" s="114" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="196"/>
-      <c r="B60" s="194"/>
-      <c r="C60" s="118" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="205"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D61" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="196"/>
-      <c r="B61" s="194"/>
-      <c r="C61" s="118" t="s">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="205"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="D61" s="119" t="s">
+      <c r="D62" s="119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="196"/>
-      <c r="B62" s="194"/>
-      <c r="C62" s="110" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="205"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D63" s="114" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="196"/>
-      <c r="B63" s="194"/>
-      <c r="C63" s="110" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="205"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D64" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="197"/>
-      <c r="B64" s="190"/>
-      <c r="C64" s="214" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="206"/>
+      <c r="B65" s="190"/>
+      <c r="C65" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D65" s="58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="192" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="189" t="s">
+      <c r="B66" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="209" t="s">
+      <c r="C66" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D66" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="193"/>
-      <c r="B66" s="194"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="114" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="202"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="193"/>
-      <c r="B67" s="194"/>
-      <c r="C67" s="191" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="202"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="209" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="107" t="s">
+      <c r="D68" s="107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="193"/>
-      <c r="B68" s="194"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="120" t="s">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="202"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="209"/>
+      <c r="D69" s="120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="193"/>
-      <c r="B69" s="194"/>
-      <c r="C69" s="113" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="202"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="107" t="s">
+      <c r="D70" s="107" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="193"/>
-      <c r="B70" s="194"/>
-      <c r="C70" s="113">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="202"/>
+      <c r="B71" s="196"/>
+      <c r="C71" s="113">
         <v>2.1</v>
       </c>
-      <c r="D70" s="107" t="s">
+      <c r="D71" s="107" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="193"/>
-      <c r="B71" s="194"/>
-      <c r="C71" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="107" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="193"/>
-      <c r="B72" s="194"/>
+      <c r="A72" s="202"/>
+      <c r="B72" s="196"/>
       <c r="C72" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="119" t="s">
-        <v>341</v>
+      <c r="D72" s="107" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="193"/>
-      <c r="B73" s="194"/>
+      <c r="A73" s="202"/>
+      <c r="B73" s="196"/>
       <c r="C73" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="202"/>
+      <c r="B74" s="196"/>
+      <c r="C74" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="114" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="193"/>
-      <c r="B74" s="194"/>
-      <c r="C74" s="121" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="202"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="D74" s="122" t="s">
+      <c r="D75" s="122" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="193"/>
-      <c r="B75" s="194"/>
-      <c r="C75" s="113">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="202"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="113">
         <v>2.1</v>
       </c>
-      <c r="D75" s="107" t="s">
+      <c r="D76" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="193"/>
-      <c r="B76" s="194"/>
-      <c r="C76" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="107" t="s">
-        <v>398</v>
-      </c>
-    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="193"/>
-      <c r="B77" s="194"/>
+      <c r="A77" s="202"/>
+      <c r="B77" s="196"/>
       <c r="C77" s="113" t="s">
         <v>238</v>
       </c>
       <c r="D77" s="107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="202"/>
+      <c r="B78" s="196"/>
+      <c r="C78" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="107" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="195" t="s">
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="B78" s="189" t="s">
+      <c r="B79" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C78" s="107" t="s">
+      <c r="C79" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="107" t="s">
+      <c r="D79" s="107" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="196"/>
-      <c r="B79" s="194"/>
-      <c r="C79" s="120" t="s">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="205"/>
+      <c r="B80" s="196"/>
+      <c r="C80" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="D79" s="107" t="s">
+      <c r="D80" s="107" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="197"/>
-      <c r="B80" s="190"/>
-      <c r="C80" s="107" t="s">
+    <row r="81" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="206"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="D80" s="107" t="s">
+      <c r="D81" s="107" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="200" t="s">
+    <row r="82" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="200" t="s">
         <v>365</v>
       </c>
-      <c r="B81" s="189" t="s">
+      <c r="B82" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C81" s="113" t="s">
+      <c r="C82" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="107"/>
-    </row>
-    <row r="82" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="201"/>
-      <c r="B82" s="194"/>
-      <c r="C82" s="113" t="s">
+      <c r="D82" s="107"/>
+    </row>
+    <row r="83" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="203"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="D82" s="107" t="s">
+      <c r="D83" s="107" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="201"/>
-      <c r="B83" s="194"/>
-      <c r="C83" s="113">
+    <row r="84" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="203"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="113">
         <v>2.1</v>
       </c>
-      <c r="D83" s="107" t="s">
+      <c r="D84" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="201"/>
-      <c r="B84" s="194"/>
-      <c r="C84" s="113" t="s">
+    <row r="85" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="203"/>
+      <c r="B85" s="196"/>
+      <c r="C85" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="107" t="s">
+      <c r="D85" s="107" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="201"/>
-      <c r="B85" s="194"/>
-      <c r="C85" s="113" t="s">
+    <row r="86" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="203"/>
+      <c r="B86" s="196"/>
+      <c r="C86" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="107" t="s">
+      <c r="D86" s="107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="104" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="105"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="110" t="s">
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="105"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="B87" s="113" t="s">
+      <c r="B88" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C87" s="113" t="s">
+      <c r="C88" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="D87" s="114"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="192" t="s">
+      <c r="D88" s="114"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="187" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="189" t="s">
+      <c r="B89" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="107"/>
-      <c r="D88" s="80" t="s">
+      <c r="C89" s="107"/>
+      <c r="D89" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="193"/>
-      <c r="B89" s="194"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="107" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="202"/>
+      <c r="B90" s="196"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="193"/>
-      <c r="B90" s="194"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="114" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="202"/>
+      <c r="B91" s="196"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="193"/>
-      <c r="B91" s="194"/>
-      <c r="C91" s="107" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="202"/>
+      <c r="B92" s="196"/>
+      <c r="C92" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="D91" s="114" t="s">
+      <c r="D92" s="114" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="193"/>
-      <c r="B92" s="194"/>
-      <c r="C92" s="107" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="202"/>
+      <c r="B93" s="196"/>
+      <c r="C93" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D93" s="114" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="198" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="B93" s="199" t="s">
+      <c r="B94" s="211" t="s">
         <v>440</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C94" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D94" s="114" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="198"/>
-      <c r="B94" s="199"/>
-      <c r="C94" s="107" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="210"/>
+      <c r="B95" s="211"/>
+      <c r="C95" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="D94" s="107" t="s">
+      <c r="D95" s="107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="198"/>
-      <c r="B95" s="199"/>
-      <c r="C95" s="123" t="s">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="210"/>
+      <c r="B96" s="211"/>
+      <c r="C96" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="D95" s="215" t="s">
+      <c r="D96" s="191" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
-      <c r="C96" s="123" t="s">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="210"/>
+      <c r="B97" s="211"/>
+      <c r="C97" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="D96" s="216"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="198"/>
-      <c r="B97" s="199"/>
-      <c r="C97" s="123" t="s">
+      <c r="D97" s="192"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="210"/>
+      <c r="B98" s="211"/>
+      <c r="C98" s="123" t="s">
         <v>411</v>
       </c>
-      <c r="D97" s="216"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="198"/>
-      <c r="B98" s="199"/>
-      <c r="C98" s="123" t="s">
+      <c r="D98" s="192"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="210"/>
+      <c r="B99" s="211"/>
+      <c r="C99" s="123" t="s">
         <v>412</v>
       </c>
-      <c r="D98" s="216"/>
-    </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="198"/>
-      <c r="B99" s="199"/>
-      <c r="C99" s="123" t="s">
+      <c r="D99" s="192"/>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="210"/>
+      <c r="B100" s="211"/>
+      <c r="C100" s="123" t="s">
         <v>471</v>
       </c>
-      <c r="D99" s="217" t="s">
+      <c r="D100" s="135" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="110" t="s">
+    <row r="101" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B100" s="113" t="s">
+      <c r="B101" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C100" s="108" t="s">
+      <c r="C101" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="111" t="s">
+      <c r="D101" s="111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="195" t="s">
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="B101" s="189" t="s">
+      <c r="B102" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C101" s="107" t="s">
+      <c r="C102" s="107" t="s">
         <v>263</v>
-      </c>
-      <c r="D101" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="196"/>
-      <c r="B102" s="194"/>
-      <c r="C102" s="107" t="s">
-        <v>265</v>
       </c>
       <c r="D102" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="196"/>
-      <c r="B103" s="194"/>
+      <c r="A103" s="205"/>
+      <c r="B103" s="196"/>
       <c r="C103" s="107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D103" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="196"/>
-      <c r="B104" s="194"/>
-      <c r="C104" s="114" t="s">
+      <c r="A104" s="205"/>
+      <c r="B104" s="196"/>
+      <c r="C104" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D104" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="205"/>
+      <c r="B105" s="196"/>
+      <c r="C105" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D105" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="196"/>
-      <c r="B105" s="194"/>
-      <c r="C105" s="107" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="205"/>
+      <c r="B106" s="196"/>
+      <c r="C106" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="D105" s="107" t="s">
+      <c r="D106" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="196"/>
-      <c r="B106" s="194"/>
-      <c r="C106" s="107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="205"/>
+      <c r="B107" s="196"/>
+      <c r="C107" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="D106" s="107" t="s">
+      <c r="D107" s="107" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="196"/>
-      <c r="B107" s="194"/>
-      <c r="C107" s="114" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="205"/>
+      <c r="B108" s="196"/>
+      <c r="C108" s="114" t="s">
         <v>283</v>
-      </c>
-      <c r="D107" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="196"/>
-      <c r="B108" s="194"/>
-      <c r="C108" s="114" t="s">
-        <v>297</v>
       </c>
       <c r="D108" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="196"/>
-      <c r="B109" s="194"/>
+      <c r="A109" s="205"/>
+      <c r="B109" s="196"/>
       <c r="C109" s="114" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="205"/>
+      <c r="B110" s="196"/>
+      <c r="C110" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="D109" s="114" t="s">
+      <c r="D110" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="196"/>
-      <c r="B110" s="194"/>
-      <c r="C110" s="124" t="s">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="205"/>
+      <c r="B111" s="196"/>
+      <c r="C111" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="111" t="s">
+      <c r="D111" s="111" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="196"/>
-      <c r="B111" s="194"/>
-      <c r="C111" s="118" t="s">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="205"/>
+      <c r="B112" s="196"/>
+      <c r="C112" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="D111" s="114" t="s">
+      <c r="D112" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="196"/>
-      <c r="B112" s="194"/>
-      <c r="C112" s="107" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="205"/>
+      <c r="B113" s="196"/>
+      <c r="C113" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="D112" s="107" t="s">
+      <c r="D113" s="107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="196"/>
-      <c r="B113" s="194"/>
-      <c r="C113" s="114" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="205"/>
+      <c r="B114" s="196"/>
+      <c r="C114" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="D113" s="114" t="s">
+      <c r="D114" s="114" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="196"/>
-      <c r="B114" s="194"/>
-      <c r="C114" s="114" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="205"/>
+      <c r="B115" s="196"/>
+      <c r="C115" s="114" t="s">
         <v>310</v>
-      </c>
-      <c r="D114" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="196"/>
-      <c r="B115" s="194"/>
-      <c r="C115" s="114" t="s">
-        <v>263</v>
       </c>
       <c r="D115" s="114" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="196"/>
-      <c r="B116" s="194"/>
-      <c r="C116" s="107" t="s">
+      <c r="A116" s="205"/>
+      <c r="B116" s="196"/>
+      <c r="C116" s="114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="205"/>
+      <c r="B117" s="196"/>
+      <c r="C117" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="107" t="s">
+      <c r="D117" s="107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="196"/>
-      <c r="B117" s="194"/>
-      <c r="C117" s="114" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="205"/>
+      <c r="B118" s="196"/>
+      <c r="C118" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="D117" s="114" t="s">
+      <c r="D118" s="114" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="196"/>
-      <c r="B118" s="194"/>
-      <c r="C118" s="114" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="205"/>
+      <c r="B119" s="196"/>
+      <c r="C119" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="114" t="s">
+      <c r="D119" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="196"/>
-      <c r="B119" s="194"/>
-      <c r="C119" s="107"/>
-      <c r="D119" s="97" t="s">
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="205"/>
+      <c r="B120" s="196"/>
+      <c r="C120" s="107"/>
+      <c r="D120" s="97" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="196"/>
-      <c r="B120" s="194"/>
-      <c r="C120" s="114" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="205"/>
+      <c r="B121" s="196"/>
+      <c r="C121" s="114" t="s">
         <v>317</v>
-      </c>
-      <c r="D120" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="196"/>
-      <c r="B121" s="194"/>
-      <c r="C121" s="114" t="s">
-        <v>263</v>
       </c>
       <c r="D121" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="196"/>
-      <c r="B122" s="194"/>
+      <c r="A122" s="205"/>
+      <c r="B122" s="196"/>
       <c r="C122" s="114" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="D122" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="196"/>
-      <c r="B123" s="194"/>
+      <c r="A123" s="205"/>
+      <c r="B123" s="196"/>
       <c r="C123" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="196"/>
-      <c r="B124" s="194"/>
+      <c r="A124" s="205"/>
+      <c r="B124" s="196"/>
       <c r="C124" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D124" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="205"/>
+      <c r="B125" s="196"/>
+      <c r="C125" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D124" s="114" t="s">
+      <c r="D125" s="114" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="196"/>
-      <c r="B125" s="194"/>
-      <c r="C125" s="119" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="205"/>
+      <c r="B126" s="196"/>
+      <c r="C126" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="D125" s="119" t="s">
+      <c r="D126" s="119" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="196"/>
-      <c r="B126" s="194"/>
-      <c r="C126" s="114" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="205"/>
+      <c r="B127" s="196"/>
+      <c r="C127" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="D126" s="114" t="s">
+      <c r="D127" s="114" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="196"/>
-      <c r="B127" s="194"/>
-      <c r="C127" s="114" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="205"/>
+      <c r="B128" s="196"/>
+      <c r="C128" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="D127" s="114" t="s">
+      <c r="D128" s="114" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="196"/>
-      <c r="B128" s="194"/>
-      <c r="C128" s="101" t="s">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="205"/>
+      <c r="B129" s="196"/>
+      <c r="C129" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="D128" s="125" t="s">
+      <c r="D129" s="125" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="196"/>
-      <c r="B129" s="194"/>
-      <c r="C129" s="114" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="205"/>
+      <c r="B130" s="196"/>
+      <c r="C130" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="D129" s="114" t="s">
+      <c r="D130" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="196"/>
-      <c r="B130" s="194"/>
-      <c r="C130" s="114" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="205"/>
+      <c r="B131" s="196"/>
+      <c r="C131" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="D130" s="114" t="s">
+      <c r="D131" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="196"/>
-      <c r="B131" s="194"/>
-      <c r="C131" s="114" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="205"/>
+      <c r="B132" s="196"/>
+      <c r="C132" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="D131" s="114" t="s">
+      <c r="D132" s="114" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="196"/>
-      <c r="B132" s="194"/>
-      <c r="C132" s="114" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="205"/>
+      <c r="B133" s="196"/>
+      <c r="C133" s="114" t="s">
         <v>361</v>
-      </c>
-      <c r="D132" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="196"/>
-      <c r="B133" s="194"/>
-      <c r="C133" s="114" t="s">
-        <v>367</v>
       </c>
       <c r="D133" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="196"/>
-      <c r="B134" s="194"/>
+      <c r="A134" s="205"/>
+      <c r="B134" s="196"/>
       <c r="C134" s="114" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D134" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="196"/>
-      <c r="B135" s="194"/>
-      <c r="C135" s="119" t="s">
+      <c r="A135" s="205"/>
+      <c r="B135" s="196"/>
+      <c r="C135" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D135" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="205"/>
+      <c r="B136" s="196"/>
+      <c r="C136" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="D135" s="119" t="s">
+      <c r="D136" s="119" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="196"/>
-      <c r="B136" s="194"/>
-      <c r="C136" s="107" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="205"/>
+      <c r="B137" s="196"/>
+      <c r="C137" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="D136" s="107" t="s">
+      <c r="D137" s="107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="196"/>
-      <c r="B137" s="194"/>
-      <c r="C137" s="107" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="205"/>
+      <c r="B138" s="196"/>
+      <c r="C138" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="D137" s="107" t="s">
+      <c r="D138" s="107" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="196"/>
-      <c r="B138" s="194"/>
-      <c r="C138" s="107" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="205"/>
+      <c r="B139" s="196"/>
+      <c r="C139" s="107" t="s">
         <v>388</v>
-      </c>
-      <c r="D138" s="107" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="196"/>
-      <c r="B139" s="194"/>
-      <c r="C139" s="107" t="s">
-        <v>389</v>
       </c>
       <c r="D139" s="107" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="196"/>
-      <c r="B140" s="194"/>
+      <c r="A140" s="205"/>
+      <c r="B140" s="196"/>
       <c r="C140" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="D140" s="107" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="205"/>
+      <c r="B141" s="196"/>
+      <c r="C141" s="107" t="s">
         <v>390</v>
-      </c>
-      <c r="D140" s="107" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="196"/>
-      <c r="B141" s="194"/>
-      <c r="C141" s="107" t="s">
-        <v>391</v>
       </c>
       <c r="D141" s="107" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="196"/>
-      <c r="B142" s="194"/>
+      <c r="A142" s="205"/>
+      <c r="B142" s="196"/>
       <c r="C142" s="107" t="s">
+        <v>391</v>
+      </c>
+      <c r="D142" s="107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="205"/>
+      <c r="B143" s="196"/>
+      <c r="C143" s="107" t="s">
         <v>394</v>
-      </c>
-      <c r="D142" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="196"/>
-      <c r="B143" s="194"/>
-      <c r="C143" s="107" t="s">
-        <v>404</v>
       </c>
       <c r="D143" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="196"/>
-      <c r="B144" s="194"/>
+      <c r="A144" s="205"/>
+      <c r="B144" s="196"/>
       <c r="C144" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="D144" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="205"/>
+      <c r="B145" s="196"/>
+      <c r="C145" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="D144" s="107" t="s">
+      <c r="D145" s="107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="196"/>
-      <c r="B145" s="194"/>
-      <c r="C145" s="107" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="205"/>
+      <c r="B146" s="196"/>
+      <c r="C146" s="107" t="s">
         <v>422</v>
-      </c>
-      <c r="D145" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="196"/>
-      <c r="B146" s="194"/>
-      <c r="C146" s="107" t="s">
-        <v>423</v>
       </c>
       <c r="D146" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="196"/>
-      <c r="B147" s="194"/>
+      <c r="A147" s="205"/>
+      <c r="B147" s="196"/>
       <c r="C147" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D147" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="205"/>
+      <c r="B148" s="196"/>
+      <c r="C148" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="D147" s="107" t="s">
+      <c r="D148" s="107" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="197"/>
-      <c r="B148" s="190"/>
-      <c r="C148" s="58" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="206"/>
+      <c r="B149" s="190"/>
+      <c r="C149" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D148" s="58" t="s">
+      <c r="D149" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="126" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="126" t="s">
         <v>416</v>
-      </c>
-      <c r="B149" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C149" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="110" t="s">
-        <v>304</v>
       </c>
       <c r="B150" s="108" t="s">
         <v>440</v>
@@ -33280,9 +33272,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B151" s="108" t="s">
         <v>440</v>
@@ -33294,425 +33286,439 @@
         <v>269</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="104" t="s">
+    <row r="152" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C152" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B152" s="104"/>
-      <c r="C152" s="104"/>
-      <c r="D152" s="105"/>
-    </row>
-    <row r="153" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="192" t="s">
+      <c r="B153" s="104"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="105"/>
+    </row>
+    <row r="154" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="B153" s="189" t="s">
+      <c r="B154" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C153" s="107"/>
-      <c r="D153" s="80" t="s">
+      <c r="C154" s="107"/>
+      <c r="D154" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="193"/>
-      <c r="B154" s="194"/>
-      <c r="C154" s="108" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="202"/>
+      <c r="B155" s="196"/>
+      <c r="C155" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D154" s="107" t="s">
+      <c r="D155" s="107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="193"/>
-      <c r="B155" s="194"/>
-      <c r="C155" s="108">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="202"/>
+      <c r="B156" s="196"/>
+      <c r="C156" s="108">
         <v>10.1</v>
-      </c>
-      <c r="D155" s="107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="193"/>
-      <c r="B156" s="194"/>
-      <c r="C156" s="108">
-        <v>10.199999999999999</v>
       </c>
       <c r="D156" s="107" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="193"/>
-      <c r="B157" s="194"/>
-      <c r="C157" s="98" t="s">
+      <c r="A157" s="202"/>
+      <c r="B157" s="196"/>
+      <c r="C157" s="108">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D157" s="107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="202"/>
+      <c r="B158" s="196"/>
+      <c r="C158" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D157" s="95" t="s">
+      <c r="D158" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="193"/>
-      <c r="B158" s="194"/>
-      <c r="C158" s="98" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="202"/>
+      <c r="B159" s="196"/>
+      <c r="C159" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D158" s="95" t="s">
+      <c r="D159" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="193"/>
-      <c r="B159" s="194"/>
-      <c r="C159" s="98" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="202"/>
+      <c r="B160" s="196"/>
+      <c r="C160" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D159" s="95" t="s">
+      <c r="D160" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="193"/>
-      <c r="B160" s="194"/>
-      <c r="C160" s="98" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="202"/>
+      <c r="B161" s="196"/>
+      <c r="C161" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D160" s="95" t="s">
+      <c r="D161" s="95" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="193"/>
-      <c r="B161" s="194"/>
-      <c r="C161" s="98" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="202"/>
+      <c r="B162" s="196"/>
+      <c r="C162" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="95" t="s">
+      <c r="D162" s="95" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="208"/>
-      <c r="B162" s="190"/>
-      <c r="C162" s="98" t="s">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="188"/>
+      <c r="B163" s="190"/>
+      <c r="C163" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D162" s="218" t="s">
+      <c r="D163" s="136" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="189" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="B163" s="189" t="s">
+      <c r="B164" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C163" s="98"/>
-      <c r="D163" s="127" t="s">
+      <c r="C164" s="98"/>
+      <c r="D164" s="127" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="194"/>
-      <c r="B164" s="194"/>
-      <c r="C164" s="128" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="196"/>
+      <c r="B165" s="196"/>
+      <c r="C165" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="D164" s="102" t="s">
+      <c r="D165" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="111" t="s">
+    <row r="166" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B165" s="108" t="s">
+      <c r="B166" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C165" s="108" t="s">
+      <c r="C166" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D165" s="114" t="s">
+      <c r="D166" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="129" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="B166" s="104"/>
-      <c r="C166" s="130"/>
-      <c r="D166" s="130"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="110" t="s">
+      <c r="B167" s="104"/>
+      <c r="C167" s="130"/>
+      <c r="D167" s="130"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="B167" s="108" t="s">
+      <c r="B168" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C167" s="131" t="s">
+      <c r="C168" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D167" s="107" t="s">
+      <c r="D168" s="107" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="192" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="187" t="s">
         <v>280</v>
       </c>
-      <c r="B168" s="189" t="s">
+      <c r="B169" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="C168" s="95" t="s">
+      <c r="C169" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D168" s="107" t="s">
+      <c r="D169" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="193"/>
-      <c r="B169" s="194"/>
-      <c r="C169" s="107" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="202"/>
+      <c r="B170" s="196"/>
+      <c r="C170" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D169" s="114" t="s">
+      <c r="D170" s="114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="193"/>
-      <c r="B170" s="194"/>
-      <c r="C170" s="131" t="s">
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="202"/>
+      <c r="B171" s="196"/>
+      <c r="C171" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D170" s="107" t="s">
+      <c r="D171" s="107" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="208"/>
-      <c r="B171" s="190"/>
-      <c r="C171" s="131" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="188"/>
+      <c r="B172" s="190"/>
+      <c r="C172" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D171" s="107" t="s">
+      <c r="D172" s="107" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="130" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B172" s="130"/>
-      <c r="C172" s="130"/>
-      <c r="D172" s="130"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="192" t="s">
+      <c r="B173" s="130"/>
+      <c r="C173" s="130"/>
+      <c r="D173" s="130"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="B173" s="189" t="s">
+      <c r="B174" s="189" t="s">
         <v>266</v>
       </c>
-      <c r="C173" s="131" t="s">
-        <v>260</v>
-      </c>
-      <c r="D173" s="107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="193"/>
-      <c r="B174" s="194"/>
       <c r="C174" s="131" t="s">
         <v>260</v>
       </c>
       <c r="D174" s="107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="202"/>
+      <c r="B175" s="196"/>
+      <c r="C175" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D175" s="107" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="208"/>
-      <c r="B175" s="190"/>
-      <c r="C175" s="107"/>
-      <c r="D175" s="107" t="s">
+    <row r="176" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="188"/>
+      <c r="B176" s="190"/>
+      <c r="C176" s="107"/>
+      <c r="D176" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="187" t="s">
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="189" t="s">
+      <c r="B177" s="189" t="s">
         <v>266</v>
       </c>
-      <c r="C176" s="120" t="s">
+      <c r="C177" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="D176" s="107" t="s">
+      <c r="D177" s="107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="188"/>
-      <c r="B177" s="190"/>
-      <c r="C177" s="120"/>
-      <c r="D177" s="107" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="213"/>
+      <c r="B178" s="190"/>
+      <c r="C178" s="120"/>
+      <c r="D178" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="187" t="s">
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="212" t="s">
         <v>286</v>
       </c>
-      <c r="B178" s="189" t="s">
+      <c r="B179" s="189" t="s">
         <v>266</v>
       </c>
-      <c r="C178" s="120"/>
-      <c r="D178" s="120" t="s">
+      <c r="C179" s="120"/>
+      <c r="D179" s="120" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="188"/>
-      <c r="B179" s="190"/>
-      <c r="C179" s="107"/>
-      <c r="D179" s="107" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="213"/>
+      <c r="B180" s="190"/>
+      <c r="C180" s="107"/>
+      <c r="D180" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="187" t="s">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="B180" s="189" t="s">
+      <c r="B181" s="189" t="s">
         <v>266</v>
       </c>
-      <c r="C180" s="120" t="s">
+      <c r="C181" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="D180" s="107" t="s">
+      <c r="D181" s="107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="188"/>
-      <c r="B181" s="190"/>
-      <c r="C181" s="107"/>
-      <c r="D181" s="107" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="213"/>
+      <c r="B182" s="190"/>
+      <c r="C182" s="107"/>
+      <c r="D182" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="130" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="B182" s="130"/>
-      <c r="C182" s="130"/>
-      <c r="D182" s="130"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="107"/>
-      <c r="B183" s="108" t="s">
+      <c r="B183" s="130"/>
+      <c r="C183" s="130"/>
+      <c r="D183" s="130"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="107"/>
+      <c r="B184" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C183" s="107" t="s">
+      <c r="C184" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D183" s="114" t="s">
+      <c r="D184" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="130" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B184" s="130"/>
-      <c r="C184" s="130"/>
-      <c r="D184" s="130"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="107"/>
-      <c r="B185" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C185" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D185" s="114" t="s">
-        <v>269</v>
-      </c>
+      <c r="B185" s="130"/>
+      <c r="C185" s="130"/>
+      <c r="D185" s="130"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="107"/>
-      <c r="B186" s="108"/>
+      <c r="B186" s="108" t="s">
+        <v>440</v>
+      </c>
       <c r="C186" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="107"/>
+      <c r="B187" s="108"/>
+      <c r="C187" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="D186" s="114" t="s">
+      <c r="D187" s="114" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A153:A162"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="A101:A148"/>
-    <mergeCell ref="B101:B148"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="A102:A149"/>
+    <mergeCell ref="B102:B149"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="B66:B78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A154:A163"/>
+    <mergeCell ref="B154:B163"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A89:A93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FFC29-8D10-4139-A735-BF60401494B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,24 @@
   <definedNames>
     <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$19</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
     <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="491">
   <si>
     <t>Document</t>
   </si>
@@ -3297,11 +3305,57 @@
   <si>
     <t>Added link to PIT Next Version</t>
   </si>
+  <si>
+    <t>payroll submission</t>
+  </si>
+  <si>
+    <t>Added pay period</t>
+  </si>
+  <si>
+    <t>Added as a simpleType</t>
+  </si>
+  <si>
+    <t>ROS Payroll Reporting JSON Envelope schema</t>
+  </si>
+  <si>
+    <t>ppsns</t>
+  </si>
+  <si>
+    <t>added field for RPN loopup by ppsn at employee level</t>
+  </si>
+  <si>
+    <t>pay period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PayForUSCToDate &amp; 
+USCDeductedToDate </t>
+  </si>
+  <si>
+    <t>removed optional tag</t>
+  </si>
+  <si>
+    <t>PayForUSCToDate &amp; USCDeductedToDate made required</t>
+  </si>
+  <si>
+    <t>Pay Period</t>
+  </si>
+  <si>
+    <t>Made PayForUSCToDate &amp; USCDeductedToDate required</t>
+  </si>
+  <si>
+    <t>Added pay period field</t>
+  </si>
+  <si>
+    <t>Updated endpoints</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3919,7 +3973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4275,6 +4329,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4428,10 +4497,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4452,9 +4527,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4468,9 +4540,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4550,7 +4619,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4891,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4924,12 +4993,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4952,12 +5021,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4997,10 +5066,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="148">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5014,8 +5083,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5027,8 +5096,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5040,8 +5109,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5053,8 +5122,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5066,8 +5135,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="142"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5079,10 +5148,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="143">
+      <c r="B13" s="148">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5096,8 +5165,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5143,12 +5212,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5188,21 +5257,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="147">
+      <c r="B21" s="152">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5216,8 +5285,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5240,18 +5309,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="147">
+      <c r="B25" s="152">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5265,8 +5334,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5278,8 +5347,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5291,8 +5360,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5304,8 +5373,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5317,8 +5386,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="141"/>
-      <c r="B30" s="144"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5330,8 +5399,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="141"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5343,8 +5412,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="142"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5468,12 +5537,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="139"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5571,7 +5640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC79"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5653,10 +5722,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5667,8 +5736,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5677,8 +5746,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5687,8 +5756,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="167"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5697,8 +5766,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
-      <c r="B11" s="166"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5707,8 +5776,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="167"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5717,10 +5786,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5731,8 +5800,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="166"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5741,8 +5810,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
-      <c r="B15" s="166"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5751,10 +5820,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5765,8 +5834,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5775,8 +5844,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="161"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5785,8 +5854,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5795,8 +5864,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5805,8 +5874,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="161"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5815,8 +5884,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="161"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5825,8 +5894,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="161"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5835,26 +5904,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="152" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="158" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5865,8 +5934,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="167"/>
-      <c r="B27" s="166"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5893,28 +5962,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="161" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="168"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="156"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="161"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="166"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5923,8 +5992,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="166"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5933,8 +6002,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
-      <c r="B34" s="166"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5943,8 +6012,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="166"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5953,8 +6022,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5963,26 +6032,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="157" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="164" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5993,8 +6062,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="167"/>
-      <c r="B40" s="166"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6021,10 +6090,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6033,8 +6102,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="166"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6043,10 +6112,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6055,8 +6124,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="166"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6065,8 +6134,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="166"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6075,8 +6144,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="166"/>
+      <c r="A48" s="170"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6085,10 +6154,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="161" t="s">
+      <c r="A49" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="161" t="s">
+      <c r="B49" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10192,8 +10261,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
-      <c r="B50" s="161"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14297,8 +14366,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="161"/>
-      <c r="B51" s="161"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18402,8 +18471,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
-      <c r="B52" s="161"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22507,12 +22576,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="155" t="s">
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="156" t="s">
+      <c r="D53" s="161" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26612,10 +26681,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="161"/>
-      <c r="C54" s="155"/>
-      <c r="D54" s="156"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30733,10 +30802,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="161" t="s">
+      <c r="B57" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30747,8 +30816,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
-      <c r="B58" s="161"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30757,8 +30826,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="160"/>
-      <c r="B59" s="161"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30767,8 +30836,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="160"/>
-      <c r="B60" s="161"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30777,8 +30846,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
-      <c r="B61" s="161"/>
+      <c r="A61" s="165"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30787,8 +30856,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="160"/>
-      <c r="B62" s="161"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30797,8 +30866,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="160"/>
-      <c r="B63" s="161"/>
+      <c r="A63" s="165"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30807,16 +30876,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="160"/>
-      <c r="B64" s="161"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="160"/>
-      <c r="B65" s="161"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="166"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30825,16 +30894,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="160"/>
-      <c r="B66" s="161"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="160"/>
-      <c r="B67" s="161"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30843,8 +30912,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="160"/>
-      <c r="B68" s="161"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="166"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30853,8 +30922,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="160"/>
-      <c r="B69" s="161"/>
+      <c r="A69" s="165"/>
+      <c r="B69" s="166"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30863,8 +30932,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="160"/>
-      <c r="B70" s="161"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30873,8 +30942,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="160"/>
-      <c r="B71" s="161"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30883,8 +30952,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="160"/>
-      <c r="B72" s="161"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30893,16 +30962,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="160"/>
-      <c r="B73" s="161"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="160"/>
-      <c r="B74" s="161"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30911,18 +30980,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="160"/>
-      <c r="B75" s="161"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="162" t="s">
+      <c r="A75" s="165"/>
+      <c r="B75" s="166"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="167" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="160"/>
-      <c r="B76" s="161"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="162"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="167"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31000,7 +31069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -31046,10 +31115,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31060,133 +31129,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="167"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="177" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="181" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="181"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="176" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="181" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="176"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="181"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="176"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="181"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="176" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="181" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="176"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="178"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="178"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="178"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="178"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="178"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="178"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="178"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="178"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31284,10 +31353,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31298,26 +31367,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="174"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="171"/>
-      <c r="B34" s="174"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="171"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="175"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31346,10 +31415,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31360,8 +31429,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="168"/>
-      <c r="B40" s="166"/>
+      <c r="A40" s="173"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31370,84 +31439,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="167" t="s">
+      <c r="A41" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="166" t="s">
+      <c r="B41" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="152" t="s">
+      <c r="D41" s="157" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="167"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="152"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="167"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="179" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="162" t="s">
+      <c r="D43" s="167" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="167"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="162"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="167"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="160" t="s">
+      <c r="A45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="161" t="s">
+      <c r="B45" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="183"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="160"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="180" t="s">
+      <c r="A46" s="165"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="185" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="160"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="181"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="186"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="160"/>
-      <c r="B48" s="161"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="181"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="186"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="160"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="181"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="160"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="182"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="187"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31470,10 +31539,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="161" t="s">
+      <c r="A53" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="166" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31484,8 +31553,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="161"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31494,8 +31563,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
-      <c r="B55" s="161"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31504,9 +31573,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="186" t="s">
+      <c r="A56" s="166"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="191" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31514,16 +31583,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
-      <c r="B57" s="161"/>
-      <c r="C57" s="186"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="191"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
-      <c r="B58" s="161"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31532,8 +31601,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
-      <c r="B59" s="161"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31542,9 +31611,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
-      <c r="B60" s="161"/>
-      <c r="C60" s="186" t="s">
+      <c r="A60" s="166"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="191" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31552,25 +31621,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
-      <c r="B61" s="161"/>
-      <c r="C61" s="186"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="191"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
-      <c r="B62" s="161"/>
-      <c r="C62" s="186"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="191"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
-      <c r="B63" s="161"/>
-      <c r="C63" s="179" t="s">
+      <c r="A63" s="166"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="184" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31578,30 +31647,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
-      <c r="B64" s="161"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="162" t="s">
+      <c r="A64" s="166"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="167" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
-      <c r="B65" s="161"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="162"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="184"/>
+      <c r="D65" s="167"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
-      <c r="B66" s="161"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="162"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="184"/>
+      <c r="D66" s="167"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
-      <c r="B67" s="161"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="162"/>
+      <c r="A67" s="166"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="167"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31697,11 +31766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31735,10 +31804,10 @@
       <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="200" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="203" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31749,8 +31818,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
-      <c r="B4" s="199"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31791,10 +31860,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="200" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="195" t="s">
         <v>440</v>
       </c>
       <c r="C8" s="100" t="s">
@@ -31805,7 +31874,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="196"/>
       <c r="C9" s="100" t="s">
         <v>445</v>
@@ -31815,7 +31884,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="196"/>
       <c r="C10" s="100" t="s">
         <v>447</v>
@@ -31825,8 +31894,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
-      <c r="B11" s="190"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="197"/>
       <c r="C11" s="100" t="s">
         <v>435</v>
       </c>
@@ -31835,10 +31904,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="203" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="195" t="s">
         <v>440</v>
       </c>
       <c r="C12" s="100" t="s">
@@ -31849,7 +31918,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="198"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="196"/>
       <c r="C13" s="100" t="s">
         <v>454</v>
@@ -31859,8 +31928,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
-      <c r="B14" s="190"/>
+      <c r="A14" s="205"/>
+      <c r="B14" s="197"/>
       <c r="C14" s="100">
         <v>3.3</v>
       </c>
@@ -31889,10 +31958,10 @@
       <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="219" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="220" t="s">
         <v>440</v>
       </c>
       <c r="C17" s="100" t="s">
@@ -31903,8 +31972,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
-      <c r="B18" s="215"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="100" t="s">
         <v>342</v>
       </c>
@@ -31913,8 +31982,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="214"/>
-      <c r="B19" s="215"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="100" t="s">
         <v>338</v>
       </c>
@@ -31931,10 +32000,10 @@
       <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="211" t="s">
+      <c r="B21" s="216" t="s">
         <v>440</v>
       </c>
       <c r="C21" s="107"/>
@@ -31942,662 +32011,656 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="210"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="108" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="215"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="140" t="s">
         <v>234</v>
       </c>
       <c r="D22" s="109" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="187" t="s">
+    <row r="23" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="108" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="189" t="s">
+      <c r="B24" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C24" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D24" s="111" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="188"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="108" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="193"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="140" t="s">
         <v>464</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D25" s="139" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="110" t="s">
-        <v>372</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>22</v>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="194"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="141" t="s">
+        <v>484</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="B27" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="108"/>
+      <c r="C27" s="108" t="s">
+        <v>22</v>
+      </c>
       <c r="D27" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="108"/>
+      <c r="D29" s="111" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="210" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="215" t="s">
         <v>270</v>
       </c>
-      <c r="B28" s="211" t="s">
+      <c r="B30" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="80" t="s">
+      <c r="C30" s="107"/>
+      <c r="D30" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="210"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="215"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="112" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="215"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D32" s="107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="113" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="215"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D33" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B34" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C34" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="107"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="216" t="s">
+      <c r="D34" s="107"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B35" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="115" t="s">
+      <c r="C35" s="107"/>
+      <c r="D35" s="115" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="196"/>
-      <c r="C34" s="113" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="222"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D36" s="107" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="217"/>
-      <c r="B35" s="196"/>
-      <c r="C35" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D35" s="107" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="217"/>
-      <c r="B36" s="196"/>
-      <c r="C36" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="D36" s="114" t="s">
-        <v>360</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="217"/>
+      <c r="A37" s="222"/>
       <c r="B37" s="196"/>
       <c r="C37" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="114" t="s">
-        <v>355</v>
+      <c r="D37" s="107" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="217"/>
+      <c r="A38" s="222"/>
       <c r="B38" s="196"/>
-      <c r="C38" s="113" t="s">
-        <v>366</v>
+      <c r="C38" s="116" t="s">
+        <v>362</v>
       </c>
       <c r="D38" s="114" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="217"/>
+      <c r="A39" s="222"/>
       <c r="B39" s="196"/>
       <c r="C39" s="113" t="s">
         <v>354</v>
       </c>
       <c r="D39" s="114" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="217"/>
+      <c r="A40" s="222"/>
       <c r="B40" s="196"/>
       <c r="C40" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="114" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="222"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="114" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="222"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="113" t="s">
         <v>465</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D42" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
-      <c r="B41" s="190"/>
-      <c r="C41" s="103" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="222"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="137" t="s">
         <v>467</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D43" s="58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="117" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="222"/>
+      <c r="B44" s="196"/>
+      <c r="C44" s="137" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="223"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="103" t="s">
+        <v>467</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="117" t="s">
         <v>462</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B46" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C46" s="108" t="s">
         <v>461</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D46" s="111" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="117" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="108" t="s">
+      <c r="B47" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C43" s="113" t="s">
+      <c r="C47" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D47" s="114" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="117" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B48" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="114"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="200" t="s">
+      <c r="D48" s="114"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="206" t="s">
         <v>364</v>
       </c>
-      <c r="B45" s="189" t="s">
+      <c r="B49" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C45" s="113" t="s">
+      <c r="C49" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="114"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="201"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="113" t="s">
+      <c r="D49" s="114"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="207"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D50" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="104" t="s">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="200" t="s">
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="206" t="s">
         <v>236</v>
       </c>
-      <c r="B48" s="189" t="s">
+      <c r="B52" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107" t="s">
+      <c r="C52" s="107"/>
+      <c r="D52" s="107" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="196"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="208"/>
+      <c r="B53" s="196"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="208"/>
+      <c r="B54" s="196"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="203"/>
-      <c r="B51" s="196"/>
-      <c r="C51" s="107" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="208"/>
+      <c r="B55" s="196"/>
+      <c r="C55" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="D51" s="107" t="s">
+      <c r="D55" s="107" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="203"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="107" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="208"/>
+      <c r="B56" s="196"/>
+      <c r="C56" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D56" s="114" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="203"/>
-      <c r="B53" s="196"/>
-      <c r="C53" s="107" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="208"/>
+      <c r="B57" s="196"/>
+      <c r="C57" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D57" s="114" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="203"/>
-      <c r="B54" s="196"/>
-      <c r="C54" s="120" t="s">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="208"/>
+      <c r="B58" s="196"/>
+      <c r="C58" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D58" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="201"/>
-      <c r="B55" s="190"/>
-      <c r="C55" s="58" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="208"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D59" s="58" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="204" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="208"/>
+      <c r="B60" s="196"/>
+      <c r="C60" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="207"/>
+      <c r="B61" s="197"/>
+      <c r="C61" s="134" t="s">
+        <v>467</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="189" t="s">
+      <c r="B62" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C56" s="107" t="s">
+      <c r="C62" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D62" s="114" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="205"/>
-      <c r="B57" s="196"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="210"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="205"/>
-      <c r="B58" s="196"/>
-      <c r="C58" s="118" t="s">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="210"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D64" s="114" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="205"/>
-      <c r="B59" s="196"/>
-      <c r="C59" s="118" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="210"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D65" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="205"/>
-      <c r="B60" s="196"/>
-      <c r="C60" s="118" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="210"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D66" s="114" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="205"/>
-      <c r="B61" s="196"/>
-      <c r="C61" s="118" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="210"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="114" t="s">
+      <c r="D67" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="205"/>
-      <c r="B62" s="196"/>
-      <c r="C62" s="118" t="s">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="210"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="D62" s="119" t="s">
+      <c r="D68" s="119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="205"/>
-      <c r="B63" s="196"/>
-      <c r="C63" s="110" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="210"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D69" s="114" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="205"/>
-      <c r="B64" s="196"/>
-      <c r="C64" s="110" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="210"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D70" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="206"/>
-      <c r="B65" s="190"/>
-      <c r="C65" s="134" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="210"/>
+      <c r="B71" s="196"/>
+      <c r="C71" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D71" s="58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="187" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="210"/>
+      <c r="B72" s="196"/>
+      <c r="C72" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="211"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="134" t="s">
+        <v>467</v>
+      </c>
+      <c r="D73" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="192" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="189" t="s">
+      <c r="B74" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C66" s="207" t="s">
+      <c r="C74" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D74" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="202"/>
-      <c r="B67" s="196"/>
-      <c r="C67" s="208"/>
-      <c r="D67" s="114" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="193"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="213"/>
+      <c r="D75" s="114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="202"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="209" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="193"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D76" s="107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="202"/>
-      <c r="B69" s="196"/>
-      <c r="C69" s="209"/>
-      <c r="D69" s="120" t="s">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="193"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="214"/>
+      <c r="D77" s="120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="202"/>
-      <c r="B70" s="196"/>
-      <c r="C70" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="107" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="202"/>
-      <c r="B71" s="196"/>
-      <c r="C71" s="113">
-        <v>2.1</v>
-      </c>
-      <c r="D71" s="107" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="202"/>
-      <c r="B72" s="196"/>
-      <c r="C72" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="202"/>
-      <c r="B73" s="196"/>
-      <c r="C73" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" s="119" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="202"/>
-      <c r="B74" s="196"/>
-      <c r="C74" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D74" s="114" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="202"/>
-      <c r="B75" s="196"/>
-      <c r="C75" s="121" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" s="122" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="202"/>
-      <c r="B76" s="196"/>
-      <c r="C76" s="113">
-        <v>2.1</v>
-      </c>
-      <c r="D76" s="107" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="202"/>
-      <c r="B77" s="196"/>
-      <c r="C77" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" s="107" t="s">
-        <v>398</v>
-      </c>
-    </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="202"/>
+      <c r="A78" s="193"/>
       <c r="B78" s="196"/>
       <c r="C78" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="193"/>
+      <c r="B79" s="196"/>
+      <c r="C79" s="113">
+        <v>2.1</v>
+      </c>
+      <c r="D79" s="107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="193"/>
+      <c r="B80" s="196"/>
+      <c r="C80" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D78" s="107" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="204" t="s">
-        <v>291</v>
-      </c>
-      <c r="B79" s="189" t="s">
-        <v>440</v>
-      </c>
-      <c r="C79" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79" s="107" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="205"/>
-      <c r="B80" s="196"/>
-      <c r="C80" s="120" t="s">
-        <v>276</v>
-      </c>
       <c r="D80" s="107" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="206"/>
-      <c r="B81" s="190"/>
-      <c r="C81" s="107" t="s">
-        <v>345</v>
-      </c>
-      <c r="D81" s="107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="200" t="s">
-        <v>365</v>
-      </c>
-      <c r="B82" s="189" t="s">
-        <v>440</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="193"/>
+      <c r="B81" s="196"/>
+      <c r="C81" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="193"/>
+      <c r="B82" s="196"/>
       <c r="C82" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="107"/>
-    </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="203"/>
+        <v>238</v>
+      </c>
+      <c r="D82" s="114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="193"/>
       <c r="B83" s="196"/>
-      <c r="C83" s="113" t="s">
+      <c r="C83" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="D83" s="107" t="s">
+      <c r="D83" s="122" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="203"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="193"/>
       <c r="B84" s="196"/>
       <c r="C84" s="113">
         <v>2.1</v>
@@ -32606,1119 +32669,1251 @@
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="203"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="193"/>
       <c r="B85" s="196"/>
       <c r="C85" s="113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="107" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="203"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="193"/>
       <c r="B86" s="196"/>
       <c r="C86" s="113" t="s">
         <v>238</v>
       </c>
       <c r="D86" s="107" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="193"/>
+      <c r="B87" s="196"/>
+      <c r="C87" s="113">
+        <v>2.1</v>
+      </c>
+      <c r="D87" s="107" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="209" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="210"/>
+      <c r="B89" s="196"/>
+      <c r="C89" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" s="107" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="211"/>
+      <c r="B90" s="197"/>
+      <c r="C90" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="206" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="107"/>
+    </row>
+    <row r="92" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="208"/>
+      <c r="B92" s="196"/>
+      <c r="C92" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D92" s="107" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="208"/>
+      <c r="B93" s="196"/>
+      <c r="C93" s="113">
+        <v>2.1</v>
+      </c>
+      <c r="D93" s="107" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="208"/>
+      <c r="B94" s="196"/>
+      <c r="C94" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="107" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="208"/>
+      <c r="B95" s="196"/>
+      <c r="C95" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="104" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="105"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="110" t="s">
+      <c r="B96" s="104"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="105"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="B88" s="113" t="s">
+      <c r="B97" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="113" t="s">
+      <c r="C97" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="D88" s="114"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="187" t="s">
+      <c r="D97" s="114"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="B89" s="189" t="s">
+      <c r="B98" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C89" s="107"/>
-      <c r="D89" s="80" t="s">
+      <c r="C98" s="107"/>
+      <c r="D98" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="202"/>
-      <c r="B90" s="196"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="193"/>
+      <c r="B99" s="196"/>
+      <c r="C99" s="107"/>
+      <c r="D99" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="202"/>
-      <c r="B91" s="196"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="114" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="193"/>
+      <c r="B100" s="196"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="202"/>
-      <c r="B92" s="196"/>
-      <c r="C92" s="107" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="193"/>
+      <c r="B101" s="196"/>
+      <c r="C101" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D101" s="114" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="202"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="107" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="193"/>
+      <c r="B102" s="196"/>
+      <c r="C102" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D102" s="114" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="210" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94" s="211" t="s">
-        <v>440</v>
-      </c>
-      <c r="C94" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="D94" s="114" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="210"/>
-      <c r="B95" s="211"/>
-      <c r="C95" s="107" t="s">
-        <v>406</v>
-      </c>
-      <c r="D95" s="107" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="210"/>
-      <c r="B96" s="211"/>
-      <c r="C96" s="123" t="s">
-        <v>409</v>
-      </c>
-      <c r="D96" s="191" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="210"/>
-      <c r="B97" s="211"/>
-      <c r="C97" s="123" t="s">
-        <v>410</v>
-      </c>
-      <c r="D97" s="192"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="210"/>
-      <c r="B98" s="211"/>
-      <c r="C98" s="123" t="s">
-        <v>411</v>
-      </c>
-      <c r="D98" s="192"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="210"/>
-      <c r="B99" s="211"/>
-      <c r="C99" s="123" t="s">
-        <v>412</v>
-      </c>
-      <c r="D99" s="192"/>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="210"/>
-      <c r="B100" s="211"/>
-      <c r="C100" s="123" t="s">
-        <v>471</v>
-      </c>
-      <c r="D100" s="135" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="B101" s="113" t="s">
-        <v>440</v>
-      </c>
-      <c r="C101" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="204" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="189" t="s">
-        <v>440</v>
-      </c>
-      <c r="C102" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="D102" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="205"/>
+      <c r="A103" s="193"/>
       <c r="B103" s="196"/>
       <c r="C103" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D103" s="107" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" s="114" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="215" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" s="216" t="s">
+        <v>440</v>
+      </c>
+      <c r="C104" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="215"/>
+      <c r="B105" s="216"/>
+      <c r="C105" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D105" s="107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="215"/>
+      <c r="B106" s="216"/>
+      <c r="C106" s="123" t="s">
+        <v>409</v>
+      </c>
+      <c r="D106" s="198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="215"/>
+      <c r="B107" s="216"/>
+      <c r="C107" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="D107" s="199"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="215"/>
+      <c r="B108" s="216"/>
+      <c r="C108" s="123" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="199"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="215"/>
+      <c r="B109" s="216"/>
+      <c r="C109" s="123" t="s">
+        <v>412</v>
+      </c>
+      <c r="D109" s="199"/>
+    </row>
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="215"/>
+      <c r="B110" s="216"/>
+      <c r="C110" s="123" t="s">
+        <v>471</v>
+      </c>
+      <c r="D110" s="135" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="113" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C112" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="205"/>
-      <c r="B104" s="196"/>
-      <c r="C104" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D104" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="205"/>
-      <c r="B105" s="196"/>
-      <c r="C105" s="114" t="s">
-        <v>272</v>
-      </c>
-      <c r="D105" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="205"/>
-      <c r="B106" s="196"/>
-      <c r="C106" s="107" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="205"/>
-      <c r="B107" s="196"/>
-      <c r="C107" s="107" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="107" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="205"/>
-      <c r="B108" s="196"/>
-      <c r="C108" s="114" t="s">
-        <v>283</v>
-      </c>
-      <c r="D108" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="205"/>
-      <c r="B109" s="196"/>
-      <c r="C109" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="D109" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="205"/>
-      <c r="B110" s="196"/>
-      <c r="C110" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="D110" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="205"/>
-      <c r="B111" s="196"/>
-      <c r="C111" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="D111" s="111" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="205"/>
-      <c r="B112" s="196"/>
-      <c r="C112" s="118" t="s">
-        <v>306</v>
-      </c>
-      <c r="D112" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="205"/>
+      <c r="A113" s="210"/>
       <c r="B113" s="196"/>
       <c r="C113" s="107" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="D113" s="107" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="205"/>
+      <c r="A114" s="210"/>
       <c r="B114" s="196"/>
-      <c r="C114" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="D114" s="114" t="s">
-        <v>309</v>
+      <c r="C114" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="107" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="205"/>
+      <c r="A115" s="210"/>
       <c r="B115" s="196"/>
       <c r="C115" s="114" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D115" s="114" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="205"/>
+      <c r="A116" s="210"/>
       <c r="B116" s="196"/>
-      <c r="C116" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D116" s="114" t="s">
-        <v>102</v>
+      <c r="C116" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="107" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="205"/>
+      <c r="A117" s="210"/>
       <c r="B117" s="196"/>
       <c r="C117" s="107" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D117" s="107" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="205"/>
+      <c r="A118" s="210"/>
       <c r="B118" s="196"/>
       <c r="C118" s="114" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D118" s="114" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="205"/>
+      <c r="A119" s="210"/>
       <c r="B119" s="196"/>
       <c r="C119" s="114" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D119" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="205"/>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="210"/>
       <c r="B120" s="196"/>
-      <c r="C120" s="107"/>
-      <c r="D120" s="97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="205"/>
+      <c r="C120" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="210"/>
       <c r="B121" s="196"/>
-      <c r="C121" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D121" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="205"/>
+      <c r="C121" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="210"/>
       <c r="B122" s="196"/>
-      <c r="C122" s="114" t="s">
-        <v>263</v>
+      <c r="C122" s="118" t="s">
+        <v>306</v>
       </c>
       <c r="D122" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="205"/>
+      <c r="A123" s="210"/>
       <c r="B123" s="196"/>
-      <c r="C123" s="114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D123" s="114" t="s">
-        <v>250</v>
+      <c r="C123" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" s="107" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="205"/>
+      <c r="A124" s="210"/>
       <c r="B124" s="196"/>
       <c r="C124" s="114" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="D124" s="114" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="205"/>
+      <c r="A125" s="210"/>
       <c r="B125" s="196"/>
       <c r="C125" s="114" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D125" s="114" t="s">
-        <v>318</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="205"/>
+      <c r="A126" s="210"/>
       <c r="B126" s="196"/>
-      <c r="C126" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="D126" s="119" t="s">
-        <v>250</v>
+      <c r="C126" s="114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="114" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="205"/>
+      <c r="A127" s="210"/>
       <c r="B127" s="196"/>
-      <c r="C127" s="114" t="s">
-        <v>333</v>
-      </c>
-      <c r="D127" s="114" t="s">
-        <v>332</v>
+      <c r="C127" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" s="107" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="205"/>
+      <c r="A128" s="210"/>
       <c r="B128" s="196"/>
       <c r="C128" s="114" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="D128" s="114" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="205"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="210"/>
       <c r="B129" s="196"/>
-      <c r="C129" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D129" s="125" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="205"/>
+      <c r="C129" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="210"/>
       <c r="B130" s="196"/>
-      <c r="C130" s="114" t="s">
-        <v>352</v>
-      </c>
-      <c r="D130" s="114" t="s">
-        <v>250</v>
+      <c r="C130" s="107"/>
+      <c r="D130" s="97" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="205"/>
+      <c r="A131" s="210"/>
       <c r="B131" s="196"/>
       <c r="C131" s="114" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="D131" s="114" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="205"/>
+      <c r="A132" s="210"/>
       <c r="B132" s="196"/>
       <c r="C132" s="114" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="D132" s="114" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="205"/>
+      <c r="A133" s="210"/>
       <c r="B133" s="196"/>
       <c r="C133" s="114" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D133" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="205"/>
+      <c r="A134" s="210"/>
       <c r="B134" s="196"/>
       <c r="C134" s="114" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="D134" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="205"/>
+      <c r="A135" s="210"/>
       <c r="B135" s="196"/>
       <c r="C135" s="114" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D135" s="114" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="205"/>
+      <c r="A136" s="210"/>
       <c r="B136" s="196"/>
       <c r="C136" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="D136" s="119" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="210"/>
+      <c r="B137" s="196"/>
+      <c r="C137" s="114" t="s">
+        <v>333</v>
+      </c>
+      <c r="D137" s="114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="210"/>
+      <c r="B138" s="196"/>
+      <c r="C138" s="114" t="s">
+        <v>348</v>
+      </c>
+      <c r="D138" s="114" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="210"/>
+      <c r="B139" s="196"/>
+      <c r="C139" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D139" s="125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="210"/>
+      <c r="B140" s="196"/>
+      <c r="C140" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="D140" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="210"/>
+      <c r="B141" s="196"/>
+      <c r="C141" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="D141" s="114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="210"/>
+      <c r="B142" s="196"/>
+      <c r="C142" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D142" s="114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="210"/>
+      <c r="B143" s="196"/>
+      <c r="C143" s="114" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="210"/>
+      <c r="B144" s="196"/>
+      <c r="C144" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D144" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="210"/>
+      <c r="B145" s="196"/>
+      <c r="C145" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D145" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="210"/>
+      <c r="B146" s="196"/>
+      <c r="C146" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="D136" s="119" t="s">
+      <c r="D146" s="119" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="205"/>
-      <c r="B137" s="196"/>
-      <c r="C137" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="D137" s="107" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="205"/>
-      <c r="B138" s="196"/>
-      <c r="C138" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="D138" s="107" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="205"/>
-      <c r="B139" s="196"/>
-      <c r="C139" s="107" t="s">
-        <v>388</v>
-      </c>
-      <c r="D139" s="107" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="205"/>
-      <c r="B140" s="196"/>
-      <c r="C140" s="107" t="s">
-        <v>389</v>
-      </c>
-      <c r="D140" s="107" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="205"/>
-      <c r="B141" s="196"/>
-      <c r="C141" s="107" t="s">
-        <v>390</v>
-      </c>
-      <c r="D141" s="107" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="205"/>
-      <c r="B142" s="196"/>
-      <c r="C142" s="107" t="s">
-        <v>391</v>
-      </c>
-      <c r="D142" s="107" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="205"/>
-      <c r="B143" s="196"/>
-      <c r="C143" s="107" t="s">
-        <v>394</v>
-      </c>
-      <c r="D143" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="205"/>
-      <c r="B144" s="196"/>
-      <c r="C144" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="D144" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="205"/>
-      <c r="B145" s="196"/>
-      <c r="C145" s="107" t="s">
-        <v>405</v>
-      </c>
-      <c r="D145" s="107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="205"/>
-      <c r="B146" s="196"/>
-      <c r="C146" s="107" t="s">
-        <v>422</v>
-      </c>
-      <c r="D146" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="205"/>
+      <c r="A147" s="210"/>
       <c r="B147" s="196"/>
       <c r="C147" s="107" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="D147" s="107" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="205"/>
+      <c r="A148" s="210"/>
       <c r="B148" s="196"/>
       <c r="C148" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148" s="107" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="210"/>
+      <c r="B149" s="196"/>
+      <c r="C149" s="107" t="s">
+        <v>388</v>
+      </c>
+      <c r="D149" s="107" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="210"/>
+      <c r="B150" s="196"/>
+      <c r="C150" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="D150" s="107" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="210"/>
+      <c r="B151" s="196"/>
+      <c r="C151" s="107" t="s">
+        <v>390</v>
+      </c>
+      <c r="D151" s="107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="210"/>
+      <c r="B152" s="196"/>
+      <c r="C152" s="107" t="s">
+        <v>391</v>
+      </c>
+      <c r="D152" s="107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="210"/>
+      <c r="B153" s="196"/>
+      <c r="C153" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="D153" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="210"/>
+      <c r="B154" s="196"/>
+      <c r="C154" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="D154" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="210"/>
+      <c r="B155" s="196"/>
+      <c r="C155" s="107" t="s">
+        <v>405</v>
+      </c>
+      <c r="D155" s="107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="210"/>
+      <c r="B156" s="196"/>
+      <c r="C156" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="210"/>
+      <c r="B157" s="196"/>
+      <c r="C157" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D157" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="210"/>
+      <c r="B158" s="196"/>
+      <c r="C158" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="D158" s="107" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="206"/>
-      <c r="B149" s="190"/>
-      <c r="C149" s="58" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="211"/>
+      <c r="B159" s="197"/>
+      <c r="C159" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D149" s="58" t="s">
+      <c r="D159" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="126" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="126" t="s">
         <v>416</v>
       </c>
-      <c r="B150" s="108" t="s">
+      <c r="B160" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C150" s="107" t="s">
+      <c r="C160" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D150" s="114" t="s">
+      <c r="D160" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="110" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="B151" s="108" t="s">
+      <c r="B161" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C151" s="107" t="s">
+      <c r="C161" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D151" s="114" t="s">
+      <c r="D161" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="110" t="s">
+    <row r="162" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="110" t="s">
         <v>305</v>
       </c>
-      <c r="B152" s="108" t="s">
+      <c r="B162" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C152" s="107" t="s">
+      <c r="C162" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D152" s="114" t="s">
+      <c r="D162" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="104" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="105"/>
-    </row>
-    <row r="154" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="187" t="s">
+      <c r="B163" s="104"/>
+      <c r="C163" s="104"/>
+      <c r="D163" s="105"/>
+    </row>
+    <row r="164" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="B154" s="189" t="s">
+      <c r="B164" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C154" s="107"/>
-      <c r="D154" s="80" t="s">
+      <c r="C164" s="107"/>
+      <c r="D164" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="202"/>
-      <c r="B155" s="196"/>
-      <c r="C155" s="108" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="193"/>
+      <c r="B165" s="196"/>
+      <c r="C165" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D155" s="107" t="s">
+      <c r="D165" s="107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="202"/>
-      <c r="B156" s="196"/>
-      <c r="C156" s="108">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="193"/>
+      <c r="B166" s="196"/>
+      <c r="C166" s="108">
         <v>10.1</v>
       </c>
-      <c r="D156" s="107" t="s">
+      <c r="D166" s="107" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="202"/>
-      <c r="B157" s="196"/>
-      <c r="C157" s="108">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="193"/>
+      <c r="B167" s="196"/>
+      <c r="C167" s="108">
         <v>10.199999999999999</v>
       </c>
-      <c r="D157" s="107" t="s">
+      <c r="D167" s="107" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="202"/>
-      <c r="B158" s="196"/>
-      <c r="C158" s="98" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="193"/>
+      <c r="B168" s="196"/>
+      <c r="C168" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D158" s="95" t="s">
+      <c r="D168" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="202"/>
-      <c r="B159" s="196"/>
-      <c r="C159" s="98" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="193"/>
+      <c r="B169" s="196"/>
+      <c r="C169" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D159" s="95" t="s">
+      <c r="D169" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="202"/>
-      <c r="B160" s="196"/>
-      <c r="C160" s="98" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="193"/>
+      <c r="B170" s="196"/>
+      <c r="C170" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D160" s="95" t="s">
+      <c r="D170" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="202"/>
-      <c r="B161" s="196"/>
-      <c r="C161" s="98" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="193"/>
+      <c r="B171" s="196"/>
+      <c r="C171" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D161" s="95" t="s">
+      <c r="D171" s="95" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="202"/>
-      <c r="B162" s="196"/>
-      <c r="C162" s="98" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="193"/>
+      <c r="B172" s="196"/>
+      <c r="C172" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D162" s="95" t="s">
+      <c r="D172" s="95" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="188"/>
-      <c r="B163" s="190"/>
-      <c r="C163" s="98" t="s">
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="194"/>
+      <c r="B173" s="197"/>
+      <c r="C173" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D163" s="136" t="s">
+      <c r="D173" s="136" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="189" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="195" t="s">
         <v>246</v>
       </c>
-      <c r="B164" s="189" t="s">
+      <c r="B174" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C164" s="98"/>
-      <c r="D164" s="127" t="s">
+      <c r="C174" s="98"/>
+      <c r="D174" s="127" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="196"/>
-      <c r="B165" s="196"/>
-      <c r="C165" s="128" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="196"/>
+      <c r="B175" s="196"/>
+      <c r="C175" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="D165" s="102" t="s">
+      <c r="D175" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="111" t="s">
+    <row r="176" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B166" s="108" t="s">
+      <c r="B176" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C166" s="108" t="s">
+      <c r="C176" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D166" s="114" t="s">
+      <c r="D176" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="129" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="B167" s="104"/>
-      <c r="C167" s="130"/>
-      <c r="D167" s="130"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="110" t="s">
+      <c r="B177" s="104"/>
+      <c r="C177" s="130"/>
+      <c r="D177" s="130"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="B168" s="108" t="s">
+      <c r="B178" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C168" s="131" t="s">
+      <c r="C178" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D168" s="107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="187" t="s">
+      <c r="D178" s="107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="194"/>
+      <c r="B179" s="197"/>
+      <c r="C179" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="D179" s="107" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="192" t="s">
         <v>280</v>
       </c>
-      <c r="B169" s="189" t="s">
+      <c r="B180" s="195" t="s">
         <v>440</v>
       </c>
-      <c r="C169" s="95" t="s">
+      <c r="C180" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D169" s="107" t="s">
+      <c r="D180" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="202"/>
-      <c r="B170" s="196"/>
-      <c r="C170" s="107" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="193"/>
+      <c r="B181" s="196"/>
+      <c r="C181" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D170" s="114" t="s">
+      <c r="D181" s="114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="202"/>
-      <c r="B171" s="196"/>
-      <c r="C171" s="131" t="s">
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="193"/>
+      <c r="B182" s="196"/>
+      <c r="C182" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D171" s="107" t="s">
+      <c r="D182" s="107" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="188"/>
-      <c r="B172" s="190"/>
-      <c r="C172" s="131" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="194"/>
+      <c r="B183" s="197"/>
+      <c r="C183" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D172" s="107" t="s">
+      <c r="D183" s="107" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="B173" s="130"/>
-      <c r="C173" s="130"/>
-      <c r="D173" s="130"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="187" t="s">
-        <v>58</v>
-      </c>
-      <c r="B174" s="189" t="s">
-        <v>266</v>
-      </c>
-      <c r="C174" s="131" t="s">
-        <v>260</v>
-      </c>
-      <c r="D174" s="107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="202"/>
-      <c r="B175" s="196"/>
-      <c r="C175" s="131" t="s">
-        <v>260</v>
-      </c>
-      <c r="D175" s="107" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="188"/>
-      <c r="B176" s="190"/>
-      <c r="C176" s="107"/>
-      <c r="D176" s="107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="212" t="s">
-        <v>59</v>
-      </c>
-      <c r="B177" s="189" t="s">
-        <v>266</v>
-      </c>
-      <c r="C177" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D177" s="107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="213"/>
-      <c r="B178" s="190"/>
-      <c r="C178" s="120"/>
-      <c r="D178" s="107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="B179" s="189" t="s">
-        <v>266</v>
-      </c>
-      <c r="C179" s="120"/>
-      <c r="D179" s="120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="213"/>
-      <c r="B180" s="190"/>
-      <c r="C180" s="107"/>
-      <c r="D180" s="107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="212" t="s">
-        <v>60</v>
-      </c>
-      <c r="B181" s="189" t="s">
-        <v>266</v>
-      </c>
-      <c r="C181" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D181" s="107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="213"/>
-      <c r="B182" s="190"/>
-      <c r="C182" s="107"/>
-      <c r="D182" s="107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B183" s="130"/>
-      <c r="C183" s="130"/>
-      <c r="D183" s="130"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="107"/>
-      <c r="B184" s="108" t="s">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="138" t="s">
+        <v>479</v>
+      </c>
+      <c r="B184" s="140" t="s">
         <v>440</v>
       </c>
-      <c r="C184" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D184" s="114" t="s">
-        <v>269</v>
+      <c r="C184" s="131" t="s">
+        <v>480</v>
+      </c>
+      <c r="D184" s="110" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="130" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="B185" s="130"/>
       <c r="C185" s="130"/>
       <c r="D185" s="130"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="107"/>
-      <c r="B186" s="108" t="s">
+      <c r="A186" s="192" t="s">
+        <v>58</v>
+      </c>
+      <c r="B186" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="C186" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D186" s="107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="193"/>
+      <c r="B187" s="196"/>
+      <c r="C187" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D187" s="107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="194"/>
+      <c r="B188" s="197"/>
+      <c r="C188" s="107"/>
+      <c r="D188" s="107" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="217" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="C189" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D189" s="107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="218"/>
+      <c r="B190" s="197"/>
+      <c r="C190" s="120"/>
+      <c r="D190" s="107" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="217" t="s">
+        <v>286</v>
+      </c>
+      <c r="B191" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" s="120"/>
+      <c r="D191" s="120" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="218"/>
+      <c r="B192" s="197"/>
+      <c r="C192" s="107"/>
+      <c r="D192" s="107" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B193" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="C193" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D193" s="107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="218"/>
+      <c r="B194" s="197"/>
+      <c r="C194" s="107"/>
+      <c r="D194" s="107" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B195" s="130"/>
+      <c r="C195" s="130"/>
+      <c r="D195" s="130"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="107"/>
+      <c r="B196" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C186" s="107" t="s">
+      <c r="C196" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D186" s="114" t="s">
+      <c r="D196" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="107"/>
-      <c r="B187" s="108"/>
-      <c r="C187" s="107" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" s="130"/>
+      <c r="C197" s="130"/>
+      <c r="D197" s="130"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="107"/>
+      <c r="B198" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="107"/>
+      <c r="B199" s="108"/>
+      <c r="C199" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="D187" s="114" t="s">
+      <c r="D199" s="114" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="A102:A149"/>
-    <mergeCell ref="B102:B149"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="B66:B78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A154:A163"/>
-    <mergeCell ref="B154:B163"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A112:A159"/>
+    <mergeCell ref="B112:B159"/>
+    <mergeCell ref="A74:A87"/>
+    <mergeCell ref="B74:B87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A164:A173"/>
+    <mergeCell ref="B164:B173"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D106:D109"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A98:A103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FFC29-8D10-4139-A735-BF60401494B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C345F-B63A-44D0-8AD7-A901F43BA3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$19</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="492">
   <si>
     <t>Document</t>
   </si>
@@ -3350,6 +3350,9 @@
   </si>
   <si>
     <t>Updated endpoints</t>
+  </si>
+  <si>
+    <t>Added new CAB changes</t>
   </si>
 </sst>
 </file>
@@ -4389,8 +4392,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4413,66 +4446,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4494,55 +4467,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4554,6 +4554,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4562,33 +4592,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5602,7 +5605,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5612,7 +5615,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5722,10 +5725,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5736,8 +5739,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5746,8 +5749,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5756,8 +5759,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5766,8 +5769,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5776,8 +5779,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5786,10 +5789,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5800,8 +5803,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5810,8 +5813,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5820,10 +5823,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5834,8 +5837,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5844,8 +5847,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5854,8 +5857,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5864,8 +5867,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5874,8 +5877,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5884,8 +5887,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5894,8 +5897,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5904,26 +5907,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="157" t="s">
+      <c r="A24" s="161"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="168" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="168"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5934,8 +5937,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5962,28 +5965,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="171" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="161"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="171"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5992,8 +5995,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6002,8 +6005,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6012,8 +6015,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6022,8 +6025,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6032,26 +6035,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="162" t="s">
+      <c r="A37" s="159"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="174" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="164"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6062,8 +6065,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6090,10 +6093,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6102,8 +6105,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6112,10 +6115,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6124,8 +6127,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6134,8 +6137,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6144,8 +6147,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="170"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6154,10 +6157,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10261,8 +10264,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14366,8 +14369,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
-      <c r="B51" s="166"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="162"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18471,8 +18474,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="162"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22576,12 +22579,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="160" t="s">
+      <c r="A53" s="162"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="161" t="s">
+      <c r="D53" s="171" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26681,10 +26684,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30802,10 +30805,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30816,8 +30819,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30826,8 +30829,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="165"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="162"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30836,8 +30839,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="165"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="162"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30846,8 +30849,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="162"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30856,8 +30859,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="165"/>
-      <c r="B62" s="166"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="162"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30866,8 +30869,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="165"/>
-      <c r="B63" s="166"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="162"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30876,16 +30879,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="165"/>
-      <c r="B64" s="166"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="165"/>
-      <c r="B65" s="166"/>
+      <c r="A65" s="163"/>
+      <c r="B65" s="162"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30894,16 +30897,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="165"/>
-      <c r="B66" s="166"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="162"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="165"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="162"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30912,8 +30915,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="165"/>
-      <c r="B68" s="166"/>
+      <c r="A68" s="163"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30922,8 +30925,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="165"/>
-      <c r="B69" s="166"/>
+      <c r="A69" s="163"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30932,8 +30935,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="165"/>
-      <c r="B70" s="166"/>
+      <c r="A70" s="163"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30942,8 +30945,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="165"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="163"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30952,8 +30955,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="165"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="163"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30962,16 +30965,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="165"/>
-      <c r="B73" s="166"/>
+      <c r="A73" s="163"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="165"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="162"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30980,18 +30983,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="165"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="167" t="s">
+      <c r="A75" s="163"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="164" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="165"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="167"/>
+      <c r="A76" s="163"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="164"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31015,8 +31018,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31025,13 +31028,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31046,22 +31065,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31115,10 +31118,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="158" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31129,133 +31132,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="182" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="183" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="181"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="183"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="181" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="183" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="181"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="181"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="181" t="s">
+      <c r="C13" s="185"/>
+      <c r="D13" s="183" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="181"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="183"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="183"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="185"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="183"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="185"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="183"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="183"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="185"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="183"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="185"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="183"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="183"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="185"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31353,10 +31356,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="186" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="189" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31367,26 +31370,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="179"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="179"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="190"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="190"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31415,10 +31418,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="158" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31429,8 +31432,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31439,84 +31442,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="161" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="172"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="161"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="184" t="s">
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="167" t="s">
+      <c r="D43" s="164" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="167"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="164"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="185" t="s">
+      <c r="A46" s="163"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="175" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="186"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="176"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="186"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="176"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="186"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="176"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="187"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="177"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31539,10 +31542,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31553,8 +31556,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31563,8 +31566,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="162"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31573,9 +31576,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="191" t="s">
+      <c r="A56" s="162"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="181" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31583,16 +31586,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="191"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="162"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31601,8 +31604,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="162"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31611,9 +31614,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="191" t="s">
+      <c r="A60" s="162"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="181" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31621,25 +31624,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="191"/>
+      <c r="A61" s="162"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="181"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="166"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="191"/>
+      <c r="A62" s="162"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="181"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="166"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="184" t="s">
+      <c r="A63" s="162"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="182" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31647,30 +31650,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="166"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="184"/>
-      <c r="D64" s="167" t="s">
+      <c r="A64" s="162"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="164" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="184"/>
-      <c r="D65" s="167"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="164"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="167"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="164"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="167"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="164"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31726,6 +31729,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31742,23 +31762,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31767,10 +31770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31804,10 +31807,10 @@
       <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="192" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31818,8 +31821,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
-      <c r="B4" s="205"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31828,10 +31831,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="194" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="198" t="s">
         <v>440</v>
       </c>
       <c r="C5" s="100"/>
@@ -31839,249 +31842,243 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="195"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="100"/>
+      <c r="D6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>441</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="132" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B8" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="128" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="128" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="200" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="194" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B9" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C9" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D9" s="128" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="201"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="100" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="218"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="100" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D10" s="128" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="100" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="218"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D11" s="99" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="202"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="100" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="195"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D12" s="99" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="203" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="192" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B13" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="204"/>
-      <c r="B13" s="196"/>
       <c r="C13" s="100" t="s">
         <v>454</v>
       </c>
       <c r="D13" s="99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="219"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="100">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="193"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="100">
         <v>3.3</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D15" s="99" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="132" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="132" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B16" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="133" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="133" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="219" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B18" s="201" t="s">
         <v>440</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C18" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D18" s="99" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="219"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="100" t="s">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="200"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D19" s="107" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="219"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="100" t="s">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="200"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D20" s="107" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="215" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B22" s="202" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107" t="s">
+      <c r="C22" s="107"/>
+      <c r="D22" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="140" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="207"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D23" s="109" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="108" t="s">
+    <row r="24" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="207"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="108" t="s">
         <v>482</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D24" s="109" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="192" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B25" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C25" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D25" s="111" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
-      <c r="B25" s="196"/>
-      <c r="C25" s="140" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="212"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="140" t="s">
         <v>464</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D26" s="139" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="194"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="141" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="215"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="141" t="s">
         <v>484</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D27" s="111" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="B27" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="111" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
-        <v>372</v>
+        <v>253</v>
       </c>
       <c r="B28" s="108" t="s">
         <v>440</v>
@@ -32095,225 +32092,227 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="110" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="B29" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C29" s="108"/>
+      <c r="C29" s="108" t="s">
+        <v>22</v>
+      </c>
       <c r="D29" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="108"/>
+      <c r="D30" s="111" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="215" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="216" t="s">
+      <c r="B31" s="202" t="s">
         <v>440</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="80" t="s">
+      <c r="C31" s="107"/>
+      <c r="D31" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="207"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="112" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="207"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D33" s="107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="113" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="207"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D34" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B35" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C35" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="107"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="221" t="s">
+      <c r="D35" s="107"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="203" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="195" t="s">
+      <c r="B36" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="115" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="115" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="222"/>
-      <c r="B36" s="196"/>
-      <c r="C36" s="113" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="204"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D37" s="107" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="222"/>
-      <c r="B37" s="196"/>
-      <c r="C37" s="113" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="204"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D38" s="107" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="222"/>
-      <c r="B38" s="196"/>
-      <c r="C38" s="116" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="204"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D39" s="114" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="222"/>
-      <c r="B39" s="196"/>
-      <c r="C39" s="113" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="204"/>
+      <c r="B40" s="206"/>
+      <c r="C40" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D40" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
-      <c r="B40" s="196"/>
-      <c r="C40" s="113" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="204"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D41" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="222"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="113" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="204"/>
+      <c r="B42" s="206"/>
+      <c r="C42" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D42" s="114" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="113" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="204"/>
+      <c r="B43" s="206"/>
+      <c r="C43" s="113" t="s">
         <v>465</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D43" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="137" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="204"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="137" t="s">
         <v>467</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="222"/>
-      <c r="B44" s="196"/>
-      <c r="C44" s="137" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="204"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="223"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="103" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="205"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D46" s="61" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="B46" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C46" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="D46" s="111" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="117" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="B47" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C47" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="114" t="s">
-        <v>328</v>
+      <c r="C47" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="D47" s="111" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="117" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B48" s="108" t="s">
         <v>440</v>
       </c>
       <c r="C48" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="114"/>
+        <v>327</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="206" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="195" t="s">
+      <c r="A49" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="108" t="s">
         <v>440</v>
       </c>
       <c r="C49" s="113" t="s">
@@ -32322,1128 +32321,1126 @@
       <c r="D49" s="114"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
-      <c r="B50" s="197"/>
+      <c r="A50" s="213" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="198" t="s">
+        <v>440</v>
+      </c>
       <c r="C50" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="114"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="220"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D51" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="104" t="s">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="206" t="s">
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="213" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="195" t="s">
+      <c r="B53" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="208"/>
-      <c r="B53" s="196"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="208"/>
-      <c r="B54" s="196"/>
+      <c r="A54" s="214"/>
+      <c r="B54" s="206"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="214"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
-      <c r="B55" s="196"/>
-      <c r="C55" s="107" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="214"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="107" t="s">
+      <c r="D56" s="107" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="208"/>
-      <c r="B56" s="196"/>
-      <c r="C56" s="107" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="214"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D57" s="114" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="208"/>
-      <c r="B57" s="196"/>
-      <c r="C57" s="107" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="214"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D58" s="114" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
-      <c r="B58" s="196"/>
-      <c r="C58" s="120" t="s">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="214"/>
+      <c r="B59" s="206"/>
+      <c r="C59" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D59" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
-      <c r="B59" s="196"/>
-      <c r="C59" s="58" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="214"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D60" s="58" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="208"/>
-      <c r="B60" s="196"/>
-      <c r="C60" s="134" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="214"/>
+      <c r="B61" s="206"/>
+      <c r="C61" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D61" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="207"/>
-      <c r="B61" s="197"/>
-      <c r="C61" s="134" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="220"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D62" s="58" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="209" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="195" t="s">
+      <c r="B63" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C63" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D63" s="114" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="210"/>
-      <c r="B63" s="196"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="209"/>
+      <c r="B64" s="206"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="210"/>
-      <c r="B64" s="196"/>
-      <c r="C64" s="118" t="s">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="209"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D65" s="114" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="210"/>
-      <c r="B65" s="196"/>
-      <c r="C65" s="118" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="209"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="D65" s="114" t="s">
+      <c r="D66" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="210"/>
-      <c r="B66" s="196"/>
-      <c r="C66" s="118" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="209"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D67" s="114" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="210"/>
-      <c r="B67" s="196"/>
-      <c r="C67" s="118" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="209"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D68" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="210"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="118" t="s">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="209"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="D68" s="119" t="s">
+      <c r="D69" s="119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="210"/>
-      <c r="B69" s="196"/>
-      <c r="C69" s="110" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="209"/>
+      <c r="B70" s="206"/>
+      <c r="C70" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="D69" s="114" t="s">
+      <c r="D70" s="114" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="210"/>
-      <c r="B70" s="196"/>
-      <c r="C70" s="110" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="209"/>
+      <c r="B71" s="206"/>
+      <c r="C71" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D71" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="210"/>
-      <c r="B71" s="196"/>
-      <c r="C71" s="134" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="209"/>
+      <c r="B72" s="206"/>
+      <c r="C72" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D72" s="58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="210"/>
-      <c r="B72" s="196"/>
-      <c r="C72" s="134" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="209"/>
+      <c r="B73" s="206"/>
+      <c r="C73" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D73" s="58" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="211"/>
-      <c r="B73" s="197"/>
-      <c r="C73" s="134" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="210"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D74" s="58" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="192" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="195" t="s">
+      <c r="B75" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C74" s="212" t="s">
+      <c r="C75" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D75" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="193"/>
-      <c r="B75" s="196"/>
-      <c r="C75" s="213"/>
-      <c r="D75" s="114" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="212"/>
+      <c r="B76" s="206"/>
+      <c r="C76" s="222"/>
+      <c r="D76" s="114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="193"/>
-      <c r="B76" s="196"/>
-      <c r="C76" s="214" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="212"/>
+      <c r="B77" s="206"/>
+      <c r="C77" s="223" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="107" t="s">
+      <c r="D77" s="107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="193"/>
-      <c r="B77" s="196"/>
-      <c r="C77" s="214"/>
-      <c r="D77" s="120" t="s">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="212"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="223"/>
+      <c r="D78" s="120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="193"/>
-      <c r="B78" s="196"/>
-      <c r="C78" s="113" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="212"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="D78" s="107" t="s">
+      <c r="D79" s="107" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="193"/>
-      <c r="B79" s="196"/>
-      <c r="C79" s="113">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="212"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="113">
         <v>2.1</v>
       </c>
-      <c r="D79" s="107" t="s">
+      <c r="D80" s="107" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="193"/>
-      <c r="B80" s="196"/>
-      <c r="C80" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="107" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="193"/>
-      <c r="B81" s="196"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="206"/>
       <c r="C81" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D81" s="119" t="s">
-        <v>341</v>
+      <c r="D81" s="107" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="193"/>
-      <c r="B82" s="196"/>
+      <c r="A82" s="212"/>
+      <c r="B82" s="206"/>
       <c r="C82" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="212"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="114" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="193"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="121" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="212"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="D83" s="122" t="s">
+      <c r="D84" s="122" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="193"/>
-      <c r="B84" s="196"/>
-      <c r="C84" s="113">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="212"/>
+      <c r="B85" s="206"/>
+      <c r="C85" s="113">
         <v>2.1</v>
       </c>
-      <c r="D84" s="107" t="s">
+      <c r="D85" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="193"/>
-      <c r="B85" s="196"/>
-      <c r="C85" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="107" t="s">
-        <v>398</v>
-      </c>
-    </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="193"/>
-      <c r="B86" s="196"/>
+      <c r="A86" s="212"/>
+      <c r="B86" s="206"/>
       <c r="C86" s="113" t="s">
         <v>238</v>
       </c>
       <c r="D86" s="107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="212"/>
+      <c r="B87" s="206"/>
+      <c r="C87" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="107" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="193"/>
-      <c r="B87" s="196"/>
-      <c r="C87" s="113">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="212"/>
+      <c r="B88" s="206"/>
+      <c r="C88" s="113">
         <v>2.1</v>
       </c>
-      <c r="D87" s="107" t="s">
+      <c r="D88" s="107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="209" t="s">
+    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="208" t="s">
         <v>291</v>
       </c>
-      <c r="B88" s="195" t="s">
+      <c r="B89" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="107" t="s">
+      <c r="C89" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D88" s="107" t="s">
+      <c r="D89" s="107" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="210"/>
-      <c r="B89" s="196"/>
-      <c r="C89" s="120" t="s">
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="209"/>
+      <c r="B90" s="206"/>
+      <c r="C90" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="D89" s="107" t="s">
+      <c r="D90" s="107" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="211"/>
-      <c r="B90" s="197"/>
-      <c r="C90" s="107" t="s">
+    <row r="91" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="210"/>
+      <c r="B91" s="199"/>
+      <c r="C91" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="D90" s="107" t="s">
+      <c r="D91" s="107" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="206" t="s">
+    <row r="92" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="213" t="s">
         <v>365</v>
       </c>
-      <c r="B91" s="195" t="s">
+      <c r="B92" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C91" s="113" t="s">
+      <c r="C92" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="107"/>
-    </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="208"/>
-      <c r="B92" s="196"/>
-      <c r="C92" s="113" t="s">
+      <c r="D92" s="107"/>
+    </row>
+    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="214"/>
+      <c r="B93" s="206"/>
+      <c r="C93" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="D92" s="107" t="s">
+      <c r="D93" s="107" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="208"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="113">
+    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="214"/>
+      <c r="B94" s="206"/>
+      <c r="C94" s="113">
         <v>2.1</v>
       </c>
-      <c r="D93" s="107" t="s">
+      <c r="D94" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="208"/>
-      <c r="B94" s="196"/>
-      <c r="C94" s="113" t="s">
+    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="214"/>
+      <c r="B95" s="206"/>
+      <c r="C95" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="D94" s="107" t="s">
+      <c r="D95" s="107" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="208"/>
-      <c r="B95" s="196"/>
-      <c r="C95" s="113" t="s">
+    <row r="96" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="214"/>
+      <c r="B96" s="206"/>
+      <c r="C96" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="107" t="s">
+      <c r="D96" s="107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="104" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="104"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="105"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="110" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="105"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="B97" s="113" t="s">
+      <c r="B98" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C97" s="113" t="s">
+      <c r="C98" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="D97" s="114"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="192" t="s">
+      <c r="D98" s="114"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="211" t="s">
         <v>256</v>
       </c>
-      <c r="B98" s="195" t="s">
+      <c r="B99" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C98" s="107"/>
-      <c r="D98" s="80" t="s">
+      <c r="C99" s="107"/>
+      <c r="D99" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="193"/>
-      <c r="B99" s="196"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="107" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="212"/>
+      <c r="B100" s="206"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="193"/>
-      <c r="B100" s="196"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="114" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="212"/>
+      <c r="B101" s="206"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="193"/>
-      <c r="B101" s="196"/>
-      <c r="C101" s="107" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="212"/>
+      <c r="B102" s="206"/>
+      <c r="C102" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="D101" s="114" t="s">
+      <c r="D102" s="114" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="193"/>
-      <c r="B102" s="196"/>
-      <c r="C102" s="107" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="212"/>
+      <c r="B103" s="206"/>
+      <c r="C103" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="D102" s="114" t="s">
+      <c r="D103" s="114" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="193"/>
-      <c r="B103" s="196"/>
-      <c r="C103" s="107" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="212"/>
+      <c r="B104" s="206"/>
+      <c r="C104" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D103" s="114" t="s">
+      <c r="D104" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="215" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="B104" s="216" t="s">
+      <c r="B105" s="202" t="s">
         <v>440</v>
       </c>
-      <c r="C104" s="80" t="s">
+      <c r="C105" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D105" s="114" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="215"/>
-      <c r="B105" s="216"/>
-      <c r="C105" s="107" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="207"/>
+      <c r="B106" s="202"/>
+      <c r="C106" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="D105" s="107" t="s">
+      <c r="D106" s="107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="215"/>
-      <c r="B106" s="216"/>
-      <c r="C106" s="123" t="s">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="207"/>
+      <c r="B107" s="202"/>
+      <c r="C107" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="198" t="s">
+      <c r="D107" s="216" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="215"/>
-      <c r="B107" s="216"/>
-      <c r="C107" s="123" t="s">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="207"/>
+      <c r="B108" s="202"/>
+      <c r="C108" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="D107" s="199"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="215"/>
-      <c r="B108" s="216"/>
-      <c r="C108" s="123" t="s">
+      <c r="D108" s="217"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="207"/>
+      <c r="B109" s="202"/>
+      <c r="C109" s="123" t="s">
         <v>411</v>
       </c>
-      <c r="D108" s="199"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="215"/>
-      <c r="B109" s="216"/>
-      <c r="C109" s="123" t="s">
+      <c r="D109" s="217"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="207"/>
+      <c r="B110" s="202"/>
+      <c r="C110" s="123" t="s">
         <v>412</v>
       </c>
-      <c r="D109" s="199"/>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="215"/>
-      <c r="B110" s="216"/>
-      <c r="C110" s="123" t="s">
+      <c r="D110" s="217"/>
+    </row>
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="207"/>
+      <c r="B111" s="202"/>
+      <c r="C111" s="123" t="s">
         <v>471</v>
       </c>
-      <c r="D110" s="135" t="s">
+      <c r="D111" s="135" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="110" t="s">
+    <row r="112" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="113" t="s">
+      <c r="B112" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C111" s="108" t="s">
+      <c r="C112" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="111" t="s">
+      <c r="D112" s="111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="209" t="s">
+    <row r="113" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="195" t="s">
+      <c r="B113" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C112" s="107" t="s">
+      <c r="C113" s="107" t="s">
         <v>263</v>
-      </c>
-      <c r="D112" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="210"/>
-      <c r="B113" s="196"/>
-      <c r="C113" s="107" t="s">
-        <v>265</v>
       </c>
       <c r="D113" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="210"/>
-      <c r="B114" s="196"/>
+      <c r="A114" s="209"/>
+      <c r="B114" s="206"/>
       <c r="C114" s="107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D114" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="210"/>
-      <c r="B115" s="196"/>
-      <c r="C115" s="114" t="s">
+      <c r="A115" s="209"/>
+      <c r="B115" s="206"/>
+      <c r="C115" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="209"/>
+      <c r="B116" s="206"/>
+      <c r="C116" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="D115" s="114" t="s">
+      <c r="D116" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="210"/>
-      <c r="B116" s="196"/>
-      <c r="C116" s="107" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="209"/>
+      <c r="B117" s="206"/>
+      <c r="C117" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="D116" s="107" t="s">
+      <c r="D117" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="210"/>
-      <c r="B117" s="196"/>
-      <c r="C117" s="107" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="209"/>
+      <c r="B118" s="206"/>
+      <c r="C118" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="D117" s="107" t="s">
+      <c r="D118" s="107" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="210"/>
-      <c r="B118" s="196"/>
-      <c r="C118" s="114" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="209"/>
+      <c r="B119" s="206"/>
+      <c r="C119" s="114" t="s">
         <v>283</v>
-      </c>
-      <c r="D118" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="210"/>
-      <c r="B119" s="196"/>
-      <c r="C119" s="114" t="s">
-        <v>297</v>
       </c>
       <c r="D119" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="210"/>
-      <c r="B120" s="196"/>
+      <c r="A120" s="209"/>
+      <c r="B120" s="206"/>
       <c r="C120" s="114" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="209"/>
+      <c r="B121" s="206"/>
+      <c r="C121" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="D120" s="114" t="s">
+      <c r="D121" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="210"/>
-      <c r="B121" s="196"/>
-      <c r="C121" s="124" t="s">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="209"/>
+      <c r="B122" s="206"/>
+      <c r="C122" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="D121" s="111" t="s">
+      <c r="D122" s="111" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="210"/>
-      <c r="B122" s="196"/>
-      <c r="C122" s="118" t="s">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="209"/>
+      <c r="B123" s="206"/>
+      <c r="C123" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="D122" s="114" t="s">
+      <c r="D123" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="210"/>
-      <c r="B123" s="196"/>
-      <c r="C123" s="107" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="209"/>
+      <c r="B124" s="206"/>
+      <c r="C124" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="D123" s="107" t="s">
+      <c r="D124" s="107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="210"/>
-      <c r="B124" s="196"/>
-      <c r="C124" s="114" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="209"/>
+      <c r="B125" s="206"/>
+      <c r="C125" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="D124" s="114" t="s">
+      <c r="D125" s="114" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="210"/>
-      <c r="B125" s="196"/>
-      <c r="C125" s="114" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="209"/>
+      <c r="B126" s="206"/>
+      <c r="C126" s="114" t="s">
         <v>310</v>
-      </c>
-      <c r="D125" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="210"/>
-      <c r="B126" s="196"/>
-      <c r="C126" s="114" t="s">
-        <v>263</v>
       </c>
       <c r="D126" s="114" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="210"/>
-      <c r="B127" s="196"/>
-      <c r="C127" s="107" t="s">
+      <c r="A127" s="209"/>
+      <c r="B127" s="206"/>
+      <c r="C127" s="114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="209"/>
+      <c r="B128" s="206"/>
+      <c r="C128" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="D127" s="107" t="s">
+      <c r="D128" s="107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="210"/>
-      <c r="B128" s="196"/>
-      <c r="C128" s="114" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="209"/>
+      <c r="B129" s="206"/>
+      <c r="C129" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="D128" s="114" t="s">
+      <c r="D129" s="114" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="210"/>
-      <c r="B129" s="196"/>
-      <c r="C129" s="114" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="209"/>
+      <c r="B130" s="206"/>
+      <c r="C130" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="D129" s="114" t="s">
+      <c r="D130" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="210"/>
-      <c r="B130" s="196"/>
-      <c r="C130" s="107"/>
-      <c r="D130" s="97" t="s">
+    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="209"/>
+      <c r="B131" s="206"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="97" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="210"/>
-      <c r="B131" s="196"/>
-      <c r="C131" s="114" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="209"/>
+      <c r="B132" s="206"/>
+      <c r="C132" s="114" t="s">
         <v>317</v>
-      </c>
-      <c r="D131" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="210"/>
-      <c r="B132" s="196"/>
-      <c r="C132" s="114" t="s">
-        <v>263</v>
       </c>
       <c r="D132" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="210"/>
-      <c r="B133" s="196"/>
+      <c r="A133" s="209"/>
+      <c r="B133" s="206"/>
       <c r="C133" s="114" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="D133" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="210"/>
-      <c r="B134" s="196"/>
+      <c r="A134" s="209"/>
+      <c r="B134" s="206"/>
       <c r="C134" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="210"/>
-      <c r="B135" s="196"/>
+      <c r="A135" s="209"/>
+      <c r="B135" s="206"/>
       <c r="C135" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="209"/>
+      <c r="B136" s="206"/>
+      <c r="C136" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D135" s="114" t="s">
+      <c r="D136" s="114" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="210"/>
-      <c r="B136" s="196"/>
-      <c r="C136" s="119" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="209"/>
+      <c r="B137" s="206"/>
+      <c r="C137" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="D136" s="119" t="s">
+      <c r="D137" s="119" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="210"/>
-      <c r="B137" s="196"/>
-      <c r="C137" s="114" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="209"/>
+      <c r="B138" s="206"/>
+      <c r="C138" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="D137" s="114" t="s">
+      <c r="D138" s="114" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="210"/>
-      <c r="B138" s="196"/>
-      <c r="C138" s="114" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="209"/>
+      <c r="B139" s="206"/>
+      <c r="C139" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="D138" s="114" t="s">
+      <c r="D139" s="114" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="210"/>
-      <c r="B139" s="196"/>
-      <c r="C139" s="101" t="s">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="209"/>
+      <c r="B140" s="206"/>
+      <c r="C140" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="D139" s="125" t="s">
+      <c r="D140" s="125" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="210"/>
-      <c r="B140" s="196"/>
-      <c r="C140" s="114" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="209"/>
+      <c r="B141" s="206"/>
+      <c r="C141" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="D140" s="114" t="s">
+      <c r="D141" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="210"/>
-      <c r="B141" s="196"/>
-      <c r="C141" s="114" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="209"/>
+      <c r="B142" s="206"/>
+      <c r="C142" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="D141" s="114" t="s">
+      <c r="D142" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="210"/>
-      <c r="B142" s="196"/>
-      <c r="C142" s="114" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="209"/>
+      <c r="B143" s="206"/>
+      <c r="C143" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="D142" s="114" t="s">
+      <c r="D143" s="114" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="210"/>
-      <c r="B143" s="196"/>
-      <c r="C143" s="114" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="209"/>
+      <c r="B144" s="206"/>
+      <c r="C144" s="114" t="s">
         <v>361</v>
-      </c>
-      <c r="D143" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="210"/>
-      <c r="B144" s="196"/>
-      <c r="C144" s="114" t="s">
-        <v>367</v>
       </c>
       <c r="D144" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="210"/>
-      <c r="B145" s="196"/>
+      <c r="A145" s="209"/>
+      <c r="B145" s="206"/>
       <c r="C145" s="114" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D145" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="210"/>
-      <c r="B146" s="196"/>
-      <c r="C146" s="119" t="s">
+      <c r="A146" s="209"/>
+      <c r="B146" s="206"/>
+      <c r="C146" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D146" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="209"/>
+      <c r="B147" s="206"/>
+      <c r="C147" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="D146" s="119" t="s">
+      <c r="D147" s="119" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="210"/>
-      <c r="B147" s="196"/>
-      <c r="C147" s="107" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="209"/>
+      <c r="B148" s="206"/>
+      <c r="C148" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="D147" s="107" t="s">
+      <c r="D148" s="107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="210"/>
-      <c r="B148" s="196"/>
-      <c r="C148" s="107" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="209"/>
+      <c r="B149" s="206"/>
+      <c r="C149" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="D149" s="107" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="210"/>
-      <c r="B149" s="196"/>
-      <c r="C149" s="107" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="209"/>
+      <c r="B150" s="206"/>
+      <c r="C150" s="107" t="s">
         <v>388</v>
-      </c>
-      <c r="D149" s="107" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="210"/>
-      <c r="B150" s="196"/>
-      <c r="C150" s="107" t="s">
-        <v>389</v>
       </c>
       <c r="D150" s="107" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="210"/>
-      <c r="B151" s="196"/>
+      <c r="A151" s="209"/>
+      <c r="B151" s="206"/>
       <c r="C151" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="D151" s="107" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="209"/>
+      <c r="B152" s="206"/>
+      <c r="C152" s="107" t="s">
         <v>390</v>
-      </c>
-      <c r="D151" s="107" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="210"/>
-      <c r="B152" s="196"/>
-      <c r="C152" s="107" t="s">
-        <v>391</v>
       </c>
       <c r="D152" s="107" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="210"/>
-      <c r="B153" s="196"/>
+      <c r="A153" s="209"/>
+      <c r="B153" s="206"/>
       <c r="C153" s="107" t="s">
+        <v>391</v>
+      </c>
+      <c r="D153" s="107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="209"/>
+      <c r="B154" s="206"/>
+      <c r="C154" s="107" t="s">
         <v>394</v>
-      </c>
-      <c r="D153" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="210"/>
-      <c r="B154" s="196"/>
-      <c r="C154" s="107" t="s">
-        <v>404</v>
       </c>
       <c r="D154" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="210"/>
-      <c r="B155" s="196"/>
+      <c r="A155" s="209"/>
+      <c r="B155" s="206"/>
       <c r="C155" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="D155" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="209"/>
+      <c r="B156" s="206"/>
+      <c r="C156" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="D155" s="107" t="s">
+      <c r="D156" s="107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="210"/>
-      <c r="B156" s="196"/>
-      <c r="C156" s="107" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="209"/>
+      <c r="B157" s="206"/>
+      <c r="C157" s="107" t="s">
         <v>422</v>
-      </c>
-      <c r="D156" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="210"/>
-      <c r="B157" s="196"/>
-      <c r="C157" s="107" t="s">
-        <v>423</v>
       </c>
       <c r="D157" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="210"/>
-      <c r="B158" s="196"/>
+      <c r="A158" s="209"/>
+      <c r="B158" s="206"/>
       <c r="C158" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D158" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="209"/>
+      <c r="B159" s="206"/>
+      <c r="C159" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="D158" s="107" t="s">
+      <c r="D159" s="107" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="211"/>
-      <c r="B159" s="197"/>
-      <c r="C159" s="58" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="210"/>
+      <c r="B160" s="199"/>
+      <c r="C160" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D159" s="58" t="s">
+      <c r="D160" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="126" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="126" t="s">
         <v>416</v>
-      </c>
-      <c r="B160" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C160" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D160" s="114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="110" t="s">
-        <v>304</v>
       </c>
       <c r="B161" s="108" t="s">
         <v>440</v>
@@ -33455,9 +33452,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B162" s="108" t="s">
         <v>440</v>
@@ -33469,451 +33466,467 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="104" t="s">
+    <row r="163" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C163" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B163" s="104"/>
-      <c r="C163" s="104"/>
-      <c r="D163" s="105"/>
-    </row>
-    <row r="164" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="192" t="s">
+      <c r="B164" s="104"/>
+      <c r="C164" s="104"/>
+      <c r="D164" s="105"/>
+    </row>
+    <row r="165" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="B164" s="195" t="s">
+      <c r="B165" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C164" s="107"/>
-      <c r="D164" s="80" t="s">
+      <c r="C165" s="107"/>
+      <c r="D165" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="193"/>
-      <c r="B165" s="196"/>
-      <c r="C165" s="108" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="212"/>
+      <c r="B166" s="206"/>
+      <c r="C166" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D165" s="107" t="s">
+      <c r="D166" s="107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="193"/>
-      <c r="B166" s="196"/>
-      <c r="C166" s="108">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="212"/>
+      <c r="B167" s="206"/>
+      <c r="C167" s="108">
         <v>10.1</v>
-      </c>
-      <c r="D166" s="107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="193"/>
-      <c r="B167" s="196"/>
-      <c r="C167" s="108">
-        <v>10.199999999999999</v>
       </c>
       <c r="D167" s="107" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="193"/>
-      <c r="B168" s="196"/>
-      <c r="C168" s="98" t="s">
+      <c r="A168" s="212"/>
+      <c r="B168" s="206"/>
+      <c r="C168" s="108">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D168" s="107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="212"/>
+      <c r="B169" s="206"/>
+      <c r="C169" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D168" s="95" t="s">
+      <c r="D169" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="193"/>
-      <c r="B169" s="196"/>
-      <c r="C169" s="98" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="212"/>
+      <c r="B170" s="206"/>
+      <c r="C170" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D169" s="95" t="s">
+      <c r="D170" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="193"/>
-      <c r="B170" s="196"/>
-      <c r="C170" s="98" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="212"/>
+      <c r="B171" s="206"/>
+      <c r="C171" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D170" s="95" t="s">
+      <c r="D171" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="193"/>
-      <c r="B171" s="196"/>
-      <c r="C171" s="98" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="212"/>
+      <c r="B172" s="206"/>
+      <c r="C172" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D171" s="95" t="s">
+      <c r="D172" s="95" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="193"/>
-      <c r="B172" s="196"/>
-      <c r="C172" s="98" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="212"/>
+      <c r="B173" s="206"/>
+      <c r="C173" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D172" s="95" t="s">
+      <c r="D173" s="95" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="194"/>
-      <c r="B173" s="197"/>
-      <c r="C173" s="98" t="s">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="215"/>
+      <c r="B174" s="199"/>
+      <c r="C174" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D173" s="136" t="s">
+      <c r="D174" s="136" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="195" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="B174" s="195" t="s">
+      <c r="B175" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C174" s="98"/>
-      <c r="D174" s="127" t="s">
+      <c r="C175" s="98"/>
+      <c r="D175" s="127" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="196"/>
-      <c r="B175" s="196"/>
-      <c r="C175" s="128" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="206"/>
+      <c r="B176" s="206"/>
+      <c r="C176" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="D175" s="102" t="s">
+      <c r="D176" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="111" t="s">
+    <row r="177" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B176" s="108" t="s">
+      <c r="B177" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C176" s="108" t="s">
+      <c r="C177" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D176" s="114" t="s">
+      <c r="D177" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="129" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="B177" s="104"/>
-      <c r="C177" s="130"/>
-      <c r="D177" s="130"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="192" t="s">
+      <c r="B178" s="104"/>
+      <c r="C178" s="130"/>
+      <c r="D178" s="130"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="211" t="s">
         <v>248</v>
       </c>
-      <c r="B178" s="195" t="s">
+      <c r="B179" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C178" s="131" t="s">
+      <c r="C179" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D178" s="107" t="s">
+      <c r="D179" s="107" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="194"/>
-      <c r="B179" s="197"/>
-      <c r="C179" s="131" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="215"/>
+      <c r="B180" s="199"/>
+      <c r="C180" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="D179" s="107" t="s">
+      <c r="D180" s="107" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="192" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="211" t="s">
         <v>280</v>
       </c>
-      <c r="B180" s="195" t="s">
+      <c r="B181" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C180" s="95" t="s">
+      <c r="C181" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D180" s="107" t="s">
+      <c r="D181" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="193"/>
-      <c r="B181" s="196"/>
-      <c r="C181" s="107" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="212"/>
+      <c r="B182" s="206"/>
+      <c r="C182" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D181" s="114" t="s">
+      <c r="D182" s="114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="193"/>
-      <c r="B182" s="196"/>
-      <c r="C182" s="131" t="s">
+    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="212"/>
+      <c r="B183" s="206"/>
+      <c r="C183" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D182" s="107" t="s">
+      <c r="D183" s="107" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="194"/>
-      <c r="B183" s="197"/>
-      <c r="C183" s="131" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="215"/>
+      <c r="B184" s="199"/>
+      <c r="C184" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D183" s="107" t="s">
+      <c r="D184" s="107" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="138" t="s">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="138" t="s">
         <v>479</v>
       </c>
-      <c r="B184" s="140" t="s">
+      <c r="B185" s="140" t="s">
         <v>440</v>
       </c>
-      <c r="C184" s="131" t="s">
+      <c r="C185" s="131" t="s">
         <v>480</v>
       </c>
-      <c r="D184" s="110" t="s">
+      <c r="D185" s="110" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="130" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B185" s="130"/>
-      <c r="C185" s="130"/>
-      <c r="D185" s="130"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="192" t="s">
+      <c r="B186" s="130"/>
+      <c r="C186" s="130"/>
+      <c r="D186" s="130"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="B186" s="195" t="s">
+      <c r="B187" s="198" t="s">
         <v>266</v>
       </c>
-      <c r="C186" s="131" t="s">
-        <v>260</v>
-      </c>
-      <c r="D186" s="107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="193"/>
-      <c r="B187" s="196"/>
       <c r="C187" s="131" t="s">
         <v>260</v>
       </c>
       <c r="D187" s="107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="212"/>
+      <c r="B188" s="206"/>
+      <c r="C188" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D188" s="107" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="194"/>
-      <c r="B188" s="197"/>
-      <c r="C188" s="107"/>
-      <c r="D188" s="107" t="s">
+    <row r="189" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="215"/>
+      <c r="B189" s="199"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="217" t="s">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="B189" s="195" t="s">
+      <c r="B190" s="198" t="s">
         <v>266</v>
       </c>
-      <c r="C189" s="120" t="s">
+      <c r="C190" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="D189" s="107" t="s">
+      <c r="D190" s="107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="218"/>
-      <c r="B190" s="197"/>
-      <c r="C190" s="120"/>
-      <c r="D190" s="107" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="197"/>
+      <c r="B191" s="199"/>
+      <c r="C191" s="120"/>
+      <c r="D191" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="217" t="s">
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="196" t="s">
         <v>286</v>
       </c>
-      <c r="B191" s="195" t="s">
+      <c r="B192" s="198" t="s">
         <v>266</v>
       </c>
-      <c r="C191" s="120"/>
-      <c r="D191" s="120" t="s">
+      <c r="C192" s="120"/>
+      <c r="D192" s="120" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="218"/>
-      <c r="B192" s="197"/>
-      <c r="C192" s="107"/>
-      <c r="D192" s="107" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="197"/>
+      <c r="B193" s="199"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="217" t="s">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="B193" s="195" t="s">
+      <c r="B194" s="198" t="s">
         <v>266</v>
       </c>
-      <c r="C193" s="120" t="s">
+      <c r="C194" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="D193" s="107" t="s">
+      <c r="D194" s="107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="218"/>
-      <c r="B194" s="197"/>
-      <c r="C194" s="107"/>
-      <c r="D194" s="107" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="197"/>
+      <c r="B195" s="199"/>
+      <c r="C195" s="107"/>
+      <c r="D195" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="130" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="B195" s="130"/>
-      <c r="C195" s="130"/>
-      <c r="D195" s="130"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="107"/>
-      <c r="B196" s="108" t="s">
+      <c r="B196" s="130"/>
+      <c r="C196" s="130"/>
+      <c r="D196" s="130"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="107"/>
+      <c r="B197" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C196" s="107" t="s">
+      <c r="C197" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="114" t="s">
+      <c r="D197" s="114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="130" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B197" s="130"/>
-      <c r="C197" s="130"/>
-      <c r="D197" s="130"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="107"/>
-      <c r="B198" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C198" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="114" t="s">
-        <v>269</v>
-      </c>
+      <c r="B198" s="130"/>
+      <c r="C198" s="130"/>
+      <c r="D198" s="130"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="107"/>
-      <c r="B199" s="108"/>
+      <c r="B199" s="108" t="s">
+        <v>440</v>
+      </c>
       <c r="C199" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="107"/>
+      <c r="B200" s="108"/>
+      <c r="C200" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="D199" s="114" t="s">
+      <c r="D200" s="114" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="55">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A165:A174"/>
+    <mergeCell ref="B165:B174"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="A113:A160"/>
+    <mergeCell ref="B113:B160"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A112:A159"/>
-    <mergeCell ref="B112:B159"/>
-    <mergeCell ref="A74:A87"/>
-    <mergeCell ref="B74:B87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="B104:B110"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A164:A173"/>
-    <mergeCell ref="B164:B173"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C345F-B63A-44D0-8AD7-A901F43BA3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5203687-9306-4F3F-A25D-B49C558CEFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="493">
   <si>
     <t>Document</t>
   </si>
@@ -3353,6 +3353,9 @@
   </si>
   <si>
     <t>Added new CAB changes</t>
+  </si>
+  <si>
+    <t>corrected to softwaretestnextversion.ros.ie</t>
   </si>
 </sst>
 </file>
@@ -4392,38 +4395,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4446,6 +4419,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4467,42 +4500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4510,39 +4507,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4554,36 +4560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4592,6 +4568,33 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5605,7 +5608,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5615,7 +5618,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5725,10 +5728,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5739,8 +5742,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5749,8 +5752,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5759,8 +5762,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5769,8 +5772,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5779,8 +5782,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="158"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5789,10 +5792,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5803,8 +5806,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="158"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5813,8 +5816,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="158"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5823,10 +5826,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5837,8 +5840,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5847,8 +5850,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5857,8 +5860,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5867,8 +5870,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5877,8 +5880,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5887,8 +5890,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5897,8 +5900,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5907,26 +5910,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="161" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="158" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="168"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5937,8 +5940,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5965,28 +5968,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="161" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="159"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="171"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="161"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="159"/>
-      <c r="B32" s="158"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5995,8 +5998,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="159"/>
-      <c r="B33" s="158"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6005,8 +6008,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="159"/>
-      <c r="B34" s="158"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6015,8 +6018,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="159"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6025,8 +6028,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="159"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6035,26 +6038,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="159"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="172" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="174" t="s">
+      <c r="D37" s="164" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="159"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="174"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6065,8 +6068,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6093,10 +6096,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="159" t="s">
+      <c r="A43" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6105,8 +6108,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="159"/>
-      <c r="B44" s="158"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6115,10 +6118,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6127,8 +6130,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="158"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6137,8 +6140,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="166"/>
-      <c r="B47" s="158"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6147,8 +6150,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="167"/>
-      <c r="B48" s="158"/>
+      <c r="A48" s="170"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6157,10 +6160,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="162" t="s">
+      <c r="A49" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="162" t="s">
+      <c r="B49" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10264,8 +10267,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14369,8 +14372,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18474,8 +18477,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22579,12 +22582,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
-      <c r="B53" s="162"/>
-      <c r="C53" s="170" t="s">
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="171" t="s">
+      <c r="D53" s="161" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26684,10 +26687,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="171"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30805,10 +30808,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30819,8 +30822,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30829,8 +30832,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30839,8 +30842,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30849,8 +30852,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
-      <c r="B61" s="162"/>
+      <c r="A61" s="165"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30859,8 +30862,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
-      <c r="B62" s="162"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30869,8 +30872,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
-      <c r="B63" s="162"/>
+      <c r="A63" s="165"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30879,16 +30882,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
-      <c r="B64" s="162"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="163"/>
-      <c r="B65" s="162"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="166"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30897,16 +30900,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30915,8 +30918,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="163"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="166"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30925,8 +30928,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="163"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="165"/>
+      <c r="B69" s="166"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30935,8 +30938,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="163"/>
-      <c r="B70" s="162"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30945,8 +30948,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="163"/>
-      <c r="B71" s="162"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30955,8 +30958,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
-      <c r="B72" s="162"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30965,16 +30968,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="163"/>
-      <c r="B74" s="162"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30983,18 +30986,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
-      <c r="B75" s="162"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="164" t="s">
+      <c r="A75" s="165"/>
+      <c r="B75" s="166"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="167" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="163"/>
-      <c r="B76" s="162"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="164"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="167"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31018,8 +31021,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31028,29 +31031,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31065,6 +31052,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31118,10 +31121,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31132,133 +31135,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="184" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="181" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="183"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="181"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="181" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="181"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="181"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="183" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="181" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="183"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="185"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="185"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="185"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="185"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="185"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="185"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="185"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="185"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="185"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31356,10 +31359,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31370,26 +31373,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
-      <c r="B33" s="190"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
-      <c r="B34" s="190"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
-      <c r="B35" s="190"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="191"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31418,10 +31421,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31432,8 +31435,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="159"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="173"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31442,84 +31445,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="157" t="s">
+      <c r="A41" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="161" t="s">
+      <c r="D41" s="157" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="157"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="161"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="182" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="164" t="s">
+      <c r="D43" s="167" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="157"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="164"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="167"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="175" t="s">
+      <c r="A46" s="165"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="185" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="176"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="186"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="163"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="176"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="186"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="176"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="163"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="177"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="187"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31542,10 +31545,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="166" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31556,8 +31559,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31566,8 +31569,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31576,9 +31579,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="181" t="s">
+      <c r="A56" s="166"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="191" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31586,16 +31589,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="181"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="191"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31604,8 +31607,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31614,9 +31617,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
-      <c r="B60" s="162"/>
-      <c r="C60" s="181" t="s">
+      <c r="A60" s="166"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="191" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31624,25 +31627,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="181"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="191"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="181"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="191"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="182" t="s">
+      <c r="A63" s="166"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="184" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31650,30 +31653,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="164" t="s">
+      <c r="A64" s="166"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="167" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="164"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="184"/>
+      <c r="D65" s="167"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="162"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="164"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="184"/>
+      <c r="D66" s="167"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
-      <c r="B67" s="162"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="164"/>
+      <c r="A67" s="166"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="167"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31729,23 +31732,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31762,6 +31748,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31770,10 +31773,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31807,10 +31810,10 @@
       <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="192" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="203" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31821,8 +31824,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
-      <c r="B4" s="193"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31831,10 +31834,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="192" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C5" s="100"/>
@@ -31843,8 +31846,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="199"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="100"/>
       <c r="D6" t="s">
         <v>491</v>
@@ -31871,10 +31874,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="192" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C9" s="100" t="s">
@@ -31885,8 +31888,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
-      <c r="B10" s="206"/>
+      <c r="A10" s="202"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="100" t="s">
         <v>445</v>
       </c>
@@ -31895,8 +31898,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
-      <c r="B11" s="206"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="100" t="s">
         <v>447</v>
       </c>
@@ -31905,8 +31908,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
-      <c r="B12" s="199"/>
+      <c r="A12" s="193"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="100" t="s">
         <v>435</v>
       </c>
@@ -31915,10 +31918,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="203" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -31929,8 +31932,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
-      <c r="B14" s="206"/>
+      <c r="A14" s="204"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="100" t="s">
         <v>454</v>
       </c>
@@ -31939,8 +31942,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="205"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="100">
         <v>3.3</v>
       </c>
@@ -31969,10 +31972,10 @@
       <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="219" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="220" t="s">
         <v>440</v>
       </c>
       <c r="C18" s="100" t="s">
@@ -31983,8 +31986,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="200"/>
-      <c r="B19" s="201"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="100" t="s">
         <v>342</v>
       </c>
@@ -31993,8 +31996,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="200"/>
-      <c r="B20" s="201"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="100" t="s">
         <v>338</v>
       </c>
@@ -32011,10 +32014,10 @@
       <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="216" t="s">
         <v>440</v>
       </c>
       <c r="C22" s="107"/>
@@ -32023,8 +32026,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="207"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="140" t="s">
         <v>234</v>
       </c>
@@ -32033,8 +32036,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="207"/>
-      <c r="B24" s="202"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="108" t="s">
         <v>482</v>
       </c>
@@ -32043,10 +32046,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="211" t="s">
+      <c r="A25" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C25" s="108" t="s">
@@ -32057,8 +32060,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
-      <c r="B26" s="206"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="140" t="s">
         <v>464</v>
       </c>
@@ -32067,8 +32070,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="215"/>
-      <c r="B27" s="199"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="141" t="s">
         <v>484</v>
       </c>
@@ -32117,10 +32120,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="215" t="s">
         <v>270</v>
       </c>
-      <c r="B31" s="202" t="s">
+      <c r="B31" s="216" t="s">
         <v>440</v>
       </c>
       <c r="C31" s="107"/>
@@ -32129,16 +32132,16 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="207"/>
-      <c r="B32" s="202"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="107"/>
       <c r="D32" s="107" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="207"/>
-      <c r="B33" s="202"/>
+      <c r="A33" s="215"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="112" t="s">
         <v>320</v>
       </c>
@@ -32147,8 +32150,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="207"/>
-      <c r="B34" s="202"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="113" t="s">
         <v>399</v>
       </c>
@@ -32169,10 +32172,10 @@
       <c r="D35" s="107"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="203" t="s">
+      <c r="A36" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="198" t="s">
+      <c r="B36" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C36" s="107"/>
@@ -32181,8 +32184,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="204"/>
-      <c r="B37" s="206"/>
+      <c r="A37" s="222"/>
+      <c r="B37" s="199"/>
       <c r="C37" s="113" t="s">
         <v>356</v>
       </c>
@@ -32191,8 +32194,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="204"/>
-      <c r="B38" s="206"/>
+      <c r="A38" s="222"/>
+      <c r="B38" s="199"/>
       <c r="C38" s="113" t="s">
         <v>354</v>
       </c>
@@ -32201,8 +32204,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="204"/>
-      <c r="B39" s="206"/>
+      <c r="A39" s="222"/>
+      <c r="B39" s="199"/>
       <c r="C39" s="116" t="s">
         <v>362</v>
       </c>
@@ -32211,8 +32214,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="206"/>
+      <c r="A40" s="222"/>
+      <c r="B40" s="199"/>
       <c r="C40" s="113" t="s">
         <v>354</v>
       </c>
@@ -32221,8 +32224,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="206"/>
+      <c r="A41" s="222"/>
+      <c r="B41" s="199"/>
       <c r="C41" s="113" t="s">
         <v>366</v>
       </c>
@@ -32231,8 +32234,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
-      <c r="B42" s="206"/>
+      <c r="A42" s="222"/>
+      <c r="B42" s="199"/>
       <c r="C42" s="113" t="s">
         <v>354</v>
       </c>
@@ -32241,8 +32244,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="206"/>
+      <c r="A43" s="222"/>
+      <c r="B43" s="199"/>
       <c r="C43" s="113" t="s">
         <v>465</v>
       </c>
@@ -32251,8 +32254,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="206"/>
+      <c r="A44" s="222"/>
+      <c r="B44" s="199"/>
       <c r="C44" s="137" t="s">
         <v>467</v>
       </c>
@@ -32261,8 +32264,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="206"/>
+      <c r="A45" s="222"/>
+      <c r="B45" s="199"/>
       <c r="C45" s="137" t="s">
         <v>354</v>
       </c>
@@ -32271,8 +32274,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="205"/>
-      <c r="B46" s="199"/>
+      <c r="A46" s="223"/>
+      <c r="B46" s="195"/>
       <c r="C46" s="103" t="s">
         <v>467</v>
       </c>
@@ -32321,10 +32324,10 @@
       <c r="D49" s="114"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="213" t="s">
+      <c r="A50" s="206" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="198" t="s">
+      <c r="B50" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C50" s="113" t="s">
@@ -32333,8 +32336,8 @@
       <c r="D50" s="114"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="220"/>
-      <c r="B51" s="199"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="195"/>
       <c r="C51" s="113" t="s">
         <v>399</v>
       </c>
@@ -32351,10 +32354,10 @@
       <c r="D52" s="104"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="213" t="s">
+      <c r="A53" s="206" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="198" t="s">
+      <c r="B53" s="194" t="s">
         <v>440</v>
       </c>
       <c r="C53" s="107"/>
@@ -32363,24 +32366,24 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="214"/>
-      <c r="B54" s="206"/>
+      <c r="A54" s="208"/>
+      <c r="B54" s="199"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="214"/>
-      <c r="B55" s="206"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="199"/>
       <c r="C55" s="107"/>
       <c r="D55" s="107" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="214"/>
-      <c r="B56" s="206"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="107" t="s">
         <v>295</v>
       </c>
@@ -32389,8 +32392,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="214"/>
-      <c r="B57" s="206"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="199"/>
       <c r="C57" s="107" t="s">
         <v>323</v>
       </c>
@@ -32399,8 +32402,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="214"/>
-      <c r="B58" s="206"/>
+      <c r="A58" s="208"/>
+      <c r="B58" s="199"/>
       <c r="C58" s="107" t="s">
         <v>368</v>
       </c>
@@ -32409,8 +32412,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="214"/>
-      <c r="B59" s="206"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="199"/>
       <c r="C59" s="120" t="s">
         <v>469</v>
       </c>
@@ -32419,8 +32422,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="214"/>
-      <c r="B60" s="206"/>
+      <c r="A60" s="208"/>
+      <c r="B60" s="199"/>
       <c r="C60" s="58" t="s">
         <v>37</v>
       </c>
@@ -32429,8 +32432,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="214"/>
-      <c r="B61" s="206"/>
+      <c r="A61" s="208"/>
+      <c r="B61" s="199"/>
       <c r="C61" s="134" t="s">
         <v>354</v>
       </c>
@@ -32439,7 +32442,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="220"/>
+      <c r="A62" s="208"/>
       <c r="B62" s="199"/>
       <c r="C62" s="134" t="s">
         <v>467</v>
@@ -32449,1026 +32452,1018 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="208" t="s">
+      <c r="A63" s="207"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="134" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="198" t="s">
+      <c r="B64" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C63" s="107" t="s">
+      <c r="C64" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D64" s="114" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="209"/>
-      <c r="B64" s="206"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="210"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="209"/>
-      <c r="B65" s="206"/>
-      <c r="C65" s="118" t="s">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="210"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="114" t="s">
+      <c r="D66" s="114" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="209"/>
-      <c r="B66" s="206"/>
-      <c r="C66" s="118" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="210"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D67" s="114" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="209"/>
-      <c r="B67" s="206"/>
-      <c r="C67" s="118" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="210"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D68" s="114" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="209"/>
-      <c r="B68" s="206"/>
-      <c r="C68" s="118" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="210"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="D68" s="114" t="s">
+      <c r="D69" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="209"/>
-      <c r="B69" s="206"/>
-      <c r="C69" s="118" t="s">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="210"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="D69" s="119" t="s">
+      <c r="D70" s="119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="209"/>
-      <c r="B70" s="206"/>
-      <c r="C70" s="110" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="210"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D71" s="114" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="209"/>
-      <c r="B71" s="206"/>
-      <c r="C71" s="110" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="210"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D72" s="114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="209"/>
-      <c r="B72" s="206"/>
-      <c r="C72" s="134" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="210"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D73" s="58" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="209"/>
-      <c r="B73" s="206"/>
-      <c r="C73" s="134" t="s">
-        <v>354</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="210"/>
       <c r="B74" s="199"/>
       <c r="C74" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D74" s="58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="210"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D75" s="58" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="211" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="211"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="134" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="196" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="198" t="s">
+      <c r="B77" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C75" s="221" t="s">
+      <c r="C77" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D77" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="212"/>
-      <c r="B76" s="206"/>
-      <c r="C76" s="222"/>
-      <c r="D76" s="114" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="197"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="213"/>
+      <c r="D78" s="114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="212"/>
-      <c r="B77" s="206"/>
-      <c r="C77" s="223" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="197"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="107" t="s">
+      <c r="D79" s="107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="212"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="223"/>
-      <c r="D78" s="120" t="s">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="197"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="214"/>
+      <c r="D80" s="120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="212"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="113" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="197"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="D79" s="107" t="s">
+      <c r="D81" s="107" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="212"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="113">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="197"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="113">
         <v>2.1</v>
       </c>
-      <c r="D80" s="107" t="s">
+      <c r="D82" s="107" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="212"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="212"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="119" t="s">
-        <v>341</v>
-      </c>
-    </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="212"/>
-      <c r="B83" s="206"/>
+      <c r="A83" s="197"/>
+      <c r="B83" s="199"/>
       <c r="C83" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="197"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="197"/>
+      <c r="B85" s="199"/>
+      <c r="C85" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="114" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="212"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="121" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="197"/>
+      <c r="B86" s="199"/>
+      <c r="C86" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="D84" s="122" t="s">
+      <c r="D86" s="122" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="212"/>
-      <c r="B85" s="206"/>
-      <c r="C85" s="113">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="197"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="113">
         <v>2.1</v>
       </c>
-      <c r="D85" s="107" t="s">
+      <c r="D87" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="212"/>
-      <c r="B86" s="206"/>
-      <c r="C86" s="113" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="197"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D86" s="107" t="s">
+      <c r="D88" s="107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="212"/>
-      <c r="B87" s="206"/>
-      <c r="C87" s="113" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="197"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D87" s="107" t="s">
+      <c r="D89" s="107" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="212"/>
-      <c r="B88" s="206"/>
-      <c r="C88" s="113">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="197"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="113">
         <v>2.1</v>
       </c>
-      <c r="D88" s="107" t="s">
+      <c r="D90" s="107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="208" t="s">
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B89" s="198" t="s">
+      <c r="B91" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C89" s="107" t="s">
+      <c r="C91" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D89" s="107" t="s">
+      <c r="D91" s="107" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="209"/>
-      <c r="B90" s="206"/>
-      <c r="C90" s="120" t="s">
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="210"/>
+      <c r="B92" s="199"/>
+      <c r="C92" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="D90" s="107" t="s">
+      <c r="D92" s="107" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="210"/>
-      <c r="B91" s="199"/>
-      <c r="C91" s="107" t="s">
+    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="211"/>
+      <c r="B93" s="195"/>
+      <c r="C93" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="D91" s="107" t="s">
+      <c r="D93" s="107" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="213" t="s">
+    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="206" t="s">
         <v>365</v>
       </c>
-      <c r="B92" s="198" t="s">
+      <c r="B94" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C92" s="113" t="s">
+      <c r="C94" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="107"/>
-    </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="214"/>
-      <c r="B93" s="206"/>
-      <c r="C93" s="113" t="s">
+      <c r="D94" s="107"/>
+    </row>
+    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="208"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="D93" s="107" t="s">
+      <c r="D95" s="107" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="214"/>
-      <c r="B94" s="206"/>
-      <c r="C94" s="113">
+    <row r="96" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="208"/>
+      <c r="B96" s="199"/>
+      <c r="C96" s="113">
         <v>2.1</v>
       </c>
-      <c r="D94" s="107" t="s">
+      <c r="D96" s="107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="214"/>
-      <c r="B95" s="206"/>
-      <c r="C95" s="113" t="s">
+    <row r="97" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="208"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="D95" s="107" t="s">
+      <c r="D97" s="107" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="214"/>
-      <c r="B96" s="206"/>
-      <c r="C96" s="113" t="s">
+    <row r="98" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="208"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="107" t="s">
+      <c r="D98" s="107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="104" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="104"/>
-      <c r="C97" s="104"/>
-      <c r="D97" s="105"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="110" t="s">
+      <c r="B99" s="104"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="105"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="B98" s="113" t="s">
+      <c r="B100" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C98" s="113" t="s">
+      <c r="C100" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="D98" s="114"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="211" t="s">
+      <c r="D100" s="114"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="196" t="s">
         <v>256</v>
       </c>
-      <c r="B99" s="198" t="s">
+      <c r="B101" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C99" s="107"/>
-      <c r="D99" s="80" t="s">
+      <c r="C101" s="107"/>
+      <c r="D101" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="212"/>
-      <c r="B100" s="206"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="197"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="107"/>
+      <c r="D102" s="107" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="212"/>
-      <c r="B101" s="206"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="114" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="197"/>
+      <c r="B103" s="199"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="114" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="212"/>
-      <c r="B102" s="206"/>
-      <c r="C102" s="107" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="197"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="D102" s="114" t="s">
+      <c r="D104" s="114" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="212"/>
-      <c r="B103" s="206"/>
-      <c r="C103" s="107" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="197"/>
+      <c r="B105" s="199"/>
+      <c r="C105" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="D103" s="114" t="s">
+      <c r="D105" s="114" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="212"/>
-      <c r="B104" s="206"/>
-      <c r="C104" s="107" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="197"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D106" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="207" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="215" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="202" t="s">
+      <c r="B107" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="C105" s="80" t="s">
+      <c r="C107" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="114" t="s">
+      <c r="D107" s="114" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="207"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="215"/>
+      <c r="B108" s="216"/>
+      <c r="C108" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="D106" s="107" t="s">
+      <c r="D108" s="107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="207"/>
-      <c r="B107" s="202"/>
-      <c r="C107" s="123" t="s">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="215"/>
+      <c r="B109" s="216"/>
+      <c r="C109" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="D107" s="216" t="s">
+      <c r="D109" s="200" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="207"/>
-      <c r="B108" s="202"/>
-      <c r="C108" s="123" t="s">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="215"/>
+      <c r="B110" s="216"/>
+      <c r="C110" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="D108" s="217"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="207"/>
-      <c r="B109" s="202"/>
-      <c r="C109" s="123" t="s">
+      <c r="D110" s="201"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="215"/>
+      <c r="B111" s="216"/>
+      <c r="C111" s="123" t="s">
         <v>411</v>
       </c>
-      <c r="D109" s="217"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="207"/>
-      <c r="B110" s="202"/>
-      <c r="C110" s="123" t="s">
+      <c r="D111" s="201"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="215"/>
+      <c r="B112" s="216"/>
+      <c r="C112" s="123" t="s">
         <v>412</v>
       </c>
-      <c r="D110" s="217"/>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="207"/>
-      <c r="B111" s="202"/>
-      <c r="C111" s="123" t="s">
+      <c r="D112" s="201"/>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="215"/>
+      <c r="B113" s="216"/>
+      <c r="C113" s="123" t="s">
         <v>471</v>
       </c>
-      <c r="D111" s="135" t="s">
+      <c r="D113" s="135" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="110" t="s">
+    <row r="114" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B114" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="C112" s="108" t="s">
+      <c r="C114" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="111" t="s">
+      <c r="D114" s="111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="208" t="s">
+    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="B113" s="198" t="s">
+      <c r="B115" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="107" t="s">
+      <c r="C115" s="107" t="s">
         <v>263</v>
-      </c>
-      <c r="D113" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="209"/>
-      <c r="B114" s="206"/>
-      <c r="C114" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D114" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="209"/>
-      <c r="B115" s="206"/>
-      <c r="C115" s="107" t="s">
-        <v>264</v>
       </c>
       <c r="D115" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="209"/>
-      <c r="B116" s="206"/>
-      <c r="C116" s="114" t="s">
-        <v>272</v>
-      </c>
-      <c r="D116" s="114" t="s">
-        <v>102</v>
+      <c r="A116" s="210"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" s="107" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="209"/>
-      <c r="B117" s="206"/>
+      <c r="A117" s="210"/>
+      <c r="B117" s="199"/>
       <c r="C117" s="107" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D117" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="209"/>
-      <c r="B118" s="206"/>
-      <c r="C118" s="107" t="s">
+      <c r="A118" s="210"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="114" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" s="114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="210"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="210"/>
+      <c r="B120" s="199"/>
+      <c r="C120" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="D118" s="107" t="s">
+      <c r="D120" s="107" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="209"/>
-      <c r="B119" s="206"/>
-      <c r="C119" s="114" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="210"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="D119" s="114" t="s">
+      <c r="D121" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="209"/>
-      <c r="B120" s="206"/>
-      <c r="C120" s="114" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="210"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="D120" s="114" t="s">
+      <c r="D122" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="209"/>
-      <c r="B121" s="206"/>
-      <c r="C121" s="114" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="210"/>
+      <c r="B123" s="199"/>
+      <c r="C123" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="D121" s="114" t="s">
+      <c r="D123" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="209"/>
-      <c r="B122" s="206"/>
-      <c r="C122" s="124" t="s">
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="210"/>
+      <c r="B124" s="199"/>
+      <c r="C124" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="D122" s="111" t="s">
+      <c r="D124" s="111" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="209"/>
-      <c r="B123" s="206"/>
-      <c r="C123" s="118" t="s">
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="210"/>
+      <c r="B125" s="199"/>
+      <c r="C125" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="D123" s="114" t="s">
+      <c r="D125" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="209"/>
-      <c r="B124" s="206"/>
-      <c r="C124" s="107" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="210"/>
+      <c r="B126" s="199"/>
+      <c r="C126" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="D124" s="107" t="s">
+      <c r="D126" s="107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="209"/>
-      <c r="B125" s="206"/>
-      <c r="C125" s="114" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="210"/>
+      <c r="B127" s="199"/>
+      <c r="C127" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="D125" s="114" t="s">
+      <c r="D127" s="114" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="209"/>
-      <c r="B126" s="206"/>
-      <c r="C126" s="114" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="210"/>
+      <c r="B128" s="199"/>
+      <c r="C128" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="D126" s="114" t="s">
+      <c r="D128" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="209"/>
-      <c r="B127" s="206"/>
-      <c r="C127" s="114" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="210"/>
+      <c r="B129" s="199"/>
+      <c r="C129" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="D127" s="114" t="s">
+      <c r="D129" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="209"/>
-      <c r="B128" s="206"/>
-      <c r="C128" s="107" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="210"/>
+      <c r="B130" s="199"/>
+      <c r="C130" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="D128" s="107" t="s">
+      <c r="D130" s="107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="209"/>
-      <c r="B129" s="206"/>
-      <c r="C129" s="114" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="210"/>
+      <c r="B131" s="199"/>
+      <c r="C131" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="D129" s="114" t="s">
+      <c r="D131" s="114" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="209"/>
-      <c r="B130" s="206"/>
-      <c r="C130" s="114" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="210"/>
+      <c r="B132" s="199"/>
+      <c r="C132" s="114" t="s">
         <v>314</v>
-      </c>
-      <c r="D130" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="209"/>
-      <c r="B131" s="206"/>
-      <c r="C131" s="107"/>
-      <c r="D131" s="97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="209"/>
-      <c r="B132" s="206"/>
-      <c r="C132" s="114" t="s">
-        <v>317</v>
       </c>
       <c r="D132" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="209"/>
-      <c r="B133" s="206"/>
-      <c r="C133" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="114" t="s">
-        <v>250</v>
+    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="210"/>
+      <c r="B133" s="199"/>
+      <c r="C133" s="107"/>
+      <c r="D133" s="97" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="209"/>
-      <c r="B134" s="206"/>
+      <c r="A134" s="210"/>
+      <c r="B134" s="199"/>
       <c r="C134" s="114" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D134" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="209"/>
-      <c r="B135" s="206"/>
+      <c r="A135" s="210"/>
+      <c r="B135" s="199"/>
       <c r="C135" s="114" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="D135" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="209"/>
-      <c r="B136" s="206"/>
+      <c r="A136" s="210"/>
+      <c r="B136" s="199"/>
       <c r="C136" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="D136" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="210"/>
+      <c r="B137" s="199"/>
+      <c r="C137" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D137" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="210"/>
+      <c r="B138" s="199"/>
+      <c r="C138" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D136" s="114" t="s">
+      <c r="D138" s="114" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="209"/>
-      <c r="B137" s="206"/>
-      <c r="C137" s="119" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="210"/>
+      <c r="B139" s="199"/>
+      <c r="C139" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="D137" s="119" t="s">
+      <c r="D139" s="119" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="209"/>
-      <c r="B138" s="206"/>
-      <c r="C138" s="114" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="210"/>
+      <c r="B140" s="199"/>
+      <c r="C140" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="D138" s="114" t="s">
+      <c r="D140" s="114" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="209"/>
-      <c r="B139" s="206"/>
-      <c r="C139" s="114" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="210"/>
+      <c r="B141" s="199"/>
+      <c r="C141" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="D139" s="114" t="s">
+      <c r="D141" s="114" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="209"/>
-      <c r="B140" s="206"/>
-      <c r="C140" s="101" t="s">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="210"/>
+      <c r="B142" s="199"/>
+      <c r="C142" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="D140" s="125" t="s">
+      <c r="D142" s="125" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="209"/>
-      <c r="B141" s="206"/>
-      <c r="C141" s="114" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="210"/>
+      <c r="B143" s="199"/>
+      <c r="C143" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="D141" s="114" t="s">
+      <c r="D143" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="209"/>
-      <c r="B142" s="206"/>
-      <c r="C142" s="114" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="210"/>
+      <c r="B144" s="199"/>
+      <c r="C144" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="D142" s="114" t="s">
+      <c r="D144" s="114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="209"/>
-      <c r="B143" s="206"/>
-      <c r="C143" s="114" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="210"/>
+      <c r="B145" s="199"/>
+      <c r="C145" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="D143" s="114" t="s">
+      <c r="D145" s="114" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="209"/>
-      <c r="B144" s="206"/>
-      <c r="C144" s="114" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="210"/>
+      <c r="B146" s="199"/>
+      <c r="C146" s="114" t="s">
         <v>361</v>
-      </c>
-      <c r="D144" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="209"/>
-      <c r="B145" s="206"/>
-      <c r="C145" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="D145" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="209"/>
-      <c r="B146" s="206"/>
-      <c r="C146" s="114" t="s">
-        <v>359</v>
       </c>
       <c r="D146" s="114" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="209"/>
-      <c r="B147" s="206"/>
-      <c r="C147" s="119" t="s">
+      <c r="A147" s="210"/>
+      <c r="B147" s="199"/>
+      <c r="C147" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D147" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="210"/>
+      <c r="B148" s="199"/>
+      <c r="C148" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D148" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="210"/>
+      <c r="B149" s="199"/>
+      <c r="C149" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="D147" s="119" t="s">
+      <c r="D149" s="119" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="209"/>
-      <c r="B148" s="206"/>
-      <c r="C148" s="107" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="210"/>
+      <c r="B150" s="199"/>
+      <c r="C150" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="D150" s="107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="209"/>
-      <c r="B149" s="206"/>
-      <c r="C149" s="107" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="210"/>
+      <c r="B151" s="199"/>
+      <c r="C151" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="D149" s="107" t="s">
+      <c r="D151" s="107" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="209"/>
-      <c r="B150" s="206"/>
-      <c r="C150" s="107" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="210"/>
+      <c r="B152" s="199"/>
+      <c r="C152" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="D150" s="107" t="s">
+      <c r="D152" s="107" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="209"/>
-      <c r="B151" s="206"/>
-      <c r="C151" s="107" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="210"/>
+      <c r="B153" s="199"/>
+      <c r="C153" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="D151" s="107" t="s">
+      <c r="D153" s="107" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="209"/>
-      <c r="B152" s="206"/>
-      <c r="C152" s="107" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="210"/>
+      <c r="B154" s="199"/>
+      <c r="C154" s="107" t="s">
         <v>390</v>
       </c>
-      <c r="D152" s="107" t="s">
+      <c r="D154" s="107" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="209"/>
-      <c r="B153" s="206"/>
-      <c r="C153" s="107" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="210"/>
+      <c r="B155" s="199"/>
+      <c r="C155" s="107" t="s">
         <v>391</v>
       </c>
-      <c r="D153" s="107" t="s">
+      <c r="D155" s="107" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="209"/>
-      <c r="B154" s="206"/>
-      <c r="C154" s="107" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="210"/>
+      <c r="B156" s="199"/>
+      <c r="C156" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="D154" s="107" t="s">
+      <c r="D156" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="209"/>
-      <c r="B155" s="206"/>
-      <c r="C155" s="107" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="210"/>
+      <c r="B157" s="199"/>
+      <c r="C157" s="107" t="s">
         <v>404</v>
-      </c>
-      <c r="D155" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="209"/>
-      <c r="B156" s="206"/>
-      <c r="C156" s="107" t="s">
-        <v>405</v>
-      </c>
-      <c r="D156" s="107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="209"/>
-      <c r="B157" s="206"/>
-      <c r="C157" s="107" t="s">
-        <v>422</v>
       </c>
       <c r="D157" s="107" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="209"/>
-      <c r="B158" s="206"/>
+      <c r="A158" s="210"/>
+      <c r="B158" s="199"/>
       <c r="C158" s="107" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D158" s="107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="210"/>
+      <c r="B159" s="199"/>
+      <c r="C159" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="D159" s="107" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="209"/>
-      <c r="B159" s="206"/>
-      <c r="C159" s="107" t="s">
-        <v>426</v>
-      </c>
-      <c r="D159" s="107" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="210"/>
       <c r="B160" s="199"/>
-      <c r="C160" s="58" t="s">
+      <c r="C160" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D160" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="210"/>
+      <c r="B161" s="199"/>
+      <c r="C161" s="107" t="s">
+        <v>426</v>
+      </c>
+      <c r="D161" s="107" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="211"/>
+      <c r="B162" s="195"/>
+      <c r="C162" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D160" s="58" t="s">
+      <c r="D162" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="126" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="126" t="s">
         <v>416</v>
-      </c>
-      <c r="B161" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C161" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" s="114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="B162" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C162" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="110" t="s">
-        <v>305</v>
       </c>
       <c r="B163" s="108" t="s">
         <v>440</v>
@@ -33481,368 +33476,376 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="104" t="s">
+      <c r="A164" s="110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C164" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B165" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C165" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B164" s="104"/>
-      <c r="C164" s="104"/>
-      <c r="D164" s="105"/>
-    </row>
-    <row r="165" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="211" t="s">
+      <c r="B166" s="104"/>
+      <c r="C166" s="104"/>
+      <c r="D166" s="105"/>
+    </row>
+    <row r="167" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B165" s="198" t="s">
+      <c r="B167" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C165" s="107"/>
-      <c r="D165" s="80" t="s">
+      <c r="C167" s="107"/>
+      <c r="D167" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="212"/>
-      <c r="B166" s="206"/>
-      <c r="C166" s="108" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="197"/>
+      <c r="B168" s="199"/>
+      <c r="C168" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D166" s="107" t="s">
+      <c r="D168" s="107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="212"/>
-      <c r="B167" s="206"/>
-      <c r="C167" s="108">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="197"/>
+      <c r="B169" s="199"/>
+      <c r="C169" s="108">
         <v>10.1</v>
       </c>
-      <c r="D167" s="107" t="s">
+      <c r="D169" s="107" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="212"/>
-      <c r="B168" s="206"/>
-      <c r="C168" s="108">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="197"/>
+      <c r="B170" s="199"/>
+      <c r="C170" s="108">
         <v>10.199999999999999</v>
       </c>
-      <c r="D168" s="107" t="s">
+      <c r="D170" s="107" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="212"/>
-      <c r="B169" s="206"/>
-      <c r="C169" s="98" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="197"/>
+      <c r="B171" s="199"/>
+      <c r="C171" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D169" s="95" t="s">
+      <c r="D171" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="212"/>
-      <c r="B170" s="206"/>
-      <c r="C170" s="98" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="197"/>
+      <c r="B172" s="199"/>
+      <c r="C172" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D170" s="95" t="s">
+      <c r="D172" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="212"/>
-      <c r="B171" s="206"/>
-      <c r="C171" s="98" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="197"/>
+      <c r="B173" s="199"/>
+      <c r="C173" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D171" s="95" t="s">
+      <c r="D173" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="212"/>
-      <c r="B172" s="206"/>
-      <c r="C172" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="D172" s="95" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="212"/>
-      <c r="B173" s="206"/>
-      <c r="C173" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="215"/>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="197"/>
       <c r="B174" s="199"/>
       <c r="C174" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="D174" s="95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="197"/>
+      <c r="B175" s="199"/>
+      <c r="C175" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="198"/>
+      <c r="B176" s="195"/>
+      <c r="C176" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D174" s="136" t="s">
+      <c r="D176" s="136" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="198" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="194" t="s">
         <v>246</v>
       </c>
-      <c r="B175" s="198" t="s">
+      <c r="B177" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C175" s="98"/>
-      <c r="D175" s="127" t="s">
+      <c r="C177" s="98"/>
+      <c r="D177" s="127" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="206"/>
-      <c r="B176" s="206"/>
-      <c r="C176" s="128" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="199"/>
+      <c r="B178" s="199"/>
+      <c r="C178" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="D176" s="102" t="s">
+      <c r="D178" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="111" t="s">
+    <row r="179" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B177" s="108" t="s">
+      <c r="B179" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="C177" s="108" t="s">
+      <c r="C179" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D177" s="114" t="s">
+      <c r="D179" s="114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="129" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="B178" s="104"/>
-      <c r="C178" s="130"/>
-      <c r="D178" s="130"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="211" t="s">
+      <c r="B180" s="104"/>
+      <c r="C180" s="130"/>
+      <c r="D180" s="130"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="196" t="s">
         <v>248</v>
       </c>
-      <c r="B179" s="198" t="s">
+      <c r="B181" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C179" s="131" t="s">
+      <c r="C181" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D179" s="107" t="s">
+      <c r="D181" s="107" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="215"/>
-      <c r="B180" s="199"/>
-      <c r="C180" s="131" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="198"/>
+      <c r="B182" s="195"/>
+      <c r="C182" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="D180" s="107" t="s">
+      <c r="D182" s="107" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="211" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="196" t="s">
         <v>280</v>
       </c>
-      <c r="B181" s="198" t="s">
+      <c r="B183" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="C181" s="95" t="s">
+      <c r="C183" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D181" s="107" t="s">
+      <c r="D183" s="107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="212"/>
-      <c r="B182" s="206"/>
-      <c r="C182" s="107" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="197"/>
+      <c r="B184" s="199"/>
+      <c r="C184" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D182" s="114" t="s">
+      <c r="D184" s="114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="212"/>
-      <c r="B183" s="206"/>
-      <c r="C183" s="131" t="s">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="197"/>
+      <c r="B185" s="199"/>
+      <c r="C185" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="107" t="s">
+      <c r="D185" s="107" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="215"/>
-      <c r="B184" s="199"/>
-      <c r="C184" s="131" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="198"/>
+      <c r="B186" s="195"/>
+      <c r="C186" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D184" s="107" t="s">
+      <c r="D186" s="107" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="138" t="s">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="138" t="s">
         <v>479</v>
       </c>
-      <c r="B185" s="140" t="s">
+      <c r="B187" s="140" t="s">
         <v>440</v>
       </c>
-      <c r="C185" s="131" t="s">
+      <c r="C187" s="131" t="s">
         <v>480</v>
       </c>
-      <c r="D185" s="110" t="s">
+      <c r="D187" s="110" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="130" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B186" s="130"/>
-      <c r="C186" s="130"/>
-      <c r="D186" s="130"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="211" t="s">
+      <c r="B188" s="130"/>
+      <c r="C188" s="130"/>
+      <c r="D188" s="130"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="B187" s="198" t="s">
+      <c r="B189" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="C187" s="131" t="s">
+      <c r="C189" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D187" s="107" t="s">
+      <c r="D189" s="107" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="212"/>
-      <c r="B188" s="206"/>
-      <c r="C188" s="131" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="197"/>
+      <c r="B190" s="199"/>
+      <c r="C190" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D188" s="107" t="s">
+      <c r="D190" s="107" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="215"/>
-      <c r="B189" s="199"/>
-      <c r="C189" s="107"/>
-      <c r="D189" s="107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="196" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" s="198" t="s">
-        <v>266</v>
-      </c>
-      <c r="C190" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D190" s="107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="197"/>
-      <c r="B191" s="199"/>
-      <c r="C191" s="120"/>
+    <row r="191" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="198"/>
+      <c r="B191" s="195"/>
+      <c r="C191" s="107"/>
       <c r="D191" s="107" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="196" t="s">
-        <v>286</v>
-      </c>
-      <c r="B192" s="198" t="s">
+      <c r="A192" s="217" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="C192" s="120"/>
-      <c r="D192" s="120" t="s">
-        <v>287</v>
+      <c r="C192" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" s="107" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="197"/>
-      <c r="B193" s="199"/>
-      <c r="C193" s="107"/>
+      <c r="A193" s="218"/>
+      <c r="B193" s="195"/>
+      <c r="C193" s="120"/>
       <c r="D193" s="107" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="B194" s="198" t="s">
+      <c r="A194" s="217" t="s">
+        <v>286</v>
+      </c>
+      <c r="B194" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="C194" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="D194" s="107" t="s">
-        <v>258</v>
+      <c r="C194" s="120"/>
+      <c r="D194" s="120" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="197"/>
-      <c r="B195" s="199"/>
+      <c r="A195" s="218"/>
+      <c r="B195" s="195"/>
       <c r="C195" s="107"/>
       <c r="D195" s="107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B196" s="130"/>
-      <c r="C196" s="130"/>
-      <c r="D196" s="130"/>
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B196" s="194" t="s">
+        <v>266</v>
+      </c>
+      <c r="C196" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D196" s="107" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="107"/>
-      <c r="B197" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C197" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" s="114" t="s">
-        <v>269</v>
+      <c r="A197" s="218"/>
+      <c r="B197" s="195"/>
+      <c r="C197" s="107"/>
+      <c r="D197" s="107" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="130" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B198" s="130"/>
       <c r="C198" s="130"/>
@@ -33861,64 +33864,45 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="107"/>
-      <c r="B200" s="108"/>
-      <c r="C200" s="107" t="s">
+      <c r="A200" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B200" s="130"/>
+      <c r="C200" s="130"/>
+      <c r="D200" s="130"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="107"/>
+      <c r="B201" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" s="114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="107"/>
+      <c r="B202" s="108"/>
+      <c r="C202" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="D200" s="114" t="s">
+      <c r="D202" s="114" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A165:A174"/>
-    <mergeCell ref="B165:B174"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A113:A160"/>
-    <mergeCell ref="B113:B160"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
     <mergeCell ref="A194:A195"/>
     <mergeCell ref="B194:B195"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B22:B24"/>
@@ -33927,6 +33911,45 @@
     <mergeCell ref="B36:B46"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B77:B90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="A167:A176"/>
+    <mergeCell ref="B167:B176"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A115:A162"/>
+    <mergeCell ref="B115:B162"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="A64:A76"/>
+    <mergeCell ref="B64:B76"/>
+    <mergeCell ref="C77:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5203687-9306-4F3F-A25D-B49C558CEFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B35D0-CD59-4F35-93B5-5A955F6B09DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="493">
   <si>
     <t>Document</t>
   </si>
@@ -3324,9 +3324,6 @@
     <t>added field for RPN loopup by ppsn at employee level</t>
   </si>
   <si>
-    <t>pay period</t>
-  </si>
-  <si>
     <t xml:space="preserve">added </t>
   </si>
   <si>
@@ -3356,6 +3353,9 @@
   </si>
   <si>
     <t>corrected to softwaretestnextversion.ros.ie</t>
+  </si>
+  <si>
+    <t>updated pay period description</t>
   </si>
 </sst>
 </file>
@@ -3979,7 +3979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4243,9 +4243,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4350,6 +4347,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4395,8 +4398,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4419,66 +4452,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4500,6 +4473,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4507,9 +4516,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4521,9 +4578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4533,68 +4587,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4999,12 +5002,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5027,12 +5030,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5072,10 +5075,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="149">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5089,8 +5092,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5102,8 +5105,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5115,8 +5118,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
-      <c r="B10" s="149"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5128,8 +5131,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5141,8 +5144,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5154,10 +5157,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="149">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5171,8 +5174,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5218,12 +5221,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5263,21 +5266,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="152">
+      <c r="B21" s="153">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5291,8 +5294,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5315,18 +5318,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="152">
+      <c r="B25" s="153">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5340,8 +5343,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5353,8 +5356,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="146"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5366,8 +5369,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
-      <c r="B28" s="149"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5379,8 +5382,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5392,8 +5395,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5405,8 +5408,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5418,8 +5421,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5543,12 +5546,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5608,7 +5611,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5618,7 +5621,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5728,10 +5731,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5742,8 +5745,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5752,8 +5755,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5762,8 +5765,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5772,8 +5775,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5782,8 +5785,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5792,10 +5795,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5806,8 +5809,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5816,8 +5819,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5826,10 +5829,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5840,8 +5843,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5850,8 +5853,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5860,8 +5863,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5870,8 +5873,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5880,8 +5883,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5890,8 +5893,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5900,8 +5903,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5910,26 +5913,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="157" t="s">
+      <c r="A24" s="162"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="169" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="169"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5940,8 +5943,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5968,28 +5971,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="172" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="161"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="172"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5998,8 +6001,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6008,8 +6011,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6018,8 +6021,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6028,8 +6031,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6038,26 +6041,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="162" t="s">
+      <c r="A37" s="160"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="175" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="164"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="175"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6068,8 +6071,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6096,10 +6099,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6108,8 +6111,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="159"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6118,10 +6121,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="159" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6130,8 +6133,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="159"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6140,8 +6143,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="167"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6150,8 +6153,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="170"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="168"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6160,10 +6163,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10267,8 +10270,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14372,8 +14375,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
-      <c r="B51" s="166"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18477,8 +18480,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22582,12 +22585,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="160" t="s">
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="161" t="s">
+      <c r="D53" s="172" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26687,10 +26690,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="172"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30808,10 +30811,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30822,8 +30825,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30832,8 +30835,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="165"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="164"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30842,8 +30845,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="165"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="164"/>
+      <c r="B60" s="163"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30852,8 +30855,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="164"/>
+      <c r="B61" s="163"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30862,8 +30865,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="165"/>
-      <c r="B62" s="166"/>
+      <c r="A62" s="164"/>
+      <c r="B62" s="163"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30872,8 +30875,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="165"/>
-      <c r="B63" s="166"/>
+      <c r="A63" s="164"/>
+      <c r="B63" s="163"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30882,16 +30885,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="165"/>
-      <c r="B64" s="166"/>
+      <c r="A64" s="164"/>
+      <c r="B64" s="163"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="165"/>
-      <c r="B65" s="166"/>
+      <c r="A65" s="164"/>
+      <c r="B65" s="163"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30900,16 +30903,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="165"/>
-      <c r="B66" s="166"/>
+      <c r="A66" s="164"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="165"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="164"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30918,8 +30921,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="165"/>
-      <c r="B68" s="166"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="163"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30928,8 +30931,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="165"/>
-      <c r="B69" s="166"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="163"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30938,8 +30941,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="165"/>
-      <c r="B70" s="166"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="163"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30948,8 +30951,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="165"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="163"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30958,8 +30961,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="165"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="164"/>
+      <c r="B72" s="163"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30968,16 +30971,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="165"/>
-      <c r="B73" s="166"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="163"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="165"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="163"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30986,18 +30989,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="165"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="167" t="s">
+      <c r="A75" s="164"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="165" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="165"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="167"/>
+      <c r="A76" s="164"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="165"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31021,8 +31024,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31031,13 +31034,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31052,22 +31071,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31121,10 +31124,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="159" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31135,133 +31138,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="182" t="s">
+      <c r="A5" s="158"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="185" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="184" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="181"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="184"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="181" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="184" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="181"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="181"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="181" t="s">
+      <c r="C13" s="186"/>
+      <c r="D13" s="184" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="181"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="184"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="183"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="183"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="183"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="183"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="186"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="183"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="183"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="183"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31359,10 +31362,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="190" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31373,26 +31376,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="179"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="179"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="191"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="192"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31421,10 +31424,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="159" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31435,8 +31438,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31445,84 +31448,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="183" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="162" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="172"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="162"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="184" t="s">
+      <c r="A43" s="158"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="183" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="167" t="s">
+      <c r="D43" s="165" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="167"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="165"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="179"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="185" t="s">
+      <c r="A46" s="164"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="176" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="186"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="177"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="186"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="177"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="186"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="177"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="187"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="178"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31545,10 +31548,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="163" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31559,8 +31562,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31569,8 +31572,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="163"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31579,9 +31582,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="191" t="s">
+      <c r="A56" s="163"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="182" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31589,16 +31592,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="191"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="182"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31607,8 +31610,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31617,9 +31620,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="191" t="s">
+      <c r="A60" s="163"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="182" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31627,25 +31630,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="191"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="182"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="166"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="191"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="182"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="166"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="184" t="s">
+      <c r="A63" s="163"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="183" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31653,30 +31656,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="166"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="184"/>
-      <c r="D64" s="167" t="s">
+      <c r="A64" s="163"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="165" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="184"/>
-      <c r="D65" s="167"/>
+      <c r="A65" s="163"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="165"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="167"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="183"/>
+      <c r="D66" s="165"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="167"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="165"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31732,6 +31735,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31748,23 +31768,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31773,10 +31776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31802,30 +31805,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="195" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="193" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="105" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
-      <c r="B4" s="205"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31834,10 +31837,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="195" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="199" t="s">
         <v>440</v>
       </c>
       <c r="C5" s="100"/>
@@ -31846,60 +31849,60 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="195"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="100"/>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="103" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>440</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="127" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="199" t="s">
         <v>440</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="127" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="202"/>
-      <c r="B10" s="199"/>
+      <c r="A10" s="220"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="100" t="s">
         <v>445</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="202"/>
-      <c r="B11" s="199"/>
+      <c r="A11" s="220"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="100" t="s">
         <v>447</v>
       </c>
@@ -31908,8 +31911,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="193"/>
-      <c r="B12" s="195"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="200"/>
       <c r="C12" s="100" t="s">
         <v>435</v>
       </c>
@@ -31918,10 +31921,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="193" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="199" t="s">
         <v>440</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -31932,8 +31935,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="204"/>
-      <c r="B14" s="199"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="100" t="s">
         <v>454</v>
       </c>
@@ -31942,8 +31945,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="205"/>
-      <c r="B15" s="195"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="200"/>
       <c r="C15" s="100">
         <v>3.3</v>
       </c>
@@ -31952,30 +31955,30 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="131" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>440</v>
       </c>
       <c r="C16" s="100"/>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="132" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="219" t="s">
+      <c r="A18" s="201" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="202" t="s">
         <v>440</v>
       </c>
       <c r="C18" s="100" t="s">
@@ -31986,1970 +31989,2010 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="219"/>
-      <c r="B19" s="220"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="106" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="219"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="106" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="215" t="s">
+      <c r="A22" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="203" t="s">
         <v>440</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107" t="s">
+      <c r="C22" s="106"/>
+      <c r="D22" s="106" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="140" t="s">
+      <c r="A23" s="208"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="108" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="108" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="208"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="142" t="s">
+        <v>486</v>
+      </c>
+      <c r="D24" s="108" t="s">
         <v>482</v>
       </c>
-      <c r="D24" s="109" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="208"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="142" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="108" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="215" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="199" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="216"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="139" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="217"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="140" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="196" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="194" t="s">
+      <c r="D28" s="110" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="108" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="197"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="140" t="s">
-        <v>464</v>
-      </c>
-      <c r="D26" s="139" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="198"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="141" t="s">
-        <v>484</v>
-      </c>
-      <c r="D27" s="111" t="s">
+      <c r="C29" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="208" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="203" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="80" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="208"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="208"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="208"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="112" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="106"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="204" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="199" t="s">
+        <v>440</v>
+      </c>
+      <c r="C37" s="106"/>
+      <c r="D37" s="114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="205"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="112" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="205"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="D39" s="106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="205"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="115" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="113" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="205"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="113" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="205"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="112" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="113" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="205"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="205"/>
+      <c r="B44" s="207"/>
+      <c r="C44" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="205"/>
+      <c r="B45" s="207"/>
+      <c r="C45" s="136" t="s">
+        <v>467</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="205"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="136" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="205"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="141" t="s">
+        <v>467</v>
+      </c>
+      <c r="D47" s="61" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="108" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="206"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="111" t="s">
+      <c r="C49" s="107" t="s">
+        <v>461</v>
+      </c>
+      <c r="D49" s="110" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C50" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="116" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C51" s="112" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
-        <v>372</v>
-      </c>
-      <c r="B29" s="108" t="s">
+      <c r="D51" s="113"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="212" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C29" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="111" t="s">
+      <c r="C52" s="112" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="110" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" s="108" t="s">
+      <c r="D52" s="113"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="222"/>
+      <c r="B53" s="200"/>
+      <c r="C53" s="112" t="s">
+        <v>399</v>
+      </c>
+      <c r="D53" s="113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="212" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="111" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="215" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="216" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="213"/>
+      <c r="B56" s="207"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="213"/>
+      <c r="B57" s="207"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="213"/>
+      <c r="B58" s="207"/>
+      <c r="C58" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="106" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="213"/>
+      <c r="B59" s="207"/>
+      <c r="C59" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="213"/>
+      <c r="B60" s="207"/>
+      <c r="C60" s="106" t="s">
+        <v>368</v>
+      </c>
+      <c r="D60" s="113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="213"/>
+      <c r="B61" s="207"/>
+      <c r="C61" s="119" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" s="113" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="213"/>
+      <c r="B62" s="207"/>
+      <c r="C62" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="213"/>
+      <c r="B63" s="207"/>
+      <c r="C63" s="133" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="213"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="133" t="s">
+        <v>467</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="213"/>
+      <c r="B65" s="207"/>
+      <c r="C65" s="133" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="222"/>
+      <c r="B66" s="200"/>
+      <c r="C66" s="133" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="108" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="112" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="215"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="113" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" s="114" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="107"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="221" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="194" t="s">
-        <v>440</v>
-      </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="115" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="222"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="113" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="107" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="222"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D38" s="107" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="222"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="114" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
-      <c r="B40" s="199"/>
-      <c r="C40" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="114" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="222"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="113" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="114" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
-      <c r="B42" s="199"/>
-      <c r="C42" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D42" s="114" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="D43" s="114" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="222"/>
-      <c r="B44" s="199"/>
-      <c r="C44" s="137" t="s">
-        <v>467</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="222"/>
-      <c r="B45" s="199"/>
-      <c r="C45" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="223"/>
-      <c r="B46" s="195"/>
-      <c r="C46" s="103" t="s">
-        <v>467</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="117" t="s">
-        <v>462</v>
-      </c>
-      <c r="B47" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C47" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="D47" s="111" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="B48" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C48" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="117" t="s">
-        <v>346</v>
-      </c>
-      <c r="B49" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="114"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="206" t="s">
-        <v>364</v>
-      </c>
-      <c r="B50" s="194" t="s">
-        <v>440</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="114"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="207"/>
-      <c r="B51" s="195"/>
-      <c r="C51" s="113" t="s">
-        <v>399</v>
-      </c>
-      <c r="D51" s="114" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="206" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="194" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="208"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="208"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="208"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="107" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="114" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="107" t="s">
-        <v>368</v>
-      </c>
-      <c r="D58" s="114" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="120" t="s">
-        <v>469</v>
-      </c>
-      <c r="D59" s="114" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="208"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="58" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="208"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="134" t="s">
-        <v>354</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="208"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="134" t="s">
-        <v>467</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="207"/>
-      <c r="B63" s="195"/>
-      <c r="C63" s="134" t="s">
-        <v>368</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="209" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="194" t="s">
-        <v>440</v>
-      </c>
-      <c r="C64" s="107" t="s">
+      <c r="C67" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D67" s="113" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="210"/>
-      <c r="B65" s="199"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="210"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="118" t="s">
-        <v>324</v>
-      </c>
-      <c r="D66" s="114" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="210"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="118" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="114" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="210"/>
-      <c r="B68" s="199"/>
-      <c r="C68" s="118" t="s">
-        <v>362</v>
-      </c>
-      <c r="D68" s="114" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="207"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="210"/>
-      <c r="B69" s="199"/>
-      <c r="C69" s="118" t="s">
-        <v>366</v>
-      </c>
-      <c r="D69" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="207"/>
+      <c r="C69" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="113" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="210"/>
-      <c r="B70" s="199"/>
-      <c r="C70" s="118" t="s">
-        <v>376</v>
-      </c>
-      <c r="D70" s="119" t="s">
-        <v>377</v>
+      <c r="B70" s="207"/>
+      <c r="C70" s="117" t="s">
+        <v>354</v>
+      </c>
+      <c r="D70" s="113" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="210"/>
-      <c r="B71" s="199"/>
-      <c r="C71" s="110" t="s">
-        <v>354</v>
-      </c>
-      <c r="D71" s="114" t="s">
-        <v>400</v>
+      <c r="B71" s="207"/>
+      <c r="C71" s="117" t="s">
+        <v>362</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="210"/>
-      <c r="B72" s="199"/>
-      <c r="C72" s="110" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="114" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="207"/>
+      <c r="C72" s="117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="210"/>
-      <c r="B73" s="199"/>
-      <c r="C73" s="134" t="s">
-        <v>467</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>468</v>
+      <c r="B73" s="207"/>
+      <c r="C73" s="117" t="s">
+        <v>376</v>
+      </c>
+      <c r="D73" s="118" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="210"/>
-      <c r="B74" s="199"/>
-      <c r="C74" s="134" t="s">
+      <c r="B74" s="207"/>
+      <c r="C74" s="109" t="s">
         <v>354</v>
       </c>
-      <c r="D74" s="58" t="s">
-        <v>477</v>
+      <c r="D74" s="113" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="210"/>
-      <c r="B75" s="199"/>
-      <c r="C75" s="134" t="s">
+      <c r="B75" s="207"/>
+      <c r="C75" s="109" t="s">
+        <v>465</v>
+      </c>
+      <c r="D75" s="113" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="210"/>
+      <c r="B76" s="207"/>
+      <c r="C76" s="133" t="s">
         <v>467</v>
       </c>
-      <c r="D75" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="211"/>
-      <c r="B76" s="195"/>
-      <c r="C76" s="134" t="s">
+      <c r="D76" s="58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="210"/>
+      <c r="B77" s="207"/>
+      <c r="C77" s="133" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="210"/>
+      <c r="B78" s="207"/>
+      <c r="C78" s="133" t="s">
+        <v>467</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="210"/>
+      <c r="B79" s="207"/>
+      <c r="C79" s="133" t="s">
         <v>368</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D79" s="58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="211"/>
+      <c r="B80" s="200"/>
+      <c r="C80" s="133" t="s">
+        <v>354</v>
+      </c>
+      <c r="D80" s="108" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="196" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="B77" s="194" t="s">
+      <c r="B81" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C77" s="212" t="s">
+      <c r="C81" s="223" t="s">
         <v>238</v>
       </c>
-      <c r="D77" s="96" t="s">
+      <c r="D81" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="197"/>
-      <c r="B78" s="199"/>
-      <c r="C78" s="213"/>
-      <c r="D78" s="114" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="216"/>
+      <c r="B82" s="207"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="113" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="197"/>
-      <c r="B79" s="199"/>
-      <c r="C79" s="214" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="216"/>
+      <c r="B83" s="207"/>
+      <c r="C83" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="D79" s="107" t="s">
+      <c r="D83" s="106" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="197"/>
-      <c r="B80" s="199"/>
-      <c r="C80" s="214"/>
-      <c r="D80" s="120" t="s">
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="216"/>
+      <c r="B84" s="207"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="197"/>
-      <c r="B81" s="199"/>
-      <c r="C81" s="113" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="216"/>
+      <c r="B85" s="207"/>
+      <c r="C85" s="112" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="107" t="s">
+      <c r="D85" s="106" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="197"/>
-      <c r="B82" s="199"/>
-      <c r="C82" s="113">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="216"/>
+      <c r="B86" s="207"/>
+      <c r="C86" s="112">
         <v>2.1</v>
       </c>
-      <c r="D82" s="107" t="s">
+      <c r="D86" s="106" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="197"/>
-      <c r="B83" s="199"/>
-      <c r="C83" s="113" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="216"/>
+      <c r="B87" s="207"/>
+      <c r="C87" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="107" t="s">
+      <c r="D87" s="106" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="197"/>
-      <c r="B84" s="199"/>
-      <c r="C84" s="113" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="216"/>
+      <c r="B88" s="207"/>
+      <c r="C88" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D84" s="119" t="s">
+      <c r="D88" s="118" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="197"/>
-      <c r="B85" s="199"/>
-      <c r="C85" s="113" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="216"/>
+      <c r="B89" s="207"/>
+      <c r="C89" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D89" s="113" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="197"/>
-      <c r="B86" s="199"/>
-      <c r="C86" s="121" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="216"/>
+      <c r="B90" s="207"/>
+      <c r="C90" s="120" t="s">
         <v>373</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D90" s="121" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="197"/>
-      <c r="B87" s="199"/>
-      <c r="C87" s="113">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="216"/>
+      <c r="B91" s="207"/>
+      <c r="C91" s="112">
         <v>2.1</v>
       </c>
-      <c r="D87" s="107" t="s">
+      <c r="D91" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="197"/>
-      <c r="B88" s="199"/>
-      <c r="C88" s="113" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="216"/>
+      <c r="B92" s="207"/>
+      <c r="C92" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="107" t="s">
+      <c r="D92" s="106" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="197"/>
-      <c r="B89" s="199"/>
-      <c r="C89" s="113" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="216"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="107" t="s">
+      <c r="D93" s="106" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="197"/>
-      <c r="B90" s="199"/>
-      <c r="C90" s="113">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="216"/>
+      <c r="B94" s="207"/>
+      <c r="C94" s="112">
         <v>2.1</v>
       </c>
-      <c r="D90" s="107" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="209" t="s">
+      <c r="D94" s="106" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="194" t="s">
+      <c r="B95" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C91" s="107" t="s">
+      <c r="C95" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="107" t="s">
+      <c r="D95" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="210"/>
-      <c r="B92" s="199"/>
-      <c r="C92" s="120" t="s">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="210"/>
+      <c r="B96" s="207"/>
+      <c r="C96" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="107" t="s">
+      <c r="D96" s="106" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="211"/>
-      <c r="B93" s="195"/>
-      <c r="C93" s="107" t="s">
+    <row r="97" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="211"/>
+      <c r="B97" s="200"/>
+      <c r="C97" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="D93" s="107" t="s">
+      <c r="D97" s="106" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="206" t="s">
+    <row r="98" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="212" t="s">
         <v>365</v>
       </c>
-      <c r="B94" s="194" t="s">
+      <c r="B98" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C94" s="113" t="s">
+      <c r="C98" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="107"/>
-    </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="208"/>
-      <c r="B95" s="199"/>
-      <c r="C95" s="113" t="s">
+      <c r="D98" s="106"/>
+    </row>
+    <row r="99" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="213"/>
+      <c r="B99" s="207"/>
+      <c r="C99" s="112" t="s">
         <v>373</v>
       </c>
-      <c r="D95" s="107" t="s">
+      <c r="D99" s="106" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="208"/>
-      <c r="B96" s="199"/>
-      <c r="C96" s="113">
+    <row r="100" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="213"/>
+      <c r="B100" s="207"/>
+      <c r="C100" s="112">
         <v>2.1</v>
       </c>
-      <c r="D96" s="107" t="s">
+      <c r="D100" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="208"/>
-      <c r="B97" s="199"/>
-      <c r="C97" s="113" t="s">
+    <row r="101" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="213"/>
+      <c r="B101" s="207"/>
+      <c r="C101" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="107" t="s">
+      <c r="D101" s="106" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="208"/>
-      <c r="B98" s="199"/>
-      <c r="C98" s="113" t="s">
+    <row r="102" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="213"/>
+      <c r="B102" s="207"/>
+      <c r="C102" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="107" t="s">
+      <c r="D102" s="106" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="104" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="105"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="110" t="s">
+      <c r="B103" s="103"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="104"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="109" t="s">
         <v>378</v>
       </c>
-      <c r="B100" s="113" t="s">
+      <c r="B104" s="112" t="s">
         <v>440</v>
       </c>
-      <c r="C100" s="113" t="s">
+      <c r="C104" s="112" t="s">
         <v>379</v>
       </c>
-      <c r="D100" s="114"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="196" t="s">
+      <c r="D104" s="113"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="215" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="194" t="s">
+      <c r="B105" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C101" s="107"/>
-      <c r="D101" s="80" t="s">
+      <c r="C105" s="106"/>
+      <c r="D105" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="197"/>
-      <c r="B102" s="199"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="107" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="216"/>
+      <c r="B106" s="207"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="197"/>
-      <c r="B103" s="199"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="114" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="216"/>
+      <c r="B107" s="207"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="113" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="197"/>
-      <c r="B104" s="199"/>
-      <c r="C104" s="107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="216"/>
+      <c r="B108" s="207"/>
+      <c r="C108" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D108" s="113" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="197"/>
-      <c r="B105" s="199"/>
-      <c r="C105" s="107" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="216"/>
+      <c r="B109" s="207"/>
+      <c r="C109" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="D105" s="114" t="s">
+      <c r="D109" s="113" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="197"/>
-      <c r="B106" s="199"/>
-      <c r="C106" s="107" t="s">
-        <v>487</v>
-      </c>
-      <c r="D106" s="114" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="216"/>
+      <c r="B110" s="207"/>
+      <c r="C110" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="D110" s="113" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="215" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="208" t="s">
         <v>329</v>
       </c>
-      <c r="B107" s="216" t="s">
+      <c r="B111" s="203" t="s">
         <v>440</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C111" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D107" s="114" t="s">
+      <c r="D111" s="113" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="215"/>
-      <c r="B108" s="216"/>
-      <c r="C108" s="107" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="208"/>
+      <c r="B112" s="203"/>
+      <c r="C112" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="D108" s="107" t="s">
+      <c r="D112" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="215"/>
-      <c r="B109" s="216"/>
-      <c r="C109" s="123" t="s">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="208"/>
+      <c r="B113" s="203"/>
+      <c r="C113" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D109" s="200" t="s">
+      <c r="D113" s="218" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="215"/>
-      <c r="B110" s="216"/>
-      <c r="C110" s="123" t="s">
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="208"/>
+      <c r="B114" s="203"/>
+      <c r="C114" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D110" s="201"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="215"/>
-      <c r="B111" s="216"/>
-      <c r="C111" s="123" t="s">
+      <c r="D114" s="219"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="208"/>
+      <c r="B115" s="203"/>
+      <c r="C115" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D111" s="201"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="215"/>
-      <c r="B112" s="216"/>
-      <c r="C112" s="123" t="s">
+      <c r="D115" s="219"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="208"/>
+      <c r="B116" s="203"/>
+      <c r="C116" s="122" t="s">
         <v>412</v>
       </c>
-      <c r="D112" s="201"/>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="215"/>
-      <c r="B113" s="216"/>
-      <c r="C113" s="123" t="s">
+      <c r="D116" s="219"/>
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="208"/>
+      <c r="B117" s="203"/>
+      <c r="C117" s="122" t="s">
         <v>471</v>
       </c>
-      <c r="D113" s="135" t="s">
+      <c r="D117" s="134" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="110" t="s">
+    <row r="118" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="113" t="s">
+      <c r="B118" s="112" t="s">
         <v>440</v>
       </c>
-      <c r="C114" s="108" t="s">
+      <c r="C118" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="111" t="s">
+      <c r="D118" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="209" t="s">
+    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="194" t="s">
+      <c r="B119" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C115" s="107" t="s">
+      <c r="C119" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="D115" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="210"/>
-      <c r="B116" s="199"/>
-      <c r="C116" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D116" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="210"/>
-      <c r="B117" s="199"/>
-      <c r="C117" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D117" s="107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="210"/>
-      <c r="B118" s="199"/>
-      <c r="C118" s="114" t="s">
-        <v>272</v>
-      </c>
-      <c r="D118" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="210"/>
-      <c r="B119" s="199"/>
-      <c r="C119" s="107" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="107" t="s">
+      <c r="D119" s="106" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="210"/>
-      <c r="B120" s="199"/>
-      <c r="C120" s="107" t="s">
-        <v>278</v>
-      </c>
-      <c r="D120" s="107" t="s">
-        <v>279</v>
+      <c r="B120" s="207"/>
+      <c r="C120" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="106" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="210"/>
-      <c r="B121" s="199"/>
-      <c r="C121" s="114" t="s">
-        <v>283</v>
-      </c>
-      <c r="D121" s="114" t="s">
+      <c r="B121" s="207"/>
+      <c r="C121" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="106" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="210"/>
-      <c r="B122" s="199"/>
-      <c r="C122" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="D122" s="114" t="s">
-        <v>250</v>
+      <c r="B122" s="207"/>
+      <c r="C122" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="210"/>
-      <c r="B123" s="199"/>
-      <c r="C123" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="D123" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="207"/>
+      <c r="C123" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="210"/>
-      <c r="B124" s="199"/>
-      <c r="C124" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="D124" s="111" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B124" s="207"/>
+      <c r="C124" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" s="106" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="210"/>
-      <c r="B125" s="199"/>
-      <c r="C125" s="118" t="s">
-        <v>306</v>
-      </c>
-      <c r="D125" s="114" t="s">
+      <c r="B125" s="207"/>
+      <c r="C125" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D125" s="113" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="210"/>
-      <c r="B126" s="199"/>
-      <c r="C126" s="107" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" s="107" t="s">
-        <v>100</v>
+      <c r="B126" s="207"/>
+      <c r="C126" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="210"/>
-      <c r="B127" s="199"/>
-      <c r="C127" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="114" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="207"/>
+      <c r="C127" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="210"/>
-      <c r="B128" s="199"/>
-      <c r="C128" s="114" t="s">
-        <v>310</v>
-      </c>
-      <c r="D128" s="114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="207"/>
+      <c r="C128" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="210"/>
-      <c r="B129" s="199"/>
-      <c r="C129" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D129" s="114" t="s">
-        <v>102</v>
+      <c r="B129" s="207"/>
+      <c r="C129" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="210"/>
-      <c r="B130" s="199"/>
-      <c r="C130" s="107" t="s">
-        <v>313</v>
-      </c>
-      <c r="D130" s="107" t="s">
-        <v>102</v>
+      <c r="B130" s="207"/>
+      <c r="C130" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D130" s="106" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="210"/>
-      <c r="B131" s="199"/>
-      <c r="C131" s="114" t="s">
-        <v>278</v>
-      </c>
-      <c r="D131" s="114" t="s">
-        <v>315</v>
+      <c r="B131" s="207"/>
+      <c r="C131" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D131" s="113" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="210"/>
-      <c r="B132" s="199"/>
-      <c r="C132" s="114" t="s">
-        <v>314</v>
-      </c>
-      <c r="D132" s="114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B132" s="207"/>
+      <c r="C132" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="D132" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="210"/>
-      <c r="B133" s="199"/>
-      <c r="C133" s="107"/>
-      <c r="D133" s="97" t="s">
-        <v>316</v>
+      <c r="B133" s="207"/>
+      <c r="C133" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="D133" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="210"/>
-      <c r="B134" s="199"/>
-      <c r="C134" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D134" s="114" t="s">
-        <v>250</v>
+      <c r="B134" s="207"/>
+      <c r="C134" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D134" s="106" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="210"/>
-      <c r="B135" s="199"/>
-      <c r="C135" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" s="114" t="s">
-        <v>250</v>
+      <c r="B135" s="207"/>
+      <c r="C135" s="113" t="s">
+        <v>278</v>
+      </c>
+      <c r="D135" s="113" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="210"/>
-      <c r="B136" s="199"/>
-      <c r="C136" s="114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D136" s="114" t="s">
+      <c r="B136" s="207"/>
+      <c r="C136" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" s="113" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="210"/>
-      <c r="B137" s="199"/>
-      <c r="C137" s="114" t="s">
-        <v>335</v>
-      </c>
-      <c r="D137" s="114" t="s">
-        <v>250</v>
+      <c r="B137" s="207"/>
+      <c r="C137" s="106"/>
+      <c r="D137" s="97" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="210"/>
-      <c r="B138" s="199"/>
-      <c r="C138" s="114" t="s">
-        <v>319</v>
-      </c>
-      <c r="D138" s="114" t="s">
-        <v>318</v>
+      <c r="B138" s="207"/>
+      <c r="C138" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="D138" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="210"/>
-      <c r="B139" s="199"/>
-      <c r="C139" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="D139" s="119" t="s">
+      <c r="B139" s="207"/>
+      <c r="C139" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="D139" s="113" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="210"/>
-      <c r="B140" s="199"/>
-      <c r="C140" s="114" t="s">
-        <v>333</v>
-      </c>
-      <c r="D140" s="114" t="s">
-        <v>332</v>
+      <c r="B140" s="207"/>
+      <c r="C140" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="210"/>
-      <c r="B141" s="199"/>
-      <c r="C141" s="114" t="s">
-        <v>348</v>
-      </c>
-      <c r="D141" s="114" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="207"/>
+      <c r="C141" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" s="113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="210"/>
-      <c r="B142" s="199"/>
-      <c r="C142" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D142" s="125" t="s">
-        <v>350</v>
+      <c r="B142" s="207"/>
+      <c r="C142" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="D142" s="113" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="210"/>
-      <c r="B143" s="199"/>
-      <c r="C143" s="114" t="s">
-        <v>352</v>
-      </c>
-      <c r="D143" s="114" t="s">
+      <c r="B143" s="207"/>
+      <c r="C143" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="D143" s="118" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="210"/>
-      <c r="B144" s="199"/>
-      <c r="C144" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="D144" s="114" t="s">
-        <v>102</v>
+      <c r="B144" s="207"/>
+      <c r="C144" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" s="113" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="210"/>
-      <c r="B145" s="199"/>
-      <c r="C145" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="D145" s="114" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="207"/>
+      <c r="C145" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="D145" s="113" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="210"/>
-      <c r="B146" s="199"/>
-      <c r="C146" s="114" t="s">
-        <v>361</v>
-      </c>
-      <c r="D146" s="114" t="s">
-        <v>250</v>
+      <c r="B146" s="207"/>
+      <c r="C146" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" s="124" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="210"/>
-      <c r="B147" s="199"/>
-      <c r="C147" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="D147" s="114" t="s">
+      <c r="B147" s="207"/>
+      <c r="C147" s="113" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" s="113" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="210"/>
-      <c r="B148" s="199"/>
-      <c r="C148" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="D148" s="114" t="s">
-        <v>250</v>
+      <c r="B148" s="207"/>
+      <c r="C148" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="210"/>
-      <c r="B149" s="199"/>
-      <c r="C149" s="119" t="s">
-        <v>380</v>
-      </c>
-      <c r="D149" s="119" t="s">
-        <v>381</v>
+      <c r="B149" s="207"/>
+      <c r="C149" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D149" s="113" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="210"/>
-      <c r="B150" s="199"/>
-      <c r="C150" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="D150" s="107" t="s">
-        <v>383</v>
+      <c r="B150" s="207"/>
+      <c r="C150" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="D150" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="210"/>
-      <c r="B151" s="199"/>
-      <c r="C151" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="D151" s="107" t="s">
-        <v>385</v>
+      <c r="B151" s="207"/>
+      <c r="C151" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="D151" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="210"/>
-      <c r="B152" s="199"/>
-      <c r="C152" s="107" t="s">
-        <v>388</v>
-      </c>
-      <c r="D152" s="107" t="s">
-        <v>386</v>
+      <c r="B152" s="207"/>
+      <c r="C152" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D152" s="113" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="210"/>
-      <c r="B153" s="199"/>
-      <c r="C153" s="107" t="s">
-        <v>389</v>
-      </c>
-      <c r="D153" s="107" t="s">
-        <v>386</v>
+      <c r="B153" s="207"/>
+      <c r="C153" s="118" t="s">
+        <v>380</v>
+      </c>
+      <c r="D153" s="118" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="210"/>
-      <c r="B154" s="199"/>
-      <c r="C154" s="107" t="s">
-        <v>390</v>
-      </c>
-      <c r="D154" s="107" t="s">
-        <v>360</v>
+      <c r="B154" s="207"/>
+      <c r="C154" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="D154" s="106" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="210"/>
-      <c r="B155" s="199"/>
-      <c r="C155" s="107" t="s">
-        <v>391</v>
-      </c>
-      <c r="D155" s="107" t="s">
-        <v>360</v>
+      <c r="B155" s="207"/>
+      <c r="C155" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="D155" s="106" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="210"/>
-      <c r="B156" s="199"/>
-      <c r="C156" s="107" t="s">
-        <v>394</v>
-      </c>
-      <c r="D156" s="107" t="s">
-        <v>250</v>
+      <c r="B156" s="207"/>
+      <c r="C156" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D156" s="106" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="210"/>
-      <c r="B157" s="199"/>
-      <c r="C157" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="D157" s="107" t="s">
-        <v>250</v>
+      <c r="B157" s="207"/>
+      <c r="C157" s="106" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157" s="106" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="210"/>
-      <c r="B158" s="199"/>
-      <c r="C158" s="107" t="s">
-        <v>405</v>
-      </c>
-      <c r="D158" s="107" t="s">
-        <v>102</v>
+      <c r="B158" s="207"/>
+      <c r="C158" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D158" s="106" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="210"/>
-      <c r="B159" s="199"/>
-      <c r="C159" s="107" t="s">
-        <v>422</v>
-      </c>
-      <c r="D159" s="107" t="s">
-        <v>250</v>
+      <c r="B159" s="207"/>
+      <c r="C159" s="106" t="s">
+        <v>391</v>
+      </c>
+      <c r="D159" s="106" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="210"/>
-      <c r="B160" s="199"/>
-      <c r="C160" s="107" t="s">
-        <v>423</v>
-      </c>
-      <c r="D160" s="107" t="s">
+      <c r="B160" s="207"/>
+      <c r="C160" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D160" s="106" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="210"/>
-      <c r="B161" s="199"/>
-      <c r="C161" s="107" t="s">
+      <c r="B161" s="207"/>
+      <c r="C161" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D161" s="106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="210"/>
+      <c r="B162" s="207"/>
+      <c r="C162" s="106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D162" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="210"/>
+      <c r="B163" s="207"/>
+      <c r="C163" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D163" s="106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="210"/>
+      <c r="B164" s="207"/>
+      <c r="C164" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D164" s="106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="210"/>
+      <c r="B165" s="207"/>
+      <c r="C165" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="D161" s="107" t="s">
+      <c r="D165" s="106" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="211"/>
-      <c r="B162" s="195"/>
-      <c r="C162" s="58" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="211"/>
+      <c r="B166" s="200"/>
+      <c r="C166" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D162" s="58" t="s">
+      <c r="D166" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="126" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="125" t="s">
         <v>416</v>
       </c>
-      <c r="B163" s="108" t="s">
+      <c r="B167" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C163" s="107" t="s">
+      <c r="C167" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D163" s="114" t="s">
+      <c r="D167" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="110" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="B164" s="108" t="s">
+      <c r="B168" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C164" s="107" t="s">
+      <c r="C168" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D164" s="114" t="s">
+      <c r="D168" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="110" t="s">
+    <row r="169" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="B165" s="108" t="s">
+      <c r="B169" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C165" s="107" t="s">
+      <c r="C169" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D165" s="114" t="s">
+      <c r="D169" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="104" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B166" s="104"/>
-      <c r="C166" s="104"/>
-      <c r="D166" s="105"/>
-    </row>
-    <row r="167" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="196" t="s">
+      <c r="B170" s="103"/>
+      <c r="C170" s="103"/>
+      <c r="D170" s="104"/>
+    </row>
+    <row r="171" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="194" t="s">
+      <c r="B171" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C167" s="107"/>
-      <c r="D167" s="80" t="s">
+      <c r="C171" s="106"/>
+      <c r="D171" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="197"/>
-      <c r="B168" s="199"/>
-      <c r="C168" s="108" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="216"/>
+      <c r="B172" s="207"/>
+      <c r="C172" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D168" s="107" t="s">
+      <c r="D172" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="197"/>
-      <c r="B169" s="199"/>
-      <c r="C169" s="108">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="216"/>
+      <c r="B173" s="207"/>
+      <c r="C173" s="107">
         <v>10.1</v>
       </c>
-      <c r="D169" s="107" t="s">
+      <c r="D173" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="197"/>
-      <c r="B170" s="199"/>
-      <c r="C170" s="108">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="216"/>
+      <c r="B174" s="207"/>
+      <c r="C174" s="107">
         <v>10.199999999999999</v>
       </c>
-      <c r="D170" s="107" t="s">
+      <c r="D174" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="197"/>
-      <c r="B171" s="199"/>
-      <c r="C171" s="98" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="216"/>
+      <c r="B175" s="207"/>
+      <c r="C175" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D171" s="95" t="s">
+      <c r="D175" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="197"/>
-      <c r="B172" s="199"/>
-      <c r="C172" s="98" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="216"/>
+      <c r="B176" s="207"/>
+      <c r="C176" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D172" s="95" t="s">
+      <c r="D176" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="197"/>
-      <c r="B173" s="199"/>
-      <c r="C173" s="98" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="216"/>
+      <c r="B177" s="207"/>
+      <c r="C177" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D173" s="95" t="s">
+      <c r="D177" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="197"/>
-      <c r="B174" s="199"/>
-      <c r="C174" s="98" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="216"/>
+      <c r="B178" s="207"/>
+      <c r="C178" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D174" s="95" t="s">
+      <c r="D178" s="95" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="197"/>
-      <c r="B175" s="199"/>
-      <c r="C175" s="98" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="216"/>
+      <c r="B179" s="207"/>
+      <c r="C179" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D175" s="95" t="s">
+      <c r="D179" s="95" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="198"/>
-      <c r="B176" s="195"/>
-      <c r="C176" s="98" t="s">
+    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="217"/>
+      <c r="B180" s="200"/>
+      <c r="C180" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D176" s="136" t="s">
+      <c r="D180" s="135" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="194" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="199" t="s">
         <v>246</v>
       </c>
-      <c r="B177" s="194" t="s">
+      <c r="B181" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C177" s="98"/>
-      <c r="D177" s="127" t="s">
+      <c r="C181" s="98"/>
+      <c r="D181" s="126" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="199"/>
-      <c r="B178" s="199"/>
-      <c r="C178" s="128" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="207"/>
+      <c r="B182" s="207"/>
+      <c r="C182" s="127" t="s">
         <v>428</v>
       </c>
-      <c r="D178" s="102" t="s">
+      <c r="D182" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="111" t="s">
+    <row r="183" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="108" t="s">
+      <c r="B183" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C179" s="108" t="s">
+      <c r="C183" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="D179" s="114" t="s">
+      <c r="D183" s="113" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="129" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="130"/>
-      <c r="D180" s="130"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="196" t="s">
+      <c r="B184" s="103"/>
+      <c r="C184" s="129"/>
+      <c r="D184" s="129"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="215" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="194" t="s">
+      <c r="B185" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C181" s="131" t="s">
+      <c r="C185" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="D181" s="107" t="s">
+      <c r="D185" s="106" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="198"/>
-      <c r="B182" s="195"/>
-      <c r="C182" s="131" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="217"/>
+      <c r="B186" s="200"/>
+      <c r="C186" s="130" t="s">
         <v>476</v>
       </c>
-      <c r="D182" s="107" t="s">
+      <c r="D186" s="106" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="196" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="215" t="s">
         <v>280</v>
       </c>
-      <c r="B183" s="194" t="s">
+      <c r="B187" s="199" t="s">
         <v>440</v>
       </c>
-      <c r="C183" s="95" t="s">
+      <c r="C187" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D183" s="107" t="s">
+      <c r="D187" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="197"/>
-      <c r="B184" s="199"/>
-      <c r="C184" s="107" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="216"/>
+      <c r="B188" s="207"/>
+      <c r="C188" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="D184" s="114" t="s">
+      <c r="D188" s="113" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="197"/>
-      <c r="B185" s="199"/>
-      <c r="C185" s="131" t="s">
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="216"/>
+      <c r="B189" s="207"/>
+      <c r="C189" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="D185" s="107" t="s">
+      <c r="D189" s="106" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="198"/>
-      <c r="B186" s="195"/>
-      <c r="C186" s="131" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="217"/>
+      <c r="B190" s="200"/>
+      <c r="C190" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D186" s="107" t="s">
+      <c r="D190" s="106" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="138" t="s">
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="137" t="s">
         <v>479</v>
       </c>
-      <c r="B187" s="140" t="s">
+      <c r="B191" s="139" t="s">
         <v>440</v>
       </c>
-      <c r="C187" s="131" t="s">
+      <c r="C191" s="130" t="s">
         <v>480</v>
       </c>
-      <c r="D187" s="110" t="s">
+      <c r="D191" s="109" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="130" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="B188" s="130"/>
-      <c r="C188" s="130"/>
-      <c r="D188" s="130"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="196" t="s">
+      <c r="B192" s="129"/>
+      <c r="C192" s="129"/>
+      <c r="D192" s="129"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="B189" s="194" t="s">
+      <c r="B193" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="C189" s="131" t="s">
+      <c r="C193" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="D189" s="107" t="s">
+      <c r="D193" s="106" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="197"/>
-      <c r="B190" s="199"/>
-      <c r="C190" s="131" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="216"/>
+      <c r="B194" s="207"/>
+      <c r="C194" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="D190" s="107" t="s">
+      <c r="D194" s="106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="198"/>
-      <c r="B191" s="195"/>
-      <c r="C191" s="107"/>
-      <c r="D191" s="107" t="s">
+    <row r="195" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="217"/>
+      <c r="B195" s="200"/>
+      <c r="C195" s="106"/>
+      <c r="D195" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="217" t="s">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="B192" s="194" t="s">
+      <c r="B196" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="C192" s="120" t="s">
+      <c r="C196" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D192" s="107" t="s">
+      <c r="D196" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="218"/>
-      <c r="B193" s="195"/>
-      <c r="C193" s="120"/>
-      <c r="D193" s="107" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="198"/>
+      <c r="B197" s="200"/>
+      <c r="C197" s="119"/>
+      <c r="D197" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="217" t="s">
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="197" t="s">
         <v>286</v>
       </c>
-      <c r="B194" s="194" t="s">
+      <c r="B198" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="C194" s="120"/>
-      <c r="D194" s="120" t="s">
+      <c r="C198" s="119"/>
+      <c r="D198" s="119" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="218"/>
-      <c r="B195" s="195"/>
-      <c r="C195" s="107"/>
-      <c r="D195" s="107" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="198"/>
+      <c r="B199" s="200"/>
+      <c r="C199" s="106"/>
+      <c r="D199" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="217" t="s">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="B196" s="194" t="s">
+      <c r="B200" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="120" t="s">
+      <c r="C200" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D196" s="107" t="s">
+      <c r="D200" s="106" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="218"/>
-      <c r="B197" s="195"/>
-      <c r="C197" s="107"/>
-      <c r="D197" s="107" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="198"/>
+      <c r="B201" s="200"/>
+      <c r="C201" s="106"/>
+      <c r="D201" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="130" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="B198" s="130"/>
-      <c r="C198" s="130"/>
-      <c r="D198" s="130"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="107"/>
-      <c r="B199" s="108" t="s">
+      <c r="B202" s="129"/>
+      <c r="C202" s="129"/>
+      <c r="D202" s="129"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="106"/>
+      <c r="B203" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C199" s="107" t="s">
+      <c r="C203" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D199" s="114" t="s">
+      <c r="D203" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="130" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="B200" s="130"/>
-      <c r="C200" s="130"/>
-      <c r="D200" s="130"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="107"/>
-      <c r="B201" s="108" t="s">
+      <c r="B204" s="129"/>
+      <c r="C204" s="129"/>
+      <c r="D204" s="129"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="106"/>
+      <c r="B205" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C201" s="107" t="s">
+      <c r="C205" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D201" s="114" t="s">
+      <c r="D205" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="107"/>
-      <c r="B202" s="108"/>
-      <c r="C202" s="107" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="106"/>
+      <c r="B206" s="107"/>
+      <c r="C206" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="D202" s="114" t="s">
+      <c r="D206" s="113" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A36:A46"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B77:B90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="A167:A176"/>
-    <mergeCell ref="B167:B176"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="A115:A162"/>
-    <mergeCell ref="B115:B162"/>
-    <mergeCell ref="A77:A90"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D113:D116"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="B64:B76"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="A67:A80"/>
+    <mergeCell ref="B67:B80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A119:A166"/>
+    <mergeCell ref="B119:B166"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="B81:B94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B35D0-CD59-4F35-93B5-5A955F6B09DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4498C-A9FA-4BDE-B1A3-BD840A246A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="494">
   <si>
     <t>Document</t>
   </si>
@@ -3356,6 +3356,9 @@
   </si>
   <si>
     <t>updated pay period description</t>
+  </si>
+  <si>
+    <t>Reference 55</t>
   </si>
 </sst>
 </file>
@@ -3979,7 +3982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4299,9 +4302,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4503,6 +4503,18 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4520,12 +4532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4551,13 +4557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5002,12 +5002,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5030,12 +5030,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5075,10 +5075,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="148">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5092,8 +5092,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="147"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5105,8 +5105,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="150"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5118,8 +5118,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5131,8 +5131,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="147"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5144,8 +5144,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5157,10 +5157,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="149">
+      <c r="B13" s="148">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5174,8 +5174,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="151"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5221,12 +5221,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5266,21 +5266,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="153">
+      <c r="B21" s="152">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5294,8 +5294,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="151"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5318,18 +5318,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="153">
+      <c r="B25" s="152">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5343,8 +5343,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
-      <c r="B26" s="150"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5356,8 +5356,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5369,8 +5369,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5382,8 +5382,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="150"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5395,8 +5395,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="147"/>
-      <c r="B30" s="150"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5408,8 +5408,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="150"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5421,8 +5421,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="151"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5546,12 +5546,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5731,10 +5731,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5745,8 +5745,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="159"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5755,8 +5755,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5765,8 +5765,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="159"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5775,8 +5775,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="159"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5785,8 +5785,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="159"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5795,10 +5795,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5809,8 +5809,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5819,8 +5819,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="159"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5829,10 +5829,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5843,8 +5843,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
-      <c r="B17" s="163"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5853,8 +5853,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="163"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5863,8 +5863,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="163"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5873,8 +5873,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="163"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5883,8 +5883,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="163"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5893,8 +5893,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
-      <c r="B22" s="163"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5903,8 +5903,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
-      <c r="B23" s="163"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5913,26 +5913,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="162" t="s">
+      <c r="A24" s="161"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="169" t="s">
+      <c r="D24" s="168" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="169"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="168"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5943,8 +5943,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="159"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5971,28 +5971,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="171" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="172"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="171"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
-      <c r="B32" s="159"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6001,8 +6001,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="159"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6011,8 +6011,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
-      <c r="B34" s="159"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6021,8 +6021,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
-      <c r="B35" s="159"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6031,8 +6031,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
-      <c r="B36" s="159"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6041,26 +6041,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="173" t="s">
+      <c r="A37" s="159"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="174" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="160"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="175"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6071,8 +6071,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="158"/>
-      <c r="B40" s="159"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6099,10 +6099,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="159" t="s">
+      <c r="B43" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6111,8 +6111,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="160"/>
-      <c r="B44" s="159"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6121,10 +6121,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="158" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6133,8 +6133,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="167"/>
-      <c r="B46" s="159"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6143,8 +6143,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="167"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6153,8 +6153,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="168"/>
-      <c r="B48" s="159"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6163,10 +6163,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10270,8 +10270,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="163"/>
-      <c r="B50" s="163"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14375,8 +14375,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="163"/>
-      <c r="B51" s="163"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="162"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18480,8 +18480,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="163"/>
-      <c r="B52" s="163"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="162"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22585,12 +22585,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="171" t="s">
+      <c r="A53" s="162"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="172" t="s">
+      <c r="D53" s="171" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26690,10 +26690,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="172"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30811,10 +30811,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="164" t="s">
+      <c r="A57" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="162" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30825,8 +30825,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="164"/>
-      <c r="B58" s="163"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30835,8 +30835,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
-      <c r="B59" s="163"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="162"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30845,8 +30845,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="164"/>
-      <c r="B60" s="163"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="162"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30855,8 +30855,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="164"/>
-      <c r="B61" s="163"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="162"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30865,8 +30865,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="164"/>
-      <c r="B62" s="163"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="162"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30875,8 +30875,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="164"/>
-      <c r="B63" s="163"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="162"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30885,16 +30885,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="164"/>
-      <c r="B64" s="163"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
-      <c r="B65" s="163"/>
+      <c r="A65" s="163"/>
+      <c r="B65" s="162"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30903,16 +30903,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="164"/>
-      <c r="B66" s="163"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="162"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="164"/>
-      <c r="B67" s="163"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="162"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30921,8 +30921,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="164"/>
-      <c r="B68" s="163"/>
+      <c r="A68" s="163"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30931,8 +30931,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="164"/>
-      <c r="B69" s="163"/>
+      <c r="A69" s="163"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30941,8 +30941,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="164"/>
-      <c r="B70" s="163"/>
+      <c r="A70" s="163"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30951,8 +30951,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
-      <c r="B71" s="163"/>
+      <c r="A71" s="163"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30961,8 +30961,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="164"/>
-      <c r="B72" s="163"/>
+      <c r="A72" s="163"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30971,16 +30971,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="164"/>
-      <c r="B73" s="163"/>
+      <c r="A73" s="163"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="164"/>
-      <c r="B74" s="163"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="162"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30989,18 +30989,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="164"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="170"/>
-      <c r="D75" s="165" t="s">
+      <c r="A75" s="163"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="164" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="164"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="170"/>
-      <c r="D76" s="165"/>
+      <c r="A76" s="163"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="164"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31124,10 +31124,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="158" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31138,133 +31138,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="185" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="183" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="184"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="183"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="159"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="159"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="183" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="184" t="s">
+      <c r="C13" s="185"/>
+      <c r="D13" s="183" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="184"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="183"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="186"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="185"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="186"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="186"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="185"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="186"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="186"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="186"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="185"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="186"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="185"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="186"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="186"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="185"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31362,10 +31362,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="186" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="189" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31376,26 +31376,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
-      <c r="B33" s="191"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="188"/>
-      <c r="B34" s="191"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="190"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="188"/>
-      <c r="B35" s="191"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="190"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
-      <c r="B36" s="192"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31424,10 +31424,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="158" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31438,8 +31438,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
-      <c r="B40" s="159"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31448,84 +31448,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="183" t="s">
+      <c r="C41" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="162" t="s">
+      <c r="D41" s="161" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="158"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="162"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="161"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="158"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="183" t="s">
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="165" t="s">
+      <c r="D43" s="164" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="158"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="165"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="164"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="179"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="176" t="s">
+      <c r="A46" s="163"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="175" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="177"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="176"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="177"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="176"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="177"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="176"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="178"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="177"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31548,10 +31548,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31562,8 +31562,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
-      <c r="B54" s="163"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31572,8 +31572,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="163"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="162"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31582,9 +31582,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="182" t="s">
+      <c r="A56" s="162"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="181" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31592,16 +31592,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="182"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="163"/>
+      <c r="A58" s="162"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31610,8 +31610,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="163"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="162"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31620,9 +31620,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="182" t="s">
+      <c r="A60" s="162"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="181" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31630,25 +31630,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="182"/>
+      <c r="A61" s="162"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="181"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="182"/>
+      <c r="A62" s="162"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="181"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="183" t="s">
+      <c r="A63" s="162"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="182" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31656,30 +31656,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="183"/>
-      <c r="D64" s="165" t="s">
+      <c r="A64" s="162"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="164" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="163"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="183"/>
-      <c r="D65" s="165"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="164"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="165"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="164"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="165"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="164"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31776,10 +31776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31813,10 +31813,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="198" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="196" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31827,8 +31827,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="196"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="100" t="s">
         <v>437</v>
       </c>
@@ -31837,10 +31837,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="198" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C5" s="100"/>
@@ -31849,8 +31849,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
-      <c r="B6" s="200"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="100"/>
       <c r="D6" t="s">
         <v>490</v>
@@ -31865,44 +31865,44 @@
       <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="130" t="s">
         <v>442</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>440</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="126" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="198" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="126" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
-      <c r="B10" s="207"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="100" t="s">
         <v>445</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="126" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
-      <c r="B11" s="207"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="100" t="s">
         <v>447</v>
       </c>
@@ -31911,8 +31911,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
-      <c r="B12" s="200"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="100" t="s">
         <v>435</v>
       </c>
@@ -31921,10 +31921,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="196" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C13" s="100" t="s">
@@ -31935,8 +31935,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
-      <c r="B14" s="207"/>
+      <c r="A14" s="220"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="100" t="s">
         <v>454</v>
       </c>
@@ -31945,8 +31945,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
-      <c r="B15" s="200"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="100">
         <v>3.3</v>
       </c>
@@ -31955,14 +31955,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="130" t="s">
         <v>458</v>
       </c>
       <c r="B16" s="107" t="s">
         <v>440</v>
       </c>
       <c r="C16" s="100"/>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="131" t="s">
         <v>459</v>
       </c>
     </row>
@@ -31975,10 +31975,10 @@
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="201" t="s">
+      <c r="A18" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="203" t="s">
         <v>440</v>
       </c>
       <c r="C18" s="100" t="s">
@@ -31989,8 +31989,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
-      <c r="B19" s="202"/>
+      <c r="A19" s="202"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="100" t="s">
         <v>342</v>
       </c>
@@ -31999,8 +31999,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
+      <c r="A20" s="202"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="100" t="s">
         <v>338</v>
       </c>
@@ -32017,10 +32017,10 @@
       <c r="D21" s="104"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="208" t="s">
+      <c r="A22" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="204" t="s">
         <v>440</v>
       </c>
       <c r="C22" s="106"/>
@@ -32029,9 +32029,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="208"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="139" t="s">
+      <c r="A23" s="209"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="138" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="108" t="s">
@@ -32039,9 +32039,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="208"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="142" t="s">
+      <c r="A24" s="209"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="141" t="s">
         <v>486</v>
       </c>
       <c r="D24" s="108" t="s">
@@ -32049,9 +32049,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="208"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="142" t="s">
+      <c r="A25" s="209"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="141" t="s">
         <v>486</v>
       </c>
       <c r="D25" s="108" t="s">
@@ -32059,10 +32059,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C26" s="107" t="s">
@@ -32073,19 +32073,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="216"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="139" t="s">
+      <c r="A27" s="215"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="138" t="s">
         <v>464</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="137" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
-      <c r="B28" s="200"/>
-      <c r="C28" s="140" t="s">
+      <c r="A28" s="216"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="139" t="s">
         <v>483</v>
       </c>
       <c r="D28" s="110" t="s">
@@ -32133,10 +32133,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="204" t="s">
         <v>440</v>
       </c>
       <c r="C32" s="106"/>
@@ -32145,16 +32145,16 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="208"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="204"/>
       <c r="C33" s="106"/>
       <c r="D33" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
-      <c r="B34" s="203"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="204"/>
       <c r="C34" s="111" t="s">
         <v>320</v>
       </c>
@@ -32163,8 +32163,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="209"/>
+      <c r="B35" s="204"/>
       <c r="C35" s="112" t="s">
         <v>399</v>
       </c>
@@ -32185,10 +32185,10 @@
       <c r="D36" s="106"/>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="204" t="s">
+      <c r="A37" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="199" t="s">
+      <c r="B37" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C37" s="106"/>
@@ -32197,8 +32197,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
-      <c r="B38" s="207"/>
+      <c r="A38" s="206"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="112" t="s">
         <v>356</v>
       </c>
@@ -32207,8 +32207,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="205"/>
-      <c r="B39" s="207"/>
+      <c r="A39" s="206"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="112" t="s">
         <v>354</v>
       </c>
@@ -32217,8 +32217,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="205"/>
-      <c r="B40" s="207"/>
+      <c r="A40" s="206"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="115" t="s">
         <v>362</v>
       </c>
@@ -32227,8 +32227,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="205"/>
-      <c r="B41" s="207"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="112" t="s">
         <v>354</v>
       </c>
@@ -32237,8 +32237,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="205"/>
-      <c r="B42" s="207"/>
+      <c r="A42" s="206"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="112" t="s">
         <v>366</v>
       </c>
@@ -32247,8 +32247,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="205"/>
-      <c r="B43" s="207"/>
+      <c r="A43" s="206"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="112" t="s">
         <v>354</v>
       </c>
@@ -32257,8 +32257,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="206"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="112" t="s">
         <v>465</v>
       </c>
@@ -32267,9 +32267,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="205"/>
-      <c r="B45" s="207"/>
-      <c r="C45" s="136" t="s">
+      <c r="A45" s="206"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="135" t="s">
         <v>467</v>
       </c>
       <c r="D45" s="58" t="s">
@@ -32277,9 +32277,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="205"/>
-      <c r="B46" s="207"/>
-      <c r="C46" s="136" t="s">
+      <c r="A46" s="206"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="135" t="s">
         <v>354</v>
       </c>
       <c r="D46" s="58" t="s">
@@ -32287,9 +32287,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="205"/>
-      <c r="B47" s="207"/>
-      <c r="C47" s="141" t="s">
+      <c r="A47" s="206"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="140" t="s">
         <v>467</v>
       </c>
       <c r="D47" s="61" t="s">
@@ -32297,8 +32297,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="206"/>
-      <c r="B48" s="200"/>
+      <c r="A48" s="207"/>
+      <c r="B48" s="193"/>
       <c r="C48" s="112" t="s">
         <v>354</v>
       </c>
@@ -32347,10 +32347,10 @@
       <c r="D51" s="113"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="212" t="s">
+      <c r="A52" s="211" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="199" t="s">
+      <c r="B52" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C52" s="112" t="s">
@@ -32359,8 +32359,8 @@
       <c r="D52" s="113"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="222"/>
-      <c r="B53" s="200"/>
+      <c r="A53" s="221"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="112" t="s">
         <v>399</v>
       </c>
@@ -32377,10 +32377,10 @@
       <c r="D54" s="103"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="212" t="s">
+      <c r="A55" s="211" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="199" t="s">
+      <c r="B55" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C55" s="106"/>
@@ -32389,24 +32389,24 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="213"/>
-      <c r="B56" s="207"/>
+      <c r="A56" s="212"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="106"/>
       <c r="D56" s="106" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="213"/>
-      <c r="B57" s="207"/>
+      <c r="A57" s="212"/>
+      <c r="B57" s="208"/>
       <c r="C57" s="106"/>
       <c r="D57" s="106" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="213"/>
-      <c r="B58" s="207"/>
+      <c r="A58" s="212"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="106" t="s">
         <v>295</v>
       </c>
@@ -32415,8 +32415,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="213"/>
-      <c r="B59" s="207"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="208"/>
       <c r="C59" s="106" t="s">
         <v>323</v>
       </c>
@@ -32425,8 +32425,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="213"/>
-      <c r="B60" s="207"/>
+      <c r="A60" s="212"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="106" t="s">
         <v>368</v>
       </c>
@@ -32435,8 +32435,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="213"/>
-      <c r="B61" s="207"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="208"/>
       <c r="C61" s="119" t="s">
         <v>469</v>
       </c>
@@ -32445,8 +32445,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="213"/>
-      <c r="B62" s="207"/>
+      <c r="A62" s="212"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="58" t="s">
         <v>37</v>
       </c>
@@ -32455,9 +32455,9 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="213"/>
-      <c r="B63" s="207"/>
-      <c r="C63" s="133" t="s">
+      <c r="A63" s="212"/>
+      <c r="B63" s="208"/>
+      <c r="C63" s="132" t="s">
         <v>354</v>
       </c>
       <c r="D63" s="58" t="s">
@@ -32465,9 +32465,9 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="213"/>
-      <c r="B64" s="207"/>
-      <c r="C64" s="133" t="s">
+      <c r="A64" s="212"/>
+      <c r="B64" s="208"/>
+      <c r="C64" s="132" t="s">
         <v>467</v>
       </c>
       <c r="D64" s="58" t="s">
@@ -32475,9 +32475,9 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="213"/>
-      <c r="B65" s="207"/>
-      <c r="C65" s="133" t="s">
+      <c r="A65" s="212"/>
+      <c r="B65" s="208"/>
+      <c r="C65" s="132" t="s">
         <v>368</v>
       </c>
       <c r="D65" s="58" t="s">
@@ -32485,9 +32485,9 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="222"/>
-      <c r="B66" s="200"/>
-      <c r="C66" s="133" t="s">
+      <c r="A66" s="221"/>
+      <c r="B66" s="193"/>
+      <c r="C66" s="132" t="s">
         <v>354</v>
       </c>
       <c r="D66" s="108" t="s">
@@ -32495,10 +32495,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="209" t="s">
+      <c r="A67" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="199" t="s">
+      <c r="B67" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C67" s="106" t="s">
@@ -32510,7 +32510,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="210"/>
-      <c r="B68" s="207"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="106"/>
       <c r="D68" s="106" t="s">
         <v>237</v>
@@ -32518,7 +32518,7 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="210"/>
-      <c r="B69" s="207"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="117" t="s">
         <v>324</v>
       </c>
@@ -32528,7 +32528,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="210"/>
-      <c r="B70" s="207"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="117" t="s">
         <v>354</v>
       </c>
@@ -32538,7 +32538,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="210"/>
-      <c r="B71" s="207"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="117" t="s">
         <v>362</v>
       </c>
@@ -32548,7 +32548,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="210"/>
-      <c r="B72" s="207"/>
+      <c r="B72" s="208"/>
       <c r="C72" s="117" t="s">
         <v>366</v>
       </c>
@@ -32558,7 +32558,7 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="210"/>
-      <c r="B73" s="207"/>
+      <c r="B73" s="208"/>
       <c r="C73" s="117" t="s">
         <v>376</v>
       </c>
@@ -32568,7 +32568,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="210"/>
-      <c r="B74" s="207"/>
+      <c r="B74" s="208"/>
       <c r="C74" s="109" t="s">
         <v>354</v>
       </c>
@@ -32578,7 +32578,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="210"/>
-      <c r="B75" s="207"/>
+      <c r="B75" s="208"/>
       <c r="C75" s="109" t="s">
         <v>465</v>
       </c>
@@ -32588,8 +32588,8 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="210"/>
-      <c r="B76" s="207"/>
-      <c r="C76" s="133" t="s">
+      <c r="B76" s="208"/>
+      <c r="C76" s="132" t="s">
         <v>467</v>
       </c>
       <c r="D76" s="58" t="s">
@@ -32598,8 +32598,8 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="210"/>
-      <c r="B77" s="207"/>
-      <c r="C77" s="133" t="s">
+      <c r="B77" s="208"/>
+      <c r="C77" s="132" t="s">
         <v>354</v>
       </c>
       <c r="D77" s="58" t="s">
@@ -32608,8 +32608,8 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="210"/>
-      <c r="B78" s="207"/>
-      <c r="C78" s="133" t="s">
+      <c r="B78" s="208"/>
+      <c r="C78" s="132" t="s">
         <v>467</v>
       </c>
       <c r="D78" s="58" t="s">
@@ -32618,8 +32618,8 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="210"/>
-      <c r="B79" s="207"/>
-      <c r="C79" s="133" t="s">
+      <c r="B79" s="208"/>
+      <c r="C79" s="132" t="s">
         <v>368</v>
       </c>
       <c r="D79" s="58" t="s">
@@ -32627,9 +32627,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="211"/>
-      <c r="B80" s="200"/>
-      <c r="C80" s="133" t="s">
+      <c r="A80" s="195"/>
+      <c r="B80" s="193"/>
+      <c r="C80" s="132" t="s">
         <v>354</v>
       </c>
       <c r="D80" s="108" t="s">
@@ -32637,13 +32637,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="215" t="s">
+      <c r="A81" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="B81" s="199" t="s">
+      <c r="B81" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C81" s="223" t="s">
+      <c r="C81" s="222" t="s">
         <v>238</v>
       </c>
       <c r="D81" s="96" t="s">
@@ -32651,17 +32651,17 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="216"/>
-      <c r="B82" s="207"/>
-      <c r="C82" s="224"/>
+      <c r="A82" s="215"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="223"/>
       <c r="D82" s="113" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="216"/>
-      <c r="B83" s="207"/>
-      <c r="C83" s="214" t="s">
+      <c r="A83" s="215"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="213" t="s">
         <v>239</v>
       </c>
       <c r="D83" s="106" t="s">
@@ -32669,16 +32669,16 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="216"/>
-      <c r="B84" s="207"/>
-      <c r="C84" s="214"/>
+      <c r="A84" s="215"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="213"/>
       <c r="D84" s="119" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="216"/>
-      <c r="B85" s="207"/>
+      <c r="A85" s="215"/>
+      <c r="B85" s="208"/>
       <c r="C85" s="112" t="s">
         <v>302</v>
       </c>
@@ -32687,8 +32687,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="216"/>
-      <c r="B86" s="207"/>
+      <c r="A86" s="215"/>
+      <c r="B86" s="208"/>
       <c r="C86" s="112">
         <v>2.1</v>
       </c>
@@ -32697,8 +32697,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="216"/>
-      <c r="B87" s="207"/>
+      <c r="A87" s="215"/>
+      <c r="B87" s="208"/>
       <c r="C87" s="112" t="s">
         <v>238</v>
       </c>
@@ -32707,8 +32707,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="216"/>
-      <c r="B88" s="207"/>
+      <c r="A88" s="215"/>
+      <c r="B88" s="208"/>
       <c r="C88" s="112" t="s">
         <v>238</v>
       </c>
@@ -32717,8 +32717,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="216"/>
-      <c r="B89" s="207"/>
+      <c r="A89" s="215"/>
+      <c r="B89" s="208"/>
       <c r="C89" s="112" t="s">
         <v>238</v>
       </c>
@@ -32727,8 +32727,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="216"/>
-      <c r="B90" s="207"/>
+      <c r="A90" s="215"/>
+      <c r="B90" s="208"/>
       <c r="C90" s="120" t="s">
         <v>373</v>
       </c>
@@ -32737,8 +32737,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="216"/>
-      <c r="B91" s="207"/>
+      <c r="A91" s="215"/>
+      <c r="B91" s="208"/>
       <c r="C91" s="112">
         <v>2.1</v>
       </c>
@@ -32747,8 +32747,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="216"/>
-      <c r="B92" s="207"/>
+      <c r="A92" s="215"/>
+      <c r="B92" s="208"/>
       <c r="C92" s="112" t="s">
         <v>238</v>
       </c>
@@ -32757,8 +32757,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="216"/>
-      <c r="B93" s="207"/>
+      <c r="A93" s="215"/>
+      <c r="B93" s="208"/>
       <c r="C93" s="112" t="s">
         <v>238</v>
       </c>
@@ -32767,8 +32767,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="216"/>
-      <c r="B94" s="207"/>
+      <c r="A94" s="215"/>
+      <c r="B94" s="208"/>
       <c r="C94" s="112">
         <v>2.1</v>
       </c>
@@ -32777,10 +32777,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="209" t="s">
+      <c r="A95" s="194" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="199" t="s">
+      <c r="B95" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C95" s="106" t="s">
@@ -32792,7 +32792,7 @@
     </row>
     <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="210"/>
-      <c r="B96" s="207"/>
+      <c r="B96" s="208"/>
       <c r="C96" s="119" t="s">
         <v>276</v>
       </c>
@@ -32801,8 +32801,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="211"/>
-      <c r="B97" s="200"/>
+      <c r="A97" s="195"/>
+      <c r="B97" s="193"/>
       <c r="C97" s="106" t="s">
         <v>345</v>
       </c>
@@ -32811,10 +32811,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="212" t="s">
+      <c r="A98" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="B98" s="199" t="s">
+      <c r="B98" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C98" s="112" t="s">
@@ -32823,8 +32823,8 @@
       <c r="D98" s="106"/>
     </row>
     <row r="99" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="213"/>
-      <c r="B99" s="207"/>
+      <c r="A99" s="212"/>
+      <c r="B99" s="208"/>
       <c r="C99" s="112" t="s">
         <v>373</v>
       </c>
@@ -32833,8 +32833,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="213"/>
-      <c r="B100" s="207"/>
+      <c r="A100" s="212"/>
+      <c r="B100" s="208"/>
       <c r="C100" s="112">
         <v>2.1</v>
       </c>
@@ -32843,8 +32843,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="213"/>
-      <c r="B101" s="207"/>
+      <c r="A101" s="212"/>
+      <c r="B101" s="208"/>
       <c r="C101" s="112" t="s">
         <v>239</v>
       </c>
@@ -32853,8 +32853,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="213"/>
-      <c r="B102" s="207"/>
+      <c r="A102" s="212"/>
+      <c r="B102" s="208"/>
       <c r="C102" s="112" t="s">
         <v>238</v>
       </c>
@@ -32883,10 +32883,10 @@
       <c r="D104" s="113"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="215" t="s">
+      <c r="A105" s="214" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="199" t="s">
+      <c r="B105" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C105" s="106"/>
@@ -32895,24 +32895,24 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="216"/>
-      <c r="B106" s="207"/>
+      <c r="A106" s="215"/>
+      <c r="B106" s="208"/>
       <c r="C106" s="106"/>
       <c r="D106" s="106" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="216"/>
-      <c r="B107" s="207"/>
+      <c r="A107" s="215"/>
+      <c r="B107" s="208"/>
       <c r="C107" s="106"/>
       <c r="D107" s="113" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="216"/>
-      <c r="B108" s="207"/>
+      <c r="A108" s="215"/>
+      <c r="B108" s="208"/>
       <c r="C108" s="106" t="s">
         <v>419</v>
       </c>
@@ -32921,8 +32921,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="216"/>
-      <c r="B109" s="207"/>
+      <c r="A109" s="215"/>
+      <c r="B109" s="208"/>
       <c r="C109" s="106" t="s">
         <v>424</v>
       </c>
@@ -32931,8 +32931,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="216"/>
-      <c r="B110" s="207"/>
+      <c r="A110" s="215"/>
+      <c r="B110" s="208"/>
       <c r="C110" s="106" t="s">
         <v>486</v>
       </c>
@@ -32941,10 +32941,10 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="208" t="s">
+      <c r="A111" s="209" t="s">
         <v>329</v>
       </c>
-      <c r="B111" s="203" t="s">
+      <c r="B111" s="204" t="s">
         <v>440</v>
       </c>
       <c r="C111" s="80" t="s">
@@ -32955,8 +32955,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="208"/>
-      <c r="B112" s="203"/>
+      <c r="A112" s="209"/>
+      <c r="B112" s="204"/>
       <c r="C112" s="106" t="s">
         <v>406</v>
       </c>
@@ -32965,46 +32965,46 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="208"/>
-      <c r="B113" s="203"/>
+      <c r="A113" s="209"/>
+      <c r="B113" s="204"/>
       <c r="C113" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D113" s="218" t="s">
+      <c r="D113" s="217" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="208"/>
-      <c r="B114" s="203"/>
+      <c r="A114" s="209"/>
+      <c r="B114" s="204"/>
       <c r="C114" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D114" s="219"/>
+      <c r="D114" s="218"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="208"/>
-      <c r="B115" s="203"/>
+      <c r="A115" s="209"/>
+      <c r="B115" s="204"/>
       <c r="C115" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D115" s="219"/>
+      <c r="D115" s="218"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="208"/>
-      <c r="B116" s="203"/>
+      <c r="A116" s="209"/>
+      <c r="B116" s="204"/>
       <c r="C116" s="122" t="s">
         <v>412</v>
       </c>
-      <c r="D116" s="219"/>
+      <c r="D116" s="218"/>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="208"/>
-      <c r="B117" s="203"/>
+      <c r="A117" s="209"/>
+      <c r="B117" s="204"/>
       <c r="C117" s="122" t="s">
         <v>471</v>
       </c>
-      <c r="D117" s="134" t="s">
+      <c r="D117" s="133" t="s">
         <v>375</v>
       </c>
     </row>
@@ -33023,10 +33023,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="209" t="s">
+      <c r="A119" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="B119" s="199" t="s">
+      <c r="B119" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C119" s="106" t="s">
@@ -33038,7 +33038,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="210"/>
-      <c r="B120" s="207"/>
+      <c r="B120" s="208"/>
       <c r="C120" s="106" t="s">
         <v>265</v>
       </c>
@@ -33048,7 +33048,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="210"/>
-      <c r="B121" s="207"/>
+      <c r="B121" s="208"/>
       <c r="C121" s="106" t="s">
         <v>264</v>
       </c>
@@ -33058,7 +33058,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="210"/>
-      <c r="B122" s="207"/>
+      <c r="B122" s="208"/>
       <c r="C122" s="113" t="s">
         <v>272</v>
       </c>
@@ -33068,7 +33068,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="210"/>
-      <c r="B123" s="207"/>
+      <c r="B123" s="208"/>
       <c r="C123" s="106" t="s">
         <v>277</v>
       </c>
@@ -33078,7 +33078,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="210"/>
-      <c r="B124" s="207"/>
+      <c r="B124" s="208"/>
       <c r="C124" s="106" t="s">
         <v>278</v>
       </c>
@@ -33088,7 +33088,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="210"/>
-      <c r="B125" s="207"/>
+      <c r="B125" s="208"/>
       <c r="C125" s="113" t="s">
         <v>283</v>
       </c>
@@ -33098,7 +33098,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="210"/>
-      <c r="B126" s="207"/>
+      <c r="B126" s="208"/>
       <c r="C126" s="113" t="s">
         <v>297</v>
       </c>
@@ -33108,7 +33108,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="210"/>
-      <c r="B127" s="207"/>
+      <c r="B127" s="208"/>
       <c r="C127" s="113" t="s">
         <v>284</v>
       </c>
@@ -33118,7 +33118,7 @@
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="210"/>
-      <c r="B128" s="207"/>
+      <c r="B128" s="208"/>
       <c r="C128" s="123" t="s">
         <v>243</v>
       </c>
@@ -33128,7 +33128,7 @@
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="210"/>
-      <c r="B129" s="207"/>
+      <c r="B129" s="208"/>
       <c r="C129" s="117" t="s">
         <v>306</v>
       </c>
@@ -33138,7 +33138,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="210"/>
-      <c r="B130" s="207"/>
+      <c r="B130" s="208"/>
       <c r="C130" s="106" t="s">
         <v>307</v>
       </c>
@@ -33148,7 +33148,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="210"/>
-      <c r="B131" s="207"/>
+      <c r="B131" s="208"/>
       <c r="C131" s="113" t="s">
         <v>308</v>
       </c>
@@ -33158,7 +33158,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="210"/>
-      <c r="B132" s="207"/>
+      <c r="B132" s="208"/>
       <c r="C132" s="113" t="s">
         <v>310</v>
       </c>
@@ -33168,7 +33168,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="210"/>
-      <c r="B133" s="207"/>
+      <c r="B133" s="208"/>
       <c r="C133" s="113" t="s">
         <v>263</v>
       </c>
@@ -33178,7 +33178,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="210"/>
-      <c r="B134" s="207"/>
+      <c r="B134" s="208"/>
       <c r="C134" s="106" t="s">
         <v>313</v>
       </c>
@@ -33188,7 +33188,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="210"/>
-      <c r="B135" s="207"/>
+      <c r="B135" s="208"/>
       <c r="C135" s="113" t="s">
         <v>278</v>
       </c>
@@ -33198,7 +33198,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="210"/>
-      <c r="B136" s="207"/>
+      <c r="B136" s="208"/>
       <c r="C136" s="113" t="s">
         <v>314</v>
       </c>
@@ -33208,7 +33208,7 @@
     </row>
     <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="210"/>
-      <c r="B137" s="207"/>
+      <c r="B137" s="208"/>
       <c r="C137" s="106"/>
       <c r="D137" s="97" t="s">
         <v>316</v>
@@ -33216,7 +33216,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="210"/>
-      <c r="B138" s="207"/>
+      <c r="B138" s="208"/>
       <c r="C138" s="113" t="s">
         <v>317</v>
       </c>
@@ -33226,7 +33226,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="210"/>
-      <c r="B139" s="207"/>
+      <c r="B139" s="208"/>
       <c r="C139" s="113" t="s">
         <v>263</v>
       </c>
@@ -33236,7 +33236,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="210"/>
-      <c r="B140" s="207"/>
+      <c r="B140" s="208"/>
       <c r="C140" s="113" t="s">
         <v>334</v>
       </c>
@@ -33246,7 +33246,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="210"/>
-      <c r="B141" s="207"/>
+      <c r="B141" s="208"/>
       <c r="C141" s="113" t="s">
         <v>335</v>
       </c>
@@ -33256,7 +33256,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="210"/>
-      <c r="B142" s="207"/>
+      <c r="B142" s="208"/>
       <c r="C142" s="113" t="s">
         <v>319</v>
       </c>
@@ -33266,7 +33266,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="210"/>
-      <c r="B143" s="207"/>
+      <c r="B143" s="208"/>
       <c r="C143" s="118" t="s">
         <v>340</v>
       </c>
@@ -33276,7 +33276,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="210"/>
-      <c r="B144" s="207"/>
+      <c r="B144" s="208"/>
       <c r="C144" s="113" t="s">
         <v>333</v>
       </c>
@@ -33286,7 +33286,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="210"/>
-      <c r="B145" s="207"/>
+      <c r="B145" s="208"/>
       <c r="C145" s="113" t="s">
         <v>348</v>
       </c>
@@ -33296,7 +33296,7 @@
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="210"/>
-      <c r="B146" s="207"/>
+      <c r="B146" s="208"/>
       <c r="C146" s="101" t="s">
         <v>351</v>
       </c>
@@ -33306,7 +33306,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="210"/>
-      <c r="B147" s="207"/>
+      <c r="B147" s="208"/>
       <c r="C147" s="113" t="s">
         <v>352</v>
       </c>
@@ -33316,7 +33316,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="210"/>
-      <c r="B148" s="207"/>
+      <c r="B148" s="208"/>
       <c r="C148" s="113" t="s">
         <v>353</v>
       </c>
@@ -33326,7 +33326,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="210"/>
-      <c r="B149" s="207"/>
+      <c r="B149" s="208"/>
       <c r="C149" s="113" t="s">
         <v>359</v>
       </c>
@@ -33336,7 +33336,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="210"/>
-      <c r="B150" s="207"/>
+      <c r="B150" s="208"/>
       <c r="C150" s="113" t="s">
         <v>361</v>
       </c>
@@ -33346,7 +33346,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="210"/>
-      <c r="B151" s="207"/>
+      <c r="B151" s="208"/>
       <c r="C151" s="113" t="s">
         <v>367</v>
       </c>
@@ -33356,7 +33356,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="210"/>
-      <c r="B152" s="207"/>
+      <c r="B152" s="208"/>
       <c r="C152" s="113" t="s">
         <v>359</v>
       </c>
@@ -33366,7 +33366,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="210"/>
-      <c r="B153" s="207"/>
+      <c r="B153" s="208"/>
       <c r="C153" s="118" t="s">
         <v>380</v>
       </c>
@@ -33376,7 +33376,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="210"/>
-      <c r="B154" s="207"/>
+      <c r="B154" s="208"/>
       <c r="C154" s="106" t="s">
         <v>384</v>
       </c>
@@ -33386,7 +33386,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="210"/>
-      <c r="B155" s="207"/>
+      <c r="B155" s="208"/>
       <c r="C155" s="106" t="s">
         <v>387</v>
       </c>
@@ -33396,7 +33396,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="210"/>
-      <c r="B156" s="207"/>
+      <c r="B156" s="208"/>
       <c r="C156" s="106" t="s">
         <v>388</v>
       </c>
@@ -33406,7 +33406,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="210"/>
-      <c r="B157" s="207"/>
+      <c r="B157" s="208"/>
       <c r="C157" s="106" t="s">
         <v>389</v>
       </c>
@@ -33416,7 +33416,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="210"/>
-      <c r="B158" s="207"/>
+      <c r="B158" s="208"/>
       <c r="C158" s="106" t="s">
         <v>390</v>
       </c>
@@ -33426,7 +33426,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="210"/>
-      <c r="B159" s="207"/>
+      <c r="B159" s="208"/>
       <c r="C159" s="106" t="s">
         <v>391</v>
       </c>
@@ -33436,7 +33436,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="210"/>
-      <c r="B160" s="207"/>
+      <c r="B160" s="208"/>
       <c r="C160" s="106" t="s">
         <v>394</v>
       </c>
@@ -33446,7 +33446,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="210"/>
-      <c r="B161" s="207"/>
+      <c r="B161" s="208"/>
       <c r="C161" s="106" t="s">
         <v>404</v>
       </c>
@@ -33456,7 +33456,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="210"/>
-      <c r="B162" s="207"/>
+      <c r="B162" s="208"/>
       <c r="C162" s="106" t="s">
         <v>405</v>
       </c>
@@ -33466,7 +33466,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="210"/>
-      <c r="B163" s="207"/>
+      <c r="B163" s="208"/>
       <c r="C163" s="106" t="s">
         <v>422</v>
       </c>
@@ -33476,7 +33476,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="210"/>
-      <c r="B164" s="207"/>
+      <c r="B164" s="208"/>
       <c r="C164" s="106" t="s">
         <v>423</v>
       </c>
@@ -33486,7 +33486,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="210"/>
-      <c r="B165" s="207"/>
+      <c r="B165" s="208"/>
       <c r="C165" s="106" t="s">
         <v>426</v>
       </c>
@@ -33495,8 +33495,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="211"/>
-      <c r="B166" s="200"/>
+      <c r="A166" s="195"/>
+      <c r="B166" s="193"/>
       <c r="C166" s="58" t="s">
         <v>472</v>
       </c>
@@ -33505,10 +33505,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="125" t="s">
+      <c r="A167" s="194" t="s">
         <v>416</v>
       </c>
-      <c r="B167" s="107" t="s">
+      <c r="B167" s="192" t="s">
         <v>440</v>
       </c>
       <c r="C167" s="106" t="s">
@@ -33519,22 +33519,18 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="109" t="s">
+      <c r="A168" s="195"/>
+      <c r="B168" s="193"/>
+      <c r="C168" s="118" t="s">
+        <v>493</v>
+      </c>
+      <c r="D168" s="118" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="109" t="s">
         <v>304</v>
-      </c>
-      <c r="B168" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C168" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D168" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="109" t="s">
-        <v>305</v>
       </c>
       <c r="B169" s="107" t="s">
         <v>440</v>
@@ -33546,402 +33542,412 @@
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="103" t="s">
+    <row r="170" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="B170" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C170" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B170" s="103"/>
-      <c r="C170" s="103"/>
-      <c r="D170" s="104"/>
-    </row>
-    <row r="171" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="215" t="s">
+      <c r="B171" s="103"/>
+      <c r="C171" s="103"/>
+      <c r="D171" s="104"/>
+    </row>
+    <row r="172" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="B171" s="199" t="s">
+      <c r="B172" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C171" s="106"/>
-      <c r="D171" s="80" t="s">
+      <c r="C172" s="106"/>
+      <c r="D172" s="80" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="216"/>
-      <c r="B172" s="207"/>
-      <c r="C172" s="107" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="215"/>
+      <c r="B173" s="208"/>
+      <c r="C173" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D172" s="106" t="s">
+      <c r="D173" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="216"/>
-      <c r="B173" s="207"/>
-      <c r="C173" s="107">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="215"/>
+      <c r="B174" s="208"/>
+      <c r="C174" s="107">
         <v>10.1</v>
-      </c>
-      <c r="D173" s="106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="216"/>
-      <c r="B174" s="207"/>
-      <c r="C174" s="107">
-        <v>10.199999999999999</v>
       </c>
       <c r="D174" s="106" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="216"/>
-      <c r="B175" s="207"/>
-      <c r="C175" s="98" t="s">
+      <c r="A175" s="215"/>
+      <c r="B175" s="208"/>
+      <c r="C175" s="107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D175" s="106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="215"/>
+      <c r="B176" s="208"/>
+      <c r="C176" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D175" s="95" t="s">
+      <c r="D176" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="216"/>
-      <c r="B176" s="207"/>
-      <c r="C176" s="98" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="215"/>
+      <c r="B177" s="208"/>
+      <c r="C177" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D176" s="95" t="s">
+      <c r="D177" s="95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="216"/>
-      <c r="B177" s="207"/>
-      <c r="C177" s="98" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="215"/>
+      <c r="B178" s="208"/>
+      <c r="C178" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D177" s="95" t="s">
+      <c r="D178" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="216"/>
-      <c r="B178" s="207"/>
-      <c r="C178" s="98" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="215"/>
+      <c r="B179" s="208"/>
+      <c r="C179" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="D178" s="95" t="s">
+      <c r="D179" s="95" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="216"/>
-      <c r="B179" s="207"/>
-      <c r="C179" s="98" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="215"/>
+      <c r="B180" s="208"/>
+      <c r="C180" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D179" s="95" t="s">
+      <c r="D180" s="95" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="217"/>
-      <c r="B180" s="200"/>
-      <c r="C180" s="98" t="s">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="216"/>
+      <c r="B181" s="193"/>
+      <c r="C181" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D180" s="135" t="s">
+      <c r="D181" s="134" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="199" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="B181" s="199" t="s">
+      <c r="B182" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C181" s="98"/>
-      <c r="D181" s="126" t="s">
+      <c r="C182" s="98"/>
+      <c r="D182" s="125" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="207"/>
-      <c r="B182" s="207"/>
-      <c r="C182" s="127" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="208"/>
+      <c r="B183" s="208"/>
+      <c r="C183" s="126" t="s">
         <v>428</v>
       </c>
-      <c r="D182" s="102" t="s">
+      <c r="D183" s="102" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="110" t="s">
+    <row r="184" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="B183" s="107" t="s">
+      <c r="B184" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C183" s="107" t="s">
+      <c r="C184" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="D183" s="113" t="s">
+      <c r="D184" s="113" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="128" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="B184" s="103"/>
-      <c r="C184" s="129"/>
-      <c r="D184" s="129"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="215" t="s">
+      <c r="B185" s="103"/>
+      <c r="C185" s="128"/>
+      <c r="D185" s="128"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="214" t="s">
         <v>248</v>
       </c>
-      <c r="B185" s="199" t="s">
+      <c r="B186" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C185" s="130" t="s">
+      <c r="C186" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D185" s="106" t="s">
+      <c r="D186" s="106" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="217"/>
-      <c r="B186" s="200"/>
-      <c r="C186" s="130" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="216"/>
+      <c r="B187" s="193"/>
+      <c r="C187" s="129" t="s">
         <v>476</v>
       </c>
-      <c r="D186" s="106" t="s">
+      <c r="D187" s="106" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="215" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="214" t="s">
         <v>280</v>
       </c>
-      <c r="B187" s="199" t="s">
+      <c r="B188" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="C187" s="95" t="s">
+      <c r="C188" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="D187" s="106" t="s">
+      <c r="D188" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="216"/>
-      <c r="B188" s="207"/>
-      <c r="C188" s="106" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="215"/>
+      <c r="B189" s="208"/>
+      <c r="C189" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="D188" s="113" t="s">
+      <c r="D189" s="113" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="216"/>
-      <c r="B189" s="207"/>
-      <c r="C189" s="130" t="s">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="215"/>
+      <c r="B190" s="208"/>
+      <c r="C190" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="D189" s="106" t="s">
+      <c r="D190" s="106" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="217"/>
-      <c r="B190" s="200"/>
-      <c r="C190" s="130" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="216"/>
+      <c r="B191" s="193"/>
+      <c r="C191" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D190" s="106" t="s">
+      <c r="D191" s="106" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="137" t="s">
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="136" t="s">
         <v>479</v>
       </c>
-      <c r="B191" s="139" t="s">
+      <c r="B192" s="138" t="s">
         <v>440</v>
       </c>
-      <c r="C191" s="130" t="s">
+      <c r="C192" s="129" t="s">
         <v>480</v>
       </c>
-      <c r="D191" s="109" t="s">
+      <c r="D192" s="109" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="129" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B192" s="129"/>
-      <c r="C192" s="129"/>
-      <c r="D192" s="129"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="215" t="s">
+      <c r="B193" s="128"/>
+      <c r="C193" s="128"/>
+      <c r="D193" s="128"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="B193" s="199" t="s">
+      <c r="B194" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="C193" s="130" t="s">
+      <c r="C194" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D193" s="106" t="s">
+      <c r="D194" s="106" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="216"/>
-      <c r="B194" s="207"/>
-      <c r="C194" s="130" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="215"/>
+      <c r="B195" s="208"/>
+      <c r="C195" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D194" s="106" t="s">
+      <c r="D195" s="106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="217"/>
-      <c r="B195" s="200"/>
-      <c r="C195" s="106"/>
-      <c r="D195" s="106" t="s">
+    <row r="196" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="216"/>
+      <c r="B196" s="193"/>
+      <c r="C196" s="106"/>
+      <c r="D196" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="197" t="s">
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="B196" s="199" t="s">
+      <c r="B197" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="119" t="s">
+      <c r="C197" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D196" s="106" t="s">
+      <c r="D197" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="198"/>
-      <c r="B197" s="200"/>
-      <c r="C197" s="119"/>
-      <c r="D197" s="106" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="201"/>
+      <c r="B198" s="193"/>
+      <c r="C198" s="119"/>
+      <c r="D198" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="197" t="s">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="B198" s="199" t="s">
+      <c r="B199" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="C198" s="119"/>
-      <c r="D198" s="119" t="s">
+      <c r="C199" s="119"/>
+      <c r="D199" s="119" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="198"/>
-      <c r="B199" s="200"/>
-      <c r="C199" s="106"/>
-      <c r="D199" s="106" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="201"/>
+      <c r="B200" s="193"/>
+      <c r="C200" s="106"/>
+      <c r="D200" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="197" t="s">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="B200" s="199" t="s">
+      <c r="B201" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="119" t="s">
+      <c r="C201" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D200" s="106" t="s">
+      <c r="D201" s="106" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="198"/>
-      <c r="B201" s="200"/>
-      <c r="C201" s="106"/>
-      <c r="D201" s="106" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="201"/>
+      <c r="B202" s="193"/>
+      <c r="C202" s="106"/>
+      <c r="D202" s="106" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="129" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="128" t="s">
         <v>268</v>
       </c>
-      <c r="B202" s="129"/>
-      <c r="C202" s="129"/>
-      <c r="D202" s="129"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="106"/>
-      <c r="B203" s="107" t="s">
+      <c r="B203" s="128"/>
+      <c r="C203" s="128"/>
+      <c r="D203" s="128"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="106"/>
+      <c r="B204" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C203" s="106" t="s">
+      <c r="C204" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="113" t="s">
+      <c r="D204" s="113" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="129" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="128" t="s">
         <v>274</v>
       </c>
-      <c r="B204" s="129"/>
-      <c r="C204" s="129"/>
-      <c r="D204" s="129"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="106"/>
-      <c r="B205" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C205" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D205" s="113" t="s">
-        <v>269</v>
-      </c>
+      <c r="B205" s="128"/>
+      <c r="C205" s="128"/>
+      <c r="D205" s="128"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="106"/>
-      <c r="B206" s="107"/>
+      <c r="B206" s="107" t="s">
+        <v>440</v>
+      </c>
       <c r="C206" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="106"/>
+      <c r="B207" s="107"/>
+      <c r="C207" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="D206" s="113" t="s">
+      <c r="D207" s="113" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
+  <mergeCells count="57">
     <mergeCell ref="D113:D116"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
@@ -33954,45 +33960,51 @@
     <mergeCell ref="A67:A80"/>
     <mergeCell ref="B67:B80"/>
     <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="B171:B180"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B105:B110"/>
     <mergeCell ref="A119:A166"/>
     <mergeCell ref="B119:B166"/>
     <mergeCell ref="A81:A94"/>
-    <mergeCell ref="B81:B94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="B172:B181"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
     <mergeCell ref="A111:A117"/>
     <mergeCell ref="B111:B117"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B81:B94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A167:A168"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="B37:B48"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4498C-A9FA-4BDE-B1A3-BD840A246A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CE17C-5A38-4A05-8CCC-11C6C83B9288}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$20</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="498">
   <si>
     <t>Document</t>
   </si>
@@ -2458,11 +2459,6 @@
     <t xml:space="preserve">PAYE Web Service Examples </t>
   </si>
   <si>
-    <t xml:space="preserve">
-PIT Self Service and ROS Payroll Reporting
-</t>
-  </si>
-  <si>
     <t>Upload Examples</t>
   </si>
   <si>
@@ -3297,9 +3293,6 @@
     <t>Code 3014</t>
   </si>
   <si>
-    <t>Section 1.1 &amp; Appendix A</t>
-  </si>
-  <si>
     <t>Specified that employment ID is not mandatory for RPN lookup in PIT next version</t>
   </si>
   <si>
@@ -3359,6 +3352,25 @@
   </si>
   <si>
     <t>Reference 55</t>
+  </si>
+  <si>
+    <t>Added Change to USC rates</t>
+  </si>
+  <si>
+    <t>Removed changes as PIT3 and PIT4 are inline</t>
+  </si>
+  <si>
+    <t>Specified Employment ID no longer required</t>
+  </si>
+  <si>
+    <t>Specified that employment ID is not mandatory for RPN</t>
+  </si>
+  <si>
+    <t>Section 1.1
+Appendix A</t>
+  </si>
+  <si>
+    <t>Code 2053</t>
   </si>
 </sst>
 </file>
@@ -3982,7 +3994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4309,9 +4321,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4353,6 +4362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4398,38 +4408,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4452,6 +4432,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4473,59 +4513,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4539,9 +4600,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4551,53 +4609,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5611,7 +5627,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5621,7 +5637,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5731,10 +5747,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5745,8 +5761,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5755,8 +5771,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5765,8 +5781,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5775,8 +5791,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5785,8 +5801,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="158"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5795,10 +5811,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5809,8 +5825,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="158"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5819,8 +5835,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="158"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5829,10 +5845,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5843,8 +5859,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5853,8 +5869,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5863,8 +5879,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5873,8 +5889,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5883,8 +5899,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5893,8 +5909,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5903,8 +5919,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5913,26 +5929,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="161" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="158" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="168"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5943,8 +5959,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5971,28 +5987,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="161" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="159"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="171"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="161"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="159"/>
-      <c r="B32" s="158"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6001,8 +6017,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="159"/>
-      <c r="B33" s="158"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6011,8 +6027,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="159"/>
-      <c r="B34" s="158"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6021,8 +6037,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="159"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6031,8 +6047,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="159"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6041,26 +6057,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="159"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="172" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="174" t="s">
+      <c r="D37" s="164" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="159"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="174"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6071,8 +6087,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6099,10 +6115,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="159" t="s">
+      <c r="A43" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6111,8 +6127,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="159"/>
-      <c r="B44" s="158"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6121,10 +6137,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="171" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6133,8 +6149,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="158"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6143,8 +6159,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="166"/>
-      <c r="B47" s="158"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6153,8 +6169,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="167"/>
-      <c r="B48" s="158"/>
+      <c r="A48" s="170"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6163,10 +6179,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="162" t="s">
+      <c r="A49" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="162" t="s">
+      <c r="B49" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10270,8 +10286,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14375,8 +14391,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18480,8 +18496,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22585,12 +22601,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
-      <c r="B53" s="162"/>
-      <c r="C53" s="170" t="s">
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="171" t="s">
+      <c r="D53" s="161" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26690,10 +26706,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="171"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30811,10 +30827,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="166" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30825,8 +30841,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30835,8 +30851,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30845,8 +30861,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30855,8 +30871,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
-      <c r="B61" s="162"/>
+      <c r="A61" s="165"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30865,8 +30881,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
-      <c r="B62" s="162"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30875,8 +30891,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
-      <c r="B63" s="162"/>
+      <c r="A63" s="165"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30885,16 +30901,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
-      <c r="B64" s="162"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="163"/>
-      <c r="B65" s="162"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="166"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30903,16 +30919,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30921,8 +30937,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="163"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="166"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30931,8 +30947,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="163"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="165"/>
+      <c r="B69" s="166"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30941,8 +30957,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="163"/>
-      <c r="B70" s="162"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30951,8 +30967,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="163"/>
-      <c r="B71" s="162"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30961,8 +30977,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
-      <c r="B72" s="162"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30971,16 +30987,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="163"/>
-      <c r="B74" s="162"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30989,18 +31005,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
-      <c r="B75" s="162"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="164" t="s">
+      <c r="A75" s="165"/>
+      <c r="B75" s="166"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="167" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="163"/>
-      <c r="B76" s="162"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="164"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="167"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31024,8 +31040,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31034,29 +31050,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31071,6 +31071,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31124,10 +31140,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31138,133 +31154,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="184" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="181" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="183"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="181"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="181" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="181"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="181"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="183" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="181" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="183"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="185"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="185"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="185"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="185"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="185"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="185"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="185"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="185"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="185"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31362,10 +31378,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31376,26 +31392,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
-      <c r="B33" s="190"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
-      <c r="B34" s="190"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
-      <c r="B35" s="190"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="191"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31424,10 +31440,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="171" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31438,8 +31454,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="159"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="173"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31448,84 +31464,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="157" t="s">
+      <c r="A41" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="161" t="s">
+      <c r="D41" s="157" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="157"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="161"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="182" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="164" t="s">
+      <c r="D43" s="167" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="157"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="164"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="167"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="175" t="s">
+      <c r="A46" s="165"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="185" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="176"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="186"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="163"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="176"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="186"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="176"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="163"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="177"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="187"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31548,10 +31564,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="166" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31562,8 +31578,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31572,8 +31588,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31582,9 +31598,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="181" t="s">
+      <c r="A56" s="166"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="191" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31592,16 +31608,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="181"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="191"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31610,8 +31626,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31620,9 +31636,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
-      <c r="B60" s="162"/>
-      <c r="C60" s="181" t="s">
+      <c r="A60" s="166"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="191" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31630,25 +31646,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="181"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="191"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="181"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="191"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="182" t="s">
+      <c r="A63" s="166"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="184" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31656,30 +31672,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="164" t="s">
+      <c r="A64" s="166"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="167" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="164"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="184"/>
+      <c r="D65" s="167"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="162"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="164"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="184"/>
+      <c r="D66" s="167"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
-      <c r="B67" s="162"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="164"/>
+      <c r="A67" s="166"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="167"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31735,23 +31751,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31768,6 +31767,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31776,10 +31792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31795,7 +31811,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>38</v>
@@ -31806,42 +31822,42 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="194" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="200" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="C3" s="101" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="D3" s="105" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="105" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="196"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="199"/>
-      <c r="B4" s="197"/>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="99" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="194" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" s="192" t="s">
-        <v>440</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="99" t="s">
@@ -31849,2162 +31865,2204 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
-      <c r="B6" s="193"/>
+      <c r="A6" s="195"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="100"/>
-      <c r="D6" t="s">
+      <c r="D6" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="195"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="196"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="141" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="212" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="214"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="128" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="135" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="137" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>478</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="126" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="200" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="201"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="201"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="128" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="201"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="201"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="201"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="201"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="100" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="201"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="202"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="224" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="194" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="195"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="100" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="196"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="100">
+        <v>3.3</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="129" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="130" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="219" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="220" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="219"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="219"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="215" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="215"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="137" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="215"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="140" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="215"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="140" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="212" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="213"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="137" t="s">
+        <v>463</v>
+      </c>
+      <c r="D37" s="136" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="214"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="138" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="215" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="106"/>
+      <c r="D42" s="80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="215"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="215"/>
+      <c r="B44" s="216"/>
+      <c r="C44" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="106" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="215"/>
+      <c r="B45" s="216"/>
+      <c r="C45" s="112" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="109" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="106"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="221" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C47" s="106"/>
+      <c r="D47" s="114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="222"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="106" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="222"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="222"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="222"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="222"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="D52" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="222"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="113" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="222"/>
+      <c r="B54" s="198"/>
+      <c r="C54" s="112" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" s="113" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="222"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="134" t="s">
+        <v>466</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="222"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="134" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="222"/>
+      <c r="B57" s="198"/>
+      <c r="C57" s="139" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="223"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="126" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="198" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="100" t="s">
-        <v>445</v>
-      </c>
-      <c r="D10" s="126" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="100" t="s">
-        <v>447</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" s="99" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" s="113" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="113"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="113"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="204"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="112" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="205"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="205"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="205"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="205"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="205"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="D70" s="113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="205"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="119" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="205"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="205"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="205"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="131" t="s">
+        <v>466</v>
+      </c>
+      <c r="D74" s="58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="205"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="204"/>
+      <c r="B76" s="199"/>
+      <c r="C76" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" s="108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C77" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="113" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="207"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="207"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="207"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="207"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="207"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="D82" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="207"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="117" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="118" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="207"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" s="113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="207"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D85" s="113" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="207"/>
+      <c r="B86" s="198"/>
+      <c r="C86" s="131" t="s">
+        <v>466</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="207"/>
+      <c r="B87" s="198"/>
+      <c r="C87" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D87" s="58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="196" t="s">
-        <v>453</v>
-      </c>
-      <c r="B13" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="197"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="100">
-        <v>3.3</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="130" t="s">
-        <v>458</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="131" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
-        <v>337</v>
-      </c>
-      <c r="B18" s="203" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="202"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="100" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="204" t="s">
-        <v>440</v>
-      </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="108" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="141" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" s="108" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="141" t="s">
-        <v>486</v>
-      </c>
-      <c r="D25" s="108" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="214" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="215"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="138" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="216"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="139" t="s">
-        <v>483</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="207"/>
+      <c r="B88" s="198"/>
+      <c r="C88" s="131" t="s">
+        <v>466</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="207"/>
+      <c r="B89" s="198"/>
+      <c r="C89" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="208"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="212" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" s="209" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="213"/>
+      <c r="B92" s="198"/>
+      <c r="C92" s="210"/>
+      <c r="D92" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="213"/>
+      <c r="B93" s="198"/>
+      <c r="C93" s="211" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="213"/>
+      <c r="B94" s="198"/>
+      <c r="C94" s="211"/>
+      <c r="D94" s="119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="213"/>
+      <c r="B95" s="198"/>
+      <c r="C95" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" s="106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="213"/>
+      <c r="B96" s="198"/>
+      <c r="C96" s="112">
+        <v>2.1</v>
+      </c>
+      <c r="D96" s="106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="213"/>
+      <c r="B97" s="198"/>
+      <c r="C97" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="213"/>
+      <c r="B98" s="198"/>
+      <c r="C98" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="213"/>
+      <c r="B99" s="198"/>
+      <c r="C99" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="213"/>
+      <c r="B100" s="198"/>
+      <c r="C100" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="B30" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
-        <v>402</v>
-      </c>
-      <c r="B31" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="110" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="209" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" s="204" t="s">
-        <v>440</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="111" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="106" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="112" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="109" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C36" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="106"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="205" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="114" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D39" s="106" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
-      <c r="B40" s="208"/>
-      <c r="C40" s="115" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="206"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="206"/>
-      <c r="B42" s="208"/>
-      <c r="C42" s="112" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" s="113" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="206"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D43" s="113" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="112" t="s">
-        <v>465</v>
-      </c>
-      <c r="D44" s="113" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="135" t="s">
-        <v>467</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
-      <c r="B46" s="208"/>
-      <c r="C46" s="135" t="s">
-        <v>354</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="206"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="140" t="s">
-        <v>467</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="108" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="116" t="s">
-        <v>462</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C49" s="107" t="s">
-        <v>461</v>
-      </c>
-      <c r="D49" s="110" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="B50" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C50" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" s="113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
-        <v>346</v>
-      </c>
-      <c r="B51" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C51" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="113"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
-        <v>364</v>
-      </c>
-      <c r="B52" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C52" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="113"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="221"/>
-      <c r="B53" s="193"/>
-      <c r="C53" s="112" t="s">
-        <v>399</v>
-      </c>
-      <c r="D53" s="113" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="211" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="212"/>
-      <c r="B56" s="208"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="212"/>
-      <c r="B57" s="208"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="212"/>
-      <c r="B58" s="208"/>
-      <c r="C58" s="106" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" s="106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="212"/>
-      <c r="B59" s="208"/>
-      <c r="C59" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="D59" s="113" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="212"/>
-      <c r="B60" s="208"/>
-      <c r="C60" s="106" t="s">
-        <v>368</v>
-      </c>
-      <c r="D60" s="113" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="212"/>
-      <c r="B61" s="208"/>
-      <c r="C61" s="119" t="s">
-        <v>469</v>
-      </c>
-      <c r="D61" s="113" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="212"/>
-      <c r="B62" s="208"/>
-      <c r="C62" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="212"/>
-      <c r="B63" s="208"/>
-      <c r="C63" s="132" t="s">
-        <v>354</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="212"/>
-      <c r="B64" s="208"/>
-      <c r="C64" s="132" t="s">
-        <v>467</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="212"/>
-      <c r="B65" s="208"/>
-      <c r="C65" s="132" t="s">
-        <v>368</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="221"/>
-      <c r="B66" s="193"/>
-      <c r="C66" s="132" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" s="108" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C67" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="113" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="210"/>
-      <c r="B68" s="208"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="210"/>
-      <c r="B69" s="208"/>
-      <c r="C69" s="117" t="s">
-        <v>324</v>
-      </c>
-      <c r="D69" s="113" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="210"/>
-      <c r="B70" s="208"/>
-      <c r="C70" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="210"/>
-      <c r="B71" s="208"/>
-      <c r="C71" s="117" t="s">
-        <v>362</v>
-      </c>
-      <c r="D71" s="113" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="210"/>
-      <c r="B72" s="208"/>
-      <c r="C72" s="117" t="s">
-        <v>366</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="210"/>
-      <c r="B73" s="208"/>
-      <c r="C73" s="117" t="s">
-        <v>376</v>
-      </c>
-      <c r="D73" s="118" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="210"/>
-      <c r="B74" s="208"/>
-      <c r="C74" s="109" t="s">
-        <v>354</v>
-      </c>
-      <c r="D74" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="210"/>
-      <c r="B75" s="208"/>
-      <c r="C75" s="109" t="s">
-        <v>465</v>
-      </c>
-      <c r="D75" s="113" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="210"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="132" t="s">
-        <v>467</v>
-      </c>
-      <c r="D76" s="58" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="210"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="132" t="s">
-        <v>354</v>
-      </c>
-      <c r="D77" s="58" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="210"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="132" t="s">
-        <v>467</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="210"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="132" t="s">
-        <v>368</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="195"/>
-      <c r="B80" s="193"/>
-      <c r="C80" s="132" t="s">
-        <v>354</v>
-      </c>
-      <c r="D80" s="108" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="214" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C81" s="222" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="215"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="223"/>
-      <c r="D82" s="113" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="215"/>
-      <c r="B83" s="208"/>
-      <c r="C83" s="213" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="106" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="215"/>
-      <c r="B84" s="208"/>
-      <c r="C84" s="213"/>
-      <c r="D84" s="119" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="215"/>
-      <c r="B85" s="208"/>
-      <c r="C85" s="112" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="106" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="215"/>
-      <c r="B86" s="208"/>
-      <c r="C86" s="112">
+      <c r="D100" s="121" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="213"/>
+      <c r="B101" s="198"/>
+      <c r="C101" s="112">
         <v>2.1</v>
       </c>
-      <c r="D86" s="106" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="215"/>
-      <c r="B87" s="208"/>
-      <c r="C87" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D87" s="106" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="215"/>
-      <c r="B88" s="208"/>
-      <c r="C88" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D88" s="118" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="215"/>
-      <c r="B89" s="208"/>
-      <c r="C89" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="113" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="215"/>
-      <c r="B90" s="208"/>
-      <c r="C90" s="120" t="s">
-        <v>373</v>
-      </c>
-      <c r="D90" s="121" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="215"/>
-      <c r="B91" s="208"/>
-      <c r="C91" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D91" s="106" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="215"/>
-      <c r="B92" s="208"/>
-      <c r="C92" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="106" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="215"/>
-      <c r="B93" s="208"/>
-      <c r="C93" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D93" s="106" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="215"/>
-      <c r="B94" s="208"/>
-      <c r="C94" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D94" s="106" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="194" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C95" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="D95" s="106" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="210"/>
-      <c r="B96" s="208"/>
-      <c r="C96" s="119" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="106" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="195"/>
-      <c r="B97" s="193"/>
-      <c r="C97" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="D97" s="106" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="B98" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C98" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="106"/>
-    </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="212"/>
-      <c r="B99" s="208"/>
-      <c r="C99" s="112" t="s">
-        <v>373</v>
-      </c>
-      <c r="D99" s="106" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="212"/>
-      <c r="B100" s="208"/>
-      <c r="C100" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D100" s="106" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="212"/>
-      <c r="B101" s="208"/>
-      <c r="C101" s="112" t="s">
-        <v>239</v>
-      </c>
       <c r="D101" s="106" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="212"/>
-      <c r="B102" s="208"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="213"/>
+      <c r="B102" s="198"/>
       <c r="C102" s="112" t="s">
         <v>238</v>
       </c>
       <c r="D102" s="106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="103" t="s">
+      <c r="A103" s="213"/>
+      <c r="B103" s="198"/>
+      <c r="C103" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="213"/>
+      <c r="B104" s="198"/>
+      <c r="C104" s="112">
+        <v>2.1</v>
+      </c>
+      <c r="D104" s="106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="206" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="207"/>
+      <c r="B106" s="198"/>
+      <c r="C106" s="119" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="106" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="208"/>
+      <c r="B107" s="199"/>
+      <c r="C107" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" s="106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="203" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C108" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="106"/>
+    </row>
+    <row r="109" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="205"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="106" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="205"/>
+      <c r="B110" s="198"/>
+      <c r="C110" s="112">
+        <v>2.1</v>
+      </c>
+      <c r="D110" s="106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="205"/>
+      <c r="B111" s="198"/>
+      <c r="C111" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="205"/>
+      <c r="B112" s="198"/>
+      <c r="C112" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B103" s="103"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="104"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="109" t="s">
+      <c r="B113" s="103"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="104"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" s="112" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="B104" s="112" t="s">
-        <v>440</v>
-      </c>
-      <c r="C104" s="112" t="s">
-        <v>379</v>
-      </c>
-      <c r="D104" s="113"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="214" t="s">
-        <v>256</v>
-      </c>
-      <c r="B105" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C105" s="106"/>
-      <c r="D105" s="80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="215"/>
-      <c r="B106" s="208"/>
-      <c r="C106" s="106"/>
-      <c r="D106" s="106" t="s">
+      <c r="D114" s="113"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="212" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C115" s="106"/>
+      <c r="D115" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="215"/>
-      <c r="B107" s="208"/>
-      <c r="C107" s="106"/>
-      <c r="D107" s="113" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="215"/>
-      <c r="B108" s="208"/>
-      <c r="C108" s="106" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="213"/>
+      <c r="B116" s="198"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="106" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="213"/>
+      <c r="B117" s="198"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="113" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="213"/>
+      <c r="B118" s="198"/>
+      <c r="C118" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="D118" s="113" t="s">
         <v>419</v>
       </c>
-      <c r="D108" s="113" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="215"/>
-      <c r="B109" s="208"/>
-      <c r="C109" s="106" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="213"/>
+      <c r="B119" s="198"/>
+      <c r="C119" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="113" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="215"/>
-      <c r="B110" s="208"/>
-      <c r="C110" s="106" t="s">
-        <v>486</v>
-      </c>
-      <c r="D110" s="113" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="209" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="213"/>
+      <c r="B120" s="198"/>
+      <c r="C120" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="D120" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="215" t="s">
+        <v>328</v>
+      </c>
+      <c r="B121" s="216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C121" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="B111" s="204" t="s">
-        <v>440</v>
-      </c>
-      <c r="C111" s="80" t="s">
+      <c r="D121" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="D111" s="113" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="209"/>
-      <c r="B112" s="204"/>
-      <c r="C112" s="106" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="215"/>
+      <c r="B122" s="216"/>
+      <c r="C122" s="106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="D112" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="209"/>
-      <c r="B113" s="204"/>
-      <c r="C113" s="122" t="s">
+    </row>
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="215"/>
+      <c r="B123" s="216"/>
+      <c r="C123" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" s="192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="215"/>
+      <c r="B124" s="216"/>
+      <c r="C124" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D113" s="217" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="209"/>
-      <c r="B114" s="204"/>
-      <c r="C114" s="122" t="s">
+      <c r="D124" s="193"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="215"/>
+      <c r="B125" s="216"/>
+      <c r="C125" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D114" s="218"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="209"/>
-      <c r="B115" s="204"/>
-      <c r="C115" s="122" t="s">
+      <c r="D125" s="193"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="215"/>
+      <c r="B126" s="216"/>
+      <c r="C126" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D115" s="218"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="209"/>
-      <c r="B116" s="204"/>
-      <c r="C116" s="122" t="s">
-        <v>412</v>
-      </c>
-      <c r="D116" s="218"/>
-    </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="209"/>
-      <c r="B117" s="204"/>
-      <c r="C117" s="122" t="s">
-        <v>471</v>
-      </c>
-      <c r="D117" s="133" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="109" t="s">
+      <c r="D126" s="193"/>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="215"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="122" t="s">
+        <v>470</v>
+      </c>
+      <c r="D127" s="132" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B118" s="112" t="s">
-        <v>440</v>
-      </c>
-      <c r="C118" s="107" t="s">
+      <c r="B128" s="112" t="s">
+        <v>439</v>
+      </c>
+      <c r="C128" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="110" t="s">
+      <c r="D128" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="194" t="s">
+    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="B119" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C119" s="106" t="s">
+      <c r="B129" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="D129" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="207"/>
+      <c r="B130" s="198"/>
+      <c r="C130" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="207"/>
+      <c r="B131" s="198"/>
+      <c r="C131" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="D119" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="210"/>
-      <c r="B120" s="208"/>
-      <c r="C120" s="106" t="s">
-        <v>265</v>
-      </c>
-      <c r="D120" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="210"/>
-      <c r="B121" s="208"/>
-      <c r="C121" s="106" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="210"/>
-      <c r="B122" s="208"/>
-      <c r="C122" s="113" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="210"/>
-      <c r="B123" s="208"/>
-      <c r="C123" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="210"/>
-      <c r="B124" s="208"/>
-      <c r="C124" s="106" t="s">
-        <v>278</v>
-      </c>
-      <c r="D124" s="106" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="210"/>
-      <c r="B125" s="208"/>
-      <c r="C125" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="D125" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="210"/>
-      <c r="B126" s="208"/>
-      <c r="C126" s="113" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="210"/>
-      <c r="B127" s="208"/>
-      <c r="C127" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="D127" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="210"/>
-      <c r="B128" s="208"/>
-      <c r="C128" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D128" s="110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="210"/>
-      <c r="B129" s="208"/>
-      <c r="C129" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="D129" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="210"/>
-      <c r="B130" s="208"/>
-      <c r="C130" s="106" t="s">
-        <v>307</v>
-      </c>
-      <c r="D130" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="210"/>
-      <c r="B131" s="208"/>
-      <c r="C131" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="D131" s="113" t="s">
-        <v>309</v>
+      <c r="D131" s="106" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="210"/>
-      <c r="B132" s="208"/>
+      <c r="A132" s="207"/>
+      <c r="B132" s="198"/>
       <c r="C132" s="113" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D132" s="113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="210"/>
-      <c r="B133" s="208"/>
-      <c r="C133" s="113" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="113" t="s">
+      <c r="A133" s="207"/>
+      <c r="B133" s="198"/>
+      <c r="C133" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="207"/>
+      <c r="B134" s="198"/>
+      <c r="C134" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D134" s="106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="207"/>
+      <c r="B135" s="198"/>
+      <c r="C135" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="207"/>
+      <c r="B136" s="198"/>
+      <c r="C136" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="207"/>
+      <c r="B137" s="198"/>
+      <c r="C137" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D137" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="210"/>
-      <c r="B134" s="208"/>
-      <c r="C134" s="106" t="s">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="207"/>
+      <c r="B138" s="198"/>
+      <c r="C138" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" s="110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="207"/>
+      <c r="B139" s="198"/>
+      <c r="C139" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="207"/>
+      <c r="B140" s="198"/>
+      <c r="C140" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="207"/>
+      <c r="B141" s="198"/>
+      <c r="C141" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" s="113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="207"/>
+      <c r="B142" s="198"/>
+      <c r="C142" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="207"/>
+      <c r="B143" s="198"/>
+      <c r="C143" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="207"/>
+      <c r="B144" s="198"/>
+      <c r="C144" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="207"/>
+      <c r="B145" s="198"/>
+      <c r="C145" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" s="113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="207"/>
+      <c r="B146" s="198"/>
+      <c r="C146" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="D134" s="106" t="s">
+      <c r="D146" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="207"/>
+      <c r="B147" s="198"/>
+      <c r="C147" s="106"/>
+      <c r="D147" s="97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="207"/>
+      <c r="B148" s="198"/>
+      <c r="C148" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="207"/>
+      <c r="B149" s="198"/>
+      <c r="C149" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="207"/>
+      <c r="B150" s="198"/>
+      <c r="C150" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="D150" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="207"/>
+      <c r="B151" s="198"/>
+      <c r="C151" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D151" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="207"/>
+      <c r="B152" s="198"/>
+      <c r="C152" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D152" s="113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="207"/>
+      <c r="B153" s="198"/>
+      <c r="C153" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="D153" s="118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="207"/>
+      <c r="B154" s="198"/>
+      <c r="C154" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="207"/>
+      <c r="B155" s="198"/>
+      <c r="C155" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="D155" s="113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="207"/>
+      <c r="B156" s="198"/>
+      <c r="C156" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D156" s="124" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="207"/>
+      <c r="B157" s="198"/>
+      <c r="C157" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="D157" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="207"/>
+      <c r="B158" s="198"/>
+      <c r="C158" s="113" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="210"/>
-      <c r="B135" s="208"/>
-      <c r="C135" s="113" t="s">
-        <v>278</v>
-      </c>
-      <c r="D135" s="113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="210"/>
-      <c r="B136" s="208"/>
-      <c r="C136" s="113" t="s">
-        <v>314</v>
-      </c>
-      <c r="D136" s="113" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="207"/>
+      <c r="B159" s="198"/>
+      <c r="C159" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" s="113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="207"/>
+      <c r="B160" s="198"/>
+      <c r="C160" s="113" t="s">
+        <v>360</v>
+      </c>
+      <c r="D160" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="207"/>
+      <c r="B161" s="198"/>
+      <c r="C161" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="D161" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="207"/>
+      <c r="B162" s="198"/>
+      <c r="C162" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D162" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="207"/>
+      <c r="B163" s="198"/>
+      <c r="C163" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="118" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="207"/>
+      <c r="B164" s="198"/>
+      <c r="C164" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="D164" s="106" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="207"/>
+      <c r="B165" s="198"/>
+      <c r="C165" s="106" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="106" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="207"/>
+      <c r="B166" s="198"/>
+      <c r="C166" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="D166" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="207"/>
+      <c r="B167" s="198"/>
+      <c r="C167" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="207"/>
+      <c r="B168" s="198"/>
+      <c r="C168" s="106" t="s">
+        <v>389</v>
+      </c>
+      <c r="D168" s="106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="207"/>
+      <c r="B169" s="198"/>
+      <c r="C169" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D169" s="106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="207"/>
+      <c r="B170" s="198"/>
+      <c r="C170" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D170" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="207"/>
+      <c r="B171" s="198"/>
+      <c r="C171" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D171" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="207"/>
+      <c r="B172" s="198"/>
+      <c r="C172" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D172" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="207"/>
+      <c r="B173" s="198"/>
+      <c r="C173" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D173" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="207"/>
+      <c r="B174" s="198"/>
+      <c r="C174" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D174" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="207"/>
+      <c r="B175" s="198"/>
+      <c r="C175" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="D175" s="106" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="207"/>
+      <c r="B176" s="198"/>
+      <c r="C176" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="D176" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="207"/>
+      <c r="B177" s="198"/>
+      <c r="C177" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D177" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="208"/>
+      <c r="B178" s="199"/>
+      <c r="C178" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="D178" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="206" t="s">
+        <v>415</v>
+      </c>
+      <c r="B179" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C179" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="208"/>
+      <c r="B180" s="199"/>
+      <c r="C180" s="118" t="s">
+        <v>491</v>
+      </c>
+      <c r="D180" s="118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="B181" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C181" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C182" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D182" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" s="103"/>
+      <c r="C183" s="103"/>
+      <c r="D183" s="104"/>
+    </row>
+    <row r="184" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="212" t="s">
+        <v>84</v>
+      </c>
+      <c r="B184" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C184" s="106"/>
+      <c r="D184" s="80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="213"/>
+      <c r="B185" s="198"/>
+      <c r="C185" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="D185" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="210"/>
-      <c r="B137" s="208"/>
-      <c r="C137" s="106"/>
-      <c r="D137" s="97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="210"/>
-      <c r="B138" s="208"/>
-      <c r="C138" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="D138" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="210"/>
-      <c r="B139" s="208"/>
-      <c r="C139" s="113" t="s">
-        <v>263</v>
-      </c>
-      <c r="D139" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="210"/>
-      <c r="B140" s="208"/>
-      <c r="C140" s="113" t="s">
-        <v>334</v>
-      </c>
-      <c r="D140" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="210"/>
-      <c r="B141" s="208"/>
-      <c r="C141" s="113" t="s">
-        <v>335</v>
-      </c>
-      <c r="D141" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="210"/>
-      <c r="B142" s="208"/>
-      <c r="C142" s="113" t="s">
-        <v>319</v>
-      </c>
-      <c r="D142" s="113" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="210"/>
-      <c r="B143" s="208"/>
-      <c r="C143" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="D143" s="118" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="210"/>
-      <c r="B144" s="208"/>
-      <c r="C144" s="113" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="210"/>
-      <c r="B145" s="208"/>
-      <c r="C145" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="D145" s="113" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="210"/>
-      <c r="B146" s="208"/>
-      <c r="C146" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D146" s="124" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="210"/>
-      <c r="B147" s="208"/>
-      <c r="C147" s="113" t="s">
-        <v>352</v>
-      </c>
-      <c r="D147" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="210"/>
-      <c r="B148" s="208"/>
-      <c r="C148" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="D148" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="210"/>
-      <c r="B149" s="208"/>
-      <c r="C149" s="113" t="s">
-        <v>359</v>
-      </c>
-      <c r="D149" s="113" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="210"/>
-      <c r="B150" s="208"/>
-      <c r="C150" s="113" t="s">
-        <v>361</v>
-      </c>
-      <c r="D150" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="210"/>
-      <c r="B151" s="208"/>
-      <c r="C151" s="113" t="s">
-        <v>367</v>
-      </c>
-      <c r="D151" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="210"/>
-      <c r="B152" s="208"/>
-      <c r="C152" s="113" t="s">
-        <v>359</v>
-      </c>
-      <c r="D152" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="210"/>
-      <c r="B153" s="208"/>
-      <c r="C153" s="118" t="s">
-        <v>380</v>
-      </c>
-      <c r="D153" s="118" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="210"/>
-      <c r="B154" s="208"/>
-      <c r="C154" s="106" t="s">
-        <v>384</v>
-      </c>
-      <c r="D154" s="106" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="210"/>
-      <c r="B155" s="208"/>
-      <c r="C155" s="106" t="s">
-        <v>387</v>
-      </c>
-      <c r="D155" s="106" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="210"/>
-      <c r="B156" s="208"/>
-      <c r="C156" s="106" t="s">
-        <v>388</v>
-      </c>
-      <c r="D156" s="106" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="210"/>
-      <c r="B157" s="208"/>
-      <c r="C157" s="106" t="s">
-        <v>389</v>
-      </c>
-      <c r="D157" s="106" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="210"/>
-      <c r="B158" s="208"/>
-      <c r="C158" s="106" t="s">
-        <v>390</v>
-      </c>
-      <c r="D158" s="106" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="210"/>
-      <c r="B159" s="208"/>
-      <c r="C159" s="106" t="s">
-        <v>391</v>
-      </c>
-      <c r="D159" s="106" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="210"/>
-      <c r="B160" s="208"/>
-      <c r="C160" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="D160" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="210"/>
-      <c r="B161" s="208"/>
-      <c r="C161" s="106" t="s">
-        <v>404</v>
-      </c>
-      <c r="D161" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="210"/>
-      <c r="B162" s="208"/>
-      <c r="C162" s="106" t="s">
-        <v>405</v>
-      </c>
-      <c r="D162" s="106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="210"/>
-      <c r="B163" s="208"/>
-      <c r="C163" s="106" t="s">
-        <v>422</v>
-      </c>
-      <c r="D163" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="210"/>
-      <c r="B164" s="208"/>
-      <c r="C164" s="106" t="s">
-        <v>423</v>
-      </c>
-      <c r="D164" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="210"/>
-      <c r="B165" s="208"/>
-      <c r="C165" s="106" t="s">
-        <v>426</v>
-      </c>
-      <c r="D165" s="106" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="213"/>
+      <c r="B186" s="198"/>
+      <c r="C186" s="107">
+        <v>10.1</v>
+      </c>
+      <c r="D186" s="106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="213"/>
+      <c r="B187" s="198"/>
+      <c r="C187" s="107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D187" s="106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="213"/>
+      <c r="B188" s="198"/>
+      <c r="C188" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D188" s="95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="213"/>
+      <c r="B189" s="198"/>
+      <c r="C189" s="98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D189" s="95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="213"/>
+      <c r="B190" s="198"/>
+      <c r="C190" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" s="95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="213"/>
+      <c r="B191" s="198"/>
+      <c r="C191" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="D191" s="95" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="213"/>
+      <c r="B192" s="198"/>
+      <c r="C192" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="95" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="213"/>
+      <c r="B193" s="198"/>
+      <c r="C193" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D193" s="133" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="214"/>
+      <c r="B194" s="199"/>
+      <c r="C194" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D194" s="225" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="B195" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C195" s="98"/>
+      <c r="D195" s="125" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="213"/>
+      <c r="B196" s="198"/>
+      <c r="C196" s="126" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="195"/>
-      <c r="B166" s="193"/>
-      <c r="C166" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="D166" s="58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="194" t="s">
-        <v>416</v>
-      </c>
-      <c r="B167" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C167" s="106" t="s">
+      <c r="D196" s="102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C197" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D197" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="127"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="127"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="B199" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="C199" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D199" s="106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="213"/>
+      <c r="B200" s="198"/>
+      <c r="C200" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D200" s="106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="214"/>
+      <c r="B201" s="199"/>
+      <c r="C201" s="106"/>
+      <c r="D201" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="217" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="C202" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="218"/>
+      <c r="B203" s="199"/>
+      <c r="C203" s="119"/>
+      <c r="D203" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="217" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="C204" s="119"/>
+      <c r="D204" s="119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="218"/>
+      <c r="B205" s="199"/>
+      <c r="C205" s="106"/>
+      <c r="D205" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B206" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="C206" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" s="106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="218"/>
+      <c r="B207" s="199"/>
+      <c r="C207" s="106"/>
+      <c r="D207" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" s="127"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="127"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="106"/>
+      <c r="B209" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C209" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="195"/>
-      <c r="B168" s="193"/>
-      <c r="C168" s="118" t="s">
-        <v>493</v>
-      </c>
-      <c r="D168" s="118" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="B169" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C169" s="106" t="s">
+      <c r="D209" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="B210" s="127"/>
+      <c r="C210" s="127"/>
+      <c r="D210" s="127"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="106"/>
+      <c r="B211" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C211" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D169" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="B170" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C170" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D170" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171" s="103"/>
-      <c r="C171" s="103"/>
-      <c r="D171" s="104"/>
-    </row>
-    <row r="172" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="214" t="s">
-        <v>84</v>
-      </c>
-      <c r="B172" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C172" s="106"/>
-      <c r="D172" s="80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="215"/>
-      <c r="B173" s="208"/>
-      <c r="C173" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="D173" s="106" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="215"/>
-      <c r="B174" s="208"/>
-      <c r="C174" s="107">
-        <v>10.1</v>
-      </c>
-      <c r="D174" s="106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="215"/>
-      <c r="B175" s="208"/>
-      <c r="C175" s="107">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D175" s="106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="215"/>
-      <c r="B176" s="208"/>
-      <c r="C176" s="98" t="s">
-        <v>288</v>
-      </c>
-      <c r="D176" s="95" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="215"/>
-      <c r="B177" s="208"/>
-      <c r="C177" s="98" t="s">
-        <v>370</v>
-      </c>
-      <c r="D177" s="95" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="215"/>
-      <c r="B178" s="208"/>
-      <c r="C178" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D178" s="95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="215"/>
-      <c r="B179" s="208"/>
-      <c r="C179" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="D179" s="95" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="215"/>
-      <c r="B180" s="208"/>
-      <c r="C180" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="216"/>
-      <c r="B181" s="193"/>
-      <c r="C181" s="98" t="s">
-        <v>473</v>
-      </c>
-      <c r="D181" s="134" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="192" t="s">
-        <v>246</v>
-      </c>
-      <c r="B182" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C182" s="98"/>
-      <c r="D182" s="125" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="208"/>
-      <c r="B183" s="208"/>
-      <c r="C183" s="126" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="102" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="B184" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C184" s="107" t="s">
-        <v>249</v>
-      </c>
-      <c r="D184" s="113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="127" t="s">
-        <v>247</v>
-      </c>
-      <c r="B185" s="103"/>
-      <c r="C185" s="128"/>
-      <c r="D185" s="128"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="214" t="s">
-        <v>248</v>
-      </c>
-      <c r="B186" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C186" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D186" s="106" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="216"/>
-      <c r="B187" s="193"/>
-      <c r="C187" s="129" t="s">
-        <v>476</v>
-      </c>
-      <c r="D187" s="106" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="214" t="s">
-        <v>280</v>
-      </c>
-      <c r="B188" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="C188" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="D188" s="106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="215"/>
-      <c r="B189" s="208"/>
-      <c r="C189" s="106" t="s">
-        <v>300</v>
-      </c>
-      <c r="D189" s="113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="215"/>
-      <c r="B190" s="208"/>
-      <c r="C190" s="129" t="s">
-        <v>281</v>
-      </c>
-      <c r="D190" s="106" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="216"/>
-      <c r="B191" s="193"/>
-      <c r="C191" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="D191" s="106" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="136" t="s">
-        <v>479</v>
-      </c>
-      <c r="B192" s="138" t="s">
-        <v>440</v>
-      </c>
-      <c r="C192" s="129" t="s">
-        <v>480</v>
-      </c>
-      <c r="D192" s="109" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="B193" s="128"/>
-      <c r="C193" s="128"/>
-      <c r="D193" s="128"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="214" t="s">
-        <v>58</v>
-      </c>
-      <c r="B194" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="C194" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D194" s="106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="215"/>
-      <c r="B195" s="208"/>
-      <c r="C195" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D195" s="106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="216"/>
-      <c r="B196" s="193"/>
-      <c r="C196" s="106"/>
-      <c r="D196" s="106" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="200" t="s">
-        <v>59</v>
-      </c>
-      <c r="B197" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="C197" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="D197" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="201"/>
-      <c r="B198" s="193"/>
-      <c r="C198" s="119"/>
-      <c r="D198" s="106" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="200" t="s">
-        <v>286</v>
-      </c>
-      <c r="B199" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="C199" s="119"/>
-      <c r="D199" s="119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="201"/>
-      <c r="B200" s="193"/>
-      <c r="C200" s="106"/>
-      <c r="D200" s="106" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="B201" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="C201" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="D201" s="106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="201"/>
-      <c r="B202" s="193"/>
-      <c r="C202" s="106"/>
-      <c r="D202" s="106" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="128" t="s">
+      <c r="D211" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="B203" s="128"/>
-      <c r="C203" s="128"/>
-      <c r="D203" s="128"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="106"/>
-      <c r="B204" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C204" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="B205" s="128"/>
-      <c r="C205" s="128"/>
-      <c r="D205" s="128"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="106"/>
-      <c r="B206" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C206" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D206" s="113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="106"/>
-      <c r="B207" s="107"/>
-      <c r="C207" s="106" t="s">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="106"/>
+      <c r="B212" s="107"/>
+      <c r="C212" s="106" t="s">
+        <v>395</v>
+      </c>
+      <c r="D212" s="113" t="s">
         <v>396</v>
       </c>
-      <c r="D207" s="113" t="s">
-        <v>397</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="A67:A80"/>
-    <mergeCell ref="B67:B80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A119:A166"/>
-    <mergeCell ref="B119:B166"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="B172:B181"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B81:B94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A167:A168"/>
+  <mergeCells count="55">
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A184:A194"/>
+    <mergeCell ref="B184:B194"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A179:A180"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A129:A178"/>
+    <mergeCell ref="B129:B178"/>
+    <mergeCell ref="A91:A104"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B91:B104"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="B65:B76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="B77:B90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CE17C-5A38-4A05-8CCC-11C6C83B9288}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C8A32D-316D-436C-8003-BB6D840EBABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$30</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="501">
   <si>
     <t>Document</t>
   </si>
@@ -3371,6 +3371,15 @@
   </si>
   <si>
     <t>Code 2053</t>
+  </si>
+  <si>
+    <t>Other Payments</t>
+  </si>
+  <si>
+    <t>Added field</t>
+  </si>
+  <si>
+    <t>Added field and sub fields</t>
   </si>
 </sst>
 </file>
@@ -3994,7 +4003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4363,6 +4372,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4408,8 +4426,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4432,66 +4480,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4513,46 +4501,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4564,6 +4594,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4572,48 +4626,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5018,12 +5030,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5046,12 +5058,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5091,10 +5103,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="151">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5108,8 +5120,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5121,8 +5133,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5134,8 +5146,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
-      <c r="B10" s="149"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5147,8 +5159,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5160,8 +5172,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5173,10 +5185,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="151">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5190,8 +5202,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5237,12 +5249,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5282,21 +5294,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="152">
+      <c r="B21" s="155">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5310,8 +5322,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5334,18 +5346,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="152">
+      <c r="B25" s="155">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5359,8 +5371,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="149"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5372,8 +5384,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="146"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5385,8 +5397,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
-      <c r="B28" s="149"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5398,8 +5410,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5411,8 +5423,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5424,8 +5436,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5437,8 +5449,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5562,12 +5574,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5627,7 +5639,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5637,7 +5649,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5747,10 +5759,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5761,8 +5773,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5771,8 +5783,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5781,8 +5793,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5791,8 +5803,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5801,8 +5813,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5811,10 +5823,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5825,8 +5837,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="161"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5835,8 +5847,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5845,10 +5857,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5859,8 +5871,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5869,8 +5881,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5879,8 +5891,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5889,8 +5901,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5899,8 +5911,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5909,8 +5921,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5919,8 +5931,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5929,26 +5941,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="157" t="s">
+      <c r="A24" s="164"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="171" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="171"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5959,8 +5971,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5987,28 +5999,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="174" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="161"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="174"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="161"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6017,8 +6029,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6027,8 +6039,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6037,8 +6049,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6047,8 +6059,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6057,26 +6069,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="162" t="s">
+      <c r="A37" s="162"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="177" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="164"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="177"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6087,8 +6099,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="161"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6115,10 +6127,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6127,8 +6139,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6140,7 +6152,7 @@
       <c r="A45" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="161" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6150,7 +6162,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="169"/>
-      <c r="B46" s="171"/>
+      <c r="B46" s="161"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6160,7 +6172,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
-      <c r="B47" s="171"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6170,7 +6182,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="170"/>
-      <c r="B48" s="171"/>
+      <c r="B48" s="161"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6179,10 +6191,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10286,8 +10298,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="165"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14391,8 +14403,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
-      <c r="B51" s="166"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="165"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18496,8 +18508,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="165"/>
+      <c r="B52" s="165"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22601,12 +22613,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="160" t="s">
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="161" t="s">
+      <c r="D53" s="174" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26706,10 +26718,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
+      <c r="A54" s="165"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="174"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30827,10 +30839,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30841,8 +30853,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="165"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30851,8 +30863,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="165"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="165"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30861,8 +30873,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="165"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="166"/>
+      <c r="B60" s="165"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30871,8 +30883,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="165"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30881,8 +30893,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="165"/>
-      <c r="B62" s="166"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="165"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30891,8 +30903,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="165"/>
-      <c r="B63" s="166"/>
+      <c r="A63" s="166"/>
+      <c r="B63" s="165"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30901,16 +30913,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="165"/>
-      <c r="B64" s="166"/>
+      <c r="A64" s="166"/>
+      <c r="B64" s="165"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="165"/>
-      <c r="B65" s="166"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="165"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30919,16 +30931,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="165"/>
-      <c r="B66" s="166"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="165"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="165"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="166"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30937,8 +30949,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="165"/>
-      <c r="B68" s="166"/>
+      <c r="A68" s="166"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30947,8 +30959,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="165"/>
-      <c r="B69" s="166"/>
+      <c r="A69" s="166"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30957,8 +30969,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="165"/>
-      <c r="B70" s="166"/>
+      <c r="A70" s="166"/>
+      <c r="B70" s="165"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30967,8 +30979,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="165"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="166"/>
+      <c r="B71" s="165"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30977,8 +30989,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="165"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="166"/>
+      <c r="B72" s="165"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30987,16 +30999,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="165"/>
-      <c r="B73" s="166"/>
+      <c r="A73" s="166"/>
+      <c r="B73" s="165"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="165"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="166"/>
+      <c r="B74" s="165"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31005,17 +31017,17 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="165"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="159"/>
+      <c r="A75" s="166"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="172"/>
       <c r="D75" s="167" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="165"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="159"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="172"/>
       <c r="D76" s="167"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -31040,8 +31052,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31050,13 +31062,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31071,22 +31099,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31140,10 +31152,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="161" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31154,133 +31166,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="182" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="186" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="181"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="186"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="181" t="s">
+      <c r="C10" s="185"/>
+      <c r="D10" s="186" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="181"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="181"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="181" t="s">
+      <c r="C13" s="188"/>
+      <c r="D13" s="186" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="181"/>
+      <c r="A14" s="164"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="186"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="183"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="188"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="183"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="188"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="183"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="183"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="183"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="183"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="188"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="183"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="188"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31378,10 +31390,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="189" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="192" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31392,26 +31404,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="179"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="193"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="179"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="193"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="191"/>
+      <c r="B36" s="194"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31440,10 +31452,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="161" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31454,8 +31466,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="161"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31464,29 +31476,29 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="164" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="172"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="164"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="184" t="s">
+      <c r="A43" s="160"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="185" t="s">
         <v>190</v>
       </c>
       <c r="D43" s="167" t="s">
@@ -31494,54 +31506,54 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="185"/>
       <c r="D44" s="167"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="185" t="s">
+      <c r="A46" s="166"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="178" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="186"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="179"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="186"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="179"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="186"/>
+      <c r="A49" s="166"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="179"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="187"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="180"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31564,10 +31576,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="165" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31578,8 +31590,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
+      <c r="A54" s="165"/>
+      <c r="B54" s="165"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31588,8 +31600,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
+      <c r="A55" s="165"/>
+      <c r="B55" s="165"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31598,9 +31610,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="191" t="s">
+      <c r="A56" s="165"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="184" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31608,16 +31620,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="191"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="184"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="165"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31626,8 +31638,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="165"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31636,9 +31648,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="191" t="s">
+      <c r="A60" s="165"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="184" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31646,25 +31658,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="191"/>
+      <c r="A61" s="165"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="184"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="166"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="191"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="184"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="166"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="184" t="s">
+      <c r="A63" s="165"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="185" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31672,29 +31684,29 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="166"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="184"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="185"/>
       <c r="D64" s="167" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="184"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="185"/>
       <c r="D65" s="167"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="184"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="185"/>
       <c r="D66" s="167"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="184"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="185"/>
       <c r="D67" s="167"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -31751,6 +31763,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31767,23 +31796,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31792,10 +31804,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180:D180"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185:D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31829,10 +31841,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="197" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="195" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31843,8 +31855,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="196"/>
-      <c r="B4" s="202"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31853,10 +31865,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="201" t="s">
         <v>439</v>
       </c>
       <c r="C5" s="100"/>
@@ -31865,2204 +31877,2264 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="198"/>
+      <c r="A6" s="216"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="198"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="100"/>
       <c r="D7" s="141" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="199"/>
+      <c r="A8" s="216"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="100"/>
       <c r="D8" s="141" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="196"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="100" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="212" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B11" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C11" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D11" s="106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="214"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="128" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="212"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="128" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D12" s="106" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="135" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="135" t="s">
         <v>477</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B13" s="137" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C13" s="128" t="s">
         <v>478</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D13" s="109" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
         <v>441</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B14" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="126" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="126" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="200" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="197" t="s">
+      <c r="B15" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C15" s="95" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D15" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="106" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="216"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D16" s="113" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="128" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="216"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="128" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D17" s="106" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="128" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="216"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D18" s="106" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="100" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="216"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D19" s="126" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="100" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="216"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="100" t="s">
         <v>444</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D20" s="126" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="100" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="216"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="100" t="s">
         <v>446</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D21" s="99" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="100" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="216"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D22" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="202"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="224" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="196"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="143" t="s">
         <v>453</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D23" s="58" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="197" t="s">
         <v>452</v>
       </c>
-      <c r="B23" s="197" t="s">
+      <c r="B24" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
-      <c r="B24" s="198"/>
       <c r="C24" s="100" t="s">
         <v>453</v>
       </c>
       <c r="D24" s="99" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="222"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="100" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" s="99" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="196"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="100">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="100">
         <v>3.3</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D26" s="99" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="129" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="129" t="s">
         <v>457</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B27" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="130" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="130" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="219" t="s">
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="203" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="220" t="s">
+      <c r="B29" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C28" s="100" t="s">
+      <c r="C29" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D29" s="99" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="219"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="100" t="s">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="203"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D30" s="106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="219"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="100" t="s">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="203"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D31" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103" t="s">
+    <row r="32" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="216" t="s">
+      <c r="B33" s="205" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106" t="s">
+      <c r="C33" s="106"/>
+      <c r="D33" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="137" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="217"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="137" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="D34" s="108" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="215"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="140" t="s">
-        <v>484</v>
-      </c>
-      <c r="D34" s="108" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="216"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="217"/>
+      <c r="B35" s="205"/>
       <c r="C35" s="140" t="s">
         <v>484</v>
       </c>
       <c r="D35" s="108" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="217"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="142" t="s">
+        <v>484</v>
+      </c>
+      <c r="D36" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="212" t="s">
+    <row r="37" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="217"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="140" t="s">
+        <v>498</v>
+      </c>
+      <c r="D37" s="108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="197" t="s">
+      <c r="B38" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C38" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D38" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="137" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="211"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="137" t="s">
         <v>463</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D39" s="136" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="214"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="138" t="s">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="212"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="138" t="s">
         <v>481</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D40" s="110" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C39" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C40" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="109" t="s">
-        <v>401</v>
+        <v>252</v>
       </c>
       <c r="B41" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C41" s="107"/>
+      <c r="C41" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="D41" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B43" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="215" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="B42" s="216" t="s">
+      <c r="B44" s="205" t="s">
         <v>439</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="80" t="s">
+      <c r="C44" s="106"/>
+      <c r="D44" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="215"/>
-      <c r="B43" s="216"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="217"/>
+      <c r="B45" s="205"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="215"/>
-      <c r="B44" s="216"/>
-      <c r="C44" s="111" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="217"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="106" t="s">
+      <c r="D46" s="106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="215"/>
-      <c r="B45" s="216"/>
-      <c r="C45" s="112" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="217"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D45" s="113" t="s">
+      <c r="D47" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B48" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C46" s="112" t="s">
+      <c r="C48" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="106"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="221" t="s">
+      <c r="D48" s="106"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="206" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="197" t="s">
+      <c r="B49" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="114" t="s">
+      <c r="C49" s="106"/>
+      <c r="D49" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="222"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="112" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="207"/>
+      <c r="B50" s="209"/>
+      <c r="C50" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D50" s="106" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="222"/>
-      <c r="B49" s="198"/>
-      <c r="C49" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="106" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="222"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" s="113" t="s">
-        <v>359</v>
-      </c>
-    </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="222"/>
-      <c r="B51" s="198"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="209"/>
       <c r="C51" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="113" t="s">
-        <v>354</v>
+      <c r="D51" s="106" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="222"/>
-      <c r="B52" s="198"/>
-      <c r="C52" s="112" t="s">
-        <v>365</v>
+      <c r="A52" s="207"/>
+      <c r="B52" s="209"/>
+      <c r="C52" s="115" t="s">
+        <v>361</v>
       </c>
       <c r="D52" s="113" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="222"/>
-      <c r="B53" s="198"/>
+      <c r="A53" s="207"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="112" t="s">
         <v>353</v>
       </c>
       <c r="D53" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="207"/>
+      <c r="B54" s="209"/>
+      <c r="C54" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="D54" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="207"/>
+      <c r="B55" s="209"/>
+      <c r="C55" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="222"/>
-      <c r="B54" s="198"/>
-      <c r="C54" s="112" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="207"/>
+      <c r="B56" s="209"/>
+      <c r="C56" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="D54" s="113" t="s">
+      <c r="D56" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="222"/>
-      <c r="B55" s="198"/>
-      <c r="C55" s="134" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="207"/>
+      <c r="B57" s="209"/>
+      <c r="C57" s="134" t="s">
         <v>466</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D57" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="222"/>
-      <c r="B56" s="198"/>
-      <c r="C56" s="134" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="207"/>
+      <c r="B58" s="209"/>
+      <c r="C58" s="134" t="s">
         <v>353</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D58" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="222"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="139" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="207"/>
+      <c r="B59" s="209"/>
+      <c r="C59" s="139" t="s">
         <v>466</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D59" s="61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="223"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="112" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="207"/>
+      <c r="B60" s="209"/>
+      <c r="C60" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="108" t="s">
+      <c r="D60" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="116" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="208"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="112" t="s">
+        <v>498</v>
+      </c>
+      <c r="D61" s="108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B62" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C62" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D62" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="116" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B63" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C60" s="112" t="s">
+      <c r="C63" s="112" t="s">
         <v>326</v>
       </c>
-      <c r="D60" s="113" t="s">
+      <c r="D63" s="113" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="116" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B64" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C61" s="112" t="s">
+      <c r="C64" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="113"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="203" t="s">
+      <c r="D64" s="113"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="218" t="s">
         <v>363</v>
       </c>
-      <c r="B62" s="197" t="s">
+      <c r="B65" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C62" s="112" t="s">
+      <c r="C65" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="113"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="204"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="112" t="s">
+      <c r="D65" s="113"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="223"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="113" t="s">
+      <c r="D66" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="103" t="s">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="203" t="s">
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="218" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="197" t="s">
+      <c r="B68" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106" t="s">
+      <c r="C68" s="106"/>
+      <c r="D68" s="106" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="205"/>
-      <c r="B66" s="198"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="219"/>
+      <c r="B69" s="209"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="205"/>
-      <c r="B67" s="198"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="219"/>
+      <c r="B70" s="209"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="205"/>
-      <c r="B68" s="198"/>
-      <c r="C68" s="106" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="219"/>
+      <c r="B71" s="209"/>
+      <c r="C71" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="106" t="s">
+      <c r="D71" s="106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="205"/>
-      <c r="B69" s="198"/>
-      <c r="C69" s="106" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="219"/>
+      <c r="B72" s="209"/>
+      <c r="C72" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D69" s="113" t="s">
+      <c r="D72" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="205"/>
-      <c r="B70" s="198"/>
-      <c r="C70" s="106" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="219"/>
+      <c r="B73" s="209"/>
+      <c r="C73" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D70" s="113" t="s">
+      <c r="D73" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="205"/>
-      <c r="B71" s="198"/>
-      <c r="C71" s="119" t="s">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="219"/>
+      <c r="B74" s="209"/>
+      <c r="C74" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D74" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="205"/>
-      <c r="B72" s="198"/>
-      <c r="C72" s="58" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="219"/>
+      <c r="B75" s="209"/>
+      <c r="C75" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D75" s="58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="205"/>
-      <c r="B73" s="198"/>
-      <c r="C73" s="131" t="s">
-        <v>353</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="205"/>
-      <c r="B74" s="198"/>
-      <c r="C74" s="131" t="s">
-        <v>466</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="205"/>
-      <c r="B75" s="198"/>
-      <c r="C75" s="131" t="s">
-        <v>367</v>
-      </c>
-      <c r="D75" s="58" t="s">
-        <v>489</v>
-      </c>
-    </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="204"/>
-      <c r="B76" s="199"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="209"/>
       <c r="C76" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="D76" s="108" t="s">
+      <c r="D76" s="58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="219"/>
+      <c r="B77" s="209"/>
+      <c r="C77" s="131" t="s">
+        <v>466</v>
+      </c>
+      <c r="D77" s="58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="219"/>
+      <c r="B78" s="209"/>
+      <c r="C78" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="219"/>
+      <c r="B79" s="209"/>
+      <c r="C79" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="206" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="223"/>
+      <c r="B80" s="202"/>
+      <c r="C80" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="D80" s="108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="197" t="s">
+      <c r="B81" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C77" s="106" t="s">
+      <c r="C81" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D77" s="113" t="s">
+      <c r="D81" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="207"/>
-      <c r="B78" s="198"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="214"/>
+      <c r="B82" s="209"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="207"/>
-      <c r="B79" s="198"/>
-      <c r="C79" s="117" t="s">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="214"/>
+      <c r="B83" s="209"/>
+      <c r="C83" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D79" s="113" t="s">
+      <c r="D83" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="207"/>
-      <c r="B80" s="198"/>
-      <c r="C80" s="117" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="214"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D84" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="207"/>
-      <c r="B81" s="198"/>
-      <c r="C81" s="117" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="214"/>
+      <c r="B85" s="209"/>
+      <c r="C85" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="D81" s="113" t="s">
+      <c r="D85" s="113" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="207"/>
-      <c r="B82" s="198"/>
-      <c r="C82" s="117" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="214"/>
+      <c r="B86" s="209"/>
+      <c r="C86" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="113" t="s">
+      <c r="D86" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="207"/>
-      <c r="B83" s="198"/>
-      <c r="C83" s="117" t="s">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="214"/>
+      <c r="B87" s="209"/>
+      <c r="C87" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D83" s="118" t="s">
+      <c r="D87" s="118" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="207"/>
-      <c r="B84" s="198"/>
-      <c r="C84" s="109" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="214"/>
+      <c r="B88" s="209"/>
+      <c r="C88" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D84" s="113" t="s">
+      <c r="D88" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="207"/>
-      <c r="B85" s="198"/>
-      <c r="C85" s="109" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="214"/>
+      <c r="B89" s="209"/>
+      <c r="C89" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="D85" s="113" t="s">
+      <c r="D89" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="207"/>
-      <c r="B86" s="198"/>
-      <c r="C86" s="131" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="214"/>
+      <c r="B90" s="209"/>
+      <c r="C90" s="131" t="s">
         <v>466</v>
       </c>
-      <c r="D86" s="58" t="s">
+      <c r="D90" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="207"/>
-      <c r="B87" s="198"/>
-      <c r="C87" s="131" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="214"/>
+      <c r="B91" s="209"/>
+      <c r="C91" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D91" s="58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="207"/>
-      <c r="B88" s="198"/>
-      <c r="C88" s="131" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="214"/>
+      <c r="B92" s="209"/>
+      <c r="C92" s="131" t="s">
         <v>466</v>
       </c>
-      <c r="D88" s="58" t="s">
+      <c r="D92" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="207"/>
-      <c r="B89" s="198"/>
-      <c r="C89" s="131" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="214"/>
+      <c r="B93" s="209"/>
+      <c r="C93" s="131" t="s">
         <v>367</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D93" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="208"/>
-      <c r="B90" s="199"/>
-      <c r="C90" s="131" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="214"/>
+      <c r="B94" s="209"/>
+      <c r="C94" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="D90" s="108" t="s">
+      <c r="D94" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="212" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="215"/>
+      <c r="B95" s="202"/>
+      <c r="C95" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="D95" s="108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="B91" s="197" t="s">
+      <c r="B96" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C91" s="209" t="s">
+      <c r="C96" s="224" t="s">
         <v>238</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="D96" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="213"/>
-      <c r="B92" s="198"/>
-      <c r="C92" s="210"/>
-      <c r="D92" s="113" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="211"/>
+      <c r="B97" s="209"/>
+      <c r="C97" s="225"/>
+      <c r="D97" s="113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="213"/>
-      <c r="B93" s="198"/>
-      <c r="C93" s="211" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="211"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="226" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="106" t="s">
+      <c r="D98" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="213"/>
-      <c r="B94" s="198"/>
-      <c r="C94" s="211"/>
-      <c r="D94" s="119" t="s">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="211"/>
+      <c r="B99" s="209"/>
+      <c r="C99" s="226"/>
+      <c r="D99" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="213"/>
-      <c r="B95" s="198"/>
-      <c r="C95" s="112" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="211"/>
+      <c r="B100" s="209"/>
+      <c r="C100" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="D95" s="106" t="s">
+      <c r="D100" s="106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="213"/>
-      <c r="B96" s="198"/>
-      <c r="C96" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D96" s="106" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="213"/>
-      <c r="B97" s="198"/>
-      <c r="C97" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D97" s="106" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="213"/>
-      <c r="B98" s="198"/>
-      <c r="C98" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D98" s="118" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="213"/>
-      <c r="B99" s="198"/>
-      <c r="C99" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D99" s="113" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="213"/>
-      <c r="B100" s="198"/>
-      <c r="C100" s="120" t="s">
-        <v>372</v>
-      </c>
-      <c r="D100" s="121" t="s">
-        <v>373</v>
-      </c>
-    </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="213"/>
-      <c r="B101" s="198"/>
+      <c r="A101" s="211"/>
+      <c r="B101" s="209"/>
       <c r="C101" s="112">
         <v>2.1</v>
       </c>
       <c r="D101" s="106" t="s">
-        <v>391</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="213"/>
-      <c r="B102" s="198"/>
+      <c r="A102" s="211"/>
+      <c r="B102" s="209"/>
       <c r="C102" s="112" t="s">
         <v>238</v>
       </c>
       <c r="D102" s="106" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="213"/>
-      <c r="B103" s="198"/>
+      <c r="A103" s="211"/>
+      <c r="B103" s="209"/>
       <c r="C103" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D103" s="106" t="s">
+      <c r="D103" s="118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="211"/>
+      <c r="B104" s="209"/>
+      <c r="C104" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" s="113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="211"/>
+      <c r="B105" s="209"/>
+      <c r="C105" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="D105" s="121" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="211"/>
+      <c r="B106" s="209"/>
+      <c r="C106" s="112">
+        <v>2.1</v>
+      </c>
+      <c r="D106" s="106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="211"/>
+      <c r="B107" s="209"/>
+      <c r="C107" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="211"/>
+      <c r="B108" s="209"/>
+      <c r="C108" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="213"/>
-      <c r="B104" s="198"/>
-      <c r="C104" s="112">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="211"/>
+      <c r="B109" s="209"/>
+      <c r="C109" s="112">
         <v>2.1</v>
       </c>
-      <c r="D104" s="106" t="s">
+      <c r="D109" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="206" t="s">
+    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="213" t="s">
         <v>290</v>
       </c>
-      <c r="B105" s="197" t="s">
+      <c r="B110" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C105" s="106" t="s">
+      <c r="C110" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D105" s="106" t="s">
+      <c r="D110" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="207"/>
-      <c r="B106" s="198"/>
-      <c r="C106" s="119" t="s">
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="214"/>
+      <c r="B111" s="209"/>
+      <c r="C111" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D106" s="106" t="s">
+      <c r="D111" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="208"/>
-      <c r="B107" s="199"/>
-      <c r="C107" s="106" t="s">
+    <row r="112" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="215"/>
+      <c r="B112" s="202"/>
+      <c r="C112" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="106" t="s">
+      <c r="D112" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="203" t="s">
+    <row r="113" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="218" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="197" t="s">
+      <c r="B113" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C108" s="112" t="s">
+      <c r="C113" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="106"/>
-    </row>
-    <row r="109" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="205"/>
-      <c r="B109" s="198"/>
-      <c r="C109" s="112" t="s">
+      <c r="D113" s="106"/>
+    </row>
+    <row r="114" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="219"/>
+      <c r="B114" s="209"/>
+      <c r="C114" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="D109" s="106" t="s">
+      <c r="D114" s="106" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="205"/>
-      <c r="B110" s="198"/>
-      <c r="C110" s="112">
+    <row r="115" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="219"/>
+      <c r="B115" s="209"/>
+      <c r="C115" s="112">
         <v>2.1</v>
       </c>
-      <c r="D110" s="106" t="s">
+      <c r="D115" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="205"/>
-      <c r="B111" s="198"/>
-      <c r="C111" s="112" t="s">
+    <row r="116" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="219"/>
+      <c r="B116" s="209"/>
+      <c r="C116" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="205"/>
-      <c r="B112" s="198"/>
-      <c r="C112" s="112" t="s">
+    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="219"/>
+      <c r="B117" s="209"/>
+      <c r="C117" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D112" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="103" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="103"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="104"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="109" t="s">
+      <c r="B118" s="103"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="104"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="112" t="s">
+      <c r="B119" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C114" s="112" t="s">
+      <c r="C119" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D114" s="113"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="212" t="s">
+      <c r="D119" s="113"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="210" t="s">
         <v>255</v>
       </c>
-      <c r="B115" s="197" t="s">
+      <c r="B120" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C115" s="106"/>
-      <c r="D115" s="80" t="s">
+      <c r="C120" s="106"/>
+      <c r="D120" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="213"/>
-      <c r="B116" s="198"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="106" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="211"/>
+      <c r="B121" s="209"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="213"/>
-      <c r="B117" s="198"/>
-      <c r="C117" s="106"/>
-      <c r="D117" s="113" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="211"/>
+      <c r="B122" s="209"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="113" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="213"/>
-      <c r="B118" s="198"/>
-      <c r="C118" s="106" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="211"/>
+      <c r="B123" s="209"/>
+      <c r="C123" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="D118" s="113" t="s">
+      <c r="D123" s="113" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="213"/>
-      <c r="B119" s="198"/>
-      <c r="C119" s="106" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="211"/>
+      <c r="B124" s="209"/>
+      <c r="C124" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="D119" s="113" t="s">
+      <c r="D124" s="113" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="213"/>
-      <c r="B120" s="198"/>
-      <c r="C120" s="106" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="211"/>
+      <c r="B125" s="209"/>
+      <c r="C125" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="D120" s="113" t="s">
+      <c r="D125" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="215" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="211"/>
+      <c r="B126" s="209"/>
+      <c r="C126" s="106" t="s">
+        <v>498</v>
+      </c>
+      <c r="D126" s="113" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="217" t="s">
         <v>328</v>
       </c>
-      <c r="B121" s="216" t="s">
+      <c r="B127" s="205" t="s">
         <v>439</v>
       </c>
-      <c r="C121" s="80" t="s">
+      <c r="C127" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D121" s="113" t="s">
+      <c r="D127" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="215"/>
-      <c r="B122" s="216"/>
-      <c r="C122" s="106" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="217"/>
+      <c r="B128" s="205"/>
+      <c r="C128" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D122" s="106" t="s">
+      <c r="D128" s="106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="215"/>
-      <c r="B123" s="216"/>
-      <c r="C123" s="122" t="s">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="217"/>
+      <c r="B129" s="205"/>
+      <c r="C129" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="D123" s="192" t="s">
+      <c r="D129" s="220" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="215"/>
-      <c r="B124" s="216"/>
-      <c r="C124" s="122" t="s">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="217"/>
+      <c r="B130" s="205"/>
+      <c r="C130" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D124" s="193"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="215"/>
-      <c r="B125" s="216"/>
-      <c r="C125" s="122" t="s">
+      <c r="D130" s="221"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="217"/>
+      <c r="B131" s="205"/>
+      <c r="C131" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D125" s="193"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="215"/>
-      <c r="B126" s="216"/>
-      <c r="C126" s="122" t="s">
+      <c r="D131" s="221"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="217"/>
+      <c r="B132" s="205"/>
+      <c r="C132" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D126" s="193"/>
-    </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="215"/>
-      <c r="B127" s="216"/>
-      <c r="C127" s="122" t="s">
+      <c r="D132" s="221"/>
+    </row>
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="217"/>
+      <c r="B133" s="205"/>
+      <c r="C133" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D127" s="132" t="s">
+      <c r="D133" s="132" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="109" t="s">
+    <row r="134" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B128" s="112" t="s">
+      <c r="B134" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C128" s="107" t="s">
+      <c r="C134" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="110" t="s">
+      <c r="D134" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="206" t="s">
+    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="B129" s="197" t="s">
+      <c r="B135" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C129" s="106" t="s">
+      <c r="C135" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D129" s="106" t="s">
+      <c r="D135" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="207"/>
-      <c r="B130" s="198"/>
-      <c r="C130" s="106" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="214"/>
+      <c r="B136" s="209"/>
+      <c r="C136" s="106" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="106" t="s">
+      <c r="D136" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="207"/>
-      <c r="B131" s="198"/>
-      <c r="C131" s="106" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="214"/>
+      <c r="B137" s="209"/>
+      <c r="C137" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="D131" s="106" t="s">
+      <c r="D137" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="207"/>
-      <c r="B132" s="198"/>
-      <c r="C132" s="113" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="214"/>
+      <c r="B138" s="209"/>
+      <c r="C138" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D138" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="207"/>
-      <c r="B133" s="198"/>
-      <c r="C133" s="106" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="214"/>
+      <c r="B139" s="209"/>
+      <c r="C139" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="106" t="s">
+      <c r="D139" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="207"/>
-      <c r="B134" s="198"/>
-      <c r="C134" s="106" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="214"/>
+      <c r="B140" s="209"/>
+      <c r="C140" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="D134" s="106" t="s">
+      <c r="D140" s="106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="207"/>
-      <c r="B135" s="198"/>
-      <c r="C135" s="113" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="214"/>
+      <c r="B141" s="209"/>
+      <c r="C141" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="D135" s="113" t="s">
+      <c r="D141" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="207"/>
-      <c r="B136" s="198"/>
-      <c r="C136" s="113" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="214"/>
+      <c r="B142" s="209"/>
+      <c r="C142" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="D136" s="113" t="s">
+      <c r="D142" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="207"/>
-      <c r="B137" s="198"/>
-      <c r="C137" s="113" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="214"/>
+      <c r="B143" s="209"/>
+      <c r="C143" s="113" t="s">
         <v>283</v>
-      </c>
-      <c r="D137" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="207"/>
-      <c r="B138" s="198"/>
-      <c r="C138" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D138" s="110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="207"/>
-      <c r="B139" s="198"/>
-      <c r="C139" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="D139" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="207"/>
-      <c r="B140" s="198"/>
-      <c r="C140" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="D140" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="207"/>
-      <c r="B141" s="198"/>
-      <c r="C141" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="D141" s="113" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="207"/>
-      <c r="B142" s="198"/>
-      <c r="C142" s="113" t="s">
-        <v>309</v>
-      </c>
-      <c r="D142" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="207"/>
-      <c r="B143" s="198"/>
-      <c r="C143" s="113" t="s">
-        <v>262</v>
       </c>
       <c r="D143" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="207"/>
-      <c r="B144" s="198"/>
-      <c r="C144" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D144" s="106" t="s">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="214"/>
+      <c r="B144" s="209"/>
+      <c r="C144" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D144" s="110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="214"/>
+      <c r="B145" s="209"/>
+      <c r="C145" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D145" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="214"/>
+      <c r="B146" s="209"/>
+      <c r="C146" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="214"/>
+      <c r="B147" s="209"/>
+      <c r="C147" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D147" s="113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="214"/>
+      <c r="B148" s="209"/>
+      <c r="C148" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="207"/>
-      <c r="B145" s="198"/>
-      <c r="C145" s="113" t="s">
-        <v>277</v>
-      </c>
-      <c r="D145" s="113" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="207"/>
-      <c r="B146" s="198"/>
-      <c r="C146" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="D146" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="207"/>
-      <c r="B147" s="198"/>
-      <c r="C147" s="106"/>
-      <c r="D147" s="97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="207"/>
-      <c r="B148" s="198"/>
-      <c r="C148" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="207"/>
-      <c r="B149" s="198"/>
+      <c r="A149" s="214"/>
+      <c r="B149" s="209"/>
       <c r="C149" s="113" t="s">
         <v>262</v>
       </c>
       <c r="D149" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="214"/>
+      <c r="B150" s="209"/>
+      <c r="C150" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="214"/>
+      <c r="B151" s="209"/>
+      <c r="C151" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="D151" s="113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="214"/>
+      <c r="B152" s="209"/>
+      <c r="C152" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="207"/>
-      <c r="B150" s="198"/>
-      <c r="C150" s="113" t="s">
+    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="214"/>
+      <c r="B153" s="209"/>
+      <c r="C153" s="106"/>
+      <c r="D153" s="97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="214"/>
+      <c r="B154" s="209"/>
+      <c r="C154" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D154" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="214"/>
+      <c r="B155" s="209"/>
+      <c r="C155" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="214"/>
+      <c r="B156" s="209"/>
+      <c r="C156" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="D150" s="113" t="s">
+      <c r="D156" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="207"/>
-      <c r="B151" s="198"/>
-      <c r="C151" s="113" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="214"/>
+      <c r="B157" s="209"/>
+      <c r="C157" s="113" t="s">
         <v>334</v>
-      </c>
-      <c r="D151" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="207"/>
-      <c r="B152" s="198"/>
-      <c r="C152" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="D152" s="113" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="207"/>
-      <c r="B153" s="198"/>
-      <c r="C153" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="D153" s="118" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="207"/>
-      <c r="B154" s="198"/>
-      <c r="C154" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D154" s="113" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="207"/>
-      <c r="B155" s="198"/>
-      <c r="C155" s="113" t="s">
-        <v>347</v>
-      </c>
-      <c r="D155" s="113" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="207"/>
-      <c r="B156" s="198"/>
-      <c r="C156" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D156" s="124" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="207"/>
-      <c r="B157" s="198"/>
-      <c r="C157" s="113" t="s">
-        <v>351</v>
       </c>
       <c r="D157" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="207"/>
-      <c r="B158" s="198"/>
+      <c r="A158" s="214"/>
+      <c r="B158" s="209"/>
       <c r="C158" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D158" s="113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="214"/>
+      <c r="B159" s="209"/>
+      <c r="C159" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="214"/>
+      <c r="B160" s="209"/>
+      <c r="C160" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" s="113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="214"/>
+      <c r="B161" s="209"/>
+      <c r="C161" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="D161" s="113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="214"/>
+      <c r="B162" s="209"/>
+      <c r="C162" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" s="124" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="214"/>
+      <c r="B163" s="209"/>
+      <c r="C163" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="214"/>
+      <c r="B164" s="209"/>
+      <c r="C164" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="D158" s="113" t="s">
+      <c r="D164" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="207"/>
-      <c r="B159" s="198"/>
-      <c r="C159" s="113" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="214"/>
+      <c r="B165" s="209"/>
+      <c r="C165" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="D159" s="113" t="s">
+      <c r="D165" s="113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="207"/>
-      <c r="B160" s="198"/>
-      <c r="C160" s="113" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="214"/>
+      <c r="B166" s="209"/>
+      <c r="C166" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="D160" s="113" t="s">
+      <c r="D166" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="207"/>
-      <c r="B161" s="198"/>
-      <c r="C161" s="113" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="214"/>
+      <c r="B167" s="209"/>
+      <c r="C167" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="D161" s="113" t="s">
+      <c r="D167" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="207"/>
-      <c r="B162" s="198"/>
-      <c r="C162" s="113" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="214"/>
+      <c r="B168" s="209"/>
+      <c r="C168" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="D162" s="113" t="s">
+      <c r="D168" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="207"/>
-      <c r="B163" s="198"/>
-      <c r="C163" s="118" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="214"/>
+      <c r="B169" s="209"/>
+      <c r="C169" s="118" t="s">
         <v>379</v>
       </c>
-      <c r="D163" s="118" t="s">
+      <c r="D169" s="118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="207"/>
-      <c r="B164" s="198"/>
-      <c r="C164" s="106" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="214"/>
+      <c r="B170" s="209"/>
+      <c r="C170" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D164" s="106" t="s">
+      <c r="D170" s="106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="207"/>
-      <c r="B165" s="198"/>
-      <c r="C165" s="106" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="214"/>
+      <c r="B171" s="209"/>
+      <c r="C171" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="D165" s="106" t="s">
+      <c r="D171" s="106" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="207"/>
-      <c r="B166" s="198"/>
-      <c r="C166" s="106" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="214"/>
+      <c r="B172" s="209"/>
+      <c r="C172" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="D166" s="106" t="s">
+      <c r="D172" s="106" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="207"/>
-      <c r="B167" s="198"/>
-      <c r="C167" s="106" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="214"/>
+      <c r="B173" s="209"/>
+      <c r="C173" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="D167" s="106" t="s">
+      <c r="D173" s="106" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="207"/>
-      <c r="B168" s="198"/>
-      <c r="C168" s="106" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="214"/>
+      <c r="B174" s="209"/>
+      <c r="C174" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="D168" s="106" t="s">
+      <c r="D174" s="106" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="207"/>
-      <c r="B169" s="198"/>
-      <c r="C169" s="106" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="214"/>
+      <c r="B175" s="209"/>
+      <c r="C175" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="D169" s="106" t="s">
+      <c r="D175" s="106" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="207"/>
-      <c r="B170" s="198"/>
-      <c r="C170" s="106" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="214"/>
+      <c r="B176" s="209"/>
+      <c r="C176" s="106" t="s">
         <v>393</v>
       </c>
-      <c r="D170" s="106" t="s">
+      <c r="D176" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="207"/>
-      <c r="B171" s="198"/>
-      <c r="C171" s="106" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="214"/>
+      <c r="B177" s="209"/>
+      <c r="C177" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="D171" s="106" t="s">
+      <c r="D177" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="207"/>
-      <c r="B172" s="198"/>
-      <c r="C172" s="106" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="214"/>
+      <c r="B178" s="209"/>
+      <c r="C178" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="D172" s="106" t="s">
+      <c r="D178" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="207"/>
-      <c r="B173" s="198"/>
-      <c r="C173" s="106" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="214"/>
+      <c r="B179" s="209"/>
+      <c r="C179" s="106" t="s">
         <v>421</v>
       </c>
-      <c r="D173" s="106" t="s">
+      <c r="D179" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="207"/>
-      <c r="B174" s="198"/>
-      <c r="C174" s="106" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="214"/>
+      <c r="B180" s="209"/>
+      <c r="C180" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="D174" s="106" t="s">
+      <c r="D180" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="207"/>
-      <c r="B175" s="198"/>
-      <c r="C175" s="106" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="214"/>
+      <c r="B181" s="209"/>
+      <c r="C181" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D175" s="106" t="s">
+      <c r="D181" s="106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="207"/>
-      <c r="B176" s="198"/>
-      <c r="C176" s="58" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="214"/>
+      <c r="B182" s="209"/>
+      <c r="C182" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D176" s="58" t="s">
+      <c r="D182" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="207"/>
-      <c r="B177" s="198"/>
-      <c r="C177" s="58" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="214"/>
+      <c r="B183" s="209"/>
+      <c r="C183" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="D177" s="58" t="s">
+      <c r="D183" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="208"/>
-      <c r="B178" s="199"/>
-      <c r="C178" s="58" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="214"/>
+      <c r="B184" s="209"/>
+      <c r="C184" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="D178" s="58" t="s">
+      <c r="D184" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="206" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="213" t="s">
         <v>415</v>
       </c>
-      <c r="B179" s="197" t="s">
+      <c r="B185" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C179" s="106" t="s">
+      <c r="C185" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D179" s="113" t="s">
+      <c r="D185" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="208"/>
-      <c r="B180" s="199"/>
-      <c r="C180" s="118" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="215"/>
+      <c r="B186" s="202"/>
+      <c r="C186" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D180" s="118" t="s">
+      <c r="D186" s="118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="109" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="B181" s="107" t="s">
+      <c r="B187" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C181" s="106" t="s">
+      <c r="C187" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D181" s="113" t="s">
+      <c r="D187" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="109" t="s">
+    <row r="188" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="B182" s="107" t="s">
+      <c r="B188" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C182" s="106" t="s">
+      <c r="C188" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D182" s="113" t="s">
+      <c r="D188" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="103" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B183" s="103"/>
-      <c r="C183" s="103"/>
-      <c r="D183" s="104"/>
-    </row>
-    <row r="184" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="212" t="s">
+      <c r="B189" s="103"/>
+      <c r="C189" s="103"/>
+      <c r="D189" s="104"/>
+    </row>
+    <row r="190" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="B184" s="197" t="s">
+      <c r="B190" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C184" s="106"/>
-      <c r="D184" s="80" t="s">
+      <c r="C190" s="106"/>
+      <c r="D190" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="213"/>
-      <c r="B185" s="198"/>
-      <c r="C185" s="107" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="211"/>
+      <c r="B191" s="209"/>
+      <c r="C191" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D185" s="106" t="s">
+      <c r="D191" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="213"/>
-      <c r="B186" s="198"/>
-      <c r="C186" s="107">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="211"/>
+      <c r="B192" s="209"/>
+      <c r="C192" s="107">
         <v>10.1</v>
       </c>
-      <c r="D186" s="106" t="s">
+      <c r="D192" s="106" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="213"/>
-      <c r="B187" s="198"/>
-      <c r="C187" s="107">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="211"/>
+      <c r="B193" s="209"/>
+      <c r="C193" s="107">
         <v>10.199999999999999</v>
       </c>
-      <c r="D187" s="106" t="s">
+      <c r="D193" s="106" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="213"/>
-      <c r="B188" s="198"/>
-      <c r="C188" s="98" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="211"/>
+      <c r="B194" s="209"/>
+      <c r="C194" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D188" s="95" t="s">
+      <c r="D194" s="95" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="213"/>
-      <c r="B189" s="198"/>
-      <c r="C189" s="98" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="211"/>
+      <c r="B195" s="209"/>
+      <c r="C195" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="D189" s="95" t="s">
+      <c r="D195" s="95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="213"/>
-      <c r="B190" s="198"/>
-      <c r="C190" s="98" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="211"/>
+      <c r="B196" s="209"/>
+      <c r="C196" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D190" s="95" t="s">
+      <c r="D196" s="95" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="213"/>
-      <c r="B191" s="198"/>
-      <c r="C191" s="98" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="211"/>
+      <c r="B197" s="209"/>
+      <c r="C197" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="D191" s="95" t="s">
+      <c r="D197" s="95" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="213"/>
-      <c r="B192" s="198"/>
-      <c r="C192" s="98" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="211"/>
+      <c r="B198" s="209"/>
+      <c r="C198" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="95" t="s">
+      <c r="D198" s="95" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="213"/>
-      <c r="B193" s="198"/>
-      <c r="C193" s="98" t="s">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="211"/>
+      <c r="B199" s="209"/>
+      <c r="C199" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D193" s="133" t="s">
+      <c r="D199" s="133" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="214"/>
-      <c r="B194" s="199"/>
-      <c r="C194" s="98" t="s">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="212"/>
+      <c r="B200" s="202"/>
+      <c r="C200" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D194" s="225" t="s">
+      <c r="D200" s="144" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="212" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="210" t="s">
         <v>246</v>
       </c>
-      <c r="B195" s="197" t="s">
+      <c r="B201" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C195" s="98"/>
-      <c r="D195" s="125" t="s">
+      <c r="C201" s="98"/>
+      <c r="D201" s="125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="213"/>
-      <c r="B196" s="198"/>
-      <c r="C196" s="126" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="211"/>
+      <c r="B202" s="209"/>
+      <c r="C202" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D196" s="102" t="s">
+      <c r="D202" s="102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="110" t="s">
+    <row r="203" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B197" s="107" t="s">
+      <c r="B203" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C197" s="107" t="s">
+      <c r="C203" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D197" s="113" t="s">
+      <c r="D203" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="127" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="127"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="212" t="s">
+      <c r="B204" s="127"/>
+      <c r="C204" s="127"/>
+      <c r="D204" s="127"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="B199" s="197" t="s">
+      <c r="B205" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C199" s="128" t="s">
+      <c r="C205" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D199" s="106" t="s">
+      <c r="D205" s="106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="213"/>
-      <c r="B200" s="198"/>
-      <c r="C200" s="128" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="211"/>
+      <c r="B206" s="209"/>
+      <c r="C206" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D200" s="106" t="s">
+      <c r="D206" s="106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="214"/>
-      <c r="B201" s="199"/>
-      <c r="C201" s="106"/>
-      <c r="D201" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="217" t="s">
-        <v>59</v>
-      </c>
-      <c r="B202" s="197" t="s">
-        <v>265</v>
-      </c>
-      <c r="C202" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="D202" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="218"/>
-      <c r="B203" s="199"/>
-      <c r="C203" s="119"/>
-      <c r="D203" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="217" t="s">
-        <v>285</v>
-      </c>
-      <c r="B204" s="197" t="s">
-        <v>265</v>
-      </c>
-      <c r="C204" s="119"/>
-      <c r="D204" s="119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="218"/>
-      <c r="B205" s="199"/>
-      <c r="C205" s="106"/>
-      <c r="D205" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="217" t="s">
-        <v>60</v>
-      </c>
-      <c r="B206" s="197" t="s">
-        <v>265</v>
-      </c>
-      <c r="C206" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="D206" s="106" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="218"/>
-      <c r="B207" s="199"/>
+    <row r="207" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="212"/>
+      <c r="B207" s="202"/>
       <c r="C207" s="106"/>
       <c r="D207" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="127" t="s">
+    <row r="208" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="B208" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C208" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D208" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="200"/>
+      <c r="B209" s="202"/>
+      <c r="C209" s="119"/>
+      <c r="D209" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="199" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="119"/>
+      <c r="D210" s="119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="200"/>
+      <c r="B211" s="202"/>
+      <c r="C211" s="106"/>
+      <c r="D211" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="199" t="s">
+        <v>60</v>
+      </c>
+      <c r="B212" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C212" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D212" s="106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="200"/>
+      <c r="B213" s="202"/>
+      <c r="C213" s="106"/>
+      <c r="D213" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="B208" s="127"/>
-      <c r="C208" s="127"/>
-      <c r="D208" s="127"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="106"/>
-      <c r="B209" s="107" t="s">
+      <c r="B214" s="127"/>
+      <c r="C214" s="127"/>
+      <c r="D214" s="127"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="106"/>
+      <c r="B215" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C209" s="106" t="s">
+      <c r="C215" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="113" t="s">
+      <c r="D215" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="127" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="B210" s="127"/>
-      <c r="C210" s="127"/>
-      <c r="D210" s="127"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="106"/>
-      <c r="B211" s="107" t="s">
+      <c r="B216" s="127"/>
+      <c r="C216" s="127"/>
+      <c r="D216" s="127"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="106"/>
+      <c r="B217" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C211" s="106" t="s">
+      <c r="C217" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D211" s="113" t="s">
+      <c r="D217" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="106"/>
-      <c r="B212" s="107"/>
-      <c r="C212" s="106" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="106"/>
+      <c r="B218" s="107"/>
+      <c r="C218" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="D212" s="113" t="s">
+      <c r="D218" s="113" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="A184:A194"/>
-    <mergeCell ref="B184:B194"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A135:A184"/>
+    <mergeCell ref="B135:B184"/>
+    <mergeCell ref="A96:A109"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="A190:A200"/>
+    <mergeCell ref="B190:B200"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B96:B109"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A129:A178"/>
-    <mergeCell ref="B129:B178"/>
-    <mergeCell ref="A91:A104"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B91:B104"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A65:A76"/>
-    <mergeCell ref="B65:B76"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="B77:B90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="B49:B61"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B205:B207"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C8A32D-316D-436C-8003-BB6D840EBABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C1B24-F77F-4B7A-B292-85B0091E5ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$31</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="506">
   <si>
     <t>Document</t>
   </si>
@@ -3380,6 +3380,21 @@
   </si>
   <si>
     <t>Added field and sub fields</t>
+  </si>
+  <si>
+    <t>Temporary Wage Subsidy Scheme Operational Phase Description</t>
+  </si>
+  <si>
+    <t>Temporary Wage Subsidy Scheme CSV Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added </t>
+  </si>
+  <si>
+    <t>Updated figure 2 to show TWSS link</t>
+  </si>
+  <si>
+    <t>Added section on TWSS</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4338,9 +4353,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4380,6 +4392,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4426,38 +4444,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4480,6 +4468,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4501,79 +4549,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4585,47 +4609,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5030,12 +5048,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5058,12 +5076,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5103,10 +5121,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="151">
+      <c r="B7" s="152">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5120,8 +5138,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5133,8 +5151,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5146,8 +5164,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5159,8 +5177,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5172,8 +5190,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="153"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5185,10 +5203,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="151">
+      <c r="B13" s="152">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5202,8 +5220,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
-      <c r="B14" s="153"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5249,12 +5267,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5294,21 +5312,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="155">
+      <c r="B21" s="156">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5322,8 +5340,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5346,18 +5364,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="154" t="s">
+      <c r="A25" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="155">
+      <c r="B25" s="156">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5371,8 +5389,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="149"/>
-      <c r="B26" s="152"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5384,8 +5402,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5397,8 +5415,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="149"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5410,8 +5428,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="149"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5423,8 +5441,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="149"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5436,8 +5454,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="149"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5449,8 +5467,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="153"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5574,12 +5592,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="145" t="s">
+      <c r="A41" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5639,7 +5657,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5649,7 +5667,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5759,10 +5777,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5773,8 +5791,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5783,8 +5801,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5793,8 +5811,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5803,8 +5821,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5813,8 +5831,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5823,10 +5841,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5837,8 +5855,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="161"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5847,8 +5865,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5857,10 +5875,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5871,8 +5889,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5881,8 +5899,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5891,8 +5909,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5901,8 +5919,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5911,8 +5929,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5921,8 +5939,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5931,8 +5949,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
-      <c r="B23" s="165"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5941,26 +5959,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="164" t="s">
+      <c r="A24" s="161"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="162" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="171"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5971,8 +5989,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5999,28 +6017,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="164" t="s">
+      <c r="C30" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="174" t="s">
+      <c r="D30" s="165" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="174"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="165"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
-      <c r="B32" s="161"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6029,8 +6047,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="161"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6039,8 +6057,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
-      <c r="B34" s="161"/>
+      <c r="A34" s="177"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6049,8 +6067,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
-      <c r="B35" s="161"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6059,8 +6077,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
-      <c r="B36" s="161"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6069,26 +6087,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="175" t="s">
+      <c r="A37" s="177"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="177" t="s">
+      <c r="D37" s="168" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
+      <c r="A38" s="177"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="168"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6099,8 +6117,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
-      <c r="B40" s="161"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6127,10 +6145,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="162" t="s">
+      <c r="A43" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6139,8 +6157,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
-      <c r="B44" s="161"/>
+      <c r="A44" s="177"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6149,10 +6167,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="161" t="s">
+      <c r="B45" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6161,8 +6179,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
-      <c r="B46" s="161"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6171,8 +6189,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
-      <c r="B47" s="161"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6181,8 +6199,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="170"/>
-      <c r="B48" s="161"/>
+      <c r="A48" s="174"/>
+      <c r="B48" s="175"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6191,10 +6209,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10298,8 +10316,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
-      <c r="B50" s="165"/>
+      <c r="A50" s="170"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14403,8 +14421,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="165"/>
-      <c r="B51" s="165"/>
+      <c r="A51" s="170"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18508,8 +18526,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="165"/>
-      <c r="B52" s="165"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22613,12 +22631,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="165"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="173" t="s">
+      <c r="A53" s="170"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="174" t="s">
+      <c r="D53" s="165" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26718,10 +26736,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="165"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="174"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="165"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30839,10 +30857,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="166" t="s">
+      <c r="A57" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="165" t="s">
+      <c r="B57" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30853,8 +30871,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="165"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30863,8 +30881,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="166"/>
-      <c r="B59" s="165"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30873,8 +30891,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
-      <c r="B60" s="165"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="170"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30883,8 +30901,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="165"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="170"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30893,8 +30911,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="166"/>
-      <c r="B62" s="165"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30903,8 +30921,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="166"/>
-      <c r="B63" s="165"/>
+      <c r="A63" s="169"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30913,16 +30931,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="166"/>
-      <c r="B64" s="165"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="170"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="165"/>
+      <c r="A65" s="169"/>
+      <c r="B65" s="170"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30931,16 +30949,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="165"/>
+      <c r="A66" s="169"/>
+      <c r="B66" s="170"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="166"/>
-      <c r="B67" s="165"/>
+      <c r="A67" s="169"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30949,8 +30967,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="166"/>
-      <c r="B68" s="165"/>
+      <c r="A68" s="169"/>
+      <c r="B68" s="170"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30959,8 +30977,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="166"/>
-      <c r="B69" s="165"/>
+      <c r="A69" s="169"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30969,8 +30987,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="166"/>
-      <c r="B70" s="165"/>
+      <c r="A70" s="169"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30979,8 +30997,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="166"/>
-      <c r="B71" s="165"/>
+      <c r="A71" s="169"/>
+      <c r="B71" s="170"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30989,8 +31007,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="166"/>
-      <c r="B72" s="165"/>
+      <c r="A72" s="169"/>
+      <c r="B72" s="170"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30999,16 +31017,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="166"/>
-      <c r="B73" s="165"/>
+      <c r="A73" s="169"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="166"/>
-      <c r="B74" s="165"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31017,18 +31035,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="166"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="167" t="s">
+      <c r="A75" s="169"/>
+      <c r="B75" s="170"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="171" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="166"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="172"/>
-      <c r="D76" s="167"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="171"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31052,8 +31070,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31062,29 +31080,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31099,6 +31101,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31152,10 +31170,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="175" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31166,133 +31184,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="187" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="186" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="185" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="186"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="185" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="185"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="185"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="186" t="s">
+      <c r="C13" s="187"/>
+      <c r="D13" s="185" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="186"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="185"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="188"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="187"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="188"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="187"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="187"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="188"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="187"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="187"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="187"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="188"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="187"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="188"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31390,10 +31408,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="189" t="s">
+      <c r="A32" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="182" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31404,26 +31422,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="190"/>
-      <c r="B33" s="193"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="190"/>
-      <c r="B34" s="193"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="190"/>
-      <c r="B35" s="193"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="183"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="191"/>
-      <c r="B36" s="194"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31452,10 +31470,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="175" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31466,8 +31484,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
-      <c r="B40" s="161"/>
+      <c r="A40" s="177"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31476,84 +31494,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="161" t="s">
+      <c r="B41" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="188" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="164" t="s">
+      <c r="D41" s="161" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="160"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="164"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="161"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="160"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="185" t="s">
+      <c r="A43" s="176"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="167" t="s">
+      <c r="D43" s="171" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="160"/>
-      <c r="B44" s="161"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="167"/>
+      <c r="A44" s="176"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="171"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="181"/>
+      <c r="C45" s="192"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="178" t="s">
+      <c r="A46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="189" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="166"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="179"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="190"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="166"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="179"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="194"/>
+      <c r="D48" s="190"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="179"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="190"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="180"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="191"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31576,10 +31594,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="165" t="s">
+      <c r="B53" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31590,8 +31608,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="165"/>
-      <c r="B54" s="165"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31600,8 +31618,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="165"/>
-      <c r="B55" s="165"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31610,9 +31628,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="165"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="184" t="s">
+      <c r="A56" s="170"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="195" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31620,16 +31638,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="184"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="195"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
+      <c r="A58" s="170"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31638,8 +31656,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="165"/>
-      <c r="B59" s="165"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31648,9 +31666,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="165"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="184" t="s">
+      <c r="A60" s="170"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="195" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31658,25 +31676,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="184"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="195"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="165"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="184"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="195"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="165"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="185" t="s">
+      <c r="A63" s="170"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="188" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31684,30 +31702,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="165"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="185"/>
-      <c r="D64" s="167" t="s">
+      <c r="A64" s="170"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="171" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="165"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="185"/>
-      <c r="D65" s="167"/>
+      <c r="A65" s="170"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="171"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="165"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="185"/>
-      <c r="D66" s="167"/>
+      <c r="A66" s="170"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="171"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="165"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="167"/>
+      <c r="A67" s="170"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="171"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31763,23 +31781,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31796,6 +31797,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31804,10 +31822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185:D185"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31841,10 +31859,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="217" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31855,8 +31873,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="198"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="219"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31865,7 +31883,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="217" t="s">
         <v>438</v>
       </c>
       <c r="B5" s="201" t="s">
@@ -31877,36 +31895,36 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="216"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="216"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="100"/>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="140" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="216"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="218"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="100"/>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="140" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="202"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="140" t="s">
         <v>249</v>
       </c>
     </row>
@@ -31919,7 +31937,7 @@
       <c r="D10" s="104"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="213" t="s">
         <v>247</v>
       </c>
       <c r="B11" s="201" t="s">
@@ -31933,8 +31951,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="212"/>
-      <c r="B12" s="202"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="128" t="s">
         <v>474</v>
       </c>
@@ -31943,10 +31961,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="134" t="s">
         <v>477</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="136" t="s">
         <v>439</v>
       </c>
       <c r="C13" s="128" t="s">
@@ -31969,7 +31987,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="217" t="s">
         <v>279</v>
       </c>
       <c r="B15" s="201" t="s">
@@ -31983,8 +32001,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
-      <c r="B16" s="209"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="106" t="s">
         <v>299</v>
       </c>
@@ -31993,8 +32011,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="202"/>
       <c r="C17" s="128" t="s">
         <v>280</v>
       </c>
@@ -32003,8 +32021,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
@@ -32013,8 +32031,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="100" t="s">
         <v>434</v>
       </c>
@@ -32023,8 +32041,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="216"/>
-      <c r="B20" s="209"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="100" t="s">
         <v>444</v>
       </c>
@@ -32033,8 +32051,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="100" t="s">
         <v>446</v>
       </c>
@@ -32043,8 +32061,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="100" t="s">
         <v>434</v>
       </c>
@@ -32053,9 +32071,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="143" t="s">
+      <c r="A23" s="219"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="142" t="s">
         <v>453</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -32063,7 +32081,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="197" t="s">
+      <c r="A24" s="198" t="s">
         <v>452</v>
       </c>
       <c r="B24" s="201" t="s">
@@ -32077,8 +32095,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="100" t="s">
         <v>453</v>
       </c>
@@ -32087,7 +32105,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="202"/>
       <c r="C26" s="100">
         <v>3.3</v>
@@ -32097,1918 +32115,1920 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="199"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="130">
+        <v>3</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="200"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="130">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="144" t="s">
         <v>457</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B29" s="145" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="130" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="67" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" s="67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="103" t="s">
         <v>335</v>
-      </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="203" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="204" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="203"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="100" t="s">
-        <v>341</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="203"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103" t="s">
-        <v>24</v>
       </c>
       <c r="B32" s="103"/>
       <c r="C32" s="103"/>
       <c r="D32" s="104"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="217" t="s">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="223" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="224" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="223"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="223"/>
+      <c r="B35" s="224"/>
+      <c r="C35" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="205" t="s">
+      <c r="B37" s="220" t="s">
         <v>439</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106" t="s">
+      <c r="C37" s="106"/>
+      <c r="D37" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="137" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="216"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D38" s="108" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="217"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="140" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="216"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="139" t="s">
         <v>484</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="D39" s="108" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="217"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="142" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="216"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="141" t="s">
         <v>484</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D40" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="217"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="140" t="s">
+    <row r="41" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="216"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D41" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="210" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="201" t="s">
+      <c r="B42" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C42" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D42" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="211"/>
-      <c r="B39" s="209"/>
-      <c r="C39" s="137" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="214"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="D39" s="136" t="s">
+      <c r="D43" s="135" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="212"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="138" t="s">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="215"/>
+      <c r="B44" s="203"/>
+      <c r="C44" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D44" s="110" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B45" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C45" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D45" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="109" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="109" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B46" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C46" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D46" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="109" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="109" t="s">
         <v>401</v>
       </c>
-      <c r="B43" s="107" t="s">
+      <c r="B47" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="110" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="217" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="216" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="205" t="s">
+      <c r="B48" s="220" t="s">
         <v>439</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="80" t="s">
+      <c r="C48" s="106"/>
+      <c r="D48" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="217"/>
-      <c r="B45" s="205"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="216"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="217"/>
-      <c r="B46" s="205"/>
-      <c r="C46" s="111" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="216"/>
+      <c r="B50" s="220"/>
+      <c r="C50" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D50" s="106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="217"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="112" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="216"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D47" s="113" t="s">
+      <c r="D51" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B52" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C52" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="106"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="206" t="s">
+      <c r="D52" s="106"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="201" t="s">
+      <c r="B53" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="114" t="s">
+      <c r="C53" s="106"/>
+      <c r="D53" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
-      <c r="B50" s="209"/>
-      <c r="C50" s="112" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="226"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="D50" s="106" t="s">
+      <c r="D54" s="106" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="207"/>
-      <c r="B51" s="209"/>
-      <c r="C51" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D51" s="106" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="207"/>
-      <c r="B52" s="209"/>
-      <c r="C52" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="D52" s="113" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="207"/>
-      <c r="B53" s="209"/>
-      <c r="C53" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D53" s="113" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="207"/>
-      <c r="B54" s="209"/>
-      <c r="C54" s="112" t="s">
-        <v>365</v>
-      </c>
-      <c r="D54" s="113" t="s">
-        <v>374</v>
-      </c>
-    </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="207"/>
-      <c r="B55" s="209"/>
+      <c r="A55" s="226"/>
+      <c r="B55" s="202"/>
       <c r="C55" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="226"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="226"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="226"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="226"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" s="113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="207"/>
-      <c r="B56" s="209"/>
-      <c r="C56" s="112" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="226"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D60" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="207"/>
-      <c r="B57" s="209"/>
-      <c r="C57" s="134" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="226"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="133" t="s">
         <v>466</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D61" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="207"/>
-      <c r="B58" s="209"/>
-      <c r="C58" s="134" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="226"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D62" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="207"/>
-      <c r="B59" s="209"/>
-      <c r="C59" s="139" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="226"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="138" t="s">
         <v>466</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D63" s="61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="207"/>
-      <c r="B60" s="209"/>
-      <c r="C60" s="112" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="226"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D60" s="108" t="s">
+      <c r="D64" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="208"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="112" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="227"/>
+      <c r="B65" s="203"/>
+      <c r="C65" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D61" s="108" t="s">
+      <c r="D65" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="116" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="B62" s="107" t="s">
+      <c r="B66" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C66" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D66" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="116" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="B63" s="107" t="s">
+      <c r="B67" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C67" s="112" t="s">
         <v>326</v>
       </c>
-      <c r="D63" s="113" t="s">
+      <c r="D67" s="113" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="116" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="107" t="s">
+      <c r="B68" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C64" s="112" t="s">
+      <c r="C68" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="113"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="218" t="s">
+      <c r="D68" s="113"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="204" t="s">
         <v>363</v>
       </c>
-      <c r="B65" s="201" t="s">
+      <c r="B69" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C65" s="112" t="s">
+      <c r="C69" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="113"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="223"/>
-      <c r="B66" s="202"/>
-      <c r="C66" s="112" t="s">
+      <c r="D69" s="113"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="205"/>
+      <c r="B70" s="203"/>
+      <c r="C70" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D66" s="113" t="s">
+      <c r="D70" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="103" t="s">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="218" t="s">
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="204" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="201" t="s">
+      <c r="B72" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106" t="s">
+      <c r="C72" s="106"/>
+      <c r="D72" s="106" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="219"/>
-      <c r="B69" s="209"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="206"/>
+      <c r="B73" s="202"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="219"/>
-      <c r="B70" s="209"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="206"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="219"/>
-      <c r="B71" s="209"/>
-      <c r="C71" s="106" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="206"/>
+      <c r="B75" s="202"/>
+      <c r="C75" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D71" s="106" t="s">
+      <c r="D75" s="106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="219"/>
-      <c r="B72" s="209"/>
-      <c r="C72" s="106" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="206"/>
+      <c r="B76" s="202"/>
+      <c r="C76" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D76" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="219"/>
-      <c r="B73" s="209"/>
-      <c r="C73" s="106" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="206"/>
+      <c r="B77" s="202"/>
+      <c r="C77" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="113" t="s">
+      <c r="D77" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="219"/>
-      <c r="B74" s="209"/>
-      <c r="C74" s="119" t="s">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="206"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="D74" s="113" t="s">
+      <c r="D78" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="219"/>
-      <c r="B75" s="209"/>
-      <c r="C75" s="58" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="206"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D79" s="58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="219"/>
-      <c r="B76" s="209"/>
-      <c r="C76" s="131" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="206"/>
+      <c r="B80" s="202"/>
+      <c r="C80" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D80" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="219"/>
-      <c r="B77" s="209"/>
-      <c r="C77" s="131" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="206"/>
+      <c r="B81" s="202"/>
+      <c r="C81" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D81" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="219"/>
-      <c r="B78" s="209"/>
-      <c r="C78" s="131" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="206"/>
+      <c r="B82" s="202"/>
+      <c r="C82" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D82" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="219"/>
-      <c r="B79" s="209"/>
-      <c r="C79" s="131" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="206"/>
+      <c r="B83" s="202"/>
+      <c r="C83" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D79" s="108" t="s">
+      <c r="D83" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="223"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="131" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="205"/>
+      <c r="B84" s="203"/>
+      <c r="C84" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D80" s="108" t="s">
+      <c r="D84" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="213" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="201" t="s">
+      <c r="B85" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C81" s="106" t="s">
+      <c r="C85" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D81" s="113" t="s">
+      <c r="D85" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="214"/>
-      <c r="B82" s="209"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="208"/>
+      <c r="B86" s="202"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="214"/>
-      <c r="B83" s="209"/>
-      <c r="C83" s="117" t="s">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="208"/>
+      <c r="B87" s="202"/>
+      <c r="C87" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D83" s="113" t="s">
+      <c r="D87" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="214"/>
-      <c r="B84" s="209"/>
-      <c r="C84" s="117" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="208"/>
+      <c r="B88" s="202"/>
+      <c r="C88" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D84" s="113" t="s">
+      <c r="D88" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="214"/>
-      <c r="B85" s="209"/>
-      <c r="C85" s="117" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="208"/>
+      <c r="B89" s="202"/>
+      <c r="C89" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="D85" s="113" t="s">
+      <c r="D89" s="113" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="214"/>
-      <c r="B86" s="209"/>
-      <c r="C86" s="117" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="208"/>
+      <c r="B90" s="202"/>
+      <c r="C90" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="D86" s="113" t="s">
+      <c r="D90" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="214"/>
-      <c r="B87" s="209"/>
-      <c r="C87" s="117" t="s">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="208"/>
+      <c r="B91" s="202"/>
+      <c r="C91" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D87" s="118" t="s">
+      <c r="D91" s="118" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="214"/>
-      <c r="B88" s="209"/>
-      <c r="C88" s="109" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="208"/>
+      <c r="B92" s="202"/>
+      <c r="C92" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D88" s="113" t="s">
+      <c r="D92" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="214"/>
-      <c r="B89" s="209"/>
-      <c r="C89" s="109" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="208"/>
+      <c r="B93" s="202"/>
+      <c r="C93" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="D89" s="113" t="s">
+      <c r="D93" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="214"/>
-      <c r="B90" s="209"/>
-      <c r="C90" s="131" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="208"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D94" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="214"/>
-      <c r="B91" s="209"/>
-      <c r="C91" s="131" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="208"/>
+      <c r="B95" s="202"/>
+      <c r="C95" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D95" s="58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="214"/>
-      <c r="B92" s="209"/>
-      <c r="C92" s="131" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="208"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D96" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="214"/>
-      <c r="B93" s="209"/>
-      <c r="C93" s="131" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="208"/>
+      <c r="B97" s="202"/>
+      <c r="C97" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D97" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="214"/>
-      <c r="B94" s="209"/>
-      <c r="C94" s="131" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="208"/>
+      <c r="B98" s="202"/>
+      <c r="C98" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="108" t="s">
+      <c r="D98" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="215"/>
-      <c r="B95" s="202"/>
-      <c r="C95" s="131" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="209"/>
+      <c r="B99" s="203"/>
+      <c r="C99" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D95" s="108" t="s">
+      <c r="D99" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="210" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="213" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="201" t="s">
+      <c r="B100" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C96" s="224" t="s">
+      <c r="C100" s="210" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="96" t="s">
+      <c r="D100" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="211"/>
-      <c r="B97" s="209"/>
-      <c r="C97" s="225"/>
-      <c r="D97" s="113" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="214"/>
+      <c r="B101" s="202"/>
+      <c r="C101" s="211"/>
+      <c r="D101" s="113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="211"/>
-      <c r="B98" s="209"/>
-      <c r="C98" s="226" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="214"/>
+      <c r="B102" s="202"/>
+      <c r="C102" s="212" t="s">
         <v>239</v>
       </c>
-      <c r="D98" s="106" t="s">
+      <c r="D102" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="211"/>
-      <c r="B99" s="209"/>
-      <c r="C99" s="226"/>
-      <c r="D99" s="119" t="s">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="214"/>
+      <c r="B103" s="202"/>
+      <c r="C103" s="212"/>
+      <c r="D103" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="211"/>
-      <c r="B100" s="209"/>
-      <c r="C100" s="112" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="214"/>
+      <c r="B104" s="202"/>
+      <c r="C104" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="106" t="s">
+      <c r="D104" s="106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="211"/>
-      <c r="B101" s="209"/>
-      <c r="C101" s="112">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="214"/>
+      <c r="B105" s="202"/>
+      <c r="C105" s="112">
         <v>2.1</v>
       </c>
-      <c r="D101" s="106" t="s">
+      <c r="D105" s="106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="211"/>
-      <c r="B102" s="209"/>
-      <c r="C102" s="112" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="214"/>
+      <c r="B106" s="202"/>
+      <c r="C106" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D102" s="106" t="s">
+      <c r="D106" s="106" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="211"/>
-      <c r="B103" s="209"/>
-      <c r="C103" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D103" s="118" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="211"/>
-      <c r="B104" s="209"/>
-      <c r="C104" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D104" s="113" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="211"/>
-      <c r="B105" s="209"/>
-      <c r="C105" s="120" t="s">
-        <v>372</v>
-      </c>
-      <c r="D105" s="121" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="211"/>
-      <c r="B106" s="209"/>
-      <c r="C106" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D106" s="106" t="s">
-        <v>391</v>
-      </c>
-    </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="211"/>
-      <c r="B107" s="209"/>
+      <c r="A107" s="214"/>
+      <c r="B107" s="202"/>
       <c r="C107" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D107" s="106" t="s">
-        <v>397</v>
+      <c r="D107" s="118" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="211"/>
-      <c r="B108" s="209"/>
+      <c r="A108" s="214"/>
+      <c r="B108" s="202"/>
       <c r="C108" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="106" t="s">
+      <c r="D108" s="113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="214"/>
+      <c r="B109" s="202"/>
+      <c r="C109" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="121" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="214"/>
+      <c r="B110" s="202"/>
+      <c r="C110" s="112">
+        <v>2.1</v>
+      </c>
+      <c r="D110" s="106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="214"/>
+      <c r="B111" s="202"/>
+      <c r="C111" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="214"/>
+      <c r="B112" s="202"/>
+      <c r="C112" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="211"/>
-      <c r="B109" s="209"/>
-      <c r="C109" s="112">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="214"/>
+      <c r="B113" s="202"/>
+      <c r="C113" s="112">
         <v>2.1</v>
       </c>
-      <c r="D109" s="106" t="s">
+      <c r="D113" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="213" t="s">
+    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="207" t="s">
         <v>290</v>
       </c>
-      <c r="B110" s="201" t="s">
+      <c r="B114" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C110" s="106" t="s">
+      <c r="C114" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D110" s="106" t="s">
+      <c r="D114" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="214"/>
-      <c r="B111" s="209"/>
-      <c r="C111" s="119" t="s">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="208"/>
+      <c r="B115" s="202"/>
+      <c r="C115" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D111" s="106" t="s">
+      <c r="D115" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="215"/>
-      <c r="B112" s="202"/>
-      <c r="C112" s="106" t="s">
+    <row r="116" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="209"/>
+      <c r="B116" s="203"/>
+      <c r="C116" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D112" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="218" t="s">
+    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="204" t="s">
         <v>364</v>
       </c>
-      <c r="B113" s="201" t="s">
+      <c r="B117" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C113" s="112" t="s">
+      <c r="C117" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="106"/>
-    </row>
-    <row r="114" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="219"/>
-      <c r="B114" s="209"/>
-      <c r="C114" s="112" t="s">
+      <c r="D117" s="106"/>
+    </row>
+    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="206"/>
+      <c r="B118" s="202"/>
+      <c r="C118" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="D114" s="106" t="s">
+      <c r="D118" s="106" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="219"/>
-      <c r="B115" s="209"/>
-      <c r="C115" s="112">
+    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="206"/>
+      <c r="B119" s="202"/>
+      <c r="C119" s="112">
         <v>2.1</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D119" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="219"/>
-      <c r="B116" s="209"/>
-      <c r="C116" s="112" t="s">
+    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="206"/>
+      <c r="B120" s="202"/>
+      <c r="C120" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D120" s="106" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="219"/>
-      <c r="B117" s="209"/>
-      <c r="C117" s="112" t="s">
+    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="206"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="106" t="s">
+      <c r="D121" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="103" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="103"/>
-      <c r="C118" s="103"/>
-      <c r="D118" s="104"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="109" t="s">
+      <c r="B122" s="103"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="104"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B119" s="112" t="s">
+      <c r="B123" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C119" s="112" t="s">
+      <c r="C123" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D119" s="113"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="210" t="s">
+      <c r="D123" s="113"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="213" t="s">
         <v>255</v>
       </c>
-      <c r="B120" s="201" t="s">
+      <c r="B124" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C120" s="106"/>
-      <c r="D120" s="80" t="s">
+      <c r="C124" s="106"/>
+      <c r="D124" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="211"/>
-      <c r="B121" s="209"/>
-      <c r="C121" s="106"/>
-      <c r="D121" s="106" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="214"/>
+      <c r="B125" s="202"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="211"/>
-      <c r="B122" s="209"/>
-      <c r="C122" s="106"/>
-      <c r="D122" s="113" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="214"/>
+      <c r="B126" s="202"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="113" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="211"/>
-      <c r="B123" s="209"/>
-      <c r="C123" s="106" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="214"/>
+      <c r="B127" s="202"/>
+      <c r="C127" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="D123" s="113" t="s">
+      <c r="D127" s="113" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="211"/>
-      <c r="B124" s="209"/>
-      <c r="C124" s="106" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="214"/>
+      <c r="B128" s="202"/>
+      <c r="C128" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="D124" s="113" t="s">
+      <c r="D128" s="113" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="211"/>
-      <c r="B125" s="209"/>
-      <c r="C125" s="106" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="214"/>
+      <c r="B129" s="202"/>
+      <c r="C129" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="D125" s="113" t="s">
+      <c r="D129" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="211"/>
-      <c r="B126" s="209"/>
-      <c r="C126" s="106" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="214"/>
+      <c r="B130" s="202"/>
+      <c r="C130" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="D126" s="113" t="s">
+      <c r="D130" s="113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="217" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="B127" s="205" t="s">
+      <c r="B131" s="220" t="s">
         <v>439</v>
       </c>
-      <c r="C127" s="80" t="s">
+      <c r="C131" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D127" s="113" t="s">
+      <c r="D131" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="217"/>
-      <c r="B128" s="205"/>
-      <c r="C128" s="106" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="216"/>
+      <c r="B132" s="220"/>
+      <c r="C132" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D128" s="106" t="s">
+      <c r="D132" s="106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="217"/>
-      <c r="B129" s="205"/>
-      <c r="C129" s="122" t="s">
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="216"/>
+      <c r="B133" s="220"/>
+      <c r="C133" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="D129" s="220" t="s">
+      <c r="D133" s="196" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="217"/>
-      <c r="B130" s="205"/>
-      <c r="C130" s="122" t="s">
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="216"/>
+      <c r="B134" s="220"/>
+      <c r="C134" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="221"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="217"/>
-      <c r="B131" s="205"/>
-      <c r="C131" s="122" t="s">
+      <c r="D134" s="197"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="216"/>
+      <c r="B135" s="220"/>
+      <c r="C135" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D131" s="221"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="217"/>
-      <c r="B132" s="205"/>
-      <c r="C132" s="122" t="s">
+      <c r="D135" s="197"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="216"/>
+      <c r="B136" s="220"/>
+      <c r="C136" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D132" s="221"/>
-    </row>
-    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="217"/>
-      <c r="B133" s="205"/>
-      <c r="C133" s="122" t="s">
+      <c r="D136" s="197"/>
+    </row>
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="216"/>
+      <c r="B137" s="220"/>
+      <c r="C137" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D133" s="132" t="s">
+      <c r="D137" s="131" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="109" t="s">
+    <row r="138" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B134" s="112" t="s">
+      <c r="B138" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="107" t="s">
+      <c r="C138" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="110" t="s">
+      <c r="D138" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="213" t="s">
+    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="201" t="s">
+      <c r="B139" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C135" s="106" t="s">
+      <c r="C139" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="D135" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="214"/>
-      <c r="B136" s="209"/>
-      <c r="C136" s="106" t="s">
-        <v>264</v>
-      </c>
-      <c r="D136" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="214"/>
-      <c r="B137" s="209"/>
-      <c r="C137" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="D137" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="214"/>
-      <c r="B138" s="209"/>
-      <c r="C138" s="113" t="s">
-        <v>271</v>
-      </c>
-      <c r="D138" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="214"/>
-      <c r="B139" s="209"/>
-      <c r="C139" s="106" t="s">
-        <v>276</v>
       </c>
       <c r="D139" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="214"/>
-      <c r="B140" s="209"/>
+      <c r="A140" s="208"/>
+      <c r="B140" s="202"/>
       <c r="C140" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="D140" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="208"/>
+      <c r="B141" s="202"/>
+      <c r="C141" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D141" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="208"/>
+      <c r="B142" s="202"/>
+      <c r="C142" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D142" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="208"/>
+      <c r="B143" s="202"/>
+      <c r="C143" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="208"/>
+      <c r="B144" s="202"/>
+      <c r="C144" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="D140" s="106" t="s">
+      <c r="D144" s="106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="214"/>
-      <c r="B141" s="209"/>
-      <c r="C141" s="113" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="208"/>
+      <c r="B145" s="202"/>
+      <c r="C145" s="113" t="s">
         <v>282</v>
-      </c>
-      <c r="D141" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="214"/>
-      <c r="B142" s="209"/>
-      <c r="C142" s="113" t="s">
-        <v>296</v>
-      </c>
-      <c r="D142" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="214"/>
-      <c r="B143" s="209"/>
-      <c r="C143" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="D143" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="214"/>
-      <c r="B144" s="209"/>
-      <c r="C144" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D144" s="110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="214"/>
-      <c r="B145" s="209"/>
-      <c r="C145" s="117" t="s">
-        <v>305</v>
       </c>
       <c r="D145" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="214"/>
-      <c r="B146" s="209"/>
-      <c r="C146" s="106" t="s">
+      <c r="A146" s="208"/>
+      <c r="B146" s="202"/>
+      <c r="C146" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D146" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="208"/>
+      <c r="B147" s="202"/>
+      <c r="C147" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="208"/>
+      <c r="B148" s="202"/>
+      <c r="C148" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D148" s="110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="208"/>
+      <c r="B149" s="202"/>
+      <c r="C149" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="208"/>
+      <c r="B150" s="202"/>
+      <c r="C150" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="D146" s="106" t="s">
+      <c r="D150" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="214"/>
-      <c r="B147" s="209"/>
-      <c r="C147" s="113" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="208"/>
+      <c r="B151" s="202"/>
+      <c r="C151" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="D147" s="113" t="s">
+      <c r="D151" s="113" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="214"/>
-      <c r="B148" s="209"/>
-      <c r="C148" s="113" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="208"/>
+      <c r="B152" s="202"/>
+      <c r="C152" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="D148" s="113" t="s">
+      <c r="D152" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="214"/>
-      <c r="B149" s="209"/>
-      <c r="C149" s="113" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="208"/>
+      <c r="B153" s="202"/>
+      <c r="C153" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="D149" s="113" t="s">
+      <c r="D153" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="214"/>
-      <c r="B150" s="209"/>
-      <c r="C150" s="106" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="208"/>
+      <c r="B154" s="202"/>
+      <c r="C154" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="D150" s="106" t="s">
+      <c r="D154" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="214"/>
-      <c r="B151" s="209"/>
-      <c r="C151" s="113" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="208"/>
+      <c r="B155" s="202"/>
+      <c r="C155" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D151" s="113" t="s">
+      <c r="D155" s="113" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="214"/>
-      <c r="B152" s="209"/>
-      <c r="C152" s="113" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="208"/>
+      <c r="B156" s="202"/>
+      <c r="C156" s="113" t="s">
         <v>313</v>
-      </c>
-      <c r="D152" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="214"/>
-      <c r="B153" s="209"/>
-      <c r="C153" s="106"/>
-      <c r="D153" s="97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="214"/>
-      <c r="B154" s="209"/>
-      <c r="C154" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D154" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="214"/>
-      <c r="B155" s="209"/>
-      <c r="C155" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D155" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="214"/>
-      <c r="B156" s="209"/>
-      <c r="C156" s="113" t="s">
-        <v>333</v>
       </c>
       <c r="D156" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="214"/>
-      <c r="B157" s="209"/>
-      <c r="C157" s="113" t="s">
-        <v>334</v>
-      </c>
-      <c r="D157" s="113" t="s">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="208"/>
+      <c r="B157" s="202"/>
+      <c r="C157" s="106"/>
+      <c r="D157" s="97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="208"/>
+      <c r="B158" s="202"/>
+      <c r="C158" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="214"/>
-      <c r="B158" s="209"/>
-      <c r="C158" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="D158" s="113" t="s">
-        <v>317</v>
-      </c>
-    </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="214"/>
-      <c r="B159" s="209"/>
+      <c r="A159" s="208"/>
+      <c r="B159" s="202"/>
       <c r="C159" s="113" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="D159" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="214"/>
-      <c r="B160" s="209"/>
+      <c r="A160" s="208"/>
+      <c r="B160" s="202"/>
       <c r="C160" s="113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D160" s="113" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="214"/>
-      <c r="B161" s="209"/>
+      <c r="A161" s="208"/>
+      <c r="B161" s="202"/>
       <c r="C161" s="113" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D161" s="113" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="214"/>
-      <c r="B162" s="209"/>
-      <c r="C162" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D162" s="124" t="s">
-        <v>349</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="208"/>
+      <c r="B162" s="202"/>
+      <c r="C162" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D162" s="113" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="214"/>
-      <c r="B163" s="209"/>
+      <c r="A163" s="208"/>
+      <c r="B163" s="202"/>
       <c r="C163" s="113" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D163" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="214"/>
-      <c r="B164" s="209"/>
+      <c r="A164" s="208"/>
+      <c r="B164" s="202"/>
       <c r="C164" s="113" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D164" s="113" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="214"/>
-      <c r="B165" s="209"/>
+      <c r="A165" s="208"/>
+      <c r="B165" s="202"/>
       <c r="C165" s="113" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D165" s="113" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="214"/>
-      <c r="B166" s="209"/>
-      <c r="C166" s="113" t="s">
-        <v>360</v>
-      </c>
-      <c r="D166" s="113" t="s">
-        <v>249</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="208"/>
+      <c r="B166" s="202"/>
+      <c r="C166" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" s="124" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="214"/>
-      <c r="B167" s="209"/>
+      <c r="A167" s="208"/>
+      <c r="B167" s="202"/>
       <c r="C167" s="113" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D167" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="214"/>
-      <c r="B168" s="209"/>
+      <c r="A168" s="208"/>
+      <c r="B168" s="202"/>
       <c r="C168" s="113" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="208"/>
+      <c r="B169" s="202"/>
+      <c r="C169" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="D168" s="113" t="s">
+      <c r="D169" s="113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="208"/>
+      <c r="B170" s="202"/>
+      <c r="C170" s="113" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="214"/>
-      <c r="B169" s="209"/>
-      <c r="C169" s="118" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="208"/>
+      <c r="B171" s="202"/>
+      <c r="C171" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="208"/>
+      <c r="B172" s="202"/>
+      <c r="C172" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="208"/>
+      <c r="B173" s="202"/>
+      <c r="C173" s="118" t="s">
         <v>379</v>
       </c>
-      <c r="D169" s="118" t="s">
+      <c r="D173" s="118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="214"/>
-      <c r="B170" s="209"/>
-      <c r="C170" s="106" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="208"/>
+      <c r="B174" s="202"/>
+      <c r="C174" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D170" s="106" t="s">
+      <c r="D174" s="106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="214"/>
-      <c r="B171" s="209"/>
-      <c r="C171" s="106" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="208"/>
+      <c r="B175" s="202"/>
+      <c r="C175" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="D171" s="106" t="s">
+      <c r="D175" s="106" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="214"/>
-      <c r="B172" s="209"/>
-      <c r="C172" s="106" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="208"/>
+      <c r="B176" s="202"/>
+      <c r="C176" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="D172" s="106" t="s">
+      <c r="D176" s="106" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="214"/>
-      <c r="B173" s="209"/>
-      <c r="C173" s="106" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="208"/>
+      <c r="B177" s="202"/>
+      <c r="C177" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="D173" s="106" t="s">
+      <c r="D177" s="106" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="214"/>
-      <c r="B174" s="209"/>
-      <c r="C174" s="106" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="208"/>
+      <c r="B178" s="202"/>
+      <c r="C178" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="D174" s="106" t="s">
+      <c r="D178" s="106" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="214"/>
-      <c r="B175" s="209"/>
-      <c r="C175" s="106" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="208"/>
+      <c r="B179" s="202"/>
+      <c r="C179" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="D175" s="106" t="s">
+      <c r="D179" s="106" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="214"/>
-      <c r="B176" s="209"/>
-      <c r="C176" s="106" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="208"/>
+      <c r="B180" s="202"/>
+      <c r="C180" s="106" t="s">
         <v>393</v>
-      </c>
-      <c r="D176" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="214"/>
-      <c r="B177" s="209"/>
-      <c r="C177" s="106" t="s">
-        <v>403</v>
-      </c>
-      <c r="D177" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="214"/>
-      <c r="B178" s="209"/>
-      <c r="C178" s="106" t="s">
-        <v>404</v>
-      </c>
-      <c r="D178" s="106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="214"/>
-      <c r="B179" s="209"/>
-      <c r="C179" s="106" t="s">
-        <v>421</v>
-      </c>
-      <c r="D179" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="214"/>
-      <c r="B180" s="209"/>
-      <c r="C180" s="106" t="s">
-        <v>422</v>
       </c>
       <c r="D180" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="214"/>
-      <c r="B181" s="209"/>
+      <c r="A181" s="208"/>
+      <c r="B181" s="202"/>
       <c r="C181" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D181" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="208"/>
+      <c r="B182" s="202"/>
+      <c r="C182" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D182" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="208"/>
+      <c r="B183" s="202"/>
+      <c r="C183" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D183" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="208"/>
+      <c r="B184" s="202"/>
+      <c r="C184" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D184" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="208"/>
+      <c r="B185" s="202"/>
+      <c r="C185" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D181" s="106" t="s">
+      <c r="D185" s="106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="214"/>
-      <c r="B182" s="209"/>
-      <c r="C182" s="58" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="208"/>
+      <c r="B186" s="202"/>
+      <c r="C186" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D182" s="58" t="s">
+      <c r="D186" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="214"/>
-      <c r="B183" s="209"/>
-      <c r="C183" s="58" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="208"/>
+      <c r="B187" s="202"/>
+      <c r="C187" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="D183" s="58" t="s">
+      <c r="D187" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="214"/>
-      <c r="B184" s="209"/>
-      <c r="C184" s="58" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="208"/>
+      <c r="B188" s="202"/>
+      <c r="C188" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="D184" s="58" t="s">
+      <c r="D188" s="58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="213" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="207" t="s">
         <v>415</v>
       </c>
-      <c r="B185" s="201" t="s">
+      <c r="B189" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C185" s="106" t="s">
+      <c r="C189" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D185" s="113" t="s">
+      <c r="D189" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="215"/>
-      <c r="B186" s="202"/>
-      <c r="C186" s="118" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="209"/>
+      <c r="B190" s="203"/>
+      <c r="C190" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D186" s="118" t="s">
+      <c r="D190" s="118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="109" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="B187" s="107" t="s">
+      <c r="B191" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C187" s="106" t="s">
+      <c r="C191" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D187" s="113" t="s">
+      <c r="D191" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="109" t="s">
+    <row r="192" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="B188" s="107" t="s">
+      <c r="B192" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C188" s="106" t="s">
+      <c r="C192" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="113" t="s">
+      <c r="D192" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="103" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B189" s="103"/>
-      <c r="C189" s="103"/>
-      <c r="D189" s="104"/>
-    </row>
-    <row r="190" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="210" t="s">
+      <c r="B193" s="103"/>
+      <c r="C193" s="103"/>
+      <c r="D193" s="104"/>
+    </row>
+    <row r="194" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="B190" s="201" t="s">
+      <c r="B194" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C190" s="106"/>
-      <c r="D190" s="80" t="s">
+      <c r="C194" s="106"/>
+      <c r="D194" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="211"/>
-      <c r="B191" s="209"/>
-      <c r="C191" s="107" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="214"/>
+      <c r="B195" s="202"/>
+      <c r="C195" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D191" s="106" t="s">
+      <c r="D195" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="211"/>
-      <c r="B192" s="209"/>
-      <c r="C192" s="107">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="214"/>
+      <c r="B196" s="202"/>
+      <c r="C196" s="107">
         <v>10.1</v>
       </c>
-      <c r="D192" s="106" t="s">
+      <c r="D196" s="106" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="211"/>
-      <c r="B193" s="209"/>
-      <c r="C193" s="107">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="214"/>
+      <c r="B197" s="202"/>
+      <c r="C197" s="107">
         <v>10.199999999999999</v>
       </c>
-      <c r="D193" s="106" t="s">
+      <c r="D197" s="106" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="211"/>
-      <c r="B194" s="209"/>
-      <c r="C194" s="98" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="214"/>
+      <c r="B198" s="202"/>
+      <c r="C198" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D194" s="95" t="s">
+      <c r="D198" s="95" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="211"/>
-      <c r="B195" s="209"/>
-      <c r="C195" s="98" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="214"/>
+      <c r="B199" s="202"/>
+      <c r="C199" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="D195" s="95" t="s">
+      <c r="D199" s="95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="211"/>
-      <c r="B196" s="209"/>
-      <c r="C196" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D196" s="95" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="211"/>
-      <c r="B197" s="209"/>
-      <c r="C197" s="98" t="s">
-        <v>416</v>
-      </c>
-      <c r="D197" s="95" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="211"/>
-      <c r="B198" s="209"/>
-      <c r="C198" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="95" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="211"/>
-      <c r="B199" s="209"/>
-      <c r="C199" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="D199" s="133" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="212"/>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="214"/>
       <c r="B200" s="202"/>
       <c r="C200" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D200" s="95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="214"/>
+      <c r="B201" s="202"/>
+      <c r="C201" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="D201" s="95" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="214"/>
+      <c r="B202" s="202"/>
+      <c r="C202" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="95" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="214"/>
+      <c r="B203" s="202"/>
+      <c r="C203" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D200" s="144" t="s">
+      <c r="D203" s="132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="215"/>
+      <c r="B204" s="203"/>
+      <c r="C204" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D204" s="143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="210" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="213" t="s">
         <v>246</v>
       </c>
-      <c r="B201" s="201" t="s">
+      <c r="B205" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C201" s="98"/>
-      <c r="D201" s="125" t="s">
+      <c r="C205" s="98"/>
+      <c r="D205" s="125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="211"/>
-      <c r="B202" s="209"/>
-      <c r="C202" s="126" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="214"/>
+      <c r="B206" s="202"/>
+      <c r="C206" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D202" s="102" t="s">
+      <c r="D206" s="102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="110" t="s">
+    <row r="207" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="107" t="s">
+      <c r="B207" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C203" s="107" t="s">
+      <c r="C207" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D203" s="113" t="s">
+      <c r="D207" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="127" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="127"/>
-      <c r="C204" s="127"/>
-      <c r="D204" s="127"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="210" t="s">
+      <c r="B208" s="127"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="127"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="B205" s="201" t="s">
+      <c r="B209" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C205" s="128" t="s">
+      <c r="C209" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D205" s="106" t="s">
+      <c r="D209" s="106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="211"/>
-      <c r="B206" s="209"/>
-      <c r="C206" s="128" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="214"/>
+      <c r="B210" s="202"/>
+      <c r="C210" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D206" s="106" t="s">
+      <c r="D210" s="106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="212"/>
-      <c r="B207" s="202"/>
-      <c r="C207" s="106"/>
-      <c r="D207" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="199" t="s">
-        <v>59</v>
-      </c>
-      <c r="B208" s="201" t="s">
-        <v>265</v>
-      </c>
-      <c r="C208" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="D208" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="200"/>
-      <c r="B209" s="202"/>
-      <c r="C209" s="119"/>
-      <c r="D209" s="106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="199" t="s">
-        <v>285</v>
-      </c>
-      <c r="B210" s="201" t="s">
-        <v>265</v>
-      </c>
-      <c r="C210" s="119"/>
-      <c r="D210" s="119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="200"/>
-      <c r="B211" s="202"/>
+    <row r="211" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="215"/>
+      <c r="B211" s="203"/>
       <c r="C211" s="106"/>
       <c r="D211" s="106" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="199" t="s">
-        <v>60</v>
+      <c r="A212" s="221" t="s">
+        <v>59</v>
       </c>
       <c r="B212" s="201" t="s">
         <v>265</v>
@@ -34017,124 +34037,166 @@
         <v>258</v>
       </c>
       <c r="D212" s="106" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="200"/>
-      <c r="B213" s="202"/>
-      <c r="C213" s="106"/>
+      <c r="A213" s="222"/>
+      <c r="B213" s="203"/>
+      <c r="C213" s="119"/>
       <c r="D213" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="127" t="s">
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="221" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C214" s="119"/>
+      <c r="D214" s="119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="222"/>
+      <c r="B215" s="203"/>
+      <c r="C215" s="106"/>
+      <c r="D215" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="221" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C216" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216" s="106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="222"/>
+      <c r="B217" s="203"/>
+      <c r="C217" s="106"/>
+      <c r="D217" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="B214" s="127"/>
-      <c r="C214" s="127"/>
-      <c r="D214" s="127"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="106"/>
-      <c r="B215" s="107" t="s">
+      <c r="B218" s="127"/>
+      <c r="C218" s="127"/>
+      <c r="D218" s="127"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="106"/>
+      <c r="B219" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C215" s="106" t="s">
+      <c r="C219" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="113" t="s">
+      <c r="D219" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="127" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="B216" s="127"/>
-      <c r="C216" s="127"/>
-      <c r="D216" s="127"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="106"/>
-      <c r="B217" s="107" t="s">
+      <c r="B220" s="127"/>
+      <c r="C220" s="127"/>
+      <c r="D220" s="127"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="106"/>
+      <c r="B221" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C217" s="106" t="s">
+      <c r="C221" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D217" s="113" t="s">
+      <c r="D221" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="106"/>
-      <c r="B218" s="107"/>
-      <c r="C218" s="106" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="106"/>
+      <c r="B222" s="107"/>
+      <c r="C222" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="D218" s="113" t="s">
+      <c r="D222" s="113" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A68:A80"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A65"/>
+    <mergeCell ref="B53:B65"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A139:A188"/>
+    <mergeCell ref="B139:B188"/>
+    <mergeCell ref="A100:A113"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="A194:A204"/>
+    <mergeCell ref="B194:B204"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B100:B113"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A135:A184"/>
-    <mergeCell ref="B135:B184"/>
-    <mergeCell ref="A96:A109"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="A190:A200"/>
-    <mergeCell ref="B190:B200"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="B49:B61"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="B72:B84"/>
+    <mergeCell ref="A85:A99"/>
+    <mergeCell ref="B85:B99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A131:A137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C1B24-F77F-4B7A-B292-85B0091E5ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08015D-38CF-41EA-AB8E-137DEEB6B6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$35</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="508">
   <si>
     <t>Document</t>
   </si>
@@ -3395,6 +3395,12 @@
   </si>
   <si>
     <t>Added section on TWSS</t>
+  </si>
+  <si>
+    <t>Updated description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 1 &amp; Tier 2 MWWS </t>
   </si>
 </sst>
 </file>
@@ -4612,6 +4618,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4620,9 +4629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -31822,10 +31828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31862,7 +31868,7 @@
       <c r="A3" s="198" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31874,7 +31880,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="200"/>
-      <c r="B4" s="219"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31883,7 +31889,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="198" t="s">
         <v>438</v>
       </c>
       <c r="B5" s="201" t="s">
@@ -31895,7 +31901,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="218"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="202"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
@@ -31903,7 +31909,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="218"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="202"/>
       <c r="C7" s="100"/>
       <c r="D7" s="140" t="s">
@@ -31911,7 +31917,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="202"/>
       <c r="C8" s="100"/>
       <c r="D8" s="140" t="s">
@@ -31919,7 +31925,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="203"/>
       <c r="C9" s="100" t="s">
         <v>498</v>
@@ -31987,7 +31993,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="218" t="s">
         <v>279</v>
       </c>
       <c r="B15" s="201" t="s">
@@ -32001,7 +32007,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="218"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="202"/>
       <c r="C16" s="106" t="s">
         <v>299</v>
@@ -32011,7 +32017,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="202"/>
       <c r="C17" s="128" t="s">
         <v>280</v>
@@ -32021,7 +32027,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="218"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="202"/>
       <c r="C18" s="128" t="s">
         <v>21</v>
@@ -32031,7 +32037,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
+      <c r="A19" s="219"/>
       <c r="B19" s="202"/>
       <c r="C19" s="100" t="s">
         <v>434</v>
@@ -32041,7 +32047,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
+      <c r="A20" s="219"/>
       <c r="B20" s="202"/>
       <c r="C20" s="100" t="s">
         <v>444</v>
@@ -32051,7 +32057,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="202"/>
       <c r="C21" s="100" t="s">
         <v>446</v>
@@ -32061,7 +32067,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
+      <c r="A22" s="219"/>
       <c r="B22" s="202"/>
       <c r="C22" s="100" t="s">
         <v>434</v>
@@ -32071,7 +32077,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="219"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="203"/>
       <c r="C23" s="142" t="s">
         <v>453</v>
@@ -32146,11 +32152,11 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="198" t="s">
         <v>501</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="201" t="s">
         <v>439</v>
       </c>
       <c r="C30" s="100"/>
@@ -32158,171 +32164,167 @@
         <v>503</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="144" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="200"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="100" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B32" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="67" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="103" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="223" t="s">
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="223" t="s">
         <v>336</v>
       </c>
-      <c r="B33" s="224" t="s">
+      <c r="B34" s="224" t="s">
         <v>439</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C34" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D33" s="99" t="s">
+      <c r="D34" s="99" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="223"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="100" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" s="106" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="223"/>
       <c r="B35" s="224"/>
       <c r="C35" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="223"/>
+      <c r="B36" s="224"/>
+      <c r="C36" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D36" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="103" t="s">
+    <row r="37" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="216" t="s">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="220" t="s">
+      <c r="B38" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106" t="s">
+      <c r="C38" s="106"/>
+      <c r="D38" s="106" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="216"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="108" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="216"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="139" t="s">
-        <v>484</v>
+      <c r="B39" s="217"/>
+      <c r="C39" s="136" t="s">
+        <v>234</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>480</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="216"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="141" t="s">
+      <c r="B40" s="217"/>
+      <c r="C40" s="139" t="s">
         <v>484</v>
       </c>
       <c r="D40" s="108" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="216"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="141" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="216"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="139" t="s">
+    <row r="42" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="216"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D42" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="213" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="201" t="s">
+      <c r="B43" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C43" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D43" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="214"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="136" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="214"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="D43" s="135" t="s">
+      <c r="D44" s="135" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="215"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="137" t="s">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="215"/>
+      <c r="B45" s="203"/>
+      <c r="C45" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D45" s="110" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="B46" s="107" t="s">
         <v>439</v>
@@ -32336,245 +32338,247 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B47" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C47" s="107"/>
+      <c r="C47" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="D47" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="107"/>
+      <c r="D48" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="216" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="216" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="220" t="s">
+      <c r="B49" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="80" t="s">
+      <c r="C49" s="106"/>
+      <c r="D49" s="80" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="216"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="216"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="111" t="s">
-        <v>319</v>
-      </c>
+      <c r="B50" s="217"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="106" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="216"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="112" t="s">
+      <c r="B51" s="217"/>
+      <c r="C51" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="106" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="216"/>
+      <c r="B52" s="217"/>
+      <c r="C52" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D52" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B53" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="112" t="s">
+      <c r="C53" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="106"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="225" t="s">
+      <c r="D53" s="106"/>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="201" t="s">
+      <c r="B54" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="114" t="s">
+      <c r="C54" s="106"/>
+      <c r="D54" s="114" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="226"/>
-      <c r="B54" s="202"/>
-      <c r="C54" s="112" t="s">
-        <v>355</v>
-      </c>
-      <c r="D54" s="106" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="226"/>
       <c r="B55" s="202"/>
       <c r="C55" s="112" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D55" s="106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="226"/>
       <c r="B56" s="202"/>
-      <c r="C56" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>359</v>
+      <c r="C56" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" s="106" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="226"/>
       <c r="B57" s="202"/>
-      <c r="C57" s="112" t="s">
-        <v>353</v>
+      <c r="C57" s="115" t="s">
+        <v>361</v>
       </c>
       <c r="D57" s="113" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="226"/>
       <c r="B58" s="202"/>
       <c r="C58" s="112" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D58" s="113" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="226"/>
       <c r="B59" s="202"/>
       <c r="C59" s="112" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D59" s="113" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="226"/>
       <c r="B60" s="202"/>
       <c r="C60" s="112" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="D60" s="113" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="226"/>
       <c r="B61" s="202"/>
-      <c r="C61" s="133" t="s">
-        <v>466</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>467</v>
+      <c r="C61" s="112" t="s">
+        <v>464</v>
+      </c>
+      <c r="D61" s="113" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="226"/>
       <c r="B62" s="202"/>
       <c r="C62" s="133" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="226"/>
       <c r="B63" s="202"/>
-      <c r="C63" s="138" t="s">
-        <v>466</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>483</v>
+      <c r="C63" s="133" t="s">
+        <v>353</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="226"/>
       <c r="B64" s="202"/>
-      <c r="C64" s="112" t="s">
+      <c r="C64" s="138" t="s">
+        <v>466</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="226"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D64" s="108" t="s">
+      <c r="D65" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="227"/>
-      <c r="B65" s="203"/>
-      <c r="C65" s="112" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="227"/>
+      <c r="B66" s="203"/>
+      <c r="C66" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D65" s="108" t="s">
+      <c r="D66" s="108" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="B66" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C66" s="107" t="s">
-        <v>460</v>
-      </c>
-      <c r="D66" s="110" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="116" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="B67" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C67" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="D67" s="113" t="s">
-        <v>327</v>
+      <c r="C67" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="D67" s="110" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="116" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B68" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C68" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="113"/>
+        <v>326</v>
+      </c>
+      <c r="D68" s="113" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="204" t="s">
-        <v>363</v>
-      </c>
-      <c r="B69" s="201" t="s">
+      <c r="A69" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C69" s="112" t="s">
@@ -32583,41 +32587,45 @@
       <c r="D69" s="113"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="205"/>
-      <c r="B70" s="203"/>
+      <c r="A70" s="204" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="201" t="s">
+        <v>439</v>
+      </c>
       <c r="C70" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="113"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="205"/>
+      <c r="B71" s="203"/>
+      <c r="C71" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D70" s="113" t="s">
+      <c r="D71" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="103" t="s">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="204" t="s">
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="204" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="201" t="s">
+      <c r="B73" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="206"/>
-      <c r="B73" s="202"/>
       <c r="C73" s="106"/>
       <c r="D73" s="106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -32625,329 +32633,327 @@
       <c r="B74" s="202"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106" t="s">
-        <v>251</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="206"/>
       <c r="B75" s="202"/>
-      <c r="C75" s="106" t="s">
-        <v>294</v>
-      </c>
+      <c r="C75" s="106"/>
       <c r="D75" s="106" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="206"/>
       <c r="B76" s="202"/>
       <c r="C76" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="D76" s="113" t="s">
-        <v>321</v>
+        <v>294</v>
+      </c>
+      <c r="D76" s="106" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="206"/>
       <c r="B77" s="202"/>
       <c r="C77" s="106" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="D77" s="113" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="206"/>
       <c r="B78" s="202"/>
-      <c r="C78" s="119" t="s">
-        <v>468</v>
+      <c r="C78" s="106" t="s">
+        <v>367</v>
       </c>
       <c r="D78" s="113" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="206"/>
       <c r="B79" s="202"/>
-      <c r="C79" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>469</v>
+      <c r="C79" s="119" t="s">
+        <v>468</v>
+      </c>
+      <c r="D79" s="113" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="206"/>
       <c r="B80" s="202"/>
-      <c r="C80" s="130" t="s">
-        <v>353</v>
+      <c r="C80" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="D80" s="58" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="206"/>
       <c r="B81" s="202"/>
       <c r="C81" s="130" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="206"/>
       <c r="B82" s="202"/>
       <c r="C82" s="130" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="D82" s="58" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="206"/>
       <c r="B83" s="202"/>
       <c r="C83" s="130" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="206"/>
+      <c r="B84" s="202"/>
+      <c r="C84" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D83" s="108" t="s">
+      <c r="D84" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="205"/>
-      <c r="B84" s="203"/>
-      <c r="C84" s="130" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="205"/>
+      <c r="B85" s="203"/>
+      <c r="C85" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D84" s="108" t="s">
+      <c r="D85" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="207" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="201" t="s">
+      <c r="B86" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C85" s="106" t="s">
+      <c r="C86" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D85" s="113" t="s">
+      <c r="D86" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="208"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="208"/>
       <c r="B87" s="202"/>
-      <c r="C87" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" s="113" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="106"/>
+      <c r="D87" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="208"/>
       <c r="B88" s="202"/>
       <c r="C88" s="117" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="D88" s="113" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="208"/>
       <c r="B89" s="202"/>
       <c r="C89" s="117" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="208"/>
       <c r="B90" s="202"/>
       <c r="C90" s="117" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="208"/>
       <c r="B91" s="202"/>
       <c r="C91" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="D91" s="118" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D91" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="208"/>
       <c r="B92" s="202"/>
-      <c r="C92" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="D92" s="113" t="s">
-        <v>399</v>
+      <c r="C92" s="117" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="118" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="208"/>
       <c r="B93" s="202"/>
       <c r="C93" s="109" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="D93" s="113" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="208"/>
       <c r="B94" s="202"/>
-      <c r="C94" s="130" t="s">
-        <v>466</v>
-      </c>
-      <c r="D94" s="58" t="s">
-        <v>467</v>
+      <c r="C94" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D94" s="113" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="208"/>
       <c r="B95" s="202"/>
       <c r="C95" s="130" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="208"/>
       <c r="B96" s="202"/>
       <c r="C96" s="130" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="208"/>
       <c r="B97" s="202"/>
       <c r="C97" s="130" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="208"/>
       <c r="B98" s="202"/>
       <c r="C98" s="130" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="208"/>
+      <c r="B99" s="202"/>
+      <c r="C99" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D98" s="108" t="s">
+      <c r="D99" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="209"/>
-      <c r="B99" s="203"/>
-      <c r="C99" s="130" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="209"/>
+      <c r="B100" s="203"/>
+      <c r="C100" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D99" s="108" t="s">
+      <c r="D100" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="213" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="213" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="201" t="s">
+      <c r="B101" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C100" s="210" t="s">
+      <c r="C101" s="210" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="96" t="s">
+      <c r="D101" s="96" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="214"/>
-      <c r="B101" s="202"/>
-      <c r="C101" s="211"/>
-      <c r="D101" s="113" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="214"/>
       <c r="B102" s="202"/>
-      <c r="C102" s="212" t="s">
-        <v>239</v>
-      </c>
-      <c r="D102" s="106" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C102" s="211"/>
+      <c r="D102" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="214"/>
       <c r="B103" s="202"/>
-      <c r="C103" s="212"/>
-      <c r="D103" s="119" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="212" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="214"/>
       <c r="B104" s="202"/>
-      <c r="C104" s="112" t="s">
-        <v>301</v>
-      </c>
-      <c r="D104" s="106" t="s">
-        <v>302</v>
+      <c r="C104" s="212"/>
+      <c r="D104" s="119" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="214"/>
       <c r="B105" s="202"/>
-      <c r="C105" s="112">
-        <v>2.1</v>
+      <c r="C105" s="112" t="s">
+        <v>301</v>
       </c>
       <c r="D105" s="106" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="214"/>
       <c r="B106" s="202"/>
-      <c r="C106" s="112" t="s">
-        <v>238</v>
+      <c r="C106" s="112">
+        <v>2.1</v>
       </c>
       <c r="D106" s="106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -32956,8 +32962,8 @@
       <c r="C107" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D107" s="118" t="s">
-        <v>340</v>
+      <c r="D107" s="106" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -32966,38 +32972,38 @@
       <c r="C108" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="113" t="s">
-        <v>346</v>
+      <c r="D108" s="118" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="214"/>
       <c r="B109" s="202"/>
-      <c r="C109" s="120" t="s">
-        <v>372</v>
-      </c>
-      <c r="D109" s="121" t="s">
-        <v>373</v>
+      <c r="C109" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" s="113" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="214"/>
       <c r="B110" s="202"/>
-      <c r="C110" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="D110" s="106" t="s">
-        <v>391</v>
+      <c r="C110" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" s="121" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="214"/>
       <c r="B111" s="202"/>
-      <c r="C111" s="112" t="s">
-        <v>238</v>
+      <c r="C111" s="112">
+        <v>2.1</v>
       </c>
       <c r="D111" s="106" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -33007,294 +33013,294 @@
         <v>238</v>
       </c>
       <c r="D112" s="106" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="214"/>
       <c r="B113" s="202"/>
-      <c r="C113" s="112">
+      <c r="C113" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" s="106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="214"/>
+      <c r="B114" s="202"/>
+      <c r="C114" s="112">
         <v>2.1</v>
       </c>
-      <c r="D113" s="106" t="s">
+      <c r="D114" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="207" t="s">
+    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="207" t="s">
         <v>290</v>
       </c>
-      <c r="B114" s="201" t="s">
+      <c r="B115" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C114" s="106" t="s">
+      <c r="C115" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D114" s="106" t="s">
+      <c r="D115" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="208"/>
-      <c r="B115" s="202"/>
-      <c r="C115" s="119" t="s">
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="208"/>
+      <c r="B116" s="202"/>
+      <c r="C116" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="209"/>
-      <c r="B116" s="203"/>
-      <c r="C116" s="106" t="s">
+    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="209"/>
+      <c r="B117" s="203"/>
+      <c r="C117" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="204" t="s">
+    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="204" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="201" t="s">
+      <c r="B118" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C117" s="112" t="s">
+      <c r="C118" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="106"/>
-    </row>
-    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="206"/>
-      <c r="B118" s="202"/>
-      <c r="C118" s="112" t="s">
-        <v>372</v>
-      </c>
-      <c r="D118" s="106" t="s">
-        <v>373</v>
-      </c>
+      <c r="D118" s="106"/>
     </row>
     <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="206"/>
       <c r="B119" s="202"/>
-      <c r="C119" s="112">
-        <v>2.1</v>
+      <c r="C119" s="112" t="s">
+        <v>372</v>
       </c>
       <c r="D119" s="106" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="206"/>
       <c r="B120" s="202"/>
-      <c r="C120" s="112" t="s">
-        <v>239</v>
+      <c r="C120" s="112">
+        <v>2.1</v>
       </c>
       <c r="D120" s="106" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="206"/>
       <c r="B121" s="202"/>
       <c r="C121" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="206"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D121" s="106" t="s">
+      <c r="D122" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="103" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="103"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="104"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="109" t="s">
+      <c r="B123" s="103"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="104"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="112" t="s">
+      <c r="B124" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C123" s="112" t="s">
+      <c r="C124" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D123" s="113"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="213" t="s">
+      <c r="D124" s="113"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="213" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="201" t="s">
+      <c r="B125" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C124" s="106"/>
-      <c r="D124" s="80" t="s">
+      <c r="C125" s="106"/>
+      <c r="D125" s="80" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="214"/>
-      <c r="B125" s="202"/>
-      <c r="C125" s="106"/>
-      <c r="D125" s="106" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="214"/>
       <c r="B126" s="202"/>
       <c r="C126" s="106"/>
-      <c r="D126" s="113" t="s">
-        <v>381</v>
+      <c r="D126" s="106" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="214"/>
       <c r="B127" s="202"/>
-      <c r="C127" s="106" t="s">
-        <v>418</v>
-      </c>
+      <c r="C127" s="106"/>
       <c r="D127" s="113" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="214"/>
       <c r="B128" s="202"/>
       <c r="C128" s="106" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D128" s="113" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="214"/>
       <c r="B129" s="202"/>
       <c r="C129" s="106" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="D129" s="113" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="214"/>
       <c r="B130" s="202"/>
       <c r="C130" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="214"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="D130" s="113" t="s">
+      <c r="D131" s="113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="216" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="B131" s="220" t="s">
+      <c r="B132" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="C131" s="80" t="s">
+      <c r="C132" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="113" t="s">
+      <c r="D132" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="216"/>
-      <c r="B132" s="220"/>
-      <c r="C132" s="106" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="216"/>
+      <c r="B133" s="217"/>
+      <c r="C133" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D132" s="106" t="s">
+      <c r="D133" s="106" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="216"/>
-      <c r="B133" s="220"/>
-      <c r="C133" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="D133" s="196" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="216"/>
-      <c r="B134" s="220"/>
+      <c r="B134" s="217"/>
       <c r="C134" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="D134" s="196" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="216"/>
+      <c r="B135" s="217"/>
+      <c r="C135" s="122" t="s">
         <v>409</v>
-      </c>
-      <c r="D134" s="197"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="216"/>
-      <c r="B135" s="220"/>
-      <c r="C135" s="122" t="s">
-        <v>410</v>
       </c>
       <c r="D135" s="197"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="216"/>
-      <c r="B136" s="220"/>
+      <c r="B136" s="217"/>
       <c r="C136" s="122" t="s">
+        <v>410</v>
+      </c>
+      <c r="D136" s="197"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="216"/>
+      <c r="B137" s="217"/>
+      <c r="C137" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D136" s="197"/>
-    </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="216"/>
-      <c r="B137" s="220"/>
-      <c r="C137" s="122" t="s">
+      <c r="D137" s="197"/>
+    </row>
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="216"/>
+      <c r="B138" s="217"/>
+      <c r="C138" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D137" s="131" t="s">
+      <c r="D138" s="131" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="109" t="s">
+    <row r="139" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="112" t="s">
+      <c r="B139" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C138" s="107" t="s">
+      <c r="C139" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="110" t="s">
+      <c r="D139" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="207" t="s">
+    <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="201" t="s">
+      <c r="B140" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C139" s="106" t="s">
+      <c r="C140" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="D139" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="208"/>
-      <c r="B140" s="202"/>
-      <c r="C140" s="106" t="s">
-        <v>264</v>
       </c>
       <c r="D140" s="106" t="s">
         <v>249</v>
@@ -33304,7 +33310,7 @@
       <c r="A141" s="208"/>
       <c r="B141" s="202"/>
       <c r="C141" s="106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D141" s="106" t="s">
         <v>249</v>
@@ -33313,48 +33319,48 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="208"/>
       <c r="B142" s="202"/>
-      <c r="C142" s="113" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" s="113" t="s">
-        <v>102</v>
+      <c r="C142" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D142" s="106" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="208"/>
       <c r="B143" s="202"/>
-      <c r="C143" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="D143" s="106" t="s">
-        <v>249</v>
+      <c r="C143" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="208"/>
       <c r="B144" s="202"/>
       <c r="C144" s="106" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D144" s="106" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="208"/>
       <c r="B145" s="202"/>
-      <c r="C145" s="113" t="s">
-        <v>282</v>
-      </c>
-      <c r="D145" s="113" t="s">
-        <v>249</v>
+      <c r="C145" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" s="106" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="208"/>
       <c r="B146" s="202"/>
       <c r="C146" s="113" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D146" s="113" t="s">
         <v>249</v>
@@ -33364,67 +33370,67 @@
       <c r="A147" s="208"/>
       <c r="B147" s="202"/>
       <c r="C147" s="113" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="208"/>
       <c r="B148" s="202"/>
-      <c r="C148" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D148" s="110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C148" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D148" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="208"/>
       <c r="B149" s="202"/>
-      <c r="C149" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" s="110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="208"/>
       <c r="B150" s="202"/>
-      <c r="C150" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="D150" s="106" t="s">
-        <v>100</v>
+      <c r="C150" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D150" s="113" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="208"/>
       <c r="B151" s="202"/>
-      <c r="C151" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="D151" s="113" t="s">
-        <v>308</v>
+      <c r="C151" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" s="106" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="208"/>
       <c r="B152" s="202"/>
       <c r="C152" s="113" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D152" s="113" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="208"/>
       <c r="B153" s="202"/>
       <c r="C153" s="113" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="D153" s="113" t="s">
         <v>102</v>
@@ -33433,56 +33439,56 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="208"/>
       <c r="B154" s="202"/>
-      <c r="C154" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D154" s="106" t="s">
+      <c r="C154" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D154" s="113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="208"/>
       <c r="B155" s="202"/>
-      <c r="C155" s="113" t="s">
-        <v>277</v>
-      </c>
-      <c r="D155" s="113" t="s">
-        <v>314</v>
+      <c r="C155" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="D155" s="106" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="208"/>
       <c r="B156" s="202"/>
       <c r="C156" s="113" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="D156" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="208"/>
       <c r="B157" s="202"/>
-      <c r="C157" s="106"/>
-      <c r="D157" s="97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D157" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="208"/>
       <c r="B158" s="202"/>
-      <c r="C158" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D158" s="113" t="s">
-        <v>249</v>
+      <c r="C158" s="106"/>
+      <c r="D158" s="97" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="208"/>
       <c r="B159" s="202"/>
       <c r="C159" s="113" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="D159" s="113" t="s">
         <v>249</v>
@@ -33492,7 +33498,7 @@
       <c r="A160" s="208"/>
       <c r="B160" s="202"/>
       <c r="C160" s="113" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="D160" s="113" t="s">
         <v>249</v>
@@ -33502,7 +33508,7 @@
       <c r="A161" s="208"/>
       <c r="B161" s="202"/>
       <c r="C161" s="113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D161" s="113" t="s">
         <v>249</v>
@@ -33512,97 +33518,97 @@
       <c r="A162" s="208"/>
       <c r="B162" s="202"/>
       <c r="C162" s="113" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D162" s="113" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="208"/>
       <c r="B163" s="202"/>
       <c r="C163" s="113" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D163" s="113" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="208"/>
       <c r="B164" s="202"/>
       <c r="C164" s="113" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D164" s="113" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="208"/>
       <c r="B165" s="202"/>
       <c r="C165" s="113" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D165" s="113" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="208"/>
       <c r="B166" s="202"/>
-      <c r="C166" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D166" s="124" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="D166" s="113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="208"/>
       <c r="B167" s="202"/>
-      <c r="C167" s="113" t="s">
-        <v>351</v>
-      </c>
-      <c r="D167" s="113" t="s">
-        <v>249</v>
+      <c r="C167" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D167" s="124" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="208"/>
       <c r="B168" s="202"/>
       <c r="C168" s="113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D168" s="113" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="208"/>
       <c r="B169" s="202"/>
       <c r="C169" s="113" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D169" s="113" t="s">
-        <v>359</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="208"/>
       <c r="B170" s="202"/>
       <c r="C170" s="113" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D170" s="113" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="208"/>
       <c r="B171" s="202"/>
       <c r="C171" s="113" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D171" s="113" t="s">
         <v>249</v>
@@ -33612,7 +33618,7 @@
       <c r="A172" s="208"/>
       <c r="B172" s="202"/>
       <c r="C172" s="113" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D172" s="113" t="s">
         <v>249</v>
@@ -33621,48 +33627,48 @@
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="208"/>
       <c r="B173" s="202"/>
-      <c r="C173" s="118" t="s">
-        <v>379</v>
-      </c>
-      <c r="D173" s="118" t="s">
-        <v>380</v>
+      <c r="C173" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" s="113" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="208"/>
       <c r="B174" s="202"/>
-      <c r="C174" s="106" t="s">
-        <v>383</v>
-      </c>
-      <c r="D174" s="106" t="s">
-        <v>382</v>
+      <c r="C174" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="D174" s="118" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="208"/>
       <c r="B175" s="202"/>
       <c r="C175" s="106" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D175" s="106" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="208"/>
       <c r="B176" s="202"/>
       <c r="C176" s="106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D176" s="106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="208"/>
       <c r="B177" s="202"/>
       <c r="C177" s="106" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D177" s="106" t="s">
         <v>385</v>
@@ -33672,17 +33678,17 @@
       <c r="A178" s="208"/>
       <c r="B178" s="202"/>
       <c r="C178" s="106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D178" s="106" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="208"/>
       <c r="B179" s="202"/>
       <c r="C179" s="106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D179" s="106" t="s">
         <v>359</v>
@@ -33692,17 +33698,17 @@
       <c r="A180" s="208"/>
       <c r="B180" s="202"/>
       <c r="C180" s="106" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D180" s="106" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="208"/>
       <c r="B181" s="202"/>
       <c r="C181" s="106" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D181" s="106" t="s">
         <v>249</v>
@@ -33712,27 +33718,27 @@
       <c r="A182" s="208"/>
       <c r="B182" s="202"/>
       <c r="C182" s="106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D182" s="106" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="208"/>
       <c r="B183" s="202"/>
       <c r="C183" s="106" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D183" s="106" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="208"/>
       <c r="B184" s="202"/>
       <c r="C184" s="106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D184" s="106" t="s">
         <v>249</v>
@@ -33742,27 +33748,27 @@
       <c r="A185" s="208"/>
       <c r="B185" s="202"/>
       <c r="C185" s="106" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D185" s="106" t="s">
-        <v>426</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="208"/>
       <c r="B186" s="202"/>
-      <c r="C186" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D186" s="58" t="s">
-        <v>249</v>
+      <c r="C186" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="D186" s="106" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="208"/>
       <c r="B187" s="202"/>
       <c r="C187" s="58" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="D187" s="58" t="s">
         <v>249</v>
@@ -33772,53 +33778,49 @@
       <c r="A188" s="208"/>
       <c r="B188" s="202"/>
       <c r="C188" s="58" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="D188" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="207" t="s">
+      <c r="A189" s="208"/>
+      <c r="B189" s="202"/>
+      <c r="C189" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="D189" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="207" t="s">
         <v>415</v>
       </c>
-      <c r="B189" s="201" t="s">
+      <c r="B190" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C189" s="106" t="s">
+      <c r="C190" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D189" s="113" t="s">
+      <c r="D190" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="209"/>
-      <c r="B190" s="203"/>
-      <c r="C190" s="118" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="209"/>
+      <c r="B191" s="203"/>
+      <c r="C191" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D190" s="118" t="s">
+      <c r="D191" s="118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="109" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="109" t="s">
         <v>303</v>
-      </c>
-      <c r="B191" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C191" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D191" s="113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="109" t="s">
-        <v>304</v>
       </c>
       <c r="B192" s="107" t="s">
         <v>439</v>
@@ -33830,51 +33832,55 @@
         <v>268</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="103" t="s">
+    <row r="193" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B193" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C193" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B193" s="103"/>
-      <c r="C193" s="103"/>
-      <c r="D193" s="104"/>
-    </row>
-    <row r="194" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="213" t="s">
+      <c r="B194" s="103"/>
+      <c r="C194" s="103"/>
+      <c r="D194" s="104"/>
+    </row>
+    <row r="195" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="B194" s="201" t="s">
+      <c r="B195" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C194" s="106"/>
-      <c r="D194" s="80" t="s">
+      <c r="C195" s="106"/>
+      <c r="D195" s="80" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="214"/>
-      <c r="B195" s="202"/>
-      <c r="C195" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="D195" s="106" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="214"/>
       <c r="B196" s="202"/>
-      <c r="C196" s="107">
-        <v>10.1</v>
+      <c r="C196" s="107" t="s">
+        <v>245</v>
       </c>
       <c r="D196" s="106" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="214"/>
       <c r="B197" s="202"/>
       <c r="C197" s="107">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D197" s="106" t="s">
         <v>266</v>
@@ -33883,320 +33889,332 @@
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="214"/>
       <c r="B198" s="202"/>
-      <c r="C198" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="D198" s="95" t="s">
-        <v>288</v>
+      <c r="C198" s="107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D198" s="106" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="214"/>
       <c r="B199" s="202"/>
       <c r="C199" s="98" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="D199" s="95" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="214"/>
       <c r="B200" s="202"/>
       <c r="C200" s="98" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="D200" s="95" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="214"/>
       <c r="B201" s="202"/>
       <c r="C201" s="98" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="214"/>
       <c r="B202" s="202"/>
       <c r="C202" s="98" t="s">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="D202" s="95" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="214"/>
       <c r="B203" s="202"/>
       <c r="C203" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>472</v>
+        <v>17</v>
+      </c>
+      <c r="D203" s="95" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="215"/>
-      <c r="B204" s="203"/>
+      <c r="A204" s="214"/>
+      <c r="B204" s="202"/>
       <c r="C204" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D204" s="143" t="s">
+      <c r="D204" s="132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="215"/>
+      <c r="B205" s="203"/>
+      <c r="C205" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D205" s="143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="213" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="213" t="s">
         <v>246</v>
       </c>
-      <c r="B205" s="201" t="s">
+      <c r="B206" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="C205" s="98"/>
-      <c r="D205" s="125" t="s">
+      <c r="C206" s="98"/>
+      <c r="D206" s="125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="214"/>
-      <c r="B206" s="202"/>
-      <c r="C206" s="126" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="214"/>
+      <c r="B207" s="202"/>
+      <c r="C207" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D206" s="102" t="s">
+      <c r="D207" s="102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="110" t="s">
+    <row r="208" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B207" s="107" t="s">
+      <c r="B208" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C207" s="107" t="s">
+      <c r="C208" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D207" s="113" t="s">
+      <c r="D208" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="127" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B208" s="127"/>
-      <c r="C208" s="127"/>
-      <c r="D208" s="127"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="213" t="s">
+      <c r="B209" s="127"/>
+      <c r="C209" s="127"/>
+      <c r="D209" s="127"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="B209" s="201" t="s">
+      <c r="B210" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C209" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="D209" s="106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="214"/>
-      <c r="B210" s="202"/>
       <c r="C210" s="128" t="s">
         <v>259</v>
       </c>
       <c r="D210" s="106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="214"/>
+      <c r="B211" s="202"/>
+      <c r="C211" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D211" s="106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="215"/>
-      <c r="B211" s="203"/>
-      <c r="C211" s="106"/>
-      <c r="D211" s="106" t="s">
+    <row r="212" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="215"/>
+      <c r="B212" s="203"/>
+      <c r="C212" s="106"/>
+      <c r="D212" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="221" t="s">
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="B212" s="201" t="s">
+      <c r="B213" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C212" s="119" t="s">
+      <c r="C213" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D212" s="106" t="s">
+      <c r="D213" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="222"/>
-      <c r="B213" s="203"/>
-      <c r="C213" s="119"/>
-      <c r="D213" s="106" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="222"/>
+      <c r="B214" s="203"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="221" t="s">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="221" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="201" t="s">
+      <c r="B215" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C214" s="119"/>
-      <c r="D214" s="119" t="s">
+      <c r="C215" s="119"/>
+      <c r="D215" s="119" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="222"/>
-      <c r="B215" s="203"/>
-      <c r="C215" s="106"/>
-      <c r="D215" s="106" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="222"/>
+      <c r="B216" s="203"/>
+      <c r="C216" s="106"/>
+      <c r="D216" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="221" t="s">
+    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="B216" s="201" t="s">
+      <c r="B217" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="119" t="s">
+      <c r="C217" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D216" s="106" t="s">
+      <c r="D217" s="106" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="222"/>
-      <c r="B217" s="203"/>
-      <c r="C217" s="106"/>
-      <c r="D217" s="106" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="222"/>
+      <c r="B218" s="203"/>
+      <c r="C218" s="106"/>
+      <c r="D218" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="127" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="B218" s="127"/>
-      <c r="C218" s="127"/>
-      <c r="D218" s="127"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="106"/>
-      <c r="B219" s="107" t="s">
+      <c r="B219" s="127"/>
+      <c r="C219" s="127"/>
+      <c r="D219" s="127"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="106"/>
+      <c r="B220" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C219" s="106" t="s">
+      <c r="C220" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D219" s="113" t="s">
+      <c r="D220" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="127" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="B220" s="127"/>
-      <c r="C220" s="127"/>
-      <c r="D220" s="127"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="106"/>
-      <c r="B221" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C221" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D221" s="113" t="s">
-        <v>268</v>
-      </c>
+      <c r="B221" s="127"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="127"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="106"/>
-      <c r="B222" s="107"/>
+      <c r="B222" s="107" t="s">
+        <v>439</v>
+      </c>
       <c r="C222" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="106"/>
+      <c r="B223" s="107"/>
+      <c r="C223" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="D222" s="113" t="s">
+      <c r="D223" s="113" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="57">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A65"/>
-    <mergeCell ref="B53:B65"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A139:A188"/>
-    <mergeCell ref="B139:B188"/>
-    <mergeCell ref="A100:A113"/>
+    <mergeCell ref="A140:A189"/>
+    <mergeCell ref="B140:B189"/>
+    <mergeCell ref="A101:A114"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="B15:B23"/>
-    <mergeCell ref="A194:A204"/>
-    <mergeCell ref="B194:B204"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A195:A205"/>
+    <mergeCell ref="B195:B205"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B101:B114"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="A125:A131"/>
+    <mergeCell ref="B125:B131"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D134:D137"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="B72:B84"/>
-    <mergeCell ref="A85:A99"/>
-    <mergeCell ref="B85:B99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B73:B85"/>
+    <mergeCell ref="A86:A100"/>
+    <mergeCell ref="B86:B100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A132:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08015D-38CF-41EA-AB8E-137DEEB6B6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D458C-9212-4404-AD0D-242B7849B1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$36</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="510">
   <si>
     <t>Document</t>
   </si>
@@ -3401,6 +3401,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tier 1 &amp; Tier 2 MWWS </t>
+  </si>
+  <si>
+    <t>Eligible Employee</t>
+  </si>
+  <si>
+    <t>Updated submission date</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4405,6 +4411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4450,8 +4459,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4474,66 +4513,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4555,55 +4534,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4615,41 +4618,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5054,12 +5066,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5082,12 +5094,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5127,10 +5139,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="152">
+      <c r="B7" s="153">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5144,8 +5156,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="153"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5157,8 +5169,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5170,8 +5182,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
-      <c r="B10" s="153"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5183,8 +5195,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="153"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5196,8 +5208,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5209,10 +5221,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="152">
+      <c r="B13" s="153">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5226,8 +5238,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5273,12 +5285,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5318,21 +5330,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B21" s="157">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5346,8 +5358,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5370,18 +5382,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="156">
+      <c r="B25" s="157">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5395,8 +5407,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="153"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5408,8 +5420,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5421,8 +5433,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="153"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5434,8 +5446,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="153"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5447,8 +5459,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5460,8 +5472,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="153"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5473,8 +5485,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
-      <c r="B32" s="154"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="155"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5598,12 +5610,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="149"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5663,7 +5675,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5673,7 +5685,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5783,10 +5795,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5797,8 +5809,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5807,8 +5819,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5817,8 +5829,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5827,8 +5839,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5837,8 +5849,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5847,10 +5859,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="165" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5861,8 +5873,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5871,8 +5883,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5881,10 +5893,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="167" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5895,8 +5907,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="170"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5905,8 +5917,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="170"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5915,8 +5927,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="170"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5925,8 +5937,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5935,8 +5947,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="170"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5945,8 +5957,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="170"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5955,8 +5967,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="170"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5965,26 +5977,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="161" t="s">
+      <c r="A24" s="166"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="162" t="s">
+      <c r="D24" s="173" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="173"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5995,8 +6007,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -6023,28 +6035,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="165" t="s">
+      <c r="D30" s="176" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="177"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="165"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="176"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="177"/>
-      <c r="B32" s="175"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6053,8 +6065,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="177"/>
-      <c r="B33" s="175"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6063,8 +6075,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="177"/>
-      <c r="B34" s="175"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6073,8 +6085,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6083,8 +6095,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="175"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6093,26 +6105,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="166" t="s">
+      <c r="A37" s="164"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="179" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="177"/>
-      <c r="B38" s="175"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="168"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="179"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6123,8 +6135,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6151,10 +6163,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="175" t="s">
+      <c r="B43" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6163,8 +6175,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="177"/>
-      <c r="B44" s="175"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6173,10 +6185,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="172" t="s">
+      <c r="A45" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="175" t="s">
+      <c r="B45" s="163" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6185,8 +6197,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="173"/>
-      <c r="B46" s="175"/>
+      <c r="A46" s="171"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6195,8 +6207,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
-      <c r="B47" s="175"/>
+      <c r="A47" s="171"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6205,8 +6217,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="174"/>
-      <c r="B48" s="175"/>
+      <c r="A48" s="172"/>
+      <c r="B48" s="163"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6215,10 +6227,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="170" t="s">
+      <c r="A49" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="170" t="s">
+      <c r="B49" s="167" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10322,8 +10334,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="170"/>
-      <c r="B50" s="170"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14427,8 +14439,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="170"/>
-      <c r="B51" s="170"/>
+      <c r="A51" s="167"/>
+      <c r="B51" s="167"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18532,8 +18544,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="170"/>
-      <c r="B52" s="170"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22637,12 +22649,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="170"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="164" t="s">
+      <c r="A53" s="167"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="165" t="s">
+      <c r="D53" s="176" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26742,10 +26754,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="164"/>
-      <c r="D54" s="165"/>
+      <c r="A54" s="167"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="175"/>
+      <c r="D54" s="176"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30863,10 +30875,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="169" t="s">
+      <c r="A57" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="170" t="s">
+      <c r="B57" s="167" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30877,8 +30889,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="170"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30887,8 +30899,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="167"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30897,8 +30909,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="169"/>
-      <c r="B60" s="170"/>
+      <c r="A60" s="168"/>
+      <c r="B60" s="167"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30907,8 +30919,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="169"/>
-      <c r="B61" s="170"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="167"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30917,8 +30929,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="169"/>
-      <c r="B62" s="170"/>
+      <c r="A62" s="168"/>
+      <c r="B62" s="167"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30927,8 +30939,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="169"/>
-      <c r="B63" s="170"/>
+      <c r="A63" s="168"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30937,16 +30949,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="169"/>
-      <c r="B64" s="170"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="167"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="169"/>
-      <c r="B65" s="170"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30955,16 +30967,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="169"/>
-      <c r="B66" s="170"/>
+      <c r="A66" s="168"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="169"/>
-      <c r="B67" s="170"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="167"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30973,8 +30985,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="169"/>
-      <c r="B68" s="170"/>
+      <c r="A68" s="168"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30983,8 +30995,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="169"/>
-      <c r="B69" s="170"/>
+      <c r="A69" s="168"/>
+      <c r="B69" s="167"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30993,8 +31005,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="169"/>
-      <c r="B70" s="170"/>
+      <c r="A70" s="168"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -31003,8 +31015,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="169"/>
-      <c r="B71" s="170"/>
+      <c r="A71" s="168"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -31013,8 +31025,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="169"/>
-      <c r="B72" s="170"/>
+      <c r="A72" s="168"/>
+      <c r="B72" s="167"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -31023,16 +31035,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="169"/>
-      <c r="B73" s="170"/>
+      <c r="A73" s="168"/>
+      <c r="B73" s="167"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="169"/>
-      <c r="B74" s="170"/>
+      <c r="A74" s="168"/>
+      <c r="B74" s="167"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31041,18 +31053,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="169"/>
-      <c r="B75" s="170"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="171" t="s">
+      <c r="A75" s="168"/>
+      <c r="B75" s="167"/>
+      <c r="C75" s="174"/>
+      <c r="D75" s="169" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="169"/>
-      <c r="B76" s="170"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="171"/>
+      <c r="A76" s="168"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="174"/>
+      <c r="D76" s="169"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31076,8 +31088,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31086,13 +31098,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31107,22 +31135,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31176,10 +31188,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="163" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31190,133 +31202,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="186" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="189" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="188" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="185"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="188"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="165" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="185" t="s">
+      <c r="C10" s="187"/>
+      <c r="D10" s="188" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="185"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="188"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="185"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="188"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="185" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="188" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="185"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="188"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="187"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="187"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="190"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="187"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="190"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="187"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="187"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="190"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="187"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="187"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="190"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="187"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31414,10 +31426,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="194" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31428,26 +31440,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="180"/>
-      <c r="B33" s="183"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="195"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="180"/>
-      <c r="B34" s="183"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
-      <c r="B35" s="183"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="195"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
-      <c r="B36" s="184"/>
+      <c r="A36" s="193"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31476,10 +31488,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="163" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31490,8 +31502,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="177"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="164"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31500,84 +31512,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="175" t="s">
+      <c r="B41" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="161" t="s">
+      <c r="D41" s="166" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="176"/>
-      <c r="B42" s="175"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="161"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="166"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="176"/>
-      <c r="B43" s="175"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="162"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="171" t="s">
+      <c r="D43" s="169" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="176"/>
-      <c r="B44" s="175"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="171"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="169"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="192"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="189" t="s">
+      <c r="A46" s="168"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="180" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="190"/>
+      <c r="A47" s="168"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="181"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="190"/>
+      <c r="A48" s="168"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="181"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="190"/>
+      <c r="A49" s="168"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="181"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="169"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="191"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="182"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31600,10 +31612,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="170" t="s">
+      <c r="A53" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="170" t="s">
+      <c r="B53" s="167" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31614,8 +31626,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="170"/>
-      <c r="B54" s="170"/>
+      <c r="A54" s="167"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31624,8 +31636,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="170"/>
-      <c r="B55" s="170"/>
+      <c r="A55" s="167"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31634,9 +31646,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="170"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="195" t="s">
+      <c r="A56" s="167"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="186" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31644,16 +31656,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="170"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="195"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="170"/>
-      <c r="B58" s="170"/>
+      <c r="A58" s="167"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31662,8 +31674,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="170"/>
-      <c r="B59" s="170"/>
+      <c r="A59" s="167"/>
+      <c r="B59" s="167"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31672,9 +31684,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="170"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="195" t="s">
+      <c r="A60" s="167"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="186" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31682,25 +31694,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="170"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="195"/>
+      <c r="A61" s="167"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="186"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="195"/>
+      <c r="A62" s="167"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="186"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="188" t="s">
+      <c r="A63" s="167"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="187" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31708,30 +31720,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="170"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="188"/>
-      <c r="D64" s="171" t="s">
+      <c r="A64" s="167"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="169" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="170"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="188"/>
-      <c r="D65" s="171"/>
+      <c r="A65" s="167"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="187"/>
+      <c r="D65" s="169"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="170"/>
-      <c r="B66" s="170"/>
-      <c r="C66" s="188"/>
-      <c r="D66" s="171"/>
+      <c r="A66" s="167"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="169"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="170"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="188"/>
-      <c r="D67" s="171"/>
+      <c r="A67" s="167"/>
+      <c r="B67" s="167"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="169"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31787,6 +31799,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31803,23 +31832,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31828,10 +31840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B24" sqref="B24:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31865,10 +31877,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="199" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31880,7 +31892,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="200"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31889,10 +31901,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="199" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="203" t="s">
         <v>439</v>
       </c>
       <c r="C5" s="100"/>
@@ -31901,24 +31913,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
-      <c r="B6" s="202"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
-      <c r="B7" s="202"/>
+      <c r="A7" s="220"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="100"/>
       <c r="D7" s="140" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="202"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="100"/>
       <c r="D8" s="140" t="s">
         <v>493</v>
@@ -31926,7 +31938,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="200"/>
-      <c r="B9" s="203"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="100" t="s">
         <v>498</v>
       </c>
@@ -31943,10 +31955,10 @@
       <c r="D10" s="104"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="203" t="s">
         <v>439</v>
       </c>
       <c r="C11" s="128" t="s">
@@ -31957,8 +31969,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="214"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="128" t="s">
         <v>474</v>
       </c>
@@ -31993,10 +32005,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="203" t="s">
         <v>439</v>
       </c>
       <c r="C15" s="95" t="s">
@@ -32007,8 +32019,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="219"/>
-      <c r="B16" s="202"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="106" t="s">
         <v>299</v>
       </c>
@@ -32017,8 +32029,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="219"/>
-      <c r="B17" s="202"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="128" t="s">
         <v>280</v>
       </c>
@@ -32027,8 +32039,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="219"/>
-      <c r="B18" s="202"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
@@ -32037,8 +32049,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="219"/>
-      <c r="B19" s="202"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="100" t="s">
         <v>434</v>
       </c>
@@ -32047,8 +32059,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="219"/>
-      <c r="B20" s="202"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="211"/>
       <c r="C20" s="100" t="s">
         <v>444</v>
       </c>
@@ -32057,8 +32069,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="219"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="100" t="s">
         <v>446</v>
       </c>
@@ -32067,8 +32079,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="219"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="217"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="100" t="s">
         <v>434</v>
       </c>
@@ -32077,8 +32089,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="220"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="142" t="s">
         <v>453</v>
       </c>
@@ -32087,10 +32099,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="198" t="s">
+      <c r="A24" s="199" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="201" t="s">
+      <c r="B24" s="203" t="s">
         <v>439</v>
       </c>
       <c r="C24" s="100" t="s">
@@ -32101,8 +32113,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
-      <c r="B25" s="202"/>
+      <c r="A25" s="220"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="100" t="s">
         <v>453</v>
       </c>
@@ -32111,8 +32123,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
-      <c r="B26" s="202"/>
+      <c r="A26" s="220"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="100">
         <v>3.3</v>
       </c>
@@ -32121,8 +32133,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
@@ -32132,7 +32144,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="200"/>
-      <c r="B28" s="203"/>
+      <c r="B28" s="204"/>
       <c r="C28" s="130">
         <v>3.5</v>
       </c>
@@ -32153,10 +32165,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="198" t="s">
+      <c r="A30" s="205" t="s">
         <v>501</v>
       </c>
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="203" t="s">
         <v>439</v>
       </c>
       <c r="C30" s="100"/>
@@ -32165,180 +32177,176 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="200"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="100" t="s">
+      <c r="A31" s="205"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="229" t="s">
         <v>507</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="58" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="144" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="205"/>
+      <c r="B32" s="211"/>
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="146" t="s">
         <v>502</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B33" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="67" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="223" t="s">
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="224" t="s">
+      <c r="B35" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C35" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D35" s="99" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="223"/>
-      <c r="B35" s="224"/>
-      <c r="C35" s="100" t="s">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="205"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D36" s="106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
-      <c r="B36" s="224"/>
-      <c r="C36" s="100" t="s">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="205"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D36" s="106" t="s">
+      <c r="D37" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
+    <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="216" t="s">
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="104"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="217" t="s">
+      <c r="B39" s="207" t="s">
         <v>439</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106" t="s">
+      <c r="C39" s="106"/>
+      <c r="D39" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="216"/>
-      <c r="B39" s="217"/>
-      <c r="C39" s="136" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="219"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="D40" s="108" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="216"/>
-      <c r="B40" s="217"/>
-      <c r="C40" s="139" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="219"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="139" t="s">
         <v>484</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D41" s="108" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="216"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="141" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="219"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="141" t="s">
         <v>484</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D42" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="216"/>
-      <c r="B42" s="217"/>
-      <c r="C42" s="139" t="s">
+    <row r="43" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="219"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D43" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="213" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="201" t="s">
+      <c r="B44" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C44" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D44" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="214"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="136" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="213"/>
+      <c r="B45" s="211"/>
+      <c r="C45" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="D44" s="135" t="s">
+      <c r="D45" s="135" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="215"/>
-      <c r="B45" s="203"/>
-      <c r="C45" s="137" t="s">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="214"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D46" s="110" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C46" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="B47" s="107" t="s">
         <v>439</v>
@@ -32352,245 +32360,247 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B48" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="107"/>
+      <c r="C48" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="D48" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="D49" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="216" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="219" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="217" t="s">
+      <c r="B50" s="207" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="80" t="s">
+      <c r="C50" s="106"/>
+      <c r="D50" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="216"/>
-      <c r="B50" s="217"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="219"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="216"/>
-      <c r="B51" s="217"/>
-      <c r="C51" s="111" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="219"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="D52" s="106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="216"/>
-      <c r="B52" s="217"/>
-      <c r="C52" s="112" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="219"/>
+      <c r="B53" s="207"/>
+      <c r="C53" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D53" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="109" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B54" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="112" t="s">
+      <c r="C54" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="106"/>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="225" t="s">
+      <c r="D54" s="106"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="208" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="201" t="s">
+      <c r="B55" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C54" s="106"/>
-      <c r="D54" s="114" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="226"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="112" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="209"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="D55" s="106" t="s">
+      <c r="D56" s="106" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="226"/>
-      <c r="B56" s="202"/>
-      <c r="C56" s="112" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="209"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D56" s="106" t="s">
+      <c r="D57" s="106" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="226"/>
-      <c r="B57" s="202"/>
-      <c r="C57" s="115" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="209"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D58" s="113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="226"/>
-      <c r="B58" s="202"/>
-      <c r="C58" s="112" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="209"/>
+      <c r="B59" s="211"/>
+      <c r="C59" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="113" t="s">
+      <c r="D59" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="226"/>
-      <c r="B59" s="202"/>
-      <c r="C59" s="112" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="209"/>
+      <c r="B60" s="211"/>
+      <c r="C60" s="112" t="s">
         <v>365</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D60" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="226"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="112" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="209"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D60" s="113" t="s">
+      <c r="D61" s="113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="226"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="112" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="209"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="D61" s="113" t="s">
+      <c r="D62" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="226"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="133" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="209"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="133" t="s">
         <v>466</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D63" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="226"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="133" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="209"/>
+      <c r="B64" s="211"/>
+      <c r="C64" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D64" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="226"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="138" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="209"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="138" t="s">
         <v>466</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D65" s="61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="226"/>
-      <c r="B65" s="202"/>
-      <c r="C65" s="112" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="209"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="108" t="s">
+      <c r="D66" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="227"/>
-      <c r="B66" s="203"/>
-      <c r="C66" s="112" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="210"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D66" s="108" t="s">
+      <c r="D67" s="108" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="B67" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C67" s="107" t="s">
-        <v>460</v>
-      </c>
-      <c r="D67" s="110" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="116" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="B68" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C68" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="D68" s="113" t="s">
-        <v>327</v>
+      <c r="C68" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="110" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B69" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C69" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="113"/>
+        <v>326</v>
+      </c>
+      <c r="D69" s="113" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="204" t="s">
-        <v>363</v>
-      </c>
-      <c r="B70" s="201" t="s">
+      <c r="A70" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C70" s="112" t="s">
@@ -32599,1242 +32609,1240 @@
       <c r="D70" s="113"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="205"/>
-      <c r="B71" s="203"/>
+      <c r="A71" s="221" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="203" t="s">
+        <v>439</v>
+      </c>
       <c r="C71" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="113"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="225"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D72" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="103" t="s">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="204" t="s">
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="221" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="201" t="s">
+      <c r="B74" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C73" s="106"/>
-      <c r="D73" s="106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="206"/>
-      <c r="B74" s="202"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="206"/>
-      <c r="B75" s="202"/>
+      <c r="A75" s="222"/>
+      <c r="B75" s="211"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="222"/>
+      <c r="B76" s="211"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="206"/>
-      <c r="B76" s="202"/>
-      <c r="C76" s="106" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="222"/>
+      <c r="B77" s="211"/>
+      <c r="C77" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D76" s="106" t="s">
+      <c r="D77" s="106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="206"/>
-      <c r="B77" s="202"/>
-      <c r="C77" s="106" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="222"/>
+      <c r="B78" s="211"/>
+      <c r="C78" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D77" s="113" t="s">
+      <c r="D78" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="206"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="106" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="222"/>
+      <c r="B79" s="211"/>
+      <c r="C79" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D78" s="113" t="s">
+      <c r="D79" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="206"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="119" t="s">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="222"/>
+      <c r="B80" s="211"/>
+      <c r="C80" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="113" t="s">
+      <c r="D80" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="206"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="58" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="222"/>
+      <c r="B81" s="211"/>
+      <c r="C81" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D81" s="58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="206"/>
-      <c r="B81" s="202"/>
-      <c r="C81" s="130" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="222"/>
+      <c r="B82" s="211"/>
+      <c r="C82" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D82" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="206"/>
-      <c r="B82" s="202"/>
-      <c r="C82" s="130" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="222"/>
+      <c r="B83" s="211"/>
+      <c r="C83" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D83" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="206"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="130" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="222"/>
+      <c r="B84" s="211"/>
+      <c r="C84" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D84" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="206"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="130" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="222"/>
+      <c r="B85" s="211"/>
+      <c r="C85" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D84" s="108" t="s">
+      <c r="D85" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="205"/>
-      <c r="B85" s="203"/>
-      <c r="C85" s="130" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="225"/>
+      <c r="B86" s="204"/>
+      <c r="C86" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D85" s="108" t="s">
+      <c r="D86" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="207" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="201" t="s">
+      <c r="B87" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C86" s="106" t="s">
+      <c r="C87" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D86" s="113" t="s">
+      <c r="D87" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="208"/>
-      <c r="B87" s="202"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="216"/>
+      <c r="B88" s="211"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="208"/>
-      <c r="B88" s="202"/>
-      <c r="C88" s="117" t="s">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="216"/>
+      <c r="B89" s="211"/>
+      <c r="C89" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D88" s="113" t="s">
+      <c r="D89" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="208"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="117" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="216"/>
+      <c r="B90" s="211"/>
+      <c r="C90" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D89" s="113" t="s">
+      <c r="D90" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="208"/>
-      <c r="B90" s="202"/>
-      <c r="C90" s="117" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="216"/>
+      <c r="B91" s="211"/>
+      <c r="C91" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="D90" s="113" t="s">
+      <c r="D91" s="113" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="208"/>
-      <c r="B91" s="202"/>
-      <c r="C91" s="117" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="216"/>
+      <c r="B92" s="211"/>
+      <c r="C92" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="D91" s="113" t="s">
+      <c r="D92" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="208"/>
-      <c r="B92" s="202"/>
-      <c r="C92" s="117" t="s">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="216"/>
+      <c r="B93" s="211"/>
+      <c r="C93" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D92" s="118" t="s">
+      <c r="D93" s="118" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="208"/>
-      <c r="B93" s="202"/>
-      <c r="C93" s="109" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="216"/>
+      <c r="B94" s="211"/>
+      <c r="C94" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D93" s="113" t="s">
+      <c r="D94" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="208"/>
-      <c r="B94" s="202"/>
-      <c r="C94" s="109" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="216"/>
+      <c r="B95" s="211"/>
+      <c r="C95" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="D94" s="113" t="s">
+      <c r="D95" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="208"/>
-      <c r="B95" s="202"/>
-      <c r="C95" s="130" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="216"/>
+      <c r="B96" s="211"/>
+      <c r="C96" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D96" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="208"/>
-      <c r="B96" s="202"/>
-      <c r="C96" s="130" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="216"/>
+      <c r="B97" s="211"/>
+      <c r="C97" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D97" s="58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="208"/>
-      <c r="B97" s="202"/>
-      <c r="C97" s="130" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="216"/>
+      <c r="B98" s="211"/>
+      <c r="C98" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D98" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="208"/>
-      <c r="B98" s="202"/>
-      <c r="C98" s="130" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="216"/>
+      <c r="B99" s="211"/>
+      <c r="C99" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D99" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="208"/>
-      <c r="B99" s="202"/>
-      <c r="C99" s="130" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="216"/>
+      <c r="B100" s="211"/>
+      <c r="C100" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D99" s="108" t="s">
+      <c r="D100" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="209"/>
-      <c r="B100" s="203"/>
-      <c r="C100" s="130" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="218"/>
+      <c r="B101" s="204"/>
+      <c r="C101" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D100" s="108" t="s">
+      <c r="D101" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="213" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="201" t="s">
+      <c r="B102" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C101" s="210" t="s">
+      <c r="C102" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="D101" s="96" t="s">
+      <c r="D102" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="214"/>
-      <c r="B102" s="202"/>
-      <c r="C102" s="211"/>
-      <c r="D102" s="113" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="213"/>
+      <c r="B103" s="211"/>
+      <c r="C103" s="227"/>
+      <c r="D103" s="113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="214"/>
-      <c r="B103" s="202"/>
-      <c r="C103" s="212" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="213"/>
+      <c r="B104" s="211"/>
+      <c r="C104" s="228" t="s">
         <v>239</v>
       </c>
-      <c r="D103" s="106" t="s">
+      <c r="D104" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="214"/>
-      <c r="B104" s="202"/>
-      <c r="C104" s="212"/>
-      <c r="D104" s="119" t="s">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="213"/>
+      <c r="B105" s="211"/>
+      <c r="C105" s="228"/>
+      <c r="D105" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="214"/>
-      <c r="B105" s="202"/>
-      <c r="C105" s="112" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="213"/>
+      <c r="B106" s="211"/>
+      <c r="C106" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="106" t="s">
+      <c r="D106" s="106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="214"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="112">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="213"/>
+      <c r="B107" s="211"/>
+      <c r="C107" s="112">
         <v>2.1</v>
       </c>
-      <c r="D106" s="106" t="s">
+      <c r="D107" s="106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="214"/>
-      <c r="B107" s="202"/>
-      <c r="C107" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D107" s="106" t="s">
-        <v>311</v>
-      </c>
-    </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="214"/>
-      <c r="B108" s="202"/>
+      <c r="A108" s="213"/>
+      <c r="B108" s="211"/>
       <c r="C108" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="118" t="s">
-        <v>340</v>
+      <c r="D108" s="106" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="214"/>
-      <c r="B109" s="202"/>
+      <c r="A109" s="213"/>
+      <c r="B109" s="211"/>
       <c r="C109" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="113" t="s">
+      <c r="D109" s="118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="213"/>
+      <c r="B110" s="211"/>
+      <c r="C110" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="113" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="214"/>
-      <c r="B110" s="202"/>
-      <c r="C110" s="120" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="213"/>
+      <c r="B111" s="211"/>
+      <c r="C111" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="D110" s="121" t="s">
+      <c r="D111" s="121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="214"/>
-      <c r="B111" s="202"/>
-      <c r="C111" s="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="213"/>
+      <c r="B112" s="211"/>
+      <c r="C112" s="112">
         <v>2.1</v>
       </c>
-      <c r="D111" s="106" t="s">
+      <c r="D112" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="214"/>
-      <c r="B112" s="202"/>
-      <c r="C112" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="214"/>
-      <c r="B113" s="202"/>
+      <c r="A113" s="213"/>
+      <c r="B113" s="211"/>
       <c r="C113" s="112" t="s">
         <v>238</v>
       </c>
       <c r="D113" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="213"/>
+      <c r="B114" s="211"/>
+      <c r="C114" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="214"/>
-      <c r="B114" s="202"/>
-      <c r="C114" s="112">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="213"/>
+      <c r="B115" s="211"/>
+      <c r="C115" s="112">
         <v>2.1</v>
       </c>
-      <c r="D114" s="106" t="s">
+      <c r="D115" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="207" t="s">
+    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="215" t="s">
         <v>290</v>
       </c>
-      <c r="B115" s="201" t="s">
+      <c r="B116" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C115" s="106" t="s">
+      <c r="C116" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="208"/>
-      <c r="B116" s="202"/>
-      <c r="C116" s="119" t="s">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="216"/>
+      <c r="B117" s="211"/>
+      <c r="C117" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="209"/>
-      <c r="B117" s="203"/>
-      <c r="C117" s="106" t="s">
+    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="218"/>
+      <c r="B118" s="204"/>
+      <c r="C118" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D117" s="106" t="s">
+      <c r="D118" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="204" t="s">
+    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="221" t="s">
         <v>364</v>
       </c>
-      <c r="B118" s="201" t="s">
+      <c r="B119" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C118" s="112" t="s">
+      <c r="C119" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="106"/>
-    </row>
-    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="206"/>
-      <c r="B119" s="202"/>
-      <c r="C119" s="112" t="s">
+      <c r="D119" s="106"/>
+    </row>
+    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="222"/>
+      <c r="B120" s="211"/>
+      <c r="C120" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="D119" s="106" t="s">
+      <c r="D120" s="106" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="206"/>
-      <c r="B120" s="202"/>
-      <c r="C120" s="112">
+    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="222"/>
+      <c r="B121" s="211"/>
+      <c r="C121" s="112">
         <v>2.1</v>
       </c>
-      <c r="D120" s="106" t="s">
+      <c r="D121" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="206"/>
-      <c r="B121" s="202"/>
-      <c r="C121" s="112" t="s">
+    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="222"/>
+      <c r="B122" s="211"/>
+      <c r="C122" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D121" s="106" t="s">
+      <c r="D122" s="106" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="206"/>
-      <c r="B122" s="202"/>
-      <c r="C122" s="112" t="s">
+    <row r="123" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="222"/>
+      <c r="B123" s="211"/>
+      <c r="C123" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="106" t="s">
+      <c r="D123" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="103" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B123" s="103"/>
-      <c r="C123" s="103"/>
-      <c r="D123" s="104"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="109" t="s">
+      <c r="B124" s="103"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="104"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B124" s="112" t="s">
+      <c r="B125" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C124" s="112" t="s">
+      <c r="C125" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D124" s="113"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="213" t="s">
+      <c r="D125" s="113"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="212" t="s">
         <v>255</v>
       </c>
-      <c r="B125" s="201" t="s">
+      <c r="B126" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C125" s="106"/>
-      <c r="D125" s="80" t="s">
+      <c r="C126" s="106"/>
+      <c r="D126" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="214"/>
-      <c r="B126" s="202"/>
-      <c r="C126" s="106"/>
-      <c r="D126" s="106" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="213"/>
+      <c r="B127" s="211"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="214"/>
-      <c r="B127" s="202"/>
-      <c r="C127" s="106"/>
-      <c r="D127" s="113" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="213"/>
+      <c r="B128" s="211"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="113" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="214"/>
-      <c r="B128" s="202"/>
-      <c r="C128" s="106" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="213"/>
+      <c r="B129" s="211"/>
+      <c r="C129" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="D128" s="113" t="s">
+      <c r="D129" s="113" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="214"/>
-      <c r="B129" s="202"/>
-      <c r="C129" s="106" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="213"/>
+      <c r="B130" s="211"/>
+      <c r="C130" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="D129" s="113" t="s">
+      <c r="D130" s="113" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="214"/>
-      <c r="B130" s="202"/>
-      <c r="C130" s="106" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="213"/>
+      <c r="B131" s="211"/>
+      <c r="C131" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="D130" s="113" t="s">
+      <c r="D131" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="214"/>
-      <c r="B131" s="202"/>
-      <c r="C131" s="106" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="213"/>
+      <c r="B132" s="211"/>
+      <c r="C132" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="D131" s="113" t="s">
+      <c r="D132" s="113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="216" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="219" t="s">
         <v>328</v>
       </c>
-      <c r="B132" s="217" t="s">
+      <c r="B133" s="207" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="80" t="s">
+      <c r="C133" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D133" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="216"/>
-      <c r="B133" s="217"/>
-      <c r="C133" s="106" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="219"/>
+      <c r="B134" s="207"/>
+      <c r="C134" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D133" s="106" t="s">
+      <c r="D134" s="106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="216"/>
-      <c r="B134" s="217"/>
-      <c r="C134" s="122" t="s">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="219"/>
+      <c r="B135" s="207"/>
+      <c r="C135" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="D134" s="196" t="s">
+      <c r="D135" s="223" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="216"/>
-      <c r="B135" s="217"/>
-      <c r="C135" s="122" t="s">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="219"/>
+      <c r="B136" s="207"/>
+      <c r="C136" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D135" s="197"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="216"/>
-      <c r="B136" s="217"/>
-      <c r="C136" s="122" t="s">
+      <c r="D136" s="224"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="219"/>
+      <c r="B137" s="207"/>
+      <c r="C137" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D136" s="197"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="216"/>
-      <c r="B137" s="217"/>
-      <c r="C137" s="122" t="s">
+      <c r="D137" s="224"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="219"/>
+      <c r="B138" s="207"/>
+      <c r="C138" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D137" s="197"/>
-    </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="216"/>
-      <c r="B138" s="217"/>
-      <c r="C138" s="122" t="s">
+      <c r="D138" s="224"/>
+    </row>
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="219"/>
+      <c r="B139" s="207"/>
+      <c r="C139" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D138" s="131" t="s">
+      <c r="D139" s="131" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="109" t="s">
+    <row r="140" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B139" s="112" t="s">
+      <c r="B140" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C139" s="107" t="s">
+      <c r="C140" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D139" s="110" t="s">
+      <c r="D140" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="207" t="s">
+    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="B140" s="201" t="s">
+      <c r="B141" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="106" t="s">
+      <c r="C141" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="D140" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="208"/>
-      <c r="B141" s="202"/>
-      <c r="C141" s="106" t="s">
-        <v>264</v>
       </c>
       <c r="D141" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="208"/>
-      <c r="B142" s="202"/>
+      <c r="A142" s="216"/>
+      <c r="B142" s="211"/>
       <c r="C142" s="106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D142" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="208"/>
-      <c r="B143" s="202"/>
-      <c r="C143" s="113" t="s">
+      <c r="A143" s="216"/>
+      <c r="B143" s="211"/>
+      <c r="C143" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D143" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="216"/>
+      <c r="B144" s="211"/>
+      <c r="C144" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="D143" s="113" t="s">
+      <c r="D144" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="208"/>
-      <c r="B144" s="202"/>
-      <c r="C144" s="106" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="216"/>
+      <c r="B145" s="211"/>
+      <c r="C145" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="D144" s="106" t="s">
+      <c r="D145" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="208"/>
-      <c r="B145" s="202"/>
-      <c r="C145" s="106" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="216"/>
+      <c r="B146" s="211"/>
+      <c r="C146" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="D145" s="106" t="s">
+      <c r="D146" s="106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="208"/>
-      <c r="B146" s="202"/>
-      <c r="C146" s="113" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="216"/>
+      <c r="B147" s="211"/>
+      <c r="C147" s="113" t="s">
         <v>282</v>
-      </c>
-      <c r="D146" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="208"/>
-      <c r="B147" s="202"/>
-      <c r="C147" s="113" t="s">
-        <v>296</v>
       </c>
       <c r="D147" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="208"/>
-      <c r="B148" s="202"/>
+      <c r="A148" s="216"/>
+      <c r="B148" s="211"/>
       <c r="C148" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D148" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="216"/>
+      <c r="B149" s="211"/>
+      <c r="C149" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="D148" s="113" t="s">
+      <c r="D149" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="208"/>
-      <c r="B149" s="202"/>
-      <c r="C149" s="123" t="s">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="216"/>
+      <c r="B150" s="211"/>
+      <c r="C150" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="110" t="s">
+      <c r="D150" s="110" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="208"/>
-      <c r="B150" s="202"/>
-      <c r="C150" s="117" t="s">
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="216"/>
+      <c r="B151" s="211"/>
+      <c r="C151" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="D150" s="113" t="s">
+      <c r="D151" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="208"/>
-      <c r="B151" s="202"/>
-      <c r="C151" s="106" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="216"/>
+      <c r="B152" s="211"/>
+      <c r="C152" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="106" t="s">
+      <c r="D152" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="208"/>
-      <c r="B152" s="202"/>
-      <c r="C152" s="113" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="216"/>
+      <c r="B153" s="211"/>
+      <c r="C153" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="D152" s="113" t="s">
+      <c r="D153" s="113" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="208"/>
-      <c r="B153" s="202"/>
-      <c r="C153" s="113" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="216"/>
+      <c r="B154" s="211"/>
+      <c r="C154" s="113" t="s">
         <v>309</v>
-      </c>
-      <c r="D153" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="208"/>
-      <c r="B154" s="202"/>
-      <c r="C154" s="113" t="s">
-        <v>262</v>
       </c>
       <c r="D154" s="113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="208"/>
-      <c r="B155" s="202"/>
-      <c r="C155" s="106" t="s">
+      <c r="A155" s="216"/>
+      <c r="B155" s="211"/>
+      <c r="C155" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="216"/>
+      <c r="B156" s="211"/>
+      <c r="C156" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="106" t="s">
+      <c r="D156" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="208"/>
-      <c r="B156" s="202"/>
-      <c r="C156" s="113" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="216"/>
+      <c r="B157" s="211"/>
+      <c r="C157" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="113" t="s">
+      <c r="D157" s="113" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="208"/>
-      <c r="B157" s="202"/>
-      <c r="C157" s="113" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="216"/>
+      <c r="B158" s="211"/>
+      <c r="C158" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="D157" s="113" t="s">
+      <c r="D158" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="208"/>
-      <c r="B158" s="202"/>
-      <c r="C158" s="106"/>
-      <c r="D158" s="97" t="s">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="216"/>
+      <c r="B159" s="211"/>
+      <c r="C159" s="106"/>
+      <c r="D159" s="97" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="208"/>
-      <c r="B159" s="202"/>
-      <c r="C159" s="113" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="216"/>
+      <c r="B160" s="211"/>
+      <c r="C160" s="113" t="s">
         <v>316</v>
-      </c>
-      <c r="D159" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="208"/>
-      <c r="B160" s="202"/>
-      <c r="C160" s="113" t="s">
-        <v>262</v>
       </c>
       <c r="D160" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="208"/>
-      <c r="B161" s="202"/>
+      <c r="A161" s="216"/>
+      <c r="B161" s="211"/>
       <c r="C161" s="113" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="D161" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="208"/>
-      <c r="B162" s="202"/>
+      <c r="A162" s="216"/>
+      <c r="B162" s="211"/>
       <c r="C162" s="113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D162" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="208"/>
-      <c r="B163" s="202"/>
+      <c r="A163" s="216"/>
+      <c r="B163" s="211"/>
       <c r="C163" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D163" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="216"/>
+      <c r="B164" s="211"/>
+      <c r="C164" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="D163" s="113" t="s">
+      <c r="D164" s="113" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="208"/>
-      <c r="B164" s="202"/>
-      <c r="C164" s="113" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="216"/>
+      <c r="B165" s="211"/>
+      <c r="C165" s="113" t="s">
         <v>339</v>
       </c>
-      <c r="D164" s="113" t="s">
+      <c r="D165" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="208"/>
-      <c r="B165" s="202"/>
-      <c r="C165" s="113" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="216"/>
+      <c r="B166" s="211"/>
+      <c r="C166" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="D165" s="113" t="s">
+      <c r="D166" s="113" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="208"/>
-      <c r="B166" s="202"/>
-      <c r="C166" s="113" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="216"/>
+      <c r="B167" s="211"/>
+      <c r="C167" s="113" t="s">
         <v>347</v>
       </c>
-      <c r="D166" s="113" t="s">
+      <c r="D167" s="113" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="208"/>
-      <c r="B167" s="202"/>
-      <c r="C167" s="101" t="s">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="216"/>
+      <c r="B168" s="211"/>
+      <c r="C168" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="D167" s="124" t="s">
+      <c r="D168" s="124" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="208"/>
-      <c r="B168" s="202"/>
-      <c r="C168" s="113" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="216"/>
+      <c r="B169" s="211"/>
+      <c r="C169" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="D168" s="113" t="s">
+      <c r="D169" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="208"/>
-      <c r="B169" s="202"/>
-      <c r="C169" s="113" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="216"/>
+      <c r="B170" s="211"/>
+      <c r="C170" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="D169" s="113" t="s">
+      <c r="D170" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="208"/>
-      <c r="B170" s="202"/>
-      <c r="C170" s="113" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="216"/>
+      <c r="B171" s="211"/>
+      <c r="C171" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="D170" s="113" t="s">
+      <c r="D171" s="113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="208"/>
-      <c r="B171" s="202"/>
-      <c r="C171" s="113" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="216"/>
+      <c r="B172" s="211"/>
+      <c r="C172" s="113" t="s">
         <v>360</v>
-      </c>
-      <c r="D171" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="208"/>
-      <c r="B172" s="202"/>
-      <c r="C172" s="113" t="s">
-        <v>366</v>
       </c>
       <c r="D172" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="208"/>
-      <c r="B173" s="202"/>
+      <c r="A173" s="216"/>
+      <c r="B173" s="211"/>
       <c r="C173" s="113" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D173" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="208"/>
-      <c r="B174" s="202"/>
-      <c r="C174" s="118" t="s">
+      <c r="A174" s="216"/>
+      <c r="B174" s="211"/>
+      <c r="C174" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="216"/>
+      <c r="B175" s="211"/>
+      <c r="C175" s="118" t="s">
         <v>379</v>
       </c>
-      <c r="D174" s="118" t="s">
+      <c r="D175" s="118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="208"/>
-      <c r="B175" s="202"/>
-      <c r="C175" s="106" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="216"/>
+      <c r="B176" s="211"/>
+      <c r="C176" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D175" s="106" t="s">
+      <c r="D176" s="106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="208"/>
-      <c r="B176" s="202"/>
-      <c r="C176" s="106" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="216"/>
+      <c r="B177" s="211"/>
+      <c r="C177" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="D176" s="106" t="s">
+      <c r="D177" s="106" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="208"/>
-      <c r="B177" s="202"/>
-      <c r="C177" s="106" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="216"/>
+      <c r="B178" s="211"/>
+      <c r="C178" s="106" t="s">
         <v>387</v>
-      </c>
-      <c r="D177" s="106" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="208"/>
-      <c r="B178" s="202"/>
-      <c r="C178" s="106" t="s">
-        <v>388</v>
       </c>
       <c r="D178" s="106" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="208"/>
-      <c r="B179" s="202"/>
+      <c r="A179" s="216"/>
+      <c r="B179" s="211"/>
       <c r="C179" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="216"/>
+      <c r="B180" s="211"/>
+      <c r="C180" s="106" t="s">
         <v>389</v>
-      </c>
-      <c r="D179" s="106" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="208"/>
-      <c r="B180" s="202"/>
-      <c r="C180" s="106" t="s">
-        <v>390</v>
       </c>
       <c r="D180" s="106" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="208"/>
-      <c r="B181" s="202"/>
+      <c r="A181" s="216"/>
+      <c r="B181" s="211"/>
       <c r="C181" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D181" s="106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="216"/>
+      <c r="B182" s="211"/>
+      <c r="C182" s="106" t="s">
         <v>393</v>
-      </c>
-      <c r="D181" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="208"/>
-      <c r="B182" s="202"/>
-      <c r="C182" s="106" t="s">
-        <v>403</v>
       </c>
       <c r="D182" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="208"/>
-      <c r="B183" s="202"/>
+      <c r="A183" s="216"/>
+      <c r="B183" s="211"/>
       <c r="C183" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D183" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="216"/>
+      <c r="B184" s="211"/>
+      <c r="C184" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="D183" s="106" t="s">
+      <c r="D184" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="208"/>
-      <c r="B184" s="202"/>
-      <c r="C184" s="106" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="216"/>
+      <c r="B185" s="211"/>
+      <c r="C185" s="106" t="s">
         <v>421</v>
-      </c>
-      <c r="D184" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="208"/>
-      <c r="B185" s="202"/>
-      <c r="C185" s="106" t="s">
-        <v>422</v>
       </c>
       <c r="D185" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="208"/>
-      <c r="B186" s="202"/>
+      <c r="A186" s="216"/>
+      <c r="B186" s="211"/>
       <c r="C186" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="216"/>
+      <c r="B187" s="211"/>
+      <c r="C187" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D186" s="106" t="s">
+      <c r="D187" s="106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="208"/>
-      <c r="B187" s="202"/>
-      <c r="C187" s="58" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="216"/>
+      <c r="B188" s="211"/>
+      <c r="C188" s="58" t="s">
         <v>471</v>
-      </c>
-      <c r="D187" s="58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="208"/>
-      <c r="B188" s="202"/>
-      <c r="C188" s="58" t="s">
-        <v>421</v>
       </c>
       <c r="D188" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="208"/>
-      <c r="B189" s="202"/>
+      <c r="A189" s="216"/>
+      <c r="B189" s="211"/>
       <c r="C189" s="58" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="D189" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="207" t="s">
+      <c r="A190" s="216"/>
+      <c r="B190" s="211"/>
+      <c r="C190" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="D190" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="215" t="s">
         <v>415</v>
       </c>
-      <c r="B190" s="201" t="s">
+      <c r="B191" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C190" s="106" t="s">
+      <c r="C191" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D190" s="113" t="s">
+      <c r="D191" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="209"/>
-      <c r="B191" s="203"/>
-      <c r="C191" s="118" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="218"/>
+      <c r="B192" s="204"/>
+      <c r="C192" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D191" s="118" t="s">
+      <c r="D192" s="118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="109" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="109" t="s">
         <v>303</v>
-      </c>
-      <c r="B192" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C192" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D192" s="113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="109" t="s">
-        <v>304</v>
       </c>
       <c r="B193" s="107" t="s">
         <v>439</v>
@@ -33846,375 +33854,389 @@
         <v>268</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="103" t="s">
+    <row r="194" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C194" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B194" s="103"/>
-      <c r="C194" s="103"/>
-      <c r="D194" s="104"/>
-    </row>
-    <row r="195" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="213" t="s">
+      <c r="B195" s="103"/>
+      <c r="C195" s="103"/>
+      <c r="D195" s="104"/>
+    </row>
+    <row r="196" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="B195" s="201" t="s">
+      <c r="B196" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C195" s="106"/>
-      <c r="D195" s="80" t="s">
+      <c r="C196" s="106"/>
+      <c r="D196" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="214"/>
-      <c r="B196" s="202"/>
-      <c r="C196" s="107" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="213"/>
+      <c r="B197" s="211"/>
+      <c r="C197" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D196" s="106" t="s">
+      <c r="D197" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="214"/>
-      <c r="B197" s="202"/>
-      <c r="C197" s="107">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="213"/>
+      <c r="B198" s="211"/>
+      <c r="C198" s="107">
         <v>10.1</v>
-      </c>
-      <c r="D197" s="106" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="214"/>
-      <c r="B198" s="202"/>
-      <c r="C198" s="107">
-        <v>10.199999999999999</v>
       </c>
       <c r="D198" s="106" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="214"/>
-      <c r="B199" s="202"/>
-      <c r="C199" s="98" t="s">
+      <c r="A199" s="213"/>
+      <c r="B199" s="211"/>
+      <c r="C199" s="107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D199" s="106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="213"/>
+      <c r="B200" s="211"/>
+      <c r="C200" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D199" s="95" t="s">
+      <c r="D200" s="95" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="214"/>
-      <c r="B200" s="202"/>
-      <c r="C200" s="98" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="213"/>
+      <c r="B201" s="211"/>
+      <c r="C201" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="D200" s="95" t="s">
+      <c r="D201" s="95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="214"/>
-      <c r="B201" s="202"/>
-      <c r="C201" s="98" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="213"/>
+      <c r="B202" s="211"/>
+      <c r="C202" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D201" s="95" t="s">
+      <c r="D202" s="95" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="214"/>
-      <c r="B202" s="202"/>
-      <c r="C202" s="98" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="213"/>
+      <c r="B203" s="211"/>
+      <c r="C203" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="D202" s="95" t="s">
+      <c r="D203" s="95" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="214"/>
-      <c r="B203" s="202"/>
-      <c r="C203" s="98" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="213"/>
+      <c r="B204" s="211"/>
+      <c r="C204" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D203" s="95" t="s">
+      <c r="D204" s="95" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="214"/>
-      <c r="B204" s="202"/>
-      <c r="C204" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="D204" s="132" t="s">
-        <v>472</v>
-      </c>
-    </row>
     <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="215"/>
-      <c r="B205" s="203"/>
+      <c r="A205" s="213"/>
+      <c r="B205" s="211"/>
       <c r="C205" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D205" s="143" t="s">
+      <c r="D205" s="132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="214"/>
+      <c r="B206" s="204"/>
+      <c r="C206" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D206" s="143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="213" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="212" t="s">
         <v>246</v>
       </c>
-      <c r="B206" s="201" t="s">
+      <c r="B207" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C206" s="98"/>
-      <c r="D206" s="125" t="s">
+      <c r="C207" s="98"/>
+      <c r="D207" s="125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="214"/>
-      <c r="B207" s="202"/>
-      <c r="C207" s="126" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="213"/>
+      <c r="B208" s="211"/>
+      <c r="C208" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D207" s="102" t="s">
+      <c r="D208" s="102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="110" t="s">
+    <row r="209" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B208" s="107" t="s">
+      <c r="B209" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C208" s="107" t="s">
+      <c r="C209" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D208" s="113" t="s">
+      <c r="D209" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="127" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B209" s="127"/>
-      <c r="C209" s="127"/>
-      <c r="D209" s="127"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="213" t="s">
+      <c r="B210" s="127"/>
+      <c r="C210" s="127"/>
+      <c r="D210" s="127"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="B210" s="201" t="s">
+      <c r="B211" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C210" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="D210" s="106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="214"/>
-      <c r="B211" s="202"/>
       <c r="C211" s="128" t="s">
         <v>259</v>
       </c>
       <c r="D211" s="106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="213"/>
+      <c r="B212" s="211"/>
+      <c r="C212" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D212" s="106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="215"/>
-      <c r="B212" s="203"/>
-      <c r="C212" s="106"/>
-      <c r="D212" s="106" t="s">
+    <row r="213" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="214"/>
+      <c r="B213" s="204"/>
+      <c r="C213" s="106"/>
+      <c r="D213" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="221" t="s">
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="B213" s="201" t="s">
+      <c r="B214" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C213" s="119" t="s">
+      <c r="C214" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D213" s="106" t="s">
+      <c r="D214" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="222"/>
-      <c r="B214" s="203"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="106" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="202"/>
+      <c r="B215" s="204"/>
+      <c r="C215" s="119"/>
+      <c r="D215" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="221" t="s">
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="201" t="s">
         <v>285</v>
       </c>
-      <c r="B215" s="201" t="s">
+      <c r="B216" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="119"/>
-      <c r="D215" s="119" t="s">
+      <c r="C216" s="119"/>
+      <c r="D216" s="119" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="222"/>
-      <c r="B216" s="203"/>
-      <c r="C216" s="106"/>
-      <c r="D216" s="106" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="202"/>
+      <c r="B217" s="204"/>
+      <c r="C217" s="106"/>
+      <c r="D217" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="221" t="s">
+    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="B217" s="201" t="s">
+      <c r="B218" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C217" s="119" t="s">
+      <c r="C218" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D217" s="106" t="s">
+      <c r="D218" s="106" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="222"/>
-      <c r="B218" s="203"/>
-      <c r="C218" s="106"/>
-      <c r="D218" s="106" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="202"/>
+      <c r="B219" s="204"/>
+      <c r="C219" s="106"/>
+      <c r="D219" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="127" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="B219" s="127"/>
-      <c r="C219" s="127"/>
-      <c r="D219" s="127"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="106"/>
-      <c r="B220" s="107" t="s">
+      <c r="B220" s="127"/>
+      <c r="C220" s="127"/>
+      <c r="D220" s="127"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="106"/>
+      <c r="B221" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C220" s="106" t="s">
+      <c r="C221" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D220" s="113" t="s">
+      <c r="D221" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="127" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="B221" s="127"/>
-      <c r="C221" s="127"/>
-      <c r="D221" s="127"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="106"/>
-      <c r="B222" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C222" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D222" s="113" t="s">
-        <v>268</v>
-      </c>
+      <c r="B222" s="127"/>
+      <c r="C222" s="127"/>
+      <c r="D222" s="127"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="106"/>
-      <c r="B223" s="107"/>
+      <c r="B223" s="107" t="s">
+        <v>439</v>
+      </c>
       <c r="C223" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="106"/>
+      <c r="B224" s="107"/>
+      <c r="C224" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="D223" s="113" t="s">
+      <c r="D224" s="113" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="D135:D138"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A74:A86"/>
+    <mergeCell ref="B74:B86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A141:A190"/>
+    <mergeCell ref="B141:B190"/>
+    <mergeCell ref="A102:A115"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="B196:B206"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B102:B115"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A140:A189"/>
-    <mergeCell ref="B140:B189"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="A195:A205"/>
-    <mergeCell ref="B195:B205"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="A125:A131"/>
-    <mergeCell ref="B125:B131"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B73:B85"/>
-    <mergeCell ref="A86:A100"/>
-    <mergeCell ref="B86:B100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="B211:B213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D458C-9212-4404-AD0D-242B7849B1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19098E4-2B6F-4854-A15F-BAC0E4808F3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$37</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="511">
   <si>
     <t>Document</t>
   </si>
@@ -3388,9 +3388,6 @@
     <t>Temporary Wage Subsidy Scheme CSV Example</t>
   </si>
   <si>
-    <t xml:space="preserve">Added </t>
-  </si>
-  <si>
     <t>Updated figure 2 to show TWSS link</t>
   </si>
   <si>
@@ -3400,13 +3397,23 @@
     <t>Updated description</t>
   </si>
   <si>
-    <t xml:space="preserve">Tier 1 &amp; Tier 2 MWWS </t>
-  </si>
-  <si>
     <t>Eligible Employee</t>
   </si>
   <si>
     <t>Updated submission date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 1
+Tier 2 MWWS </t>
+  </si>
+  <si>
+    <t>Tier 1 MWWS 
+Tier 2 
+Tier 2 MWWS 
+Tier 3</t>
+  </si>
+  <si>
+    <t>Document Published</t>
   </si>
 </sst>
 </file>
@@ -4414,6 +4421,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4459,38 +4469,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4513,6 +4493,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4534,79 +4574,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4618,50 +4634,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5066,12 +5073,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5094,12 +5101,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5139,10 +5146,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="154">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5156,8 +5163,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
-      <c r="B8" s="154"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5169,8 +5176,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5182,8 +5189,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
-      <c r="B10" s="154"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5195,8 +5202,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5208,8 +5215,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="155"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5221,10 +5228,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="153">
+      <c r="B13" s="154">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5238,8 +5245,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
-      <c r="B14" s="155"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5285,12 +5292,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5330,21 +5337,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="157">
+      <c r="B21" s="158">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5358,8 +5365,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="155"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5382,18 +5389,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="157">
+      <c r="B25" s="158">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5407,8 +5414,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="154"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5420,8 +5427,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="154"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5433,8 +5440,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="151"/>
-      <c r="B28" s="154"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5446,8 +5453,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="151"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5459,8 +5466,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5472,8 +5479,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5485,8 +5492,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
-      <c r="B32" s="155"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5610,12 +5617,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5675,7 +5682,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5685,7 +5692,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5795,10 +5802,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5809,8 +5816,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5819,8 +5826,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5829,8 +5836,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5839,8 +5846,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
-      <c r="B11" s="163"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5849,8 +5856,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
-      <c r="B12" s="163"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5859,10 +5866,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="180" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5873,8 +5880,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="163"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5883,8 +5890,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5893,10 +5900,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="172" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5907,8 +5914,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5917,8 +5924,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166"/>
-      <c r="B18" s="167"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5927,8 +5934,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5937,8 +5944,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="166"/>
-      <c r="B20" s="167"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5947,8 +5954,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5957,8 +5964,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="166"/>
-      <c r="B22" s="167"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5967,8 +5974,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
-      <c r="B23" s="167"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5977,26 +5984,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="166"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="166" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="173" t="s">
+      <c r="D24" s="164" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="173"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6007,8 +6014,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
-      <c r="B27" s="163"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -6035,28 +6042,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="166" t="s">
+      <c r="C30" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="176" t="s">
+      <c r="D30" s="167" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="176"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="167"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="164"/>
-      <c r="B32" s="163"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6065,8 +6072,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="163"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6075,8 +6082,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
-      <c r="B34" s="163"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6085,8 +6092,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="163"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6095,8 +6102,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="164"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6105,26 +6112,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="177" t="s">
+      <c r="A37" s="179"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="179" t="s">
+      <c r="D37" s="170" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="164"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="179"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="170"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6135,8 +6142,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
-      <c r="B40" s="163"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6163,10 +6170,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6175,8 +6182,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="164"/>
-      <c r="B44" s="163"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6185,10 +6192,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="177" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6197,8 +6204,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="171"/>
-      <c r="B46" s="163"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6207,8 +6214,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="171"/>
-      <c r="B47" s="163"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6217,8 +6224,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
-      <c r="B48" s="163"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6227,10 +6234,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="167" t="s">
+      <c r="A49" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="172" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10334,8 +10341,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167"/>
-      <c r="B50" s="167"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14439,8 +14446,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="167"/>
-      <c r="B51" s="167"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18544,8 +18551,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="167"/>
-      <c r="B52" s="167"/>
+      <c r="A52" s="172"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22649,12 +22656,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="167"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="175" t="s">
+      <c r="A53" s="172"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="167" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26754,10 +26761,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="175"/>
-      <c r="D54" s="176"/>
+      <c r="A54" s="172"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="167"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30875,10 +30882,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="168" t="s">
+      <c r="A57" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="172" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30889,8 +30896,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
-      <c r="B58" s="167"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30899,8 +30906,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
-      <c r="B59" s="167"/>
+      <c r="A59" s="171"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30909,8 +30916,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
-      <c r="B60" s="167"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30919,8 +30926,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
-      <c r="B61" s="167"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30929,8 +30936,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
-      <c r="B62" s="167"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30939,8 +30946,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
-      <c r="B63" s="167"/>
+      <c r="A63" s="171"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30949,16 +30956,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
-      <c r="B64" s="167"/>
+      <c r="A64" s="171"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
-      <c r="B65" s="167"/>
+      <c r="A65" s="171"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30967,16 +30974,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
-      <c r="B66" s="167"/>
+      <c r="A66" s="171"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
-      <c r="B67" s="167"/>
+      <c r="A67" s="171"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30985,8 +30992,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="168"/>
-      <c r="B68" s="167"/>
+      <c r="A68" s="171"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30995,8 +31002,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
-      <c r="B69" s="167"/>
+      <c r="A69" s="171"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -31005,8 +31012,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="168"/>
-      <c r="B70" s="167"/>
+      <c r="A70" s="171"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -31015,8 +31022,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
-      <c r="B71" s="167"/>
+      <c r="A71" s="171"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -31025,8 +31032,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
-      <c r="B72" s="167"/>
+      <c r="A72" s="171"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -31035,16 +31042,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="168"/>
-      <c r="B73" s="167"/>
+      <c r="A73" s="171"/>
+      <c r="B73" s="172"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="168"/>
-      <c r="B74" s="167"/>
+      <c r="A74" s="171"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31053,18 +31060,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="174"/>
-      <c r="D75" s="169" t="s">
+      <c r="A75" s="171"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="173" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
-      <c r="B76" s="167"/>
-      <c r="C76" s="174"/>
-      <c r="D76" s="169"/>
+      <c r="A76" s="171"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="173"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31088,8 +31095,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31098,29 +31105,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31135,6 +31126,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31188,10 +31195,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="177" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31202,133 +31209,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="189" t="s">
+      <c r="A5" s="178"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="187" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="188"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="187"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="180" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188" t="s">
+      <c r="C10" s="190"/>
+      <c r="D10" s="187" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="188"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="187"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="188"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="187"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="172" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="188" t="s">
+      <c r="C13" s="189"/>
+      <c r="D13" s="187" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="188"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="187"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="190"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="190"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="190"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="190"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="189"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="190"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="166"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="190"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="190"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="166"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="190"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="189"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="189"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31426,10 +31433,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="181" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="194" t="s">
+      <c r="B32" s="184" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31440,26 +31447,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="192"/>
-      <c r="B33" s="195"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="185"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="192"/>
-      <c r="B34" s="195"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="185"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="192"/>
-      <c r="B35" s="195"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="185"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
-      <c r="B36" s="196"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31488,10 +31495,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="177" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31502,8 +31509,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164"/>
-      <c r="B40" s="163"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31512,84 +31519,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="166" t="s">
+      <c r="D41" s="163" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="166"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="163"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="187" t="s">
+      <c r="A43" s="178"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="169" t="s">
+      <c r="D43" s="173" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="169"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="173"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="172" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="183"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="168"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="180" t="s">
+      <c r="A46" s="171"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="191" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="168"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="181"/>
+      <c r="A47" s="171"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="192"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="168"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="181"/>
+      <c r="A48" s="171"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="192"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="181"/>
+      <c r="A49" s="171"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="192"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="168"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="182"/>
+      <c r="A50" s="171"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="193"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31612,10 +31619,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="167" t="s">
+      <c r="A53" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="172" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31626,8 +31633,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
-      <c r="B54" s="167"/>
+      <c r="A54" s="172"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31636,8 +31643,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
-      <c r="B55" s="167"/>
+      <c r="A55" s="172"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31646,9 +31653,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="186" t="s">
+      <c r="A56" s="172"/>
+      <c r="B56" s="172"/>
+      <c r="C56" s="197" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31656,16 +31663,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="167"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="186"/>
+      <c r="A57" s="172"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="197"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
-      <c r="B58" s="167"/>
+      <c r="A58" s="172"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31674,8 +31681,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="167"/>
-      <c r="B59" s="167"/>
+      <c r="A59" s="172"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31684,9 +31691,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="167"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="186" t="s">
+      <c r="A60" s="172"/>
+      <c r="B60" s="172"/>
+      <c r="C60" s="197" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31694,25 +31701,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="167"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="186"/>
+      <c r="A61" s="172"/>
+      <c r="B61" s="172"/>
+      <c r="C61" s="197"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="186"/>
+      <c r="A62" s="172"/>
+      <c r="B62" s="172"/>
+      <c r="C62" s="197"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="167"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="187" t="s">
+      <c r="A63" s="172"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="190" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31720,30 +31727,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="167"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="169" t="s">
+      <c r="A64" s="172"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="190"/>
+      <c r="D64" s="173" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="167"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="187"/>
-      <c r="D65" s="169"/>
+      <c r="A65" s="172"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="173"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="167"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="169"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="190"/>
+      <c r="D66" s="173"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="187"/>
-      <c r="D67" s="169"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="173"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31799,23 +31806,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31832,6 +31822,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31840,10 +31847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31877,10 +31884,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="200" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="221" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31891,8 +31898,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="200"/>
-      <c r="B4" s="198"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31901,7 +31908,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="200" t="s">
         <v>438</v>
       </c>
       <c r="B5" s="203" t="s">
@@ -31913,32 +31920,32 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
-      <c r="B6" s="211"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
-      <c r="B7" s="211"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="100"/>
       <c r="D7" s="140" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
-      <c r="B8" s="211"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="100"/>
       <c r="D8" s="140" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="200"/>
-      <c r="B9" s="204"/>
+      <c r="A9" s="202"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="100" t="s">
         <v>498</v>
       </c>
@@ -31955,7 +31962,7 @@
       <c r="D10" s="104"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="215" t="s">
         <v>247</v>
       </c>
       <c r="B11" s="203" t="s">
@@ -31969,8 +31976,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
-      <c r="B12" s="204"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="128" t="s">
         <v>474</v>
       </c>
@@ -32005,7 +32012,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="221" t="s">
         <v>279</v>
       </c>
       <c r="B15" s="203" t="s">
@@ -32019,8 +32026,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
-      <c r="B16" s="211"/>
+      <c r="A16" s="222"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="106" t="s">
         <v>299</v>
       </c>
@@ -32029,8 +32036,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
-      <c r="B17" s="211"/>
+      <c r="A17" s="222"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="128" t="s">
         <v>280</v>
       </c>
@@ -32039,8 +32046,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="211"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
@@ -32049,8 +32056,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="211"/>
+      <c r="A19" s="222"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="100" t="s">
         <v>434</v>
       </c>
@@ -32059,8 +32066,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="211"/>
+      <c r="A20" s="222"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="100" t="s">
         <v>444</v>
       </c>
@@ -32069,8 +32076,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
-      <c r="B21" s="211"/>
+      <c r="A21" s="222"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="100" t="s">
         <v>446</v>
       </c>
@@ -32079,8 +32086,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="217"/>
-      <c r="B22" s="211"/>
+      <c r="A22" s="222"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="100" t="s">
         <v>434</v>
       </c>
@@ -32089,8 +32096,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="142" t="s">
         <v>453</v>
       </c>
@@ -32099,7 +32106,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="199" t="s">
+      <c r="A24" s="200" t="s">
         <v>452</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -32113,8 +32120,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="220"/>
-      <c r="B25" s="211"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="100" t="s">
         <v>453</v>
       </c>
@@ -32123,8 +32130,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="220"/>
-      <c r="B26" s="211"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="100">
         <v>3.3</v>
       </c>
@@ -32133,23 +32140,23 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="220"/>
-      <c r="B27" s="211"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
-      <c r="B28" s="204"/>
+      <c r="A28" s="202"/>
+      <c r="B28" s="205"/>
       <c r="C28" s="130">
         <v>3.5</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -32165,202 +32172,197 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="220" t="s">
         <v>501</v>
       </c>
       <c r="B30" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C30" s="100"/>
       <c r="D30" s="67" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="205"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="229" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="220"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="147" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="220"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
-      <c r="B32" s="211"/>
-      <c r="C32" t="s">
-        <v>508</v>
-      </c>
-      <c r="D32" s="67" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="220"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="61" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="146" t="s">
+      <c r="D33" s="59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="146" t="s">
         <v>502</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B34" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="67" t="s">
+      <c r="C34" s="100"/>
+      <c r="D34" s="67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="205" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="B35" s="206" t="s">
+      <c r="B36" s="226" t="s">
         <v>439</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C36" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D36" s="99" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="205"/>
-      <c r="B36" s="206"/>
-      <c r="C36" s="100" t="s">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="220"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="D36" s="106" t="s">
+      <c r="D37" s="106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="205"/>
-      <c r="B37" s="206"/>
-      <c r="C37" s="100" t="s">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="220"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D38" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
+    <row r="39" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="219" t="s">
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="104"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B40" s="219" t="s">
         <v>439</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106" t="s">
+      <c r="C40" s="106"/>
+      <c r="D40" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
-      <c r="B40" s="207"/>
-      <c r="C40" s="136" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="218"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D41" s="108" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="219"/>
-      <c r="B41" s="207"/>
-      <c r="C41" s="139" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="218"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="139" t="s">
         <v>484</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D42" s="108" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="219"/>
-      <c r="B42" s="207"/>
-      <c r="C42" s="141" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="218"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="141" t="s">
         <v>484</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D43" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
-      <c r="B43" s="207"/>
-      <c r="C43" s="139" t="s">
+    <row r="44" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="218"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D44" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="212" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="203" t="s">
+      <c r="B45" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C45" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D45" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="213"/>
-      <c r="B45" s="211"/>
-      <c r="C45" s="136" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="216"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="D45" s="135" t="s">
+      <c r="D46" s="135" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="214"/>
-      <c r="B46" s="204"/>
-      <c r="C46" s="137" t="s">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="217"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D47" s="110" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C47" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="B48" s="107" t="s">
         <v>439</v>
@@ -32374,245 +32376,247 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="109" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B49" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="D49" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="107"/>
+      <c r="D50" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="219" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="218" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="207" t="s">
+      <c r="B51" s="219" t="s">
         <v>439</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="80" t="s">
+      <c r="C51" s="106"/>
+      <c r="D51" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="219"/>
-      <c r="B51" s="207"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="218"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="219"/>
-      <c r="B52" s="207"/>
-      <c r="C52" s="111" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="218"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="106" t="s">
+      <c r="D53" s="106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="219"/>
-      <c r="B53" s="207"/>
-      <c r="C53" s="112" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="218"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D54" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="109" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B55" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C54" s="112" t="s">
+      <c r="C55" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="106"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="208" t="s">
+      <c r="D55" s="106"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="227" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="203" t="s">
+      <c r="B56" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="114" t="s">
+      <c r="C56" s="106"/>
+      <c r="D56" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="209"/>
-      <c r="B56" s="211"/>
-      <c r="C56" s="112" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="228"/>
+      <c r="B57" s="204"/>
+      <c r="C57" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="D56" s="106" t="s">
+      <c r="D57" s="106" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="209"/>
-      <c r="B57" s="211"/>
-      <c r="C57" s="112" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="228"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D57" s="106" t="s">
+      <c r="D58" s="106" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="209"/>
-      <c r="B58" s="211"/>
-      <c r="C58" s="115" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="228"/>
+      <c r="B59" s="204"/>
+      <c r="C59" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="D58" s="113" t="s">
+      <c r="D59" s="113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="209"/>
-      <c r="B59" s="211"/>
-      <c r="C59" s="112" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="228"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D60" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="209"/>
-      <c r="B60" s="211"/>
-      <c r="C60" s="112" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="228"/>
+      <c r="B61" s="204"/>
+      <c r="C61" s="112" t="s">
         <v>365</v>
       </c>
-      <c r="D60" s="113" t="s">
+      <c r="D61" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="209"/>
-      <c r="B61" s="211"/>
-      <c r="C61" s="112" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="228"/>
+      <c r="B62" s="204"/>
+      <c r="C62" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D61" s="113" t="s">
+      <c r="D62" s="113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="209"/>
-      <c r="B62" s="211"/>
-      <c r="C62" s="112" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="228"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="D62" s="113" t="s">
+      <c r="D63" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="209"/>
-      <c r="B63" s="211"/>
-      <c r="C63" s="133" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="228"/>
+      <c r="B64" s="204"/>
+      <c r="C64" s="133" t="s">
         <v>466</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D64" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="209"/>
-      <c r="B64" s="211"/>
-      <c r="C64" s="133" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="228"/>
+      <c r="B65" s="204"/>
+      <c r="C65" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D65" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="209"/>
-      <c r="B65" s="211"/>
-      <c r="C65" s="138" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="228"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="138" t="s">
         <v>466</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D66" s="61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="209"/>
-      <c r="B66" s="211"/>
-      <c r="C66" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="108" t="s">
-        <v>490</v>
-      </c>
-    </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="210"/>
+      <c r="A67" s="228"/>
       <c r="B67" s="204"/>
       <c r="C67" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D67" s="108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="229"/>
+      <c r="B68" s="205"/>
+      <c r="C68" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D67" s="108" t="s">
+      <c r="D68" s="108" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="B68" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C68" s="107" t="s">
-        <v>460</v>
-      </c>
-      <c r="D68" s="110" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="B69" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C69" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="D69" s="113" t="s">
-        <v>327</v>
+      <c r="C69" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="116" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B70" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C70" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="113"/>
+        <v>326</v>
+      </c>
+      <c r="D70" s="113" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="221" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" s="203" t="s">
+      <c r="A71" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="107" t="s">
         <v>439</v>
       </c>
       <c r="C71" s="112" t="s">
@@ -32621,1242 +32625,1240 @@
       <c r="D71" s="113"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="225"/>
-      <c r="B72" s="204"/>
+      <c r="A72" s="206" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" s="203" t="s">
+        <v>439</v>
+      </c>
       <c r="C72" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="113"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="207"/>
+      <c r="B73" s="205"/>
+      <c r="C73" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D73" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="103" t="s">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="221" t="s">
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="206" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="203" t="s">
+      <c r="B75" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C74" s="106"/>
-      <c r="D74" s="106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="222"/>
-      <c r="B75" s="211"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="222"/>
-      <c r="B76" s="211"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="204"/>
       <c r="C76" s="106"/>
       <c r="D76" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="208"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="222"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="106" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="208"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D77" s="106" t="s">
+      <c r="D78" s="106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="222"/>
-      <c r="B78" s="211"/>
-      <c r="C78" s="106" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="208"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D78" s="113" t="s">
+      <c r="D79" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="222"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="106" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="208"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D79" s="113" t="s">
+      <c r="D80" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="222"/>
-      <c r="B80" s="211"/>
-      <c r="C80" s="119" t="s">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="208"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D81" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="222"/>
-      <c r="B81" s="211"/>
-      <c r="C81" s="58" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="208"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D82" s="58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="222"/>
-      <c r="B82" s="211"/>
-      <c r="C82" s="130" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="208"/>
+      <c r="B83" s="204"/>
+      <c r="C83" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D83" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="222"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="130" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="208"/>
+      <c r="B84" s="204"/>
+      <c r="C84" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D84" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="222"/>
-      <c r="B84" s="211"/>
-      <c r="C84" s="130" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="208"/>
+      <c r="B85" s="204"/>
+      <c r="C85" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D85" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="222"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="130" t="s">
-        <v>353</v>
-      </c>
-      <c r="D85" s="108" t="s">
-        <v>490</v>
-      </c>
-    </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="225"/>
+      <c r="A86" s="208"/>
       <c r="B86" s="204"/>
       <c r="C86" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="207"/>
+      <c r="B87" s="205"/>
+      <c r="C87" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D87" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="215" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="203" t="s">
+      <c r="B88" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C87" s="106" t="s">
+      <c r="C88" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="113" t="s">
+      <c r="D88" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="216"/>
-      <c r="B88" s="211"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="106" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="210"/>
+      <c r="B89" s="204"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="216"/>
-      <c r="B89" s="211"/>
-      <c r="C89" s="117" t="s">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="210"/>
+      <c r="B90" s="204"/>
+      <c r="C90" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D89" s="113" t="s">
+      <c r="D90" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="216"/>
-      <c r="B90" s="211"/>
-      <c r="C90" s="117" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="210"/>
+      <c r="B91" s="204"/>
+      <c r="C91" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D90" s="113" t="s">
+      <c r="D91" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="216"/>
-      <c r="B91" s="211"/>
-      <c r="C91" s="117" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="210"/>
+      <c r="B92" s="204"/>
+      <c r="C92" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="113" t="s">
+      <c r="D92" s="113" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="216"/>
-      <c r="B92" s="211"/>
-      <c r="C92" s="117" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="210"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="113" t="s">
+      <c r="D93" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="216"/>
-      <c r="B93" s="211"/>
-      <c r="C93" s="117" t="s">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="210"/>
+      <c r="B94" s="204"/>
+      <c r="C94" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D93" s="118" t="s">
+      <c r="D94" s="118" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="216"/>
-      <c r="B94" s="211"/>
-      <c r="C94" s="109" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="210"/>
+      <c r="B95" s="204"/>
+      <c r="C95" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="113" t="s">
+      <c r="D95" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="216"/>
-      <c r="B95" s="211"/>
-      <c r="C95" s="109" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="210"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="D95" s="113" t="s">
+      <c r="D96" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="216"/>
-      <c r="B96" s="211"/>
-      <c r="C96" s="130" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="210"/>
+      <c r="B97" s="204"/>
+      <c r="C97" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D97" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="216"/>
-      <c r="B97" s="211"/>
-      <c r="C97" s="130" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="210"/>
+      <c r="B98" s="204"/>
+      <c r="C98" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D98" s="58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="216"/>
-      <c r="B98" s="211"/>
-      <c r="C98" s="130" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="210"/>
+      <c r="B99" s="204"/>
+      <c r="C99" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D99" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="216"/>
-      <c r="B99" s="211"/>
-      <c r="C99" s="130" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="210"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D99" s="58" t="s">
+      <c r="D100" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="216"/>
-      <c r="B100" s="211"/>
-      <c r="C100" s="130" t="s">
-        <v>353</v>
-      </c>
-      <c r="D100" s="108" t="s">
-        <v>490</v>
-      </c>
-    </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="218"/>
+      <c r="A101" s="210"/>
       <c r="B101" s="204"/>
       <c r="C101" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="D101" s="108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="211"/>
+      <c r="B102" s="205"/>
+      <c r="C102" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D101" s="108" t="s">
+      <c r="D102" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="212" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="203" t="s">
+      <c r="B103" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C102" s="226" t="s">
+      <c r="C103" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="D102" s="96" t="s">
+      <c r="D103" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="213"/>
-      <c r="B103" s="211"/>
-      <c r="C103" s="227"/>
-      <c r="D103" s="113" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="216"/>
+      <c r="B104" s="204"/>
+      <c r="C104" s="213"/>
+      <c r="D104" s="113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="213"/>
-      <c r="B104" s="211"/>
-      <c r="C104" s="228" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="216"/>
+      <c r="B105" s="204"/>
+      <c r="C105" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="D104" s="106" t="s">
+      <c r="D105" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="213"/>
-      <c r="B105" s="211"/>
-      <c r="C105" s="228"/>
-      <c r="D105" s="119" t="s">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="216"/>
+      <c r="B106" s="204"/>
+      <c r="C106" s="214"/>
+      <c r="D106" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="213"/>
-      <c r="B106" s="211"/>
-      <c r="C106" s="112" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="216"/>
+      <c r="B107" s="204"/>
+      <c r="C107" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="D106" s="106" t="s">
+      <c r="D107" s="106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="213"/>
-      <c r="B107" s="211"/>
-      <c r="C107" s="112">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="216"/>
+      <c r="B108" s="204"/>
+      <c r="C108" s="112">
         <v>2.1</v>
       </c>
-      <c r="D107" s="106" t="s">
+      <c r="D108" s="106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="213"/>
-      <c r="B108" s="211"/>
-      <c r="C108" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="106" t="s">
-        <v>311</v>
-      </c>
-    </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="213"/>
-      <c r="B109" s="211"/>
+      <c r="A109" s="216"/>
+      <c r="B109" s="204"/>
       <c r="C109" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="118" t="s">
-        <v>340</v>
+      <c r="D109" s="106" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="213"/>
-      <c r="B110" s="211"/>
+      <c r="A110" s="216"/>
+      <c r="B110" s="204"/>
       <c r="C110" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D110" s="113" t="s">
+      <c r="D110" s="118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="216"/>
+      <c r="B111" s="204"/>
+      <c r="C111" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="113" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="213"/>
-      <c r="B111" s="211"/>
-      <c r="C111" s="120" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="216"/>
+      <c r="B112" s="204"/>
+      <c r="C112" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="D111" s="121" t="s">
+      <c r="D112" s="121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="213"/>
-      <c r="B112" s="211"/>
-      <c r="C112" s="112">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="216"/>
+      <c r="B113" s="204"/>
+      <c r="C113" s="112">
         <v>2.1</v>
       </c>
-      <c r="D112" s="106" t="s">
+      <c r="D113" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="213"/>
-      <c r="B113" s="211"/>
-      <c r="C113" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="213"/>
-      <c r="B114" s="211"/>
+      <c r="A114" s="216"/>
+      <c r="B114" s="204"/>
       <c r="C114" s="112" t="s">
         <v>238</v>
       </c>
       <c r="D114" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="216"/>
+      <c r="B115" s="204"/>
+      <c r="C115" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="213"/>
-      <c r="B115" s="211"/>
-      <c r="C115" s="112">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="216"/>
+      <c r="B116" s="204"/>
+      <c r="C116" s="112">
         <v>2.1</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="215" t="s">
+    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="209" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="203" t="s">
+      <c r="B117" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C116" s="106" t="s">
+      <c r="C117" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="216"/>
-      <c r="B117" s="211"/>
-      <c r="C117" s="119" t="s">
+    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="210"/>
+      <c r="B118" s="204"/>
+      <c r="C118" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D117" s="106" t="s">
+      <c r="D118" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="218"/>
-      <c r="B118" s="204"/>
-      <c r="C118" s="106" t="s">
+    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="211"/>
+      <c r="B119" s="205"/>
+      <c r="C119" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D118" s="106" t="s">
+      <c r="D119" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="221" t="s">
+    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="206" t="s">
         <v>364</v>
       </c>
-      <c r="B119" s="203" t="s">
+      <c r="B120" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C119" s="112" t="s">
+      <c r="C120" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="106"/>
-    </row>
-    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="222"/>
-      <c r="B120" s="211"/>
-      <c r="C120" s="112" t="s">
+      <c r="D120" s="106"/>
+    </row>
+    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="208"/>
+      <c r="B121" s="204"/>
+      <c r="C121" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="D120" s="106" t="s">
+      <c r="D121" s="106" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="222"/>
-      <c r="B121" s="211"/>
-      <c r="C121" s="112">
+    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="208"/>
+      <c r="B122" s="204"/>
+      <c r="C122" s="112">
         <v>2.1</v>
       </c>
-      <c r="D121" s="106" t="s">
+      <c r="D122" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="222"/>
-      <c r="B122" s="211"/>
-      <c r="C122" s="112" t="s">
+    <row r="123" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="208"/>
+      <c r="B123" s="204"/>
+      <c r="C123" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D122" s="106" t="s">
+      <c r="D123" s="106" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="222"/>
-      <c r="B123" s="211"/>
-      <c r="C123" s="112" t="s">
+    <row r="124" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="208"/>
+      <c r="B124" s="204"/>
+      <c r="C124" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D123" s="106" t="s">
+      <c r="D124" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="103" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="103"/>
-      <c r="C124" s="103"/>
-      <c r="D124" s="104"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="109" t="s">
+      <c r="B125" s="103"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="104"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B125" s="112" t="s">
+      <c r="B126" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C125" s="112" t="s">
+      <c r="C126" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D125" s="113"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="212" t="s">
+      <c r="D126" s="113"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="215" t="s">
         <v>255</v>
       </c>
-      <c r="B126" s="203" t="s">
+      <c r="B127" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C126" s="106"/>
-      <c r="D126" s="80" t="s">
+      <c r="C127" s="106"/>
+      <c r="D127" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="213"/>
-      <c r="B127" s="211"/>
-      <c r="C127" s="106"/>
-      <c r="D127" s="106" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="216"/>
+      <c r="B128" s="204"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="213"/>
-      <c r="B128" s="211"/>
-      <c r="C128" s="106"/>
-      <c r="D128" s="113" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="216"/>
+      <c r="B129" s="204"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="113" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="213"/>
-      <c r="B129" s="211"/>
-      <c r="C129" s="106" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="216"/>
+      <c r="B130" s="204"/>
+      <c r="C130" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="D129" s="113" t="s">
+      <c r="D130" s="113" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="213"/>
-      <c r="B130" s="211"/>
-      <c r="C130" s="106" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="216"/>
+      <c r="B131" s="204"/>
+      <c r="C131" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="D130" s="113" t="s">
+      <c r="D131" s="113" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="213"/>
-      <c r="B131" s="211"/>
-      <c r="C131" s="106" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="216"/>
+      <c r="B132" s="204"/>
+      <c r="C132" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="D131" s="113" t="s">
+      <c r="D132" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="213"/>
-      <c r="B132" s="211"/>
-      <c r="C132" s="106" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="216"/>
+      <c r="B133" s="204"/>
+      <c r="C133" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D133" s="113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="219" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="218" t="s">
         <v>328</v>
       </c>
-      <c r="B133" s="207" t="s">
+      <c r="B134" s="219" t="s">
         <v>439</v>
       </c>
-      <c r="C133" s="80" t="s">
+      <c r="C134" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D133" s="113" t="s">
+      <c r="D134" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="219"/>
-      <c r="B134" s="207"/>
-      <c r="C134" s="106" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="218"/>
+      <c r="B135" s="219"/>
+      <c r="C135" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D134" s="106" t="s">
+      <c r="D135" s="106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="219"/>
-      <c r="B135" s="207"/>
-      <c r="C135" s="122" t="s">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="218"/>
+      <c r="B136" s="219"/>
+      <c r="C136" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="D135" s="223" t="s">
+      <c r="D136" s="198" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="219"/>
-      <c r="B136" s="207"/>
-      <c r="C136" s="122" t="s">
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="218"/>
+      <c r="B137" s="219"/>
+      <c r="C137" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D136" s="224"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="219"/>
-      <c r="B137" s="207"/>
-      <c r="C137" s="122" t="s">
+      <c r="D137" s="199"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="218"/>
+      <c r="B138" s="219"/>
+      <c r="C138" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D137" s="224"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="219"/>
-      <c r="B138" s="207"/>
-      <c r="C138" s="122" t="s">
+      <c r="D138" s="199"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="218"/>
+      <c r="B139" s="219"/>
+      <c r="C139" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D138" s="224"/>
-    </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="219"/>
-      <c r="B139" s="207"/>
-      <c r="C139" s="122" t="s">
+      <c r="D139" s="199"/>
+    </row>
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="218"/>
+      <c r="B140" s="219"/>
+      <c r="C140" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D139" s="131" t="s">
+      <c r="D140" s="131" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="109" t="s">
+    <row r="141" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B140" s="112" t="s">
+      <c r="B141" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="107" t="s">
+      <c r="C141" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D140" s="110" t="s">
+      <c r="D141" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="215" t="s">
+    <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="B141" s="203" t="s">
+      <c r="B142" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C141" s="106" t="s">
+      <c r="C142" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="D141" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="216"/>
-      <c r="B142" s="211"/>
-      <c r="C142" s="106" t="s">
-        <v>264</v>
       </c>
       <c r="D142" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="216"/>
-      <c r="B143" s="211"/>
+      <c r="A143" s="210"/>
+      <c r="B143" s="204"/>
       <c r="C143" s="106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D143" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="216"/>
-      <c r="B144" s="211"/>
-      <c r="C144" s="113" t="s">
+      <c r="A144" s="210"/>
+      <c r="B144" s="204"/>
+      <c r="C144" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D144" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="210"/>
+      <c r="B145" s="204"/>
+      <c r="C145" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="D144" s="113" t="s">
+      <c r="D145" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="216"/>
-      <c r="B145" s="211"/>
-      <c r="C145" s="106" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="210"/>
+      <c r="B146" s="204"/>
+      <c r="C146" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="D145" s="106" t="s">
+      <c r="D146" s="106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="216"/>
-      <c r="B146" s="211"/>
-      <c r="C146" s="106" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="210"/>
+      <c r="B147" s="204"/>
+      <c r="C147" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="D146" s="106" t="s">
+      <c r="D147" s="106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="216"/>
-      <c r="B147" s="211"/>
-      <c r="C147" s="113" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="210"/>
+      <c r="B148" s="204"/>
+      <c r="C148" s="113" t="s">
         <v>282</v>
-      </c>
-      <c r="D147" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="216"/>
-      <c r="B148" s="211"/>
-      <c r="C148" s="113" t="s">
-        <v>296</v>
       </c>
       <c r="D148" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="216"/>
-      <c r="B149" s="211"/>
+      <c r="A149" s="210"/>
+      <c r="B149" s="204"/>
       <c r="C149" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="210"/>
+      <c r="B150" s="204"/>
+      <c r="C150" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="D149" s="113" t="s">
+      <c r="D150" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="216"/>
-      <c r="B150" s="211"/>
-      <c r="C150" s="123" t="s">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="210"/>
+      <c r="B151" s="204"/>
+      <c r="C151" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="D150" s="110" t="s">
+      <c r="D151" s="110" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="216"/>
-      <c r="B151" s="211"/>
-      <c r="C151" s="117" t="s">
+    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="210"/>
+      <c r="B152" s="204"/>
+      <c r="C152" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="D151" s="113" t="s">
+      <c r="D152" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="216"/>
-      <c r="B152" s="211"/>
-      <c r="C152" s="106" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="210"/>
+      <c r="B153" s="204"/>
+      <c r="C153" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="D152" s="106" t="s">
+      <c r="D153" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="216"/>
-      <c r="B153" s="211"/>
-      <c r="C153" s="113" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="210"/>
+      <c r="B154" s="204"/>
+      <c r="C154" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="D153" s="113" t="s">
+      <c r="D154" s="113" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="216"/>
-      <c r="B154" s="211"/>
-      <c r="C154" s="113" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="210"/>
+      <c r="B155" s="204"/>
+      <c r="C155" s="113" t="s">
         <v>309</v>
-      </c>
-      <c r="D154" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="216"/>
-      <c r="B155" s="211"/>
-      <c r="C155" s="113" t="s">
-        <v>262</v>
       </c>
       <c r="D155" s="113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="216"/>
-      <c r="B156" s="211"/>
-      <c r="C156" s="106" t="s">
+      <c r="A156" s="210"/>
+      <c r="B156" s="204"/>
+      <c r="C156" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="210"/>
+      <c r="B157" s="204"/>
+      <c r="C157" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="D156" s="106" t="s">
+      <c r="D157" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="216"/>
-      <c r="B157" s="211"/>
-      <c r="C157" s="113" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="210"/>
+      <c r="B158" s="204"/>
+      <c r="C158" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="113" t="s">
+      <c r="D158" s="113" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="216"/>
-      <c r="B158" s="211"/>
-      <c r="C158" s="113" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="210"/>
+      <c r="B159" s="204"/>
+      <c r="C159" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="D158" s="113" t="s">
+      <c r="D159" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="216"/>
-      <c r="B159" s="211"/>
-      <c r="C159" s="106"/>
-      <c r="D159" s="97" t="s">
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="210"/>
+      <c r="B160" s="204"/>
+      <c r="C160" s="106"/>
+      <c r="D160" s="97" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="216"/>
-      <c r="B160" s="211"/>
-      <c r="C160" s="113" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="210"/>
+      <c r="B161" s="204"/>
+      <c r="C161" s="113" t="s">
         <v>316</v>
-      </c>
-      <c r="D160" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="216"/>
-      <c r="B161" s="211"/>
-      <c r="C161" s="113" t="s">
-        <v>262</v>
       </c>
       <c r="D161" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="216"/>
-      <c r="B162" s="211"/>
+      <c r="A162" s="210"/>
+      <c r="B162" s="204"/>
       <c r="C162" s="113" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="D162" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="216"/>
-      <c r="B163" s="211"/>
+      <c r="A163" s="210"/>
+      <c r="B163" s="204"/>
       <c r="C163" s="113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D163" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="216"/>
-      <c r="B164" s="211"/>
+      <c r="A164" s="210"/>
+      <c r="B164" s="204"/>
       <c r="C164" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D164" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="210"/>
+      <c r="B165" s="204"/>
+      <c r="C165" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="D164" s="113" t="s">
+      <c r="D165" s="113" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="216"/>
-      <c r="B165" s="211"/>
-      <c r="C165" s="113" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="210"/>
+      <c r="B166" s="204"/>
+      <c r="C166" s="113" t="s">
         <v>339</v>
       </c>
-      <c r="D165" s="113" t="s">
+      <c r="D166" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="216"/>
-      <c r="B166" s="211"/>
-      <c r="C166" s="113" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="210"/>
+      <c r="B167" s="204"/>
+      <c r="C167" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="D166" s="113" t="s">
+      <c r="D167" s="113" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="216"/>
-      <c r="B167" s="211"/>
-      <c r="C167" s="113" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="210"/>
+      <c r="B168" s="204"/>
+      <c r="C168" s="113" t="s">
         <v>347</v>
       </c>
-      <c r="D167" s="113" t="s">
+      <c r="D168" s="113" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="216"/>
-      <c r="B168" s="211"/>
-      <c r="C168" s="101" t="s">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="210"/>
+      <c r="B169" s="204"/>
+      <c r="C169" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="D168" s="124" t="s">
+      <c r="D169" s="124" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="216"/>
-      <c r="B169" s="211"/>
-      <c r="C169" s="113" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="210"/>
+      <c r="B170" s="204"/>
+      <c r="C170" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="D169" s="113" t="s">
+      <c r="D170" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="216"/>
-      <c r="B170" s="211"/>
-      <c r="C170" s="113" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="210"/>
+      <c r="B171" s="204"/>
+      <c r="C171" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="D170" s="113" t="s">
+      <c r="D171" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="216"/>
-      <c r="B171" s="211"/>
-      <c r="C171" s="113" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="210"/>
+      <c r="B172" s="204"/>
+      <c r="C172" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="D171" s="113" t="s">
+      <c r="D172" s="113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="216"/>
-      <c r="B172" s="211"/>
-      <c r="C172" s="113" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="210"/>
+      <c r="B173" s="204"/>
+      <c r="C173" s="113" t="s">
         <v>360</v>
-      </c>
-      <c r="D172" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="216"/>
-      <c r="B173" s="211"/>
-      <c r="C173" s="113" t="s">
-        <v>366</v>
       </c>
       <c r="D173" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="216"/>
-      <c r="B174" s="211"/>
+      <c r="A174" s="210"/>
+      <c r="B174" s="204"/>
       <c r="C174" s="113" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D174" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="216"/>
-      <c r="B175" s="211"/>
-      <c r="C175" s="118" t="s">
+      <c r="A175" s="210"/>
+      <c r="B175" s="204"/>
+      <c r="C175" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="210"/>
+      <c r="B176" s="204"/>
+      <c r="C176" s="118" t="s">
         <v>379</v>
       </c>
-      <c r="D175" s="118" t="s">
+      <c r="D176" s="118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="216"/>
-      <c r="B176" s="211"/>
-      <c r="C176" s="106" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="210"/>
+      <c r="B177" s="204"/>
+      <c r="C177" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D176" s="106" t="s">
+      <c r="D177" s="106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="216"/>
-      <c r="B177" s="211"/>
-      <c r="C177" s="106" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="210"/>
+      <c r="B178" s="204"/>
+      <c r="C178" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="D177" s="106" t="s">
+      <c r="D178" s="106" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="216"/>
-      <c r="B178" s="211"/>
-      <c r="C178" s="106" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="210"/>
+      <c r="B179" s="204"/>
+      <c r="C179" s="106" t="s">
         <v>387</v>
-      </c>
-      <c r="D178" s="106" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="216"/>
-      <c r="B179" s="211"/>
-      <c r="C179" s="106" t="s">
-        <v>388</v>
       </c>
       <c r="D179" s="106" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="216"/>
-      <c r="B180" s="211"/>
+      <c r="A180" s="210"/>
+      <c r="B180" s="204"/>
       <c r="C180" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D180" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="210"/>
+      <c r="B181" s="204"/>
+      <c r="C181" s="106" t="s">
         <v>389</v>
-      </c>
-      <c r="D180" s="106" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="216"/>
-      <c r="B181" s="211"/>
-      <c r="C181" s="106" t="s">
-        <v>390</v>
       </c>
       <c r="D181" s="106" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="216"/>
-      <c r="B182" s="211"/>
+      <c r="A182" s="210"/>
+      <c r="B182" s="204"/>
       <c r="C182" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D182" s="106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="210"/>
+      <c r="B183" s="204"/>
+      <c r="C183" s="106" t="s">
         <v>393</v>
-      </c>
-      <c r="D182" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="216"/>
-      <c r="B183" s="211"/>
-      <c r="C183" s="106" t="s">
-        <v>403</v>
       </c>
       <c r="D183" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="216"/>
-      <c r="B184" s="211"/>
+      <c r="A184" s="210"/>
+      <c r="B184" s="204"/>
       <c r="C184" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D184" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="210"/>
+      <c r="B185" s="204"/>
+      <c r="C185" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="D184" s="106" t="s">
+      <c r="D185" s="106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="216"/>
-      <c r="B185" s="211"/>
-      <c r="C185" s="106" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="210"/>
+      <c r="B186" s="204"/>
+      <c r="C186" s="106" t="s">
         <v>421</v>
-      </c>
-      <c r="D185" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="216"/>
-      <c r="B186" s="211"/>
-      <c r="C186" s="106" t="s">
-        <v>422</v>
       </c>
       <c r="D186" s="106" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="216"/>
-      <c r="B187" s="211"/>
+      <c r="A187" s="210"/>
+      <c r="B187" s="204"/>
       <c r="C187" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D187" s="106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="210"/>
+      <c r="B188" s="204"/>
+      <c r="C188" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D187" s="106" t="s">
+      <c r="D188" s="106" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="216"/>
-      <c r="B188" s="211"/>
-      <c r="C188" s="58" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="210"/>
+      <c r="B189" s="204"/>
+      <c r="C189" s="58" t="s">
         <v>471</v>
-      </c>
-      <c r="D188" s="58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="216"/>
-      <c r="B189" s="211"/>
-      <c r="C189" s="58" t="s">
-        <v>421</v>
       </c>
       <c r="D189" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="216"/>
-      <c r="B190" s="211"/>
+      <c r="A190" s="210"/>
+      <c r="B190" s="204"/>
       <c r="C190" s="58" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="D190" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="215" t="s">
+      <c r="A191" s="210"/>
+      <c r="B191" s="204"/>
+      <c r="C191" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="D191" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="209" t="s">
         <v>415</v>
       </c>
-      <c r="B191" s="203" t="s">
+      <c r="B192" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C191" s="106" t="s">
+      <c r="C192" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D191" s="113" t="s">
+      <c r="D192" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="218"/>
-      <c r="B192" s="204"/>
-      <c r="C192" s="118" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="211"/>
+      <c r="B193" s="205"/>
+      <c r="C193" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D192" s="118" t="s">
+      <c r="D193" s="118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="109" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="109" t="s">
         <v>303</v>
-      </c>
-      <c r="B193" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C193" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D193" s="113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="109" t="s">
-        <v>304</v>
       </c>
       <c r="B194" s="107" t="s">
         <v>439</v>
@@ -33868,375 +33870,389 @@
         <v>268</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="103" t="s">
+    <row r="195" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B195" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C195" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="103"/>
-      <c r="C195" s="103"/>
-      <c r="D195" s="104"/>
-    </row>
-    <row r="196" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="212" t="s">
+      <c r="B196" s="103"/>
+      <c r="C196" s="103"/>
+      <c r="D196" s="104"/>
+    </row>
+    <row r="197" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="B196" s="203" t="s">
+      <c r="B197" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C196" s="106"/>
-      <c r="D196" s="80" t="s">
+      <c r="C197" s="106"/>
+      <c r="D197" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="213"/>
-      <c r="B197" s="211"/>
-      <c r="C197" s="107" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="216"/>
+      <c r="B198" s="204"/>
+      <c r="C198" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D197" s="106" t="s">
+      <c r="D198" s="106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="213"/>
-      <c r="B198" s="211"/>
-      <c r="C198" s="107">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="216"/>
+      <c r="B199" s="204"/>
+      <c r="C199" s="107">
         <v>10.1</v>
-      </c>
-      <c r="D198" s="106" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="213"/>
-      <c r="B199" s="211"/>
-      <c r="C199" s="107">
-        <v>10.199999999999999</v>
       </c>
       <c r="D199" s="106" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="213"/>
-      <c r="B200" s="211"/>
-      <c r="C200" s="98" t="s">
+      <c r="A200" s="216"/>
+      <c r="B200" s="204"/>
+      <c r="C200" s="107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D200" s="106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="216"/>
+      <c r="B201" s="204"/>
+      <c r="C201" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D200" s="95" t="s">
+      <c r="D201" s="95" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="213"/>
-      <c r="B201" s="211"/>
-      <c r="C201" s="98" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="216"/>
+      <c r="B202" s="204"/>
+      <c r="C202" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="D201" s="95" t="s">
+      <c r="D202" s="95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="213"/>
-      <c r="B202" s="211"/>
-      <c r="C202" s="98" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="216"/>
+      <c r="B203" s="204"/>
+      <c r="C203" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D202" s="95" t="s">
+      <c r="D203" s="95" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="213"/>
-      <c r="B203" s="211"/>
-      <c r="C203" s="98" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="216"/>
+      <c r="B204" s="204"/>
+      <c r="C204" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="D203" s="95" t="s">
+      <c r="D204" s="95" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="213"/>
-      <c r="B204" s="211"/>
-      <c r="C204" s="98" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="216"/>
+      <c r="B205" s="204"/>
+      <c r="C205" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D204" s="95" t="s">
+      <c r="D205" s="95" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="213"/>
-      <c r="B205" s="211"/>
-      <c r="C205" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="D205" s="132" t="s">
-        <v>472</v>
-      </c>
-    </row>
     <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="214"/>
+      <c r="A206" s="216"/>
       <c r="B206" s="204"/>
       <c r="C206" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="D206" s="143" t="s">
+      <c r="D206" s="132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="217"/>
+      <c r="B207" s="205"/>
+      <c r="C207" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="D207" s="143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="212" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="215" t="s">
         <v>246</v>
       </c>
-      <c r="B207" s="203" t="s">
+      <c r="B208" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="C207" s="98"/>
-      <c r="D207" s="125" t="s">
+      <c r="C208" s="98"/>
+      <c r="D208" s="125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="213"/>
-      <c r="B208" s="211"/>
-      <c r="C208" s="126" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="216"/>
+      <c r="B209" s="204"/>
+      <c r="C209" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D208" s="102" t="s">
+      <c r="D209" s="102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="110" t="s">
+    <row r="210" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B209" s="107" t="s">
+      <c r="B210" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C209" s="107" t="s">
+      <c r="C210" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D209" s="113" t="s">
+      <c r="D210" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="127" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B210" s="127"/>
-      <c r="C210" s="127"/>
-      <c r="D210" s="127"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="212" t="s">
+      <c r="B211" s="127"/>
+      <c r="C211" s="127"/>
+      <c r="D211" s="127"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="B211" s="203" t="s">
+      <c r="B212" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C211" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="D211" s="106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="213"/>
-      <c r="B212" s="211"/>
       <c r="C212" s="128" t="s">
         <v>259</v>
       </c>
       <c r="D212" s="106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="216"/>
+      <c r="B213" s="204"/>
+      <c r="C213" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D213" s="106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="214"/>
-      <c r="B213" s="204"/>
-      <c r="C213" s="106"/>
-      <c r="D213" s="106" t="s">
+    <row r="214" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="217"/>
+      <c r="B214" s="205"/>
+      <c r="C214" s="106"/>
+      <c r="D214" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="201" t="s">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="203" t="s">
+      <c r="B215" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C214" s="119" t="s">
+      <c r="C215" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D214" s="106" t="s">
+      <c r="D215" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="202"/>
-      <c r="B215" s="204"/>
-      <c r="C215" s="119"/>
-      <c r="D215" s="106" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="225"/>
+      <c r="B216" s="205"/>
+      <c r="C216" s="119"/>
+      <c r="D216" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="201" t="s">
+    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="224" t="s">
         <v>285</v>
       </c>
-      <c r="B216" s="203" t="s">
+      <c r="B217" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="119"/>
-      <c r="D216" s="119" t="s">
+      <c r="C217" s="119"/>
+      <c r="D217" s="119" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="202"/>
-      <c r="B217" s="204"/>
-      <c r="C217" s="106"/>
-      <c r="D217" s="106" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="225"/>
+      <c r="B218" s="205"/>
+      <c r="C218" s="106"/>
+      <c r="D218" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="201" t="s">
+    <row r="219" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="B218" s="203" t="s">
+      <c r="B219" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="C218" s="119" t="s">
+      <c r="C219" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D218" s="106" t="s">
+      <c r="D219" s="106" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="202"/>
-      <c r="B219" s="204"/>
-      <c r="C219" s="106"/>
-      <c r="D219" s="106" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="225"/>
+      <c r="B220" s="205"/>
+      <c r="C220" s="106"/>
+      <c r="D220" s="106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="127" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="B220" s="127"/>
-      <c r="C220" s="127"/>
-      <c r="D220" s="127"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="106"/>
-      <c r="B221" s="107" t="s">
+      <c r="B221" s="127"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="127"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="106"/>
+      <c r="B222" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C221" s="106" t="s">
+      <c r="C222" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="113" t="s">
+      <c r="D222" s="113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="127" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="B222" s="127"/>
-      <c r="C222" s="127"/>
-      <c r="D222" s="127"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="106"/>
-      <c r="B223" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C223" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D223" s="113" t="s">
-        <v>268</v>
-      </c>
+      <c r="B223" s="127"/>
+      <c r="C223" s="127"/>
+      <c r="D223" s="127"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="106"/>
-      <c r="B224" s="107"/>
+      <c r="B224" s="107" t="s">
+        <v>439</v>
+      </c>
       <c r="C224" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="106"/>
+      <c r="B225" s="107"/>
+      <c r="C225" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="D224" s="113" t="s">
+      <c r="D225" s="113" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D135:D138"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="B56:B68"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A142:A191"/>
+    <mergeCell ref="B142:B191"/>
+    <mergeCell ref="A103:A116"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="A197:A207"/>
+    <mergeCell ref="B197:B207"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B103:B116"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D136:D139"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A74:A86"/>
-    <mergeCell ref="B74:B86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A141:A190"/>
-    <mergeCell ref="B141:B190"/>
-    <mergeCell ref="A102:A115"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="B196:B206"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B102:B115"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="B75:B87"/>
+    <mergeCell ref="A88:A102"/>
+    <mergeCell ref="B88:B102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A134:A140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT4/Schema Publication Changelog.xlsx
+++ b/PIT4/Schema Publication Changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19098E4-2B6F-4854-A15F-BAC0E4808F3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A31E78-CF3A-4764-B223-AFAED9AA7A3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$38</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="514">
   <si>
     <t>Document</t>
   </si>
@@ -3414,6 +3414,15 @@
   </si>
   <si>
     <t>Document Published</t>
+  </si>
+  <si>
+    <t>Temporary Wage Subsidy Scheme CSV Format</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Renamed from Temporary Wage Subsidy Scheme CSV Example to Temporary Wage Subsidy Scheme CSV Format</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4469,8 +4478,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4493,66 +4532,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4574,55 +4553,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4634,41 +4637,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5682,7 +5694,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5692,7 +5704,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5802,10 +5814,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5816,8 +5828,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5826,8 +5838,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5836,8 +5848,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5846,8 +5858,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5856,8 +5868,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5866,10 +5878,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5880,8 +5892,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5890,8 +5902,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5900,10 +5912,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="168" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5914,8 +5926,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5924,8 +5936,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5934,8 +5946,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="172"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5944,8 +5956,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5954,8 +5966,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5964,8 +5976,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5974,8 +5986,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5984,26 +5996,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="163" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="164" t="s">
+      <c r="D24" s="174" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="174"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6014,8 +6026,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="178"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -6042,28 +6054,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="167" t="s">
+      <c r="D30" s="177" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="167"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="177"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6072,8 +6084,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="165"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6082,8 +6094,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6092,8 +6104,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6102,8 +6114,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6112,26 +6124,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="168" t="s">
+      <c r="A37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="180" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
+      <c r="A38" s="165"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6142,8 +6154,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6170,10 +6182,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6182,8 +6194,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6192,10 +6204,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="164" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6204,8 +6216,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="175"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6214,8 +6226,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="175"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6224,8 +6236,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="176"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="173"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6234,10 +6246,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="168" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10341,8 +10353,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="172"/>
-      <c r="B50" s="172"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14446,8 +14458,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
+      <c r="A51" s="168"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18551,8 +18563,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
-      <c r="B52" s="172"/>
+      <c r="A52" s="168"/>
+      <c r="B52" s="168"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22656,12 +22668,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="172"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="166" t="s">
+      <c r="A53" s="168"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="167" t="s">
+      <c r="D53" s="177" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26761,10 +26773,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="172"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="167"/>
+      <c r="A54" s="168"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="177"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30882,10 +30894,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="171" t="s">
+      <c r="A57" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="172" t="s">
+      <c r="B57" s="168" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30896,8 +30908,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="171"/>
-      <c r="B58" s="172"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30906,8 +30918,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="171"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="168"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30916,8 +30928,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="168"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30926,8 +30938,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="171"/>
-      <c r="B61" s="172"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="168"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30936,8 +30948,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="171"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="168"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30946,8 +30958,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="171"/>
-      <c r="B63" s="172"/>
+      <c r="A63" s="169"/>
+      <c r="B63" s="168"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30956,16 +30968,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="171"/>
-      <c r="B64" s="172"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="168"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="171"/>
-      <c r="B65" s="172"/>
+      <c r="A65" s="169"/>
+      <c r="B65" s="168"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30974,16 +30986,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="171"/>
-      <c r="B66" s="172"/>
+      <c r="A66" s="169"/>
+      <c r="B66" s="168"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="171"/>
-      <c r="B67" s="172"/>
+      <c r="A67" s="169"/>
+      <c r="B67" s="168"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30992,8 +31004,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="171"/>
-      <c r="B68" s="172"/>
+      <c r="A68" s="169"/>
+      <c r="B68" s="168"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -31002,8 +31014,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="171"/>
-      <c r="B69" s="172"/>
+      <c r="A69" s="169"/>
+      <c r="B69" s="168"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -31012,8 +31024,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="171"/>
-      <c r="B70" s="172"/>
+      <c r="A70" s="169"/>
+      <c r="B70" s="168"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -31022,8 +31034,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="171"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="169"/>
+      <c r="B71" s="168"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -31032,8 +31044,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="171"/>
-      <c r="B72" s="172"/>
+      <c r="A72" s="169"/>
+      <c r="B72" s="168"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -31042,16 +31054,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="171"/>
-      <c r="B73" s="172"/>
+      <c r="A73" s="169"/>
+      <c r="B73" s="168"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="171"/>
-      <c r="B74" s="172"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="168"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31060,18 +31072,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="171"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="173" t="s">
+      <c r="A75" s="169"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="170" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="171"/>
-      <c r="B76" s="172"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="173"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="170"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31095,8 +31107,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31105,13 +31117,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31126,22 +31154,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31195,10 +31207,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="164" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31209,133 +31221,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="188" t="s">
+      <c r="A5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="189" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="187"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="189"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="177"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="187" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="189" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="187"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="189"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="187"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="191"/>
+      <c r="D13" s="189" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="187"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="189"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="189"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="189"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="189"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="189"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="189"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="189"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="189"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="189"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="189"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31433,10 +31445,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="192" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="195" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31447,26 +31459,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
-      <c r="B33" s="185"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="196"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
-      <c r="B34" s="185"/>
+      <c r="A34" s="193"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182"/>
-      <c r="B35" s="185"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="196"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="197"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31495,10 +31507,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="164" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31509,8 +31521,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31519,84 +31531,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="190" t="s">
+      <c r="C41" s="188" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="163" t="s">
+      <c r="D41" s="167" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="178"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="163"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="167"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="178"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="190" t="s">
+      <c r="A43" s="163"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="173" t="s">
+      <c r="D43" s="170" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="178"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="173"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="170"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="171" t="s">
+      <c r="A45" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="194"/>
+      <c r="C45" s="184"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="171"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="191" t="s">
+      <c r="A46" s="169"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="181" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="171"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="192"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="182"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="171"/>
-      <c r="B48" s="172"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="192"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="182"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="171"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="192"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="182"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="171"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="193"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="183"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31619,10 +31631,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="172" t="s">
+      <c r="B53" s="168" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31633,8 +31645,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="172"/>
-      <c r="B54" s="172"/>
+      <c r="A54" s="168"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31643,8 +31655,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172"/>
-      <c r="B55" s="172"/>
+      <c r="A55" s="168"/>
+      <c r="B55" s="168"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31653,9 +31665,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="172"/>
-      <c r="B56" s="172"/>
-      <c r="C56" s="197" t="s">
+      <c r="A56" s="168"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="187" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31663,16 +31675,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="172"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="197"/>
+      <c r="A57" s="168"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="187"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="172"/>
-      <c r="B58" s="172"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31681,8 +31693,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="172"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="168"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31691,9 +31703,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="172"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="197" t="s">
+      <c r="A60" s="168"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="187" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31701,25 +31713,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="172"/>
-      <c r="B61" s="172"/>
-      <c r="C61" s="197"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="187"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="172"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="197"/>
+      <c r="A62" s="168"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="187"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="172"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="190" t="s">
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="188" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31727,30 +31739,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="172"/>
-      <c r="B64" s="172"/>
-      <c r="C64" s="190"/>
-      <c r="D64" s="173" t="s">
+      <c r="A64" s="168"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="170" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="172"/>
-      <c r="B65" s="172"/>
-      <c r="C65" s="190"/>
-      <c r="D65" s="173"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="170"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="172"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="190"/>
-      <c r="D66" s="173"/>
+      <c r="A66" s="168"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="170"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="172"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="190"/>
-      <c r="D67" s="173"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="170"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31806,6 +31818,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31822,23 +31851,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31847,10 +31859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31887,7 +31899,7 @@
       <c r="A3" s="200" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="198" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31898,8 +31910,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
-      <c r="B4" s="223"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="100" t="s">
         <v>436</v>
       </c>
@@ -31911,7 +31923,7 @@
       <c r="A5" s="200" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>439</v>
       </c>
       <c r="C5" s="100"/>
@@ -31920,31 +31932,31 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="221"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="100"/>
       <c r="D6" s="58" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="204"/>
+      <c r="A7" s="221"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="100"/>
       <c r="D7" s="140" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="201"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="221"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="100"/>
       <c r="D8" s="140" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="205"/>
       <c r="C9" s="100" t="s">
         <v>498</v>
@@ -31962,10 +31974,10 @@
       <c r="D10" s="104"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="213" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="204" t="s">
         <v>439</v>
       </c>
       <c r="C11" s="128" t="s">
@@ -31976,7 +31988,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="205"/>
       <c r="C12" s="128" t="s">
         <v>474</v>
@@ -32012,10 +32024,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="198" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="204" t="s">
         <v>439</v>
       </c>
       <c r="C15" s="95" t="s">
@@ -32026,8 +32038,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="106" t="s">
         <v>299</v>
       </c>
@@ -32036,8 +32048,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
-      <c r="B17" s="204"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="128" t="s">
         <v>280</v>
       </c>
@@ -32046,8 +32058,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
-      <c r="B18" s="204"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
@@ -32056,8 +32068,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="222"/>
-      <c r="B19" s="204"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="100" t="s">
         <v>434</v>
       </c>
@@ -32066,8 +32078,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="222"/>
-      <c r="B20" s="204"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="100" t="s">
         <v>444</v>
       </c>
@@ -32076,8 +32088,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
-      <c r="B21" s="204"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="100" t="s">
         <v>446</v>
       </c>
@@ -32086,8 +32098,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="100" t="s">
         <v>434</v>
       </c>
@@ -32096,7 +32108,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="223"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="205"/>
       <c r="C23" s="142" t="s">
         <v>453</v>
@@ -32109,7 +32121,7 @@
       <c r="A24" s="200" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="203" t="s">
+      <c r="B24" s="204" t="s">
         <v>439</v>
       </c>
       <c r="C24" s="100" t="s">
@@ -32120,8 +32132,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="201"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="221"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="100" t="s">
         <v>453</v>
       </c>
@@ -32130,8 +32142,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
-      <c r="B26" s="204"/>
+      <c r="A26" s="221"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="100">
         <v>3.3</v>
       </c>
@@ -32140,8 +32152,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
-      <c r="B27" s="204"/>
+      <c r="A27" s="221"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
@@ -32150,7 +32162,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="205"/>
       <c r="C28" s="130">
         <v>3.5</v>
@@ -32172,10 +32184,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="206" t="s">
         <v>501</v>
       </c>
-      <c r="B30" s="203" t="s">
+      <c r="B30" s="204" t="s">
         <v>439</v>
       </c>
       <c r="D30" s="67" t="s">
@@ -32183,8 +32195,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="220"/>
-      <c r="B31" s="204"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="147" t="s">
         <v>508</v>
       </c>
@@ -32193,8 +32205,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="220"/>
-      <c r="B32" s="204"/>
+      <c r="A32" s="206"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="58" t="s">
         <v>506</v>
       </c>
@@ -32203,8 +32215,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="220"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="206"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="61" t="s">
         <v>509</v>
       </c>
@@ -32212,11 +32224,11 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="146" t="s">
-        <v>502</v>
-      </c>
-      <c r="B34" s="107" t="s">
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="200" t="s">
+        <v>511</v>
+      </c>
+      <c r="B34" s="204" t="s">
         <v>439</v>
       </c>
       <c r="C34" s="100"/>
@@ -32224,1643 +32236,1641 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="201"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="D35" s="230" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="B36" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="100"/>
+      <c r="D36" s="67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="220" t="s">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="206" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="226" t="s">
+      <c r="B38" s="207" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="D36" s="99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="220"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="100" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" s="106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="220"/>
-      <c r="B38" s="226"/>
       <c r="C38" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="D38" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="206"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="206"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103" t="s">
+    <row r="41" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="218" t="s">
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="219" t="s">
+      <c r="B42" s="208" t="s">
         <v>439</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
-      <c r="B41" s="219"/>
-      <c r="C41" s="136" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="220"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D43" s="108" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="218"/>
-      <c r="B42" s="219"/>
-      <c r="C42" s="139" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="220"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="139" t="s">
         <v>484</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D44" s="108" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
-      <c r="B43" s="219"/>
-      <c r="C43" s="141" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="220"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="141" t="s">
         <v>484</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D45" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="218"/>
-      <c r="B44" s="219"/>
-      <c r="C44" s="139" t="s">
+    <row r="46" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="220"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D46" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="215" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="203" t="s">
+      <c r="B47" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C47" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D47" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="216"/>
-      <c r="B46" s="204"/>
-      <c r="C46" s="136" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="214"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="D46" s="135" t="s">
+      <c r="D48" s="135" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="217"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="137" t="s">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="215"/>
+      <c r="B49" s="205"/>
+      <c r="C49" s="137" t="s">
         <v>481</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D49" s="110" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C48" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C49" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="109" t="s">
-        <v>401</v>
+        <v>252</v>
       </c>
       <c r="B50" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="107" t="s">
+        <v>22</v>
+      </c>
       <c r="D50" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="107"/>
+      <c r="D52" s="110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="218" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="220" t="s">
         <v>269</v>
       </c>
-      <c r="B51" s="219" t="s">
+      <c r="B53" s="208" t="s">
         <v>439</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="80" t="s">
+      <c r="C53" s="106"/>
+      <c r="D53" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="218"/>
-      <c r="B52" s="219"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="220"/>
+      <c r="B54" s="208"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="218"/>
-      <c r="B53" s="219"/>
-      <c r="C53" s="111" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="220"/>
+      <c r="B55" s="208"/>
+      <c r="C55" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="106" t="s">
+      <c r="D55" s="106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="218"/>
-      <c r="B54" s="219"/>
-      <c r="C54" s="112" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="220"/>
+      <c r="B56" s="208"/>
+      <c r="C56" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D54" s="113" t="s">
+      <c r="D56" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="109" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B57" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C55" s="112" t="s">
+      <c r="C57" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="106"/>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="227" t="s">
+      <c r="D57" s="106"/>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="209" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="203" t="s">
+      <c r="B58" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="114" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="228"/>
-      <c r="B57" s="204"/>
-      <c r="C57" s="112" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="210"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="D57" s="106" t="s">
+      <c r="D59" s="106" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="228"/>
-      <c r="B58" s="204"/>
-      <c r="C58" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D58" s="106" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="228"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="D59" s="113" t="s">
-        <v>359</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="228"/>
-      <c r="B60" s="204"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="212"/>
       <c r="C60" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D60" s="113" t="s">
-        <v>354</v>
+      <c r="D60" s="106" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="228"/>
-      <c r="B61" s="204"/>
-      <c r="C61" s="112" t="s">
-        <v>365</v>
+      <c r="A61" s="210"/>
+      <c r="B61" s="212"/>
+      <c r="C61" s="115" t="s">
+        <v>361</v>
       </c>
       <c r="D61" s="113" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="228"/>
-      <c r="B62" s="204"/>
+      <c r="A62" s="210"/>
+      <c r="B62" s="212"/>
       <c r="C62" s="112" t="s">
         <v>353</v>
       </c>
       <c r="D62" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="210"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="210"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D64" s="113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="228"/>
-      <c r="B63" s="204"/>
-      <c r="C63" s="112" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="210"/>
+      <c r="B65" s="212"/>
+      <c r="C65" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="D63" s="113" t="s">
+      <c r="D65" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="228"/>
-      <c r="B64" s="204"/>
-      <c r="C64" s="133" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="210"/>
+      <c r="B66" s="212"/>
+      <c r="C66" s="133" t="s">
         <v>466</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D66" s="58" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="228"/>
-      <c r="B65" s="204"/>
-      <c r="C65" s="133" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="210"/>
+      <c r="B67" s="212"/>
+      <c r="C67" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D67" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="228"/>
-      <c r="B66" s="204"/>
-      <c r="C66" s="138" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="210"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="138" t="s">
         <v>466</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D68" s="61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="228"/>
-      <c r="B67" s="204"/>
-      <c r="C67" s="112" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="210"/>
+      <c r="B69" s="212"/>
+      <c r="C69" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="D67" s="108" t="s">
+      <c r="D69" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="229"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="112" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="211"/>
+      <c r="B70" s="205"/>
+      <c r="C70" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D68" s="108" t="s">
+      <c r="D70" s="108" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="B69" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C69" s="107" t="s">
-        <v>460</v>
-      </c>
-      <c r="D69" s="110" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="B70" s="107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C70" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="116" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
       <c r="B71" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C71" s="112" t="s">
+      <c r="C71" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="D71" s="110" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="113" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C73" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="113"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="206" t="s">
+      <c r="D73" s="113"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="222" t="s">
         <v>363</v>
       </c>
-      <c r="B72" s="203" t="s">
+      <c r="B74" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C72" s="112" t="s">
+      <c r="C74" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="113"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="207"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="112" t="s">
+      <c r="D74" s="113"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="226"/>
+      <c r="B75" s="205"/>
+      <c r="C75" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="D73" s="113" t="s">
+      <c r="D75" s="113" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="103" t="s">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="206" t="s">
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="222" t="s">
         <v>236</v>
       </c>
-      <c r="B75" s="203" t="s">
+      <c r="B77" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="208"/>
-      <c r="B76" s="204"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="208"/>
-      <c r="B77" s="204"/>
       <c r="C77" s="106"/>
       <c r="D77" s="106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="223"/>
+      <c r="B78" s="212"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="223"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="208"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="106" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="223"/>
+      <c r="B80" s="212"/>
+      <c r="C80" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="106" t="s">
+      <c r="D80" s="106" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="208"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="106" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="223"/>
+      <c r="B81" s="212"/>
+      <c r="C81" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="113" t="s">
+      <c r="D81" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="208"/>
-      <c r="B80" s="204"/>
-      <c r="C80" s="106" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="223"/>
+      <c r="B82" s="212"/>
+      <c r="C82" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D82" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="208"/>
-      <c r="B81" s="204"/>
-      <c r="C81" s="119" t="s">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="223"/>
+      <c r="B83" s="212"/>
+      <c r="C83" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="D81" s="113" t="s">
+      <c r="D83" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="208"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="58" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="223"/>
+      <c r="B84" s="212"/>
+      <c r="C84" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D84" s="58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="208"/>
-      <c r="B83" s="204"/>
-      <c r="C83" s="130" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="223"/>
+      <c r="B85" s="212"/>
+      <c r="C85" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D85" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="208"/>
-      <c r="B84" s="204"/>
-      <c r="C84" s="130" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="223"/>
+      <c r="B86" s="212"/>
+      <c r="C86" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D86" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="208"/>
-      <c r="B85" s="204"/>
-      <c r="C85" s="130" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="223"/>
+      <c r="B87" s="212"/>
+      <c r="C87" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D87" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="208"/>
-      <c r="B86" s="204"/>
-      <c r="C86" s="130" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="223"/>
+      <c r="B88" s="212"/>
+      <c r="C88" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D88" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="207"/>
-      <c r="B87" s="205"/>
-      <c r="C87" s="130" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="226"/>
+      <c r="B89" s="205"/>
+      <c r="C89" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D87" s="108" t="s">
+      <c r="D89" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="209" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="203" t="s">
+      <c r="B90" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C88" s="106" t="s">
+      <c r="C90" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D88" s="113" t="s">
+      <c r="D90" s="113" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="210"/>
-      <c r="B89" s="204"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="106" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="217"/>
+      <c r="B91" s="212"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="210"/>
-      <c r="B90" s="204"/>
-      <c r="C90" s="117" t="s">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="217"/>
+      <c r="B92" s="212"/>
+      <c r="C92" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D90" s="113" t="s">
+      <c r="D92" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="210"/>
-      <c r="B91" s="204"/>
-      <c r="C91" s="117" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="217"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D91" s="113" t="s">
+      <c r="D93" s="113" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="210"/>
-      <c r="B92" s="204"/>
-      <c r="C92" s="117" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="217"/>
+      <c r="B94" s="212"/>
+      <c r="C94" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="D92" s="113" t="s">
+      <c r="D94" s="113" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="210"/>
-      <c r="B93" s="204"/>
-      <c r="C93" s="117" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="217"/>
+      <c r="B95" s="212"/>
+      <c r="C95" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="D93" s="113" t="s">
+      <c r="D95" s="113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="210"/>
-      <c r="B94" s="204"/>
-      <c r="C94" s="117" t="s">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="217"/>
+      <c r="B96" s="212"/>
+      <c r="C96" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D94" s="118" t="s">
+      <c r="D96" s="118" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="210"/>
-      <c r="B95" s="204"/>
-      <c r="C95" s="109" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="217"/>
+      <c r="B97" s="212"/>
+      <c r="C97" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D95" s="113" t="s">
+      <c r="D97" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="210"/>
-      <c r="B96" s="204"/>
-      <c r="C96" s="109" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="217"/>
+      <c r="B98" s="212"/>
+      <c r="C98" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="D96" s="113" t="s">
+      <c r="D98" s="113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="210"/>
-      <c r="B97" s="204"/>
-      <c r="C97" s="130" t="s">
-        <v>466</v>
-      </c>
-      <c r="D97" s="58" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="210"/>
-      <c r="B98" s="204"/>
-      <c r="C98" s="130" t="s">
-        <v>353</v>
-      </c>
-      <c r="D98" s="58" t="s">
-        <v>475</v>
-      </c>
-    </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="210"/>
-      <c r="B99" s="204"/>
+      <c r="A99" s="217"/>
+      <c r="B99" s="212"/>
       <c r="C99" s="130" t="s">
         <v>466</v>
       </c>
       <c r="D99" s="58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="217"/>
+      <c r="B100" s="212"/>
+      <c r="C100" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="217"/>
+      <c r="B101" s="212"/>
+      <c r="C101" s="130" t="s">
+        <v>466</v>
+      </c>
+      <c r="D101" s="58" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="210"/>
-      <c r="B100" s="204"/>
-      <c r="C100" s="130" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="217"/>
+      <c r="B102" s="212"/>
+      <c r="C102" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="D100" s="58" t="s">
+      <c r="D102" s="58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="210"/>
-      <c r="B101" s="204"/>
-      <c r="C101" s="130" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="217"/>
+      <c r="B103" s="212"/>
+      <c r="C103" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="D101" s="108" t="s">
+      <c r="D103" s="108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="211"/>
-      <c r="B102" s="205"/>
-      <c r="C102" s="130" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="219"/>
+      <c r="B104" s="205"/>
+      <c r="C104" s="130" t="s">
         <v>498</v>
       </c>
-      <c r="D102" s="108" t="s">
+      <c r="D104" s="108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="215" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="213" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="203" t="s">
+      <c r="B105" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="212" t="s">
+      <c r="C105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="D103" s="96" t="s">
+      <c r="D105" s="96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="216"/>
-      <c r="B104" s="204"/>
-      <c r="C104" s="213"/>
-      <c r="D104" s="113" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="214"/>
+      <c r="B106" s="212"/>
+      <c r="C106" s="228"/>
+      <c r="D106" s="113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="216"/>
-      <c r="B105" s="204"/>
-      <c r="C105" s="214" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="214"/>
+      <c r="B107" s="212"/>
+      <c r="C107" s="229" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="106" t="s">
+      <c r="D107" s="106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="216"/>
-      <c r="B106" s="204"/>
-      <c r="C106" s="214"/>
-      <c r="D106" s="119" t="s">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="214"/>
+      <c r="B108" s="212"/>
+      <c r="C108" s="229"/>
+      <c r="D108" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="216"/>
-      <c r="B107" s="204"/>
-      <c r="C107" s="112" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="214"/>
+      <c r="B109" s="212"/>
+      <c r="C109" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="D107" s="106" t="s">
+      <c r="D109" s="106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="216"/>
-      <c r="B108" s="204"/>
-      <c r="C108" s="112">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="214"/>
+      <c r="B110" s="212"/>
+      <c r="C110" s="112">
         <v>2.1</v>
       </c>
-      <c r="D108" s="106" t="s">
+      <c r="D110" s="106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="216"/>
-      <c r="B109" s="204"/>
-      <c r="C109" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D109" s="106" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="216"/>
-      <c r="B110" s="204"/>
-      <c r="C110" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D110" s="118" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="216"/>
-      <c r="B111" s="204"/>
+      <c r="A111" s="214"/>
+      <c r="B111" s="212"/>
       <c r="C111" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D111" s="113" t="s">
+      <c r="D111" s="106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="214"/>
+      <c r="B112" s="212"/>
+      <c r="C112" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="214"/>
+      <c r="B113" s="212"/>
+      <c r="C113" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" s="113" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="216"/>
-      <c r="B112" s="204"/>
-      <c r="C112" s="120" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="214"/>
+      <c r="B114" s="212"/>
+      <c r="C114" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="121" t="s">
+      <c r="D114" s="121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="216"/>
-      <c r="B113" s="204"/>
-      <c r="C113" s="112">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="214"/>
+      <c r="B115" s="212"/>
+      <c r="C115" s="112">
         <v>2.1</v>
       </c>
-      <c r="D113" s="106" t="s">
+      <c r="D115" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="216"/>
-      <c r="B114" s="204"/>
-      <c r="C114" s="112" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="214"/>
+      <c r="B116" s="212"/>
+      <c r="C116" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D114" s="106" t="s">
+      <c r="D116" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="216"/>
-      <c r="B115" s="204"/>
-      <c r="C115" s="112" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="214"/>
+      <c r="B117" s="212"/>
+      <c r="C117" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="216"/>
-      <c r="B116" s="204"/>
-      <c r="C116" s="112">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="214"/>
+      <c r="B118" s="212"/>
+      <c r="C118" s="112">
         <v>2.1</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D118" s="106" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="209" t="s">
+    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="216" t="s">
         <v>290</v>
       </c>
-      <c r="B117" s="203" t="s">
+      <c r="B119" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C117" s="106" t="s">
+      <c r="C119" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="D117" s="106" t="s">
+      <c r="D119" s="106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="210"/>
-      <c r="B118" s="204"/>
-      <c r="C118" s="119" t="s">
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="217"/>
+      <c r="B120" s="212"/>
+      <c r="C120" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D118" s="106" t="s">
+      <c r="D120" s="106" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="211"/>
-      <c r="B119" s="205"/>
-      <c r="C119" s="106" t="s">
+    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="219"/>
+      <c r="B121" s="205"/>
+      <c r="C121" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="D119" s="106" t="s">
+      <c r="D121" s="106" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="206" t="s">
+    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="222" t="s">
         <v>364</v>
       </c>
-      <c r="B120" s="203" t="s">
+      <c r="B122" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C120" s="112" t="s">
+      <c r="C122" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="106"/>
-    </row>
-    <row r="121" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="208"/>
-      <c r="B121" s="204"/>
-      <c r="C121" s="112" t="s">
+      <c r="D122" s="106"/>
+    </row>
+    <row r="123" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="223"/>
+      <c r="B123" s="212"/>
+      <c r="C123" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="D121" s="106" t="s">
+      <c r="D123" s="106" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="208"/>
-      <c r="B122" s="204"/>
-      <c r="C122" s="112">
+    <row r="124" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="223"/>
+      <c r="B124" s="212"/>
+      <c r="C124" s="112">
         <v>2.1</v>
       </c>
-      <c r="D122" s="106" t="s">
+      <c r="D124" s="106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="208"/>
-      <c r="B123" s="204"/>
-      <c r="C123" s="112" t="s">
+    <row r="125" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="223"/>
+      <c r="B125" s="212"/>
+      <c r="C125" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D123" s="106" t="s">
+      <c r="D125" s="106" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="208"/>
-      <c r="B124" s="204"/>
-      <c r="C124" s="112" t="s">
+    <row r="126" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="223"/>
+      <c r="B126" s="212"/>
+      <c r="C126" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="106" t="s">
+      <c r="D126" s="106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="103" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B125" s="103"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="104"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="109" t="s">
+      <c r="B127" s="103"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="104"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B126" s="112" t="s">
+      <c r="B128" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C126" s="112" t="s">
+      <c r="C128" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="D126" s="113"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="215" t="s">
+      <c r="D128" s="113"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="213" t="s">
         <v>255</v>
       </c>
-      <c r="B127" s="203" t="s">
+      <c r="B129" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="80" t="s">
+      <c r="C129" s="106"/>
+      <c r="D129" s="80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="216"/>
-      <c r="B128" s="204"/>
-      <c r="C128" s="106"/>
-      <c r="D128" s="106" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="214"/>
+      <c r="B130" s="212"/>
+      <c r="C130" s="106"/>
+      <c r="D130" s="106" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="216"/>
-      <c r="B129" s="204"/>
-      <c r="C129" s="106"/>
-      <c r="D129" s="113" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="214"/>
+      <c r="B131" s="212"/>
+      <c r="C131" s="106"/>
+      <c r="D131" s="113" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="216"/>
-      <c r="B130" s="204"/>
-      <c r="C130" s="106" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="214"/>
+      <c r="B132" s="212"/>
+      <c r="C132" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="D130" s="113" t="s">
+      <c r="D132" s="113" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="216"/>
-      <c r="B131" s="204"/>
-      <c r="C131" s="106" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="214"/>
+      <c r="B133" s="212"/>
+      <c r="C133" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="D131" s="113" t="s">
+      <c r="D133" s="113" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="216"/>
-      <c r="B132" s="204"/>
-      <c r="C132" s="106" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="214"/>
+      <c r="B134" s="212"/>
+      <c r="C134" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D134" s="113" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="216"/>
-      <c r="B133" s="204"/>
-      <c r="C133" s="106" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="214"/>
+      <c r="B135" s="212"/>
+      <c r="C135" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="D133" s="113" t="s">
+      <c r="D135" s="113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="218" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="220" t="s">
         <v>328</v>
       </c>
-      <c r="B134" s="219" t="s">
+      <c r="B136" s="208" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="80" t="s">
+      <c r="C136" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="D134" s="113" t="s">
+      <c r="D136" s="113" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="218"/>
-      <c r="B135" s="219"/>
-      <c r="C135" s="106" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="220"/>
+      <c r="B137" s="208"/>
+      <c r="C137" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D135" s="106" t="s">
+      <c r="D137" s="106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="218"/>
-      <c r="B136" s="219"/>
-      <c r="C136" s="122" t="s">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="220"/>
+      <c r="B138" s="208"/>
+      <c r="C138" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="D136" s="198" t="s">
+      <c r="D138" s="224" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="218"/>
-      <c r="B137" s="219"/>
-      <c r="C137" s="122" t="s">
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="220"/>
+      <c r="B139" s="208"/>
+      <c r="C139" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D137" s="199"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="218"/>
-      <c r="B138" s="219"/>
-      <c r="C138" s="122" t="s">
+      <c r="D139" s="225"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="220"/>
+      <c r="B140" s="208"/>
+      <c r="C140" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="199"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="218"/>
-      <c r="B139" s="219"/>
-      <c r="C139" s="122" t="s">
+      <c r="D140" s="225"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="220"/>
+      <c r="B141" s="208"/>
+      <c r="C141" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D139" s="199"/>
-    </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="218"/>
-      <c r="B140" s="219"/>
-      <c r="C140" s="122" t="s">
+      <c r="D141" s="225"/>
+    </row>
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="220"/>
+      <c r="B142" s="208"/>
+      <c r="C142" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D140" s="131" t="s">
+      <c r="D142" s="131" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="109" t="s">
+    <row r="143" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="B141" s="112" t="s">
+      <c r="B143" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C141" s="107" t="s">
+      <c r="C143" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="110" t="s">
+      <c r="D143" s="110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="209" t="s">
+    <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B142" s="203" t="s">
+      <c r="B144" s="204" t="s">
         <v>439</v>
       </c>
-      <c r="C142" s="106" t="s">
+      <c r="C144" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="D142" s="106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="143" 